--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模型一" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="325">
   <si>
     <t>PE</t>
   </si>
@@ -1259,74 +1259,6 @@
   </si>
   <si>
     <t xml:space="preserve">2023/3/29
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/3
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/4
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/7
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/11
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/13
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/14
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/17
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/18
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/19
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/20
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/21
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/24
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/25
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/26
 </t>
   </si>
   <si>
@@ -1953,121 +1885,121 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45016</c:v>
+                  <c:v>3.7161979980468751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2079,118 +2011,118 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000</c:v>
+                  <c:v>3783.4996370436897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6000</c:v>
+                  <c:v>6143.6117008713063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8173.7580810682693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10000</c:v>
+                  <c:v>11353.811149064422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12000</c:v>
+                  <c:v>14968.552321848347</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14000</c:v>
+                  <c:v>16822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16000</c:v>
+                  <c:v>18240.153038857396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18000</c:v>
+                  <c:v>21221.531045139225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20000</c:v>
+                  <c:v>23603.74034292587</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22000</c:v>
+                  <c:v>28072.985437531297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24000</c:v>
+                  <c:v>31610.696441599135</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26000</c:v>
+                  <c:v>31960.877336479982</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28000</c:v>
+                  <c:v>32030.541196234128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30000</c:v>
+                  <c:v>36542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32000</c:v>
+                  <c:v>40028.514786085325</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34000</c:v>
+                  <c:v>43079.887556825692</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36000</c:v>
+                  <c:v>43952.380972166822</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38000</c:v>
+                  <c:v>44041.688138414858</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40000</c:v>
+                  <c:v>45572.995207693384</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42000</c:v>
+                  <c:v>49094.404023982002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44000</c:v>
+                  <c:v>51969.911593071687</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46000</c:v>
+                  <c:v>53008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48000</c:v>
+                  <c:v>49351.052479165373</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50000</c:v>
+                  <c:v>51254.60334650999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52000</c:v>
+                  <c:v>47701.945217252243</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54000</c:v>
+                  <c:v>45202.535414395512</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56000</c:v>
+                  <c:v>48944.813088421164</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58000</c:v>
+                  <c:v>57317.86097478633</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60000</c:v>
+                  <c:v>56010.270798873862</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62000</c:v>
+                  <c:v>55547.679913640975</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>64000</c:v>
+                  <c:v>52229.088937270295</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66000</c:v>
+                  <c:v>53475.074735568647</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>68000</c:v>
+                  <c:v>58406.85441256113</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70000</c:v>
+                  <c:v>60293.406710853284</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72000</c:v>
+                  <c:v>68151.7828856181</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>74000</c:v>
+                  <c:v>67767.93214664339</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>76000</c:v>
+                  <c:v>70476.779226985323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2232,121 +2164,121 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45016</c:v>
+                  <c:v>3.7161979980468751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2358,118 +2290,118 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>2000.0000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3783.4996370436897</c:v>
+                  <c:v>-216.50036295631025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6143.6117008713063</c:v>
+                  <c:v>143.61170087130631</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8173.7580810682693</c:v>
+                  <c:v>173.75808106826935</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11353.811149064422</c:v>
+                  <c:v>1353.8111490644224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14968.552321848347</c:v>
+                  <c:v>2968.5523218483468</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16822.477397497114</c:v>
+                  <c:v>2822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18240.153038857396</c:v>
+                  <c:v>2240.1530388573956</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21221.531045139225</c:v>
+                  <c:v>3221.5310451392252</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23603.74034292587</c:v>
+                  <c:v>3603.7403429258702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28072.985437531297</c:v>
+                  <c:v>6072.9854375312971</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31610.696441599135</c:v>
+                  <c:v>7610.6964415991351</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31960.877336479982</c:v>
+                  <c:v>5960.8773364799818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32030.541196234128</c:v>
+                  <c:v>4030.5411962341277</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36542.468793623324</c:v>
+                  <c:v>6542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40028.514786085325</c:v>
+                  <c:v>8028.5147860853249</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43079.887556825692</c:v>
+                  <c:v>9079.8875568256917</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43952.380972166822</c:v>
+                  <c:v>7952.3809721668222</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44041.688138414858</c:v>
+                  <c:v>6041.6881384148583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45572.995207693384</c:v>
+                  <c:v>5572.9952076933841</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49094.404023982002</c:v>
+                  <c:v>7094.4040239820024</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51969.911593071687</c:v>
+                  <c:v>7969.9115930716871</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53008.069006718506</c:v>
+                  <c:v>7008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49351.052479165373</c:v>
+                  <c:v>1351.0524791653734</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51254.60334650999</c:v>
+                  <c:v>1254.6033465099899</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>47701.945217252243</c:v>
+                  <c:v>-4298.0547827477567</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45202.535414395512</c:v>
+                  <c:v>-8797.4645856044881</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48944.813088421164</c:v>
+                  <c:v>-7055.1869115788359</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57317.86097478633</c:v>
+                  <c:v>-682.13902521366981</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56010.270798873862</c:v>
+                  <c:v>-3989.7292011261379</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55547.679913640975</c:v>
+                  <c:v>-6452.3200863590246</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52229.088937270295</c:v>
+                  <c:v>-11770.911062729705</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>53475.074735568647</c:v>
+                  <c:v>-12524.925264431353</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58406.85441256113</c:v>
+                  <c:v>-9593.1455874388703</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>60293.406710853284</c:v>
+                  <c:v>-9706.5932891467164</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>68151.7828856181</c:v>
+                  <c:v>-3848.2171143818996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67767.93214664339</c:v>
+                  <c:v>-6232.0678533566097</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70476.779226985323</c:v>
+                  <c:v>-5523.2207730146765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2511,121 +2443,121 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45016</c:v>
+                  <c:v>3.7161979980468751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2634,122 +2566,8 @@
             <c:numRef>
               <c:f>模型一!金额</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-216.50036295631025</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>143.61170087130631</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>173.75808106826935</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1353.8111490644224</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2968.5523218483468</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2822.477397497114</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2240.1530388573956</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3221.5310451392252</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3603.7403429258702</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6072.9854375312971</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7610.6964415991351</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5960.8773364799818</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4030.5411962341277</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6542.468793623324</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8028.5147860853249</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9079.8875568256917</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7952.3809721668222</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6041.6881384148583</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5572.9952076933841</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7094.4040239820024</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7969.9115930716871</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7008.069006718506</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1351.0524791653734</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1254.6033465099899</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-4298.0547827477567</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-8797.4645856044881</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-7055.1869115788359</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-682.13902521366981</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-3989.7292011261379</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-6452.3200863590246</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-11770.911062729705</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-12524.925264431353</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-9593.1455874388703</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-9706.5932891467164</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-3848.2171143818996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-6232.0678533566097</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-5523.2207730146765</c:v>
-                </c:pt>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2770,17 +2588,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="254812544"/>
-        <c:axId val="254853504"/>
+        <c:axId val="34044160"/>
+        <c:axId val="35273728"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="254812544"/>
+      <c:catAx>
+        <c:axId val="34044160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2817,14 +2635,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254853504"/>
+        <c:crossAx val="35273728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="254853504"/>
+        <c:axId val="35273728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2875,7 +2694,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254812544"/>
+        <c:crossAx val="34044160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3283,7 +3102,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -3311,31 +3130,31 @@
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="K1" s="11"/>
     </row>
@@ -3346,7 +3165,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3385,25 +3204,25 @@
       </c>
       <c r="J3" s="6"/>
       <c r="L3" s="26" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="T3" s="23">
         <v>44196</v>
@@ -4655,9 +4474,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D505"/>
+  <dimension ref="A1:D486"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -10335,7 +10154,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A505" si="3">A355+1</f>
+        <f t="shared" ref="A356:A486" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -12427,310 +12246,6 @@
       <c r="D486" s="18">
         <f>SUM(C$3:C486)/A486</f>
         <v>30.393087180738309</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A487" s="18">
-        <f t="shared" si="3"/>
-        <v>485</v>
-      </c>
-      <c r="B487" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="C487" s="20">
-        <v>24.370000839999999</v>
-      </c>
-      <c r="D487" s="18">
-        <f>SUM(C$3:C487)/A487</f>
-        <v>30.380668446015136</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A488" s="18">
-        <f t="shared" si="3"/>
-        <v>486</v>
-      </c>
-      <c r="B488" s="19" t="s">
-        <v>311</v>
-      </c>
-      <c r="C488" s="20">
-        <v>24.25</v>
-      </c>
-      <c r="D488" s="18">
-        <f>SUM(C$3:C488)/A488</f>
-        <v>30.368053901887535</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A489" s="18">
-        <f t="shared" si="3"/>
-        <v>487</v>
-      </c>
-      <c r="B489" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="C489" s="20">
-        <v>24.329999919999999</v>
-      </c>
-      <c r="D489" s="18">
-        <f>SUM(C$3:C489)/A489</f>
-        <v>30.355655433752244</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A490" s="18">
-        <f t="shared" si="3"/>
-        <v>488</v>
-      </c>
-      <c r="B490" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="C490" s="20">
-        <v>24.620000839999999</v>
-      </c>
-      <c r="D490" s="18">
-        <f>SUM(C$3:C490)/A490</f>
-        <v>30.343902043191274</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A491" s="18">
-        <f t="shared" si="3"/>
-        <v>489</v>
-      </c>
-      <c r="B491" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="C491" s="20">
-        <v>24.510000229999999</v>
-      </c>
-      <c r="D491" s="18">
-        <f>SUM(C$3:C491)/A491</f>
-        <v>30.331971773634645</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A492" s="18">
-        <f t="shared" si="3"/>
-        <v>490</v>
-      </c>
-      <c r="B492" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="C492" s="20">
-        <v>24.5</v>
-      </c>
-      <c r="D492" s="18">
-        <f>SUM(C$3:C492)/A492</f>
-        <v>30.320069790423148</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A493" s="18">
-        <f t="shared" si="3"/>
-        <v>491</v>
-      </c>
-      <c r="B493" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="C493" s="20">
-        <v>24.489999770000001</v>
-      </c>
-      <c r="D493" s="18">
-        <f>SUM(C$3:C493)/A493</f>
-        <v>30.308195920727783</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A494" s="18">
-        <f t="shared" si="3"/>
-        <v>492</v>
-      </c>
-      <c r="B494" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="C494" s="20">
-        <v>24.100000380000001</v>
-      </c>
-      <c r="D494" s="18">
-        <f>SUM(C$3:C494)/A494</f>
-        <v>30.295577637108419</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A495" s="18">
-        <f t="shared" si="3"/>
-        <v>493</v>
-      </c>
-      <c r="B495" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="C495" s="20">
-        <v>24.309999470000001</v>
-      </c>
-      <c r="D495" s="18">
-        <f>SUM(C$3:C495)/A495</f>
-        <v>30.283436504923614</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A496" s="18">
-        <f t="shared" si="3"/>
-        <v>494</v>
-      </c>
-      <c r="B496" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="C496" s="20">
-        <v>24.450000760000002</v>
-      </c>
-      <c r="D496" s="18">
-        <f>SUM(C$3:C496)/A496</f>
-        <v>30.271627930541179</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A497" s="18">
-        <f t="shared" si="3"/>
-        <v>495</v>
-      </c>
-      <c r="B497" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="C497" s="20">
-        <v>24.520000459999999</v>
-      </c>
-      <c r="D497" s="18">
-        <f>SUM(C$3:C497)/A497</f>
-        <v>30.260008481105739</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A498" s="18">
-        <f t="shared" si="3"/>
-        <v>496</v>
-      </c>
-      <c r="B498" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="C498" s="20">
-        <v>24.31999969</v>
-      </c>
-      <c r="D498" s="18">
-        <f>SUM(C$3:C498)/A498</f>
-        <v>30.248032656930125</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A499" s="18">
-        <f t="shared" si="3"/>
-        <v>497</v>
-      </c>
-      <c r="B499" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="C499" s="20">
-        <v>24.13999939</v>
-      </c>
-      <c r="D499" s="18">
-        <f>SUM(C$3:C499)/A499</f>
-        <v>30.235742851564066</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A500" s="18">
-        <f t="shared" si="3"/>
-        <v>498</v>
-      </c>
-      <c r="B500" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="C500" s="20">
-        <v>23.690000529999999</v>
-      </c>
-      <c r="D500" s="18">
-        <f>SUM(C$3:C500)/A500</f>
-        <v>30.222598790677392</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A501" s="18">
-        <f t="shared" si="3"/>
-        <v>499</v>
-      </c>
-      <c r="B501" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="C501" s="20">
-        <v>23.459999079999999</v>
-      </c>
-      <c r="D501" s="18">
-        <f>SUM(C$3:C501)/A501</f>
-        <v>30.209046486647978</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A502" s="18">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="B502" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="C502" s="20">
-        <v>23.049999239999998</v>
-      </c>
-      <c r="D502" s="18">
-        <f>SUM(C$3:C502)/A502</f>
-        <v>30.19472839215468</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A503" s="18">
-        <f t="shared" si="3"/>
-        <v>501</v>
-      </c>
-      <c r="B503" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="C503" s="20">
-        <v>23.239999770000001</v>
-      </c>
-      <c r="D503" s="18">
-        <f>SUM(C$3:C503)/A503</f>
-        <v>30.180846698298083</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A504" s="18">
-        <f t="shared" si="3"/>
-        <v>502</v>
-      </c>
-      <c r="B504" s="19">
-        <v>45043</v>
-      </c>
-      <c r="C504" s="20">
-        <v>23.469999309999999</v>
-      </c>
-      <c r="D504" s="18">
-        <f>SUM(C$3:C504)/A504</f>
-        <v>30.167478476409045</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A505" s="18">
-        <f t="shared" si="3"/>
-        <v>503</v>
-      </c>
-      <c r="B505" s="19">
-        <v>45044</v>
-      </c>
-      <c r="C505" s="20">
-        <v>23.579999919999999</v>
-      </c>
-      <c r="D505" s="18">
-        <f>SUM(C$3:C505)/A505</f>
-        <v>30.154382097569265</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="模型一" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="342">
   <si>
     <t>PE</t>
   </si>
@@ -1259,6 +1259,74 @@
   </si>
   <si>
     <t xml:space="preserve">2023/3/29
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/26
 </t>
   </si>
   <si>
@@ -1885,121 +1953,121 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7161979980468751</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2011,118 +2079,118 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>2000.0000000000002</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3783.4996370436897</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6143.6117008713063</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8173.7580810682693</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11353.811149064422</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14968.552321848347</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16822.477397497114</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18240.153038857396</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21221.531045139225</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23603.74034292587</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28072.985437531297</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31610.696441599135</c:v>
+                  <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31960.877336479982</c:v>
+                  <c:v>26000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32030.541196234128</c:v>
+                  <c:v>28000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36542.468793623324</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40028.514786085325</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43079.887556825692</c:v>
+                  <c:v>34000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43952.380972166822</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44041.688138414858</c:v>
+                  <c:v>38000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45572.995207693384</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49094.404023982002</c:v>
+                  <c:v>42000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51969.911593071687</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53008.069006718506</c:v>
+                  <c:v>46000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49351.052479165373</c:v>
+                  <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51254.60334650999</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>47701.945217252243</c:v>
+                  <c:v>52000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45202.535414395512</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48944.813088421164</c:v>
+                  <c:v>56000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57317.86097478633</c:v>
+                  <c:v>58000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56010.270798873862</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55547.679913640975</c:v>
+                  <c:v>62000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52229.088937270295</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>53475.074735568647</c:v>
+                  <c:v>66000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58406.85441256113</c:v>
+                  <c:v>68000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>60293.406710853284</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>68151.7828856181</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67767.93214664339</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70476.779226985323</c:v>
+                  <c:v>76000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2164,121 +2232,121 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7161979980468751</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2290,118 +2358,118 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2000.0000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-216.50036295631025</c:v>
+                  <c:v>3783.4996370436897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143.61170087130631</c:v>
+                  <c:v>6143.6117008713063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>173.75808106826935</c:v>
+                  <c:v>8173.7580810682693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1353.8111490644224</c:v>
+                  <c:v>11353.811149064422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2968.5523218483468</c:v>
+                  <c:v>14968.552321848347</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2822.477397497114</c:v>
+                  <c:v>16822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2240.1530388573956</c:v>
+                  <c:v>18240.153038857396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3221.5310451392252</c:v>
+                  <c:v>21221.531045139225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3603.7403429258702</c:v>
+                  <c:v>23603.74034292587</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6072.9854375312971</c:v>
+                  <c:v>28072.985437531297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7610.6964415991351</c:v>
+                  <c:v>31610.696441599135</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5960.8773364799818</c:v>
+                  <c:v>31960.877336479982</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4030.5411962341277</c:v>
+                  <c:v>32030.541196234128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6542.468793623324</c:v>
+                  <c:v>36542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8028.5147860853249</c:v>
+                  <c:v>40028.514786085325</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9079.8875568256917</c:v>
+                  <c:v>43079.887556825692</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7952.3809721668222</c:v>
+                  <c:v>43952.380972166822</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6041.6881384148583</c:v>
+                  <c:v>44041.688138414858</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5572.9952076933841</c:v>
+                  <c:v>45572.995207693384</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7094.4040239820024</c:v>
+                  <c:v>49094.404023982002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7969.9115930716871</c:v>
+                  <c:v>51969.911593071687</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7008.069006718506</c:v>
+                  <c:v>53008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1351.0524791653734</c:v>
+                  <c:v>49351.052479165373</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1254.6033465099899</c:v>
+                  <c:v>51254.60334650999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-4298.0547827477567</c:v>
+                  <c:v>47701.945217252243</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-8797.4645856044881</c:v>
+                  <c:v>45202.535414395512</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-7055.1869115788359</c:v>
+                  <c:v>48944.813088421164</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-682.13902521366981</c:v>
+                  <c:v>57317.86097478633</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3989.7292011261379</c:v>
+                  <c:v>56010.270798873862</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-6452.3200863590246</c:v>
+                  <c:v>55547.679913640975</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-11770.911062729705</c:v>
+                  <c:v>52229.088937270295</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-12524.925264431353</c:v>
+                  <c:v>53475.074735568647</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-9593.1455874388703</c:v>
+                  <c:v>58406.85441256113</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-9706.5932891467164</c:v>
+                  <c:v>60293.406710853284</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-3848.2171143818996</c:v>
+                  <c:v>68151.7828856181</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-6232.0678533566097</c:v>
+                  <c:v>67767.93214664339</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-5523.2207730146765</c:v>
+                  <c:v>70476.779226985323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2443,121 +2511,121 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7161979980468751</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2566,8 +2634,122 @@
             <c:numRef>
               <c:f>模型一!金额</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-216.50036295631025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143.61170087130631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173.75808106826935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1353.8111490644224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2968.5523218483468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2822.477397497114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2240.1530388573956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3221.5310451392252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3603.7403429258702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6072.9854375312971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7610.6964415991351</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5960.8773364799818</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4030.5411962341277</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6542.468793623324</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8028.5147860853249</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9079.8875568256917</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7952.3809721668222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6041.6881384148583</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5572.9952076933841</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7094.4040239820024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7969.9115930716871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7008.069006718506</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1351.0524791653734</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1254.6033465099899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4298.0547827477567</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-8797.4645856044881</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7055.1869115788359</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-682.13902521366981</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3989.7292011261379</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6452.3200863590246</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-11770.911062729705</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-12524.925264431353</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-9593.1455874388703</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9706.5932891467164</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3848.2171143818996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6232.0678533566097</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-5523.2207730146765</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2588,17 +2770,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="34044160"/>
-        <c:axId val="35273728"/>
+        <c:axId val="254812544"/>
+        <c:axId val="254853504"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="34044160"/>
+      <c:dateAx>
+        <c:axId val="254812544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2635,15 +2817,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35273728"/>
+        <c:crossAx val="254853504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="35273728"/>
+        <c:axId val="254853504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2694,7 +2875,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34044160"/>
+        <c:crossAx val="254812544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3102,7 +3283,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -3130,31 +3311,31 @@
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="K1" s="11"/>
     </row>
@@ -3165,7 +3346,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3204,25 +3385,25 @@
       </c>
       <c r="J3" s="6"/>
       <c r="L3" s="26" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="T3" s="23">
         <v>44196</v>
@@ -4474,9 +4655,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D486"/>
+  <dimension ref="A1:D505"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -10154,7 +10335,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A486" si="3">A355+1</f>
+        <f t="shared" ref="A356:A505" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -12246,6 +12427,310 @@
       <c r="D486" s="18">
         <f>SUM(C$3:C486)/A486</f>
         <v>30.393087180738309</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="18">
+        <f t="shared" si="3"/>
+        <v>485</v>
+      </c>
+      <c r="B487" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C487" s="20">
+        <v>24.370000839999999</v>
+      </c>
+      <c r="D487" s="18">
+        <f>SUM(C$3:C487)/A487</f>
+        <v>30.380668446015136</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="18">
+        <f t="shared" si="3"/>
+        <v>486</v>
+      </c>
+      <c r="B488" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="C488" s="20">
+        <v>24.25</v>
+      </c>
+      <c r="D488" s="18">
+        <f>SUM(C$3:C488)/A488</f>
+        <v>30.368053901887535</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="18">
+        <f t="shared" si="3"/>
+        <v>487</v>
+      </c>
+      <c r="B489" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="C489" s="20">
+        <v>24.329999919999999</v>
+      </c>
+      <c r="D489" s="18">
+        <f>SUM(C$3:C489)/A489</f>
+        <v>30.355655433752244</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="18">
+        <f t="shared" si="3"/>
+        <v>488</v>
+      </c>
+      <c r="B490" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C490" s="20">
+        <v>24.620000839999999</v>
+      </c>
+      <c r="D490" s="18">
+        <f>SUM(C$3:C490)/A490</f>
+        <v>30.343902043191274</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="18">
+        <f t="shared" si="3"/>
+        <v>489</v>
+      </c>
+      <c r="B491" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="C491" s="20">
+        <v>24.510000229999999</v>
+      </c>
+      <c r="D491" s="18">
+        <f>SUM(C$3:C491)/A491</f>
+        <v>30.331971773634645</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="18">
+        <f t="shared" si="3"/>
+        <v>490</v>
+      </c>
+      <c r="B492" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="C492" s="20">
+        <v>24.5</v>
+      </c>
+      <c r="D492" s="18">
+        <f>SUM(C$3:C492)/A492</f>
+        <v>30.320069790423148</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="18">
+        <f t="shared" si="3"/>
+        <v>491</v>
+      </c>
+      <c r="B493" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="C493" s="20">
+        <v>24.489999770000001</v>
+      </c>
+      <c r="D493" s="18">
+        <f>SUM(C$3:C493)/A493</f>
+        <v>30.308195920727783</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="18">
+        <f t="shared" si="3"/>
+        <v>492</v>
+      </c>
+      <c r="B494" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C494" s="20">
+        <v>24.100000380000001</v>
+      </c>
+      <c r="D494" s="18">
+        <f>SUM(C$3:C494)/A494</f>
+        <v>30.295577637108419</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="18">
+        <f t="shared" si="3"/>
+        <v>493</v>
+      </c>
+      <c r="B495" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C495" s="20">
+        <v>24.309999470000001</v>
+      </c>
+      <c r="D495" s="18">
+        <f>SUM(C$3:C495)/A495</f>
+        <v>30.283436504923614</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="18">
+        <f t="shared" si="3"/>
+        <v>494</v>
+      </c>
+      <c r="B496" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="C496" s="20">
+        <v>24.450000760000002</v>
+      </c>
+      <c r="D496" s="18">
+        <f>SUM(C$3:C496)/A496</f>
+        <v>30.271627930541179</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A497" s="18">
+        <f t="shared" si="3"/>
+        <v>495</v>
+      </c>
+      <c r="B497" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="C497" s="20">
+        <v>24.520000459999999</v>
+      </c>
+      <c r="D497" s="18">
+        <f>SUM(C$3:C497)/A497</f>
+        <v>30.260008481105739</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A498" s="18">
+        <f t="shared" si="3"/>
+        <v>496</v>
+      </c>
+      <c r="B498" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="C498" s="20">
+        <v>24.31999969</v>
+      </c>
+      <c r="D498" s="18">
+        <f>SUM(C$3:C498)/A498</f>
+        <v>30.248032656930125</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A499" s="18">
+        <f t="shared" si="3"/>
+        <v>497</v>
+      </c>
+      <c r="B499" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="C499" s="20">
+        <v>24.13999939</v>
+      </c>
+      <c r="D499" s="18">
+        <f>SUM(C$3:C499)/A499</f>
+        <v>30.235742851564066</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A500" s="18">
+        <f t="shared" si="3"/>
+        <v>498</v>
+      </c>
+      <c r="B500" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C500" s="20">
+        <v>23.690000529999999</v>
+      </c>
+      <c r="D500" s="18">
+        <f>SUM(C$3:C500)/A500</f>
+        <v>30.222598790677392</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A501" s="18">
+        <f t="shared" si="3"/>
+        <v>499</v>
+      </c>
+      <c r="B501" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C501" s="20">
+        <v>23.459999079999999</v>
+      </c>
+      <c r="D501" s="18">
+        <f>SUM(C$3:C501)/A501</f>
+        <v>30.209046486647978</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A502" s="18">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="B502" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C502" s="20">
+        <v>23.049999239999998</v>
+      </c>
+      <c r="D502" s="18">
+        <f>SUM(C$3:C502)/A502</f>
+        <v>30.19472839215468</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A503" s="18">
+        <f t="shared" si="3"/>
+        <v>501</v>
+      </c>
+      <c r="B503" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C503" s="20">
+        <v>23.239999770000001</v>
+      </c>
+      <c r="D503" s="18">
+        <f>SUM(C$3:C503)/A503</f>
+        <v>30.180846698298083</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A504" s="18">
+        <f t="shared" si="3"/>
+        <v>502</v>
+      </c>
+      <c r="B504" s="19">
+        <v>45043</v>
+      </c>
+      <c r="C504" s="20">
+        <v>23.469999309999999</v>
+      </c>
+      <c r="D504" s="18">
+        <f>SUM(C$3:C504)/A504</f>
+        <v>30.167478476409045</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A505" s="18">
+        <f t="shared" si="3"/>
+        <v>503</v>
+      </c>
+      <c r="B505" s="19">
+        <v>45044</v>
+      </c>
+      <c r="C505" s="20">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D505" s="18">
+        <f>SUM(C$3:C505)/A505</f>
+        <v>30.154382097569265</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -1401,7 +1401,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1954,7 +1954,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2068,6 +2068,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2077,7 +2080,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2191,6 +2194,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2233,7 +2239,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2347,6 +2353,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2356,7 +2365,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -2470,6 +2479,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>70476.779226985323</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>70575.372849483087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2512,7 +2524,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2626,6 +2638,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2635,7 +2650,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2749,6 +2764,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-5523.2207730146765</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7424.6271505169134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2770,11 +2788,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="254812544"/>
-        <c:axId val="254853504"/>
+        <c:axId val="90163456"/>
+        <c:axId val="92186112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="254812544"/>
+        <c:axId val="90163456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2817,14 +2835,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254853504"/>
+        <c:crossAx val="92186112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="254853504"/>
+        <c:axId val="92186112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2875,7 +2893,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254812544"/>
+        <c:crossAx val="90163456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3281,14 +3299,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y40"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -3309,7 +3327,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>327</v>
       </c>
@@ -3339,7 +3357,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -3355,7 +3373,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="14.1" customHeight="1">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -3426,7 +3444,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="14.1" customHeight="1">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -3497,7 +3515,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="14.1" customHeight="1">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -3564,7 +3582,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="14.1" customHeight="1">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -3624,7 +3642,7 @@
         <v>60293.406710853284</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="14.1" customHeight="1">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -3657,7 +3675,7 @@
         <v>-7.3828223896210132E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="14.1" customHeight="1">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -3687,7 +3705,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="14.1" customHeight="1">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -3717,7 +3735,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="14.1" customHeight="1">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -3747,7 +3765,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="14.1" customHeight="1">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -3777,7 +3795,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="14.1" customHeight="1">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -3807,7 +3825,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="14.1" customHeight="1">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -3837,7 +3855,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="14.1" customHeight="1">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -3867,7 +3885,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="14.1" customHeight="1">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -3897,7 +3915,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="14.1" customHeight="1">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -3927,7 +3945,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -3957,7 +3975,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -3987,7 +4005,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -4017,7 +4035,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -4047,7 +4065,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -4078,7 +4096,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -4108,7 +4126,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -4138,7 +4156,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -4168,7 +4186,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -4198,7 +4216,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -4228,7 +4246,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -4258,7 +4276,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -4288,7 +4306,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -4318,7 +4336,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -4348,7 +4366,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -4378,7 +4396,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -4408,7 +4426,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -4439,7 +4457,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="12.75">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -4468,7 +4486,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="12.75">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -4497,7 +4515,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="12.75">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -4526,7 +4544,7 @@
         <v>-9593.1455874388703</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="12.75">
       <c r="A37" s="14">
         <v>44925</v>
       </c>
@@ -4555,7 +4573,7 @@
         <v>-9706.5932891467164</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="12.75">
       <c r="A38" s="14">
         <v>44957</v>
       </c>
@@ -4584,7 +4602,7 @@
         <v>-3848.2171143818996</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="12.75">
       <c r="A39" s="14">
         <v>44985</v>
       </c>
@@ -4613,7 +4631,7 @@
         <v>-6232.0678533566097</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="12.75">
       <c r="A40" s="14">
         <v>45016</v>
       </c>
@@ -4640,6 +4658,35 @@
       </c>
       <c r="I40" s="17">
         <v>-5523.2207730146765</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="12.75">
+      <c r="A41" s="14">
+        <v>45044</v>
+      </c>
+      <c r="B41" s="15">
+        <v>3.6159379882812499</v>
+      </c>
+      <c r="C41" s="16">
+        <v>2000</v>
+      </c>
+      <c r="D41" s="17">
+        <v>553.10683050475996</v>
+      </c>
+      <c r="E41" s="17">
+        <v>19517.860394234642</v>
+      </c>
+      <c r="F41" s="17">
+        <v>70575.372849483087</v>
+      </c>
+      <c r="G41" s="17">
+        <v>78000</v>
+      </c>
+      <c r="H41" s="17">
+        <v>70575.372849483087</v>
+      </c>
+      <c r="I41" s="17">
+        <v>-7424.6271505169134</v>
       </c>
     </row>
   </sheetData>
@@ -4661,7 +4708,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -4669,7 +4716,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="B1" s="30" t="s">
         <v>181</v>
       </c>
@@ -4677,7 +4724,7 @@
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
@@ -4686,7 +4733,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -4701,7 +4748,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -4717,7 +4764,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4733,7 +4780,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4749,7 +4796,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4765,7 +4812,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4781,7 +4828,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4797,7 +4844,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4813,7 +4860,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4829,7 +4876,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4845,7 +4892,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4861,7 +4908,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4877,7 +4924,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4893,7 +4940,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4909,7 +4956,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4925,7 +4972,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4941,7 +4988,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4957,7 +5004,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4973,7 +5020,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4989,7 +5036,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5005,7 +5052,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5021,7 +5068,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5037,7 +5084,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5053,7 +5100,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5069,7 +5116,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5085,7 +5132,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5101,7 +5148,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5117,7 +5164,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5133,7 +5180,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5149,7 +5196,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5165,7 +5212,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5181,7 +5228,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5197,7 +5244,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5213,7 +5260,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5229,7 +5276,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -5245,7 +5292,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -5261,7 +5308,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -5277,7 +5324,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -5293,7 +5340,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -5309,7 +5356,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -5325,7 +5372,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -5341,7 +5388,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -5357,7 +5404,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -5373,7 +5420,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -5389,7 +5436,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -5405,7 +5452,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -5421,7 +5468,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -5437,7 +5484,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -5453,7 +5500,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -5469,7 +5516,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -5485,7 +5532,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -5501,7 +5548,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -5517,7 +5564,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -5533,7 +5580,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -5549,7 +5596,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -5565,7 +5612,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -5581,7 +5628,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -5597,7 +5644,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -5613,7 +5660,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -5629,7 +5676,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -5645,7 +5692,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -5661,7 +5708,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -5677,7 +5724,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -5693,7 +5740,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -5709,7 +5756,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -5725,7 +5772,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -5741,7 +5788,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -5757,7 +5804,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -5773,7 +5820,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -5789,7 +5836,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -5805,7 +5852,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -5821,7 +5868,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -5837,7 +5884,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -5853,7 +5900,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -5869,7 +5916,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -5885,7 +5932,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -5901,7 +5948,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -5917,7 +5964,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -5933,7 +5980,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -5949,7 +5996,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -5965,7 +6012,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -5981,7 +6028,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -5997,7 +6044,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -6013,7 +6060,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -6029,7 +6076,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -6045,7 +6092,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -6061,7 +6108,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -6077,7 +6124,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -6093,7 +6140,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -6109,7 +6156,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -6125,7 +6172,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -6141,7 +6188,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -6157,7 +6204,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -6173,7 +6220,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -6189,7 +6236,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -6205,7 +6252,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -6221,7 +6268,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -6237,7 +6284,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -6253,7 +6300,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -6269,7 +6316,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -6285,7 +6332,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -6301,7 +6348,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -6317,7 +6364,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -6333,7 +6380,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -6349,7 +6396,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -6365,7 +6412,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -6381,7 +6428,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -6397,7 +6444,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -6413,7 +6460,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -6429,7 +6476,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -6445,7 +6492,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -6461,7 +6508,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -6477,7 +6524,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -6493,7 +6540,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -6509,7 +6556,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -6525,7 +6572,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -6541,7 +6588,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -6557,7 +6604,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -6573,7 +6620,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -6589,7 +6636,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -6605,7 +6652,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -6621,7 +6668,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -6637,7 +6684,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -6653,7 +6700,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -6669,7 +6716,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -6685,7 +6732,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -6701,7 +6748,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -6717,7 +6764,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -6733,7 +6780,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -6749,7 +6796,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -6765,7 +6812,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -6781,7 +6828,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -6797,7 +6844,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -6813,7 +6860,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -6829,7 +6876,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -6845,7 +6892,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -6861,7 +6908,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -6877,7 +6924,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -6893,7 +6940,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -6909,7 +6956,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -6925,7 +6972,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -6941,7 +6988,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -6957,7 +7004,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -6973,7 +7020,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -6989,7 +7036,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -7005,7 +7052,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -7021,7 +7068,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -7037,7 +7084,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -7053,7 +7100,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -7069,7 +7116,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -7085,7 +7132,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -7101,7 +7148,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -7117,7 +7164,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -7133,7 +7180,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -7149,7 +7196,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -7165,7 +7212,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -7181,7 +7228,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -7197,7 +7244,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -7213,7 +7260,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -7229,7 +7276,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -7245,7 +7292,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -7261,7 +7308,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -7277,7 +7324,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -7293,7 +7340,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -7309,7 +7356,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -7325,7 +7372,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -7341,7 +7388,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -7357,7 +7404,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -7373,7 +7420,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -7389,7 +7436,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -7405,7 +7452,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -7421,7 +7468,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -7437,7 +7484,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -7453,7 +7500,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -7469,7 +7516,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -7485,7 +7532,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -7501,7 +7548,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -7517,7 +7564,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -7533,7 +7580,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -7549,7 +7596,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -7565,7 +7612,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -7581,7 +7628,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -7597,7 +7644,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -7613,7 +7660,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -7629,7 +7676,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -7645,7 +7692,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -7661,7 +7708,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -7677,7 +7724,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -7693,7 +7740,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -7709,7 +7756,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -7725,7 +7772,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -7741,7 +7788,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -7757,7 +7804,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -7773,7 +7820,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -7789,7 +7836,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -7805,7 +7852,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -7821,7 +7868,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -7837,7 +7884,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -7853,7 +7900,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -7869,7 +7916,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -7885,7 +7932,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -7901,7 +7948,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -7917,7 +7964,7 @@
         <v>37.709801928118821</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -7933,7 +7980,7 @@
         <v>37.677783194876852</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -7949,7 +7996,7 @@
         <v>37.643186222549026</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -7965,7 +8012,7 @@
         <v>37.61082921770732</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -7981,7 +8028,7 @@
         <v>37.576601888834951</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -7997,7 +8044,7 @@
         <v>37.53951685371981</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -8013,7 +8060,7 @@
         <v>37.502548024519236</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -8029,7 +8076,7 @@
         <v>37.469330088851677</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -8045,7 +8092,7 @@
         <v>37.436714235285713</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -8061,7 +8108,7 @@
         <v>37.405118435402848</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -8077,7 +8124,7 @@
         <v>37.373584854622642</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -8093,7 +8140,7 @@
         <v>37.341971777323948</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -8109,7 +8156,7 @@
         <v>37.308551350934586</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -8125,7 +8172,7 @@
         <v>37.279162738930239</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -8141,7 +8188,7 @@
         <v>37.24703698620371</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -8157,7 +8204,7 @@
         <v>37.217787966082959</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -8173,7 +8220,7 @@
         <v>37.189128385091756</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -8189,7 +8236,7 @@
         <v>37.160593554703212</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -8205,7 +8252,7 @@
         <v>37.130136307090922</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -8221,7 +8268,7 @@
         <v>37.098280487375575</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -8237,7 +8284,7 @@
         <v>37.064549496936955</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -8253,7 +8300,7 @@
         <v>37.025425957264588</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -8269,7 +8316,7 @@
         <v>36.983839230133938</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -8285,7 +8332,7 @@
         <v>36.941866615422235</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -8301,7 +8348,7 @@
         <v>36.903230033407091</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -8317,7 +8364,7 @@
         <v>36.865991137929527</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -8333,7 +8380,7 @@
         <v>36.824824508114048</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -8349,7 +8396,7 @@
         <v>36.779912614716174</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -8365,7 +8412,7 @@
         <v>36.740347778608708</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -8381,7 +8428,7 @@
         <v>36.704372248441572</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -8397,7 +8444,7 @@
         <v>36.668318920431048</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -8413,7 +8460,7 @@
         <v>36.63334759656653</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -8429,7 +8476,7 @@
         <v>36.597521324786335</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -8445,7 +8492,7 @@
         <v>36.562765916212776</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -8461,7 +8508,7 @@
         <v>36.527669453389834</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -8477,7 +8524,7 @@
         <v>36.490042158691992</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -8493,7 +8540,7 @@
         <v>36.450924335798327</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -8509,7 +8556,7 @@
         <v>36.41142256129708</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -8525,7 +8572,7 @@
         <v>36.376291632041678</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -8541,7 +8588,7 @@
         <v>36.340041456763494</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -8557,7 +8604,7 @@
         <v>36.304917319132237</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -8573,7 +8620,7 @@
         <v>36.269300373868319</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -8589,7 +8636,7 @@
         <v>36.232131113155745</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -8605,7 +8652,7 @@
         <v>36.195142823224494</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -8621,7 +8668,7 @@
         <v>36.154146310162609</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -8637,7 +8684,7 @@
         <v>36.115546530931177</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -8653,7 +8700,7 @@
         <v>36.075483844556452</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -8669,7 +8716,7 @@
         <v>36.036385516465863</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -8685,7 +8732,7 @@
         <v>35.997079970720002</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -8701,7 +8748,7 @@
         <v>35.958844590836655</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -8717,7 +8764,7 @@
         <v>35.919801560079364</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -8733,7 +8780,7 @@
         <v>35.878497993873516</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -8749,7 +8796,7 @@
         <v>35.83523618834645</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -8765,7 +8812,7 @@
         <v>35.79231369109803</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -8781,7 +8828,7 @@
         <v>35.74410153121093</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -8797,7 +8844,7 @@
         <v>35.695175066420227</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -8813,7 +8860,7 @@
         <v>35.650930204496113</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -8829,7 +8876,7 @@
         <v>35.606409241698827</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -8845,7 +8892,7 @@
         <v>35.566115356769217</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -8861,7 +8908,7 @@
         <v>35.518850545210718</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -8877,7 +8924,7 @@
         <v>35.469999967977095</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -8893,7 +8940,7 @@
         <v>35.420532283992387</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -8909,7 +8956,7 @@
         <v>35.37265148249999</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -8925,7 +8972,7 @@
         <v>35.327660347698107</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -8941,7 +8988,7 @@
         <v>35.282706740526301</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -8957,7 +9004,7 @@
         <v>35.238764015805231</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -8973,7 +9020,7 @@
         <v>35.194179078880587</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -8989,7 +9036,7 @@
         <v>35.151561311078062</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -9005,7 +9052,7 @@
         <v>35.109185154666655</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -9021,7 +9068,7 @@
         <v>35.067416947158662</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -9037,7 +9084,7 @@
         <v>35.027352914264696</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -9053,7 +9100,7 @@
         <v>34.987142827545782</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -9069,7 +9116,7 @@
         <v>34.944160551094882</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -9085,7 +9132,7 @@
         <v>34.901854510799993</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -9101,7 +9148,7 @@
         <v>34.85992750141304</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -9117,7 +9164,7 @@
         <v>34.818447621768946</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -9133,7 +9180,7 @@
         <v>34.778237376330928</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -9149,7 +9196,7 @@
         <v>34.740071647956981</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -9165,7 +9212,7 @@
         <v>34.70282139017857</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -9181,7 +9228,7 @@
         <v>34.666548005266904</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -9197,7 +9244,7 @@
         <v>34.633439678723406</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -9213,7 +9260,7 @@
         <v>34.600353321060069</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -9229,7 +9276,7 @@
         <v>34.568168975140843</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -9245,7 +9292,7 @@
         <v>34.533719259438591</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -9261,7 +9308,7 @@
         <v>34.501713245104895</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -9277,7 +9324,7 @@
         <v>34.441254312613239</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -9293,7 +9340,7 @@
         <v>34.410590237256947</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -9309,7 +9356,7 @@
         <v>34.381418643148791</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -9325,7 +9372,7 @@
         <v>34.352517199551727</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -9341,7 +9388,7 @@
         <v>34.325532604364263</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -9357,7 +9404,7 @@
         <v>34.300479411301374</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -9373,7 +9420,7 @@
         <v>34.275528968839595</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -9389,7 +9436,7 @@
         <v>34.249421728741503</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -9405,7 +9452,7 @@
         <v>34.225660976338986</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -9421,7 +9468,7 @@
         <v>34.203749958750002</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -9437,7 +9484,7 @@
         <v>34.182424204141412</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -9453,7 +9500,7 @@
         <v>34.162248284261743</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -9469,7 +9516,7 @@
         <v>34.139999963010034</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -9485,7 +9532,7 @@
         <v>34.118899961366665</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -9501,7 +9548,7 @@
         <v>34.097375374750825</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -9517,7 +9564,7 @@
         <v>34.077450290463574</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -9533,7 +9580,7 @@
         <v>34.057161676666666</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -9549,7 +9596,7 @@
         <v>34.036282852335525</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -9565,7 +9612,7 @@
         <v>34.016754055836067</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -9581,7 +9628,7 @@
         <v>33.996633946535951</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -9597,7 +9644,7 @@
         <v>33.974755662312702</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -9613,7 +9660,7 @@
         <v>33.951363599967529</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -9629,7 +9676,7 @@
         <v>33.928932004045308</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -9645,7 +9692,7 @@
         <v>33.908064478483865</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -9661,7 +9708,7 @@
         <v>33.886044976848872</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -9677,7 +9724,7 @@
         <v>33.865032011923077</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -9693,7 +9740,7 @@
         <v>33.843258744281151</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -9709,7 +9756,7 @@
         <v>33.821847094904456</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -9725,7 +9772,7 @@
         <v>33.799841229174596</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -9741,7 +9788,7 @@
         <v>33.777689830474678</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -9757,7 +9804,7 @@
         <v>33.754952637602521</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -9773,7 +9820,7 @@
         <v>33.732798695597481</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -9789,7 +9836,7 @@
         <v>33.71050152363636</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -9805,7 +9852,7 @@
         <v>33.688624953499996</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -9821,7 +9868,7 @@
         <v>33.665700887975071</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -9837,7 +9884,7 @@
         <v>33.644596229440985</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -9853,7 +9900,7 @@
         <v>33.621981380433432</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -9869,7 +9916,7 @@
         <v>33.598333289753079</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -9885,7 +9932,7 @@
         <v>33.575199956553838</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -9901,7 +9948,7 @@
         <v>33.553374186993857</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -9917,7 +9964,7 @@
         <v>33.531651332477054</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -9933,7 +9980,7 @@
         <v>33.510396296310965</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -9949,7 +9996,7 @@
         <v>33.488176249088134</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -9965,7 +10012,7 @@
         <v>33.467939351363626</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -9981,7 +10028,7 @@
         <v>33.447250715377635</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -9997,7 +10044,7 @@
         <v>33.426957788765044</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -10013,7 +10060,7 @@
         <v>33.406816772312297</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -10029,7 +10076,7 @@
         <v>33.388113727634718</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -10045,7 +10092,7 @@
         <v>33.369134285731334</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -10061,7 +10108,7 @@
         <v>33.348869003541658</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -10077,7 +10124,7 @@
         <v>33.32994060682492</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -10093,7 +10140,7 @@
         <v>33.310798772514786</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -10109,7 +10156,7 @@
         <v>33.289085504041289</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -10125,7 +10172,7 @@
         <v>33.267352898499993</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -10141,7 +10188,7 @@
         <v>33.245395853900284</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -10157,7 +10204,7 @@
         <v>33.223099377251451</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -10173,7 +10220,7 @@
         <v>33.200524742157427</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -10189,7 +10236,7 @@
         <v>33.177209264156971</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -10205,7 +10252,7 @@
         <v>33.152579672985496</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -10221,7 +10268,7 @@
         <v>33.127959789537563</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -10237,7 +10284,7 @@
         <v>33.103008894783848</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -10253,7 +10300,7 @@
         <v>33.078402550028727</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -10269,7 +10316,7 @@
         <v>33.054624894269331</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -10285,7 +10332,7 @@
         <v>33.030011681799991</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -10301,7 +10348,7 @@
         <v>33.006479169886028</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -10317,7 +10364,7 @@
         <v>32.983534626789762</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -10333,7 +10380,7 @@
         <v>32.959558608016984</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4">
       <c r="A356" s="18">
         <f t="shared" ref="A356:A505" si="3">A355+1</f>
         <v>354</v>
@@ -10349,7 +10396,7 @@
         <v>32.934079628898296</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -10365,7 +10412,7 @@
         <v>32.907504756704213</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -10381,7 +10428,7 @@
         <v>32.881079181544933</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -10397,7 +10444,7 @@
         <v>32.854801648823518</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -10413,7 +10460,7 @@
         <v>32.828196057625689</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -10429,7 +10476,7 @@
         <v>32.800958742701937</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -10445,7 +10492,7 @@
         <v>32.773483857305543</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -10461,7 +10508,7 @@
         <v>32.746410494819933</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -10477,7 +10524,7 @@
         <v>32.72075742715468</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -10493,7 +10540,7 @@
         <v>32.693785643608805</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -10509,7 +10556,7 @@
         <v>32.667236783846143</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -10525,7 +10572,7 @@
         <v>32.639682710465742</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -10541,7 +10588,7 @@
         <v>32.610721831256818</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -10557,7 +10604,7 @@
         <v>32.582463732997262</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -10573,7 +10620,7 @@
         <v>32.556207038288029</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -10589,7 +10636,7 @@
         <v>32.529902955203234</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -10605,7 +10652,7 @@
         <v>32.505903216459444</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -10621,7 +10668,7 @@
         <v>32.482221534770872</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -10637,7 +10684,7 @@
         <v>32.459016639193536</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -10653,7 +10700,7 @@
         <v>32.435239115093815</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -10669,7 +10716,7 @@
         <v>32.411080720721912</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -10685,7 +10732,7 @@
         <v>32.386891172533318</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -10701,7 +10748,7 @@
         <v>32.361473908563816</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -10717,7 +10764,7 @@
         <v>32.335952757002637</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -10733,7 +10780,7 @@
         <v>32.311730660581993</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -10749,7 +10796,7 @@
         <v>32.28705590707122</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -10765,7 +10812,7 @@
         <v>32.260353126763142</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -10781,7 +10828,7 @@
         <v>32.234052986719142</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -10797,7 +10844,7 @@
         <v>32.207969079581133</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -10813,7 +10860,7 @@
         <v>32.182882999425566</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -10829,7 +10876,7 @@
         <v>32.15761507374998</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -10845,7 +10892,7 @@
         <v>32.134348543064917</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -10861,7 +10908,7 @@
         <v>32.111176657020707</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -10877,7 +10924,7 @@
         <v>32.08771108604649</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -10893,7 +10940,7 @@
         <v>32.063670594149464</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -10909,7 +10956,7 @@
         <v>32.038622596966562</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -10925,7 +10972,7 @@
         <v>32.015113310410236</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -10941,7 +10988,7 @@
         <v>31.991775423145757</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -10957,7 +11004,7 @@
         <v>31.969985181658139</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -10973,7 +11020,7 @@
         <v>31.947491578549599</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -10989,7 +11036,7 @@
         <v>31.924807590355311</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -11005,7 +11052,7 @@
         <v>31.902289091873399</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -11021,7 +11068,7 @@
         <v>31.879808563863616</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -11037,7 +11084,7 @@
         <v>31.856559674836252</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -11053,7 +11100,7 @@
         <v>31.83315123575375</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -11069,7 +11116,7 @@
         <v>31.809784942506248</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -11085,7 +11132,7 @@
         <v>31.786160481674983</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -11101,7 +11148,7 @@
         <v>31.762254846458838</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -11117,7 +11164,7 @@
         <v>31.739711925845754</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -11133,7 +11180,7 @@
         <v>31.717553830421821</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4">
       <c r="A406" s="18">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -11149,7 +11196,7 @@
         <v>31.696396519158398</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4">
       <c r="A407" s="18">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -11165,7 +11212,7 @@
         <v>31.674998010938253</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4">
       <c r="A408" s="18">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -11181,7 +11228,7 @@
         <v>31.654172890985205</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4">
       <c r="A409" s="18">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -11197,7 +11244,7 @@
         <v>31.634039785798507</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4">
       <c r="A410" s="18">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -11213,7 +11260,7 @@
         <v>31.614471059901945</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4">
       <c r="A411" s="18">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -11229,7 +11276,7 @@
         <v>31.594949123716365</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4">
       <c r="A412" s="18">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -11245,7 +11292,7 @@
         <v>31.576034614024373</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4">
       <c r="A413" s="18">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -11261,7 +11308,7 @@
         <v>31.556628204695848</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4">
       <c r="A414" s="18">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -11277,7 +11324,7 @@
         <v>31.536660660315519</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4">
       <c r="A415" s="18">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -11293,7 +11340,7 @@
         <v>31.516644533922502</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4">
       <c r="A416" s="18">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -11309,7 +11356,7 @@
         <v>31.497280658236697</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4">
       <c r="A417" s="18">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -11325,7 +11372,7 @@
         <v>31.477648657566249</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4">
       <c r="A418" s="18">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -11341,7 +11388,7 @@
         <v>31.4574620019471</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4">
       <c r="A419" s="18">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -11357,7 +11404,7 @@
         <v>31.436484872637873</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4">
       <c r="A420" s="18">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -11373,7 +11420,7 @@
         <v>31.415368881578932</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4">
       <c r="A421" s="18">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -11389,7 +11436,7 @@
         <v>31.3942104814797</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4">
       <c r="A422" s="18">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -11405,7 +11452,7 @@
         <v>31.372914744047605</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4">
       <c r="A423" s="18">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -11421,7 +11468,7 @@
         <v>31.352527775344406</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4">
       <c r="A424" s="18">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -11437,7 +11484,7 @@
         <v>31.332735055497619</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4">
       <c r="A425" s="18">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -11453,7 +11500,7 @@
         <v>31.312397619290767</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4">
       <c r="A426" s="18">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -11469,7 +11516,7 @@
         <v>31.29222687073112</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4">
       <c r="A427" s="18">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -11485,7 +11532,7 @@
         <v>31.272103983435283</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4">
       <c r="A428" s="18">
         <f t="shared" si="3"/>
         <v>426</v>
@@ -11501,7 +11548,7 @@
         <v>31.252545055150357</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4">
       <c r="A429" s="18">
         <f t="shared" si="3"/>
         <v>427</v>
@@ -11517,7 +11564,7 @@
         <v>31.232820125100137</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4">
       <c r="A430" s="18">
         <f t="shared" si="3"/>
         <v>428</v>
@@ -11533,7 +11580,7 @@
         <v>31.214542507628902</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4">
       <c r="A431" s="18">
         <f t="shared" si="3"/>
         <v>429</v>
@@ -11549,7 +11596,7 @@
         <v>31.196559891061003</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4">
       <c r="A432" s="18">
         <f t="shared" si="3"/>
         <v>430</v>
@@ -11565,7 +11612,7 @@
         <v>31.178846960904366</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4">
       <c r="A433" s="18">
         <f t="shared" si="3"/>
         <v>431</v>
@@ -11581,7 +11628,7 @@
         <v>31.161773069335734</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4">
       <c r="A434" s="18">
         <f t="shared" si="3"/>
         <v>432</v>
@@ -11597,7 +11644,7 @@
         <v>31.144384704866276</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4">
       <c r="A435" s="18">
         <f t="shared" si="3"/>
         <v>433</v>
@@ -11613,7 +11660,7 @@
         <v>31.127376889581701</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4">
       <c r="A436" s="18">
         <f t="shared" si="3"/>
         <v>434</v>
@@ -11629,7 +11676,7 @@
         <v>31.111184777811857</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4">
       <c r="A437" s="18">
         <f t="shared" si="3"/>
         <v>435</v>
@@ -11645,7 +11692,7 @@
         <v>31.095871711111002</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4">
       <c r="A438" s="18">
         <f t="shared" si="3"/>
         <v>436</v>
@@ -11661,7 +11708,7 @@
         <v>31.080789437594152</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4">
       <c r="A439" s="18">
         <f t="shared" si="3"/>
         <v>437</v>
@@ -11677,7 +11724,7 @@
         <v>31.065799074319667</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4">
       <c r="A440" s="18">
         <f t="shared" si="3"/>
         <v>438</v>
@@ -11693,7 +11740,7 @@
         <v>31.051356610157107</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4">
       <c r="A441" s="18">
         <f t="shared" si="3"/>
         <v>439</v>
@@ -11709,7 +11756,7 @@
         <v>31.037184954834895</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4">
       <c r="A442" s="18">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -11725,7 +11772,7 @@
         <v>31.023850443747303</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4">
       <c r="A443" s="18">
         <f t="shared" si="3"/>
         <v>441</v>
@@ -11741,7 +11788,7 @@
         <v>31.009964160696924</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4">
       <c r="A444" s="18">
         <f t="shared" si="3"/>
         <v>442</v>
@@ -11757,7 +11804,7 @@
         <v>30.996909942618423</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4">
       <c r="A445" s="18">
         <f t="shared" si="3"/>
         <v>443</v>
@@ -11773,7 +11820,7 @@
         <v>30.983666351687006</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4">
       <c r="A446" s="18">
         <f t="shared" si="3"/>
         <v>444</v>
@@ -11789,7 +11836,7 @@
         <v>30.970031968710234</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4">
       <c r="A447" s="18">
         <f t="shared" si="3"/>
         <v>445</v>
@@ -11805,7 +11852,7 @@
         <v>30.955717290982793</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4">
       <c r="A448" s="18">
         <f t="shared" si="3"/>
         <v>446</v>
@@ -11821,7 +11868,7 @@
         <v>30.94148922667566</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4">
       <c r="A449" s="18">
         <f t="shared" si="3"/>
         <v>447</v>
@@ -11837,7 +11884,7 @@
         <v>30.927078736235668</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4">
       <c r="A450" s="18">
         <f t="shared" si="3"/>
         <v>448</v>
@@ -11853,7 +11900,7 @@
         <v>30.913558473074428</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4">
       <c r="A451" s="18">
         <f t="shared" si="3"/>
         <v>449</v>
@@ -11869,7 +11916,7 @@
         <v>30.899586181129941</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4">
       <c r="A452" s="18">
         <f t="shared" si="3"/>
         <v>450</v>
@@ -11885,7 +11932,7 @@
         <v>30.886209321082987</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4">
       <c r="A453" s="18">
         <f t="shared" si="3"/>
         <v>451</v>
@@ -11901,7 +11948,7 @@
         <v>30.872736571967504</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4">
       <c r="A454" s="18">
         <f t="shared" si="3"/>
         <v>452</v>
@@ -11917,7 +11964,7 @@
         <v>30.859168570193237</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4">
       <c r="A455" s="18">
         <f t="shared" si="3"/>
         <v>453</v>
@@ -11933,7 +11980,7 @@
         <v>30.845108594916873</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4">
       <c r="A456" s="18">
         <f t="shared" si="3"/>
         <v>454</v>
@@ -11949,7 +11996,7 @@
         <v>30.829921132725424</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4">
       <c r="A457" s="18">
         <f t="shared" si="3"/>
         <v>455</v>
@@ -11965,7 +12012,7 @@
         <v>30.815811415620537</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4">
       <c r="A458" s="18">
         <f t="shared" si="3"/>
         <v>456</v>
@@ -11981,7 +12028,7 @@
         <v>30.801741652910842</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4">
       <c r="A459" s="18">
         <f t="shared" si="3"/>
         <v>457</v>
@@ -11997,7 +12044,7 @@
         <v>30.787295830388061</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4">
       <c r="A460" s="18">
         <f t="shared" si="3"/>
         <v>458</v>
@@ -12013,7 +12060,7 @@
         <v>30.772978589579356</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4">
       <c r="A461" s="18">
         <f t="shared" si="3"/>
         <v>459</v>
@@ -12029,7 +12076,7 @@
         <v>30.758266218926675</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4">
       <c r="A462" s="18">
         <f t="shared" si="3"/>
         <v>460</v>
@@ -12045,7 +12092,7 @@
         <v>30.743096076472487</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4">
       <c r="A463" s="18">
         <f t="shared" si="3"/>
         <v>461</v>
@@ -12061,7 +12108,7 @@
         <v>30.728425585070163</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4">
       <c r="A464" s="18">
         <f t="shared" si="3"/>
         <v>462</v>
@@ -12077,7 +12124,7 @@
         <v>30.714489600946631</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4">
       <c r="A465" s="18">
         <f t="shared" si="3"/>
         <v>463</v>
@@ -12093,7 +12140,7 @@
         <v>30.70024664465949</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4">
       <c r="A466" s="18">
         <f t="shared" si="3"/>
         <v>464</v>
@@ -12109,7 +12156,7 @@
         <v>30.686065080425308</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4">
       <c r="A467" s="18">
         <f t="shared" si="3"/>
         <v>465</v>
@@ -12125,7 +12172,7 @@
         <v>30.672095049134068</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4">
       <c r="A468" s="18">
         <f t="shared" si="3"/>
         <v>466</v>
@@ -12141,7 +12188,7 @@
         <v>30.657219308191721</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4">
       <c r="A469" s="18">
         <f t="shared" si="3"/>
         <v>467</v>
@@ -12157,7 +12204,7 @@
         <v>30.642235968880819</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4">
       <c r="A470" s="18">
         <f t="shared" si="3"/>
         <v>468</v>
@@ -12173,7 +12220,7 @@
         <v>30.62733802894731</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4">
       <c r="A471" s="18">
         <f t="shared" si="3"/>
         <v>469</v>
@@ -12189,7 +12236,7 @@
         <v>30.612055856348277</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4">
       <c r="A472" s="18">
         <f t="shared" si="3"/>
         <v>470</v>
@@ -12205,7 +12252,7 @@
         <v>30.596923822611366</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4">
       <c r="A473" s="18">
         <f t="shared" si="3"/>
         <v>471</v>
@@ -12221,7 +12268,7 @@
         <v>30.581431413731085</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4">
       <c r="A474" s="18">
         <f t="shared" si="3"/>
         <v>472</v>
@@ -12237,7 +12284,7 @@
         <v>30.565962280841823</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4">
       <c r="A475" s="18">
         <f t="shared" si="3"/>
         <v>473</v>
@@ -12253,7 +12300,7 @@
         <v>30.549797455892897</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4">
       <c r="A476" s="18">
         <f t="shared" si="3"/>
         <v>474</v>
@@ -12269,7 +12316,7 @@
         <v>30.533743031998608</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4">
       <c r="A477" s="18">
         <f t="shared" si="3"/>
         <v>475</v>
@@ -12285,7 +12332,7 @@
         <v>30.517798307889137</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4">
       <c r="A478" s="18">
         <f t="shared" si="3"/>
         <v>476</v>
@@ -12301,7 +12348,7 @@
         <v>30.502739908880965</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4">
       <c r="A479" s="18">
         <f t="shared" si="3"/>
         <v>477</v>
@@ -12317,7 +12364,7 @@
         <v>30.488226827143272</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4">
       <c r="A480" s="18">
         <f t="shared" si="3"/>
         <v>478</v>
@@ -12333,7 +12380,7 @@
         <v>30.474402083069752</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:4">
       <c r="A481" s="18">
         <f t="shared" si="3"/>
         <v>479</v>
@@ -12349,7 +12396,7 @@
         <v>30.460676816967307</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:4">
       <c r="A482" s="18">
         <f t="shared" si="3"/>
         <v>480</v>
@@ -12365,7 +12412,7 @@
         <v>30.447092074702791</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4">
       <c r="A483" s="18">
         <f t="shared" si="3"/>
         <v>481</v>
@@ -12381,7 +12428,7 @@
         <v>30.433023276855177</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:4">
       <c r="A484" s="18">
         <f t="shared" si="3"/>
         <v>482</v>
@@ -12397,7 +12444,7 @@
         <v>30.41932405827249</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4">
       <c r="A485" s="18">
         <f t="shared" si="3"/>
         <v>483</v>
@@ -12413,7 +12460,7 @@
         <v>30.405992123452055</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:4">
       <c r="A486" s="18">
         <f t="shared" si="3"/>
         <v>484</v>
@@ -12429,7 +12476,7 @@
         <v>30.393087180738309</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:4">
       <c r="A487" s="18">
         <f t="shared" si="3"/>
         <v>485</v>
@@ -12445,7 +12492,7 @@
         <v>30.380668446015136</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:4">
       <c r="A488" s="18">
         <f t="shared" si="3"/>
         <v>486</v>
@@ -12461,7 +12508,7 @@
         <v>30.368053901887535</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:4">
       <c r="A489" s="18">
         <f t="shared" si="3"/>
         <v>487</v>
@@ -12477,7 +12524,7 @@
         <v>30.355655433752244</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:4">
       <c r="A490" s="18">
         <f t="shared" si="3"/>
         <v>488</v>
@@ -12493,7 +12540,7 @@
         <v>30.343902043191274</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:4">
       <c r="A491" s="18">
         <f t="shared" si="3"/>
         <v>489</v>
@@ -12509,7 +12556,7 @@
         <v>30.331971773634645</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:4">
       <c r="A492" s="18">
         <f t="shared" si="3"/>
         <v>490</v>
@@ -12525,7 +12572,7 @@
         <v>30.320069790423148</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:4">
       <c r="A493" s="18">
         <f t="shared" si="3"/>
         <v>491</v>
@@ -12541,7 +12588,7 @@
         <v>30.308195920727783</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:4">
       <c r="A494" s="18">
         <f t="shared" si="3"/>
         <v>492</v>
@@ -12557,7 +12604,7 @@
         <v>30.295577637108419</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:4">
       <c r="A495" s="18">
         <f t="shared" si="3"/>
         <v>493</v>
@@ -12573,7 +12620,7 @@
         <v>30.283436504923614</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:4">
       <c r="A496" s="18">
         <f t="shared" si="3"/>
         <v>494</v>
@@ -12589,7 +12636,7 @@
         <v>30.271627930541179</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4">
       <c r="A497" s="18">
         <f t="shared" si="3"/>
         <v>495</v>
@@ -12605,7 +12652,7 @@
         <v>30.260008481105739</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:4">
       <c r="A498" s="18">
         <f t="shared" si="3"/>
         <v>496</v>
@@ -12621,7 +12668,7 @@
         <v>30.248032656930125</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:4">
       <c r="A499" s="18">
         <f t="shared" si="3"/>
         <v>497</v>
@@ -12637,7 +12684,7 @@
         <v>30.235742851564066</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:4">
       <c r="A500" s="18">
         <f t="shared" si="3"/>
         <v>498</v>
@@ -12653,7 +12700,7 @@
         <v>30.222598790677392</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4">
       <c r="A501" s="18">
         <f t="shared" si="3"/>
         <v>499</v>
@@ -12669,7 +12716,7 @@
         <v>30.209046486647978</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4">
       <c r="A502" s="18">
         <f t="shared" si="3"/>
         <v>500</v>
@@ -12685,7 +12732,7 @@
         <v>30.19472839215468</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4">
       <c r="A503" s="18">
         <f t="shared" si="3"/>
         <v>501</v>
@@ -12701,7 +12748,7 @@
         <v>30.180846698298083</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4">
       <c r="A504" s="18">
         <f t="shared" si="3"/>
         <v>502</v>
@@ -12717,7 +12764,7 @@
         <v>30.167478476409045</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4">
       <c r="A505" s="18">
         <f t="shared" si="3"/>
         <v>503</v>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="378">
   <si>
     <t>PE</t>
   </si>
@@ -1327,6 +1327,150 @@
   </si>
   <si>
     <t xml:space="preserve">2023/4/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/29
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/28
 </t>
   </si>
   <si>
@@ -1954,7 +2098,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2071,6 +2215,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2080,7 +2227,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2197,6 +2344,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>80000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2239,7 +2389,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2356,6 +2506,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2365,7 +2518,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -2482,6 +2635,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>70575.372849483087</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>69348.035546023719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2524,7 +2680,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2641,6 +2797,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2650,7 +2809,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2767,6 +2926,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-7424.6271505169134</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-10651.964453976281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2788,11 +2950,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90163456"/>
-        <c:axId val="92186112"/>
+        <c:axId val="109515136"/>
+        <c:axId val="109516672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90163456"/>
+        <c:axId val="109515136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2835,14 +2997,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92186112"/>
+        <c:crossAx val="109516672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92186112"/>
+        <c:axId val="109516672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2893,7 +3055,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90163456"/>
+        <c:crossAx val="109515136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3299,7 +3461,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y41"/>
+  <dimension ref="A1:Y42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3329,31 +3491,31 @@
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="K1" s="11"/>
     </row>
@@ -3364,7 +3526,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3403,25 +3565,25 @@
       </c>
       <c r="J3" s="6"/>
       <c r="L3" s="26" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="T3" s="23">
         <v>44196</v>
@@ -4687,6 +4849,35 @@
       </c>
       <c r="I41" s="17">
         <v>-7424.6271505169134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="12.75">
+      <c r="A42" s="14">
+        <v>45077</v>
+      </c>
+      <c r="B42" s="15">
+        <v>3.4505849609374999</v>
+      </c>
+      <c r="C42" s="16">
+        <v>2000</v>
+      </c>
+      <c r="D42" s="17">
+        <v>579.61186947752014</v>
+      </c>
+      <c r="E42" s="17">
+        <v>20097.472263712163</v>
+      </c>
+      <c r="F42" s="17">
+        <v>69348.035546023719</v>
+      </c>
+      <c r="G42" s="17">
+        <v>80000</v>
+      </c>
+      <c r="H42" s="17">
+        <v>69348.035546023719</v>
+      </c>
+      <c r="I42" s="17">
+        <v>-10651.964453976281</v>
       </c>
     </row>
   </sheetData>
@@ -4702,7 +4893,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D505"/>
+  <dimension ref="A1:D545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -10382,7 +10573,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A505" si="3">A355+1</f>
+        <f t="shared" ref="A356:A545" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -12778,6 +12969,646 @@
       <c r="D505" s="18">
         <f>SUM(C$3:C505)/A505</f>
         <v>30.154382097569265</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="18">
+        <f t="shared" si="3"/>
+        <v>504</v>
+      </c>
+      <c r="B506" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="C506" s="20">
+        <v>22.129999160000001</v>
+      </c>
+      <c r="D506" s="18">
+        <f>SUM(C$3:C506)/A506</f>
+        <v>30.138460702851869</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="18">
+        <f t="shared" si="3"/>
+        <v>505</v>
+      </c>
+      <c r="B507" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="C507" s="20">
+        <v>21.88999939</v>
+      </c>
+      <c r="D507" s="18">
+        <f>SUM(C$3:C507)/A507</f>
+        <v>30.122127116093743</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="18">
+        <f t="shared" si="3"/>
+        <v>506</v>
+      </c>
+      <c r="B508" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C508" s="20">
+        <v>21.920000080000001</v>
+      </c>
+      <c r="D508" s="18">
+        <f>SUM(C$3:C508)/A508</f>
+        <v>30.105917378868263</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="18">
+        <f t="shared" si="3"/>
+        <v>507</v>
+      </c>
+      <c r="B509" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C509" s="20">
+        <v>21.690000529999999</v>
+      </c>
+      <c r="D509" s="18">
+        <f>SUM(C$3:C509)/A509</f>
+        <v>30.089317937351755</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="18">
+        <f t="shared" si="3"/>
+        <v>508</v>
+      </c>
+      <c r="B510" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C510" s="20">
+        <v>21.81999969</v>
+      </c>
+      <c r="D510" s="18">
+        <f>SUM(C$3:C510)/A510</f>
+        <v>30.073039751825473</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="18">
+        <f t="shared" si="3"/>
+        <v>509</v>
+      </c>
+      <c r="B511" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C511" s="20">
+        <v>21.86000061</v>
+      </c>
+      <c r="D511" s="18">
+        <f>SUM(C$3:C511)/A511</f>
+        <v>30.056904115004599</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="18">
+        <f t="shared" si="3"/>
+        <v>510</v>
+      </c>
+      <c r="B512" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C512" s="20">
+        <v>21.63999939</v>
+      </c>
+      <c r="D512" s="18">
+        <f>SUM(C$3:C512)/A512</f>
+        <v>30.040400380249686</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="18">
+        <f t="shared" si="3"/>
+        <v>511</v>
+      </c>
+      <c r="B513" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C513" s="20">
+        <v>22.020000459999999</v>
+      </c>
+      <c r="D513" s="18">
+        <f>SUM(C$3:C513)/A513</f>
+        <v>30.024704881384224</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="18">
+        <f t="shared" si="3"/>
+        <v>512</v>
+      </c>
+      <c r="B514" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="C514" s="20">
+        <v>21.93000031</v>
+      </c>
+      <c r="D514" s="18">
+        <f>SUM(C$3:C514)/A514</f>
+        <v>30.00889491151824</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="18">
+        <f t="shared" si="3"/>
+        <v>513</v>
+      </c>
+      <c r="B515" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C515" s="20">
+        <v>21.950000760000002</v>
+      </c>
+      <c r="D515" s="18">
+        <f>SUM(C$3:C515)/A515</f>
+        <v>29.993185566193642</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="18">
+        <f t="shared" si="3"/>
+        <v>514</v>
+      </c>
+      <c r="B516" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C516" s="20">
+        <v>21.93000031</v>
+      </c>
+      <c r="D516" s="18">
+        <f>SUM(C$3:C516)/A516</f>
+        <v>29.977498435345016</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="18">
+        <f t="shared" si="3"/>
+        <v>515</v>
+      </c>
+      <c r="B517" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="C517" s="20">
+        <v>21.989999770000001</v>
+      </c>
+      <c r="D517" s="18">
+        <f>SUM(C$3:C517)/A517</f>
+        <v>29.961988729198715</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="18">
+        <f t="shared" si="3"/>
+        <v>516</v>
+      </c>
+      <c r="B518" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C518" s="20">
+        <v>22.020000459999999</v>
+      </c>
+      <c r="D518" s="18">
+        <f>SUM(C$3:C518)/A518</f>
+        <v>29.946597279064608</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="18">
+        <f t="shared" si="3"/>
+        <v>517</v>
+      </c>
+      <c r="B519" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="C519" s="20">
+        <v>21.83</v>
+      </c>
+      <c r="D519" s="18">
+        <f>SUM(C$3:C519)/A519</f>
+        <v>29.930897864598332</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="18">
+        <f t="shared" si="3"/>
+        <v>518</v>
+      </c>
+      <c r="B520" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C520" s="20">
+        <v>21.659999849999998</v>
+      </c>
+      <c r="D520" s="18">
+        <f>SUM(C$3:C520)/A520</f>
+        <v>29.914930880014165</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="18">
+        <f t="shared" si="3"/>
+        <v>519</v>
+      </c>
+      <c r="B521" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C521" s="20">
+        <v>21.649999619999999</v>
+      </c>
+      <c r="D521" s="18">
+        <f>SUM(C$3:C521)/A521</f>
+        <v>29.899006156969822</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="18">
+        <f t="shared" si="3"/>
+        <v>520</v>
+      </c>
+      <c r="B522" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="C522" s="20">
+        <v>21.590000150000002</v>
+      </c>
+      <c r="D522" s="18">
+        <f>SUM(C$3:C522)/A522</f>
+        <v>29.883027299264111</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" s="18">
+        <f t="shared" si="3"/>
+        <v>521</v>
+      </c>
+      <c r="B523" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="C523" s="20">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D523" s="18">
+        <f>SUM(C$3:C523)/A523</f>
+        <v>29.86661073999489</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="18">
+        <f t="shared" si="3"/>
+        <v>522</v>
+      </c>
+      <c r="B524" s="19">
+        <v>45076</v>
+      </c>
+      <c r="C524" s="20">
+        <v>21.520000459999999</v>
+      </c>
+      <c r="D524" s="18">
+        <f>SUM(C$3:C524)/A524</f>
+        <v>29.850621065128998</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="18">
+        <f t="shared" si="3"/>
+        <v>523</v>
+      </c>
+      <c r="B525" s="19">
+        <v>45077</v>
+      </c>
+      <c r="C525" s="20">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D525" s="18">
+        <f>SUM(C$3:C525)/A525</f>
+        <v>29.834329246495866</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" s="18">
+        <f t="shared" si="3"/>
+        <v>524</v>
+      </c>
+      <c r="B526" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="C526" s="20">
+        <v>21.420000080000001</v>
+      </c>
+      <c r="D526" s="18">
+        <f>SUM(C$3:C526)/A526</f>
+        <v>29.818271366407131</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" s="18">
+        <f t="shared" si="3"/>
+        <v>525</v>
+      </c>
+      <c r="B527" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="C527" s="20">
+        <v>21.729999540000001</v>
+      </c>
+      <c r="D527" s="18">
+        <f>SUM(C$3:C527)/A527</f>
+        <v>29.802865134356836</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" s="18">
+        <f t="shared" si="3"/>
+        <v>526</v>
+      </c>
+      <c r="B528" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="C528" s="20">
+        <v>21.629999160000001</v>
+      </c>
+      <c r="D528" s="18">
+        <f>SUM(C$3:C528)/A528</f>
+        <v>29.787327366344751</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" s="18">
+        <f t="shared" si="3"/>
+        <v>527</v>
+      </c>
+      <c r="B529" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="C529" s="20">
+        <v>21.299999239999998</v>
+      </c>
+      <c r="D529" s="18">
+        <f>SUM(C$3:C529)/A529</f>
+        <v>29.771222379387741</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" s="18">
+        <f t="shared" si="3"/>
+        <v>528</v>
+      </c>
+      <c r="B530" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C530" s="20">
+        <v>21.06999969</v>
+      </c>
+      <c r="D530" s="18">
+        <f>SUM(C$3:C530)/A530</f>
+        <v>29.754742790960869</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" s="18">
+        <f t="shared" si="3"/>
+        <v>529</v>
+      </c>
+      <c r="B531" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="C531" s="20">
+        <v>21.079999919999999</v>
+      </c>
+      <c r="D531" s="18">
+        <f>SUM(C$3:C531)/A531</f>
+        <v>29.738344411242608</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="18">
+        <f t="shared" si="3"/>
+        <v>530</v>
+      </c>
+      <c r="B532" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C532" s="20">
+        <v>21.229999540000001</v>
+      </c>
+      <c r="D532" s="18">
+        <f>SUM(C$3:C532)/A532</f>
+        <v>29.722290930353473</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" s="18">
+        <f t="shared" si="3"/>
+        <v>531</v>
+      </c>
+      <c r="B533" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C533" s="20">
+        <v>21.420000080000001</v>
+      </c>
+      <c r="D533" s="18">
+        <f>SUM(C$3:C533)/A533</f>
+        <v>29.706655731011939</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534" s="18">
+        <f t="shared" si="3"/>
+        <v>532</v>
+      </c>
+      <c r="B534" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="C534" s="20">
+        <v>21.649999619999999</v>
+      </c>
+      <c r="D534" s="18">
+        <f>SUM(C$3:C534)/A534</f>
+        <v>29.691511640577708</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535" s="18">
+        <f t="shared" si="3"/>
+        <v>533</v>
+      </c>
+      <c r="B535" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="C535" s="20">
+        <v>21.670000080000001</v>
+      </c>
+      <c r="D535" s="18">
+        <f>SUM(C$3:C535)/A535</f>
+        <v>29.676461900313956</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" s="18">
+        <f t="shared" si="3"/>
+        <v>534</v>
+      </c>
+      <c r="B536" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C536" s="20">
+        <v>22.270000459999999</v>
+      </c>
+      <c r="D536" s="18">
+        <f>SUM(C$3:C536)/A536</f>
+        <v>29.662592122335841</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537" s="18">
+        <f t="shared" si="3"/>
+        <v>535</v>
+      </c>
+      <c r="B537" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="C537" s="20">
+        <v>22.579999919999999</v>
+      </c>
+      <c r="D537" s="18">
+        <f>SUM(C$3:C537)/A537</f>
+        <v>29.649353632238018</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538" s="18">
+        <f t="shared" si="3"/>
+        <v>536</v>
+      </c>
+      <c r="B538" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C538" s="20">
+        <v>22.559999470000001</v>
+      </c>
+      <c r="D538" s="18">
+        <f>SUM(C$3:C538)/A538</f>
+        <v>29.636127225218917</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539" s="18">
+        <f t="shared" si="3"/>
+        <v>537</v>
+      </c>
+      <c r="B539" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C539" s="20">
+        <v>22.760000229999999</v>
+      </c>
+      <c r="D539" s="18">
+        <f>SUM(C$3:C539)/A539</f>
+        <v>29.623322519455009</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" s="18">
+        <f t="shared" si="3"/>
+        <v>538</v>
+      </c>
+      <c r="B540" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="C540" s="20">
+        <v>22.31999969</v>
+      </c>
+      <c r="D540" s="18">
+        <f>SUM(C$3:C540)/A540</f>
+        <v>29.609747569957882</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="A541" s="18">
+        <f t="shared" si="3"/>
+        <v>539</v>
+      </c>
+      <c r="B541" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C541" s="20">
+        <v>22.010000229999999</v>
+      </c>
+      <c r="D541" s="18">
+        <f>SUM(C$3:C541)/A541</f>
+        <v>29.595647853186161</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="A542" s="18">
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+      <c r="B542" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="C542" s="20">
+        <v>22.190000529999999</v>
+      </c>
+      <c r="D542" s="18">
+        <f>SUM(C$3:C542)/A542</f>
+        <v>29.581933691476557</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="A543" s="18">
+        <f t="shared" si="3"/>
+        <v>541</v>
+      </c>
+      <c r="B543" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="C543" s="20">
+        <v>22.049999239999998</v>
+      </c>
+      <c r="D543" s="18">
+        <f>SUM(C$3:C543)/A543</f>
+        <v>29.568011446649429</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="A544" s="18">
+        <f t="shared" si="3"/>
+        <v>542</v>
+      </c>
+      <c r="B544" s="19">
+        <v>45106</v>
+      </c>
+      <c r="C544" s="20">
+        <v>21.989999770000001</v>
+      </c>
+      <c r="D544" s="18">
+        <f>SUM(C$3:C544)/A544</f>
+        <v>29.554029875290293</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4">
+      <c r="A545" s="18">
+        <f t="shared" si="3"/>
+        <v>543</v>
+      </c>
+      <c r="B545" s="19">
+        <v>45107</v>
+      </c>
+      <c r="C545" s="20">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D545" s="18">
+        <f>SUM(C$3:C545)/A545</f>
+        <v>29.540486543586262</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -2098,7 +2098,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2218,6 +2218,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2227,7 +2230,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2347,6 +2350,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>82000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2389,7 +2395,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2509,6 +2515,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2518,7 +2527,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -2638,6 +2647,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>69348.035546023719</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>74528.622449867675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2680,7 +2692,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2800,6 +2812,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2809,7 +2824,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2929,6 +2944,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>-10651.964453976281</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7471.3775501323253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2950,11 +2968,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109515136"/>
-        <c:axId val="109516672"/>
+        <c:axId val="592004224"/>
+        <c:axId val="592006144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="109515136"/>
+        <c:axId val="592004224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2997,14 +3015,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109516672"/>
+        <c:crossAx val="592006144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="109516672"/>
+        <c:axId val="592006144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3055,7 +3073,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109515136"/>
+        <c:crossAx val="592004224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3461,7 +3479,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y42"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4880,6 +4898,35 @@
         <v>-10651.964453976281</v>
       </c>
     </row>
+    <row r="43" spans="1:12" ht="12.75">
+      <c r="A43" s="14">
+        <v>45107</v>
+      </c>
+      <c r="B43" s="15">
+        <v>3.608843017578125</v>
+      </c>
+      <c r="C43" s="16">
+        <v>2000</v>
+      </c>
+      <c r="D43" s="17">
+        <v>554.19423628523168</v>
+      </c>
+      <c r="E43" s="17">
+        <v>20651.666499997395</v>
+      </c>
+      <c r="F43" s="17">
+        <v>74528.622449867675</v>
+      </c>
+      <c r="G43" s="17">
+        <v>82000</v>
+      </c>
+      <c r="H43" s="17">
+        <v>74528.622449867675</v>
+      </c>
+      <c r="I43" s="17">
+        <v>-7471.3775501323253</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="398">
   <si>
     <t>PE</t>
   </si>
@@ -1474,6 +1474,82 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2023/7/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/27
+</t>
+  </si>
+  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1507,6 +1583,10 @@
   </si>
   <si>
     <t>利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2098,7 +2178,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2221,6 +2301,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2230,7 +2313,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2353,6 +2436,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>82000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>84000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2395,7 +2481,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2518,6 +2604,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2527,7 +2616,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -2650,6 +2739,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>74528.622449867675</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>76528.622449867675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2692,7 +2784,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2815,6 +2907,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2824,7 +2919,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2946,6 +3041,9 @@
                   <c:v>-10651.964453976281</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>-7471.3775501323253</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>-7471.3775501323253</c:v>
                 </c:pt>
               </c:numCache>
@@ -2968,11 +3066,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="592004224"/>
-        <c:axId val="592006144"/>
+        <c:axId val="398009856"/>
+        <c:axId val="398011392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="592004224"/>
+        <c:axId val="398009856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3015,14 +3113,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592006144"/>
+        <c:crossAx val="398011392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="592006144"/>
+        <c:axId val="398011392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3073,7 +3171,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592004224"/>
+        <c:crossAx val="398009856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3479,7 +3577,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3509,31 +3607,31 @@
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="K1" s="11"/>
     </row>
@@ -3544,7 +3642,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3583,25 +3681,25 @@
       </c>
       <c r="J3" s="6"/>
       <c r="L3" s="26" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="T3" s="23">
         <v>44196</v>
@@ -4924,6 +5022,35 @@
         <v>74528.622449867675</v>
       </c>
       <c r="I43" s="17">
+        <v>-7471.3775501323253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="12.75">
+      <c r="A44" s="14">
+        <v>45138</v>
+      </c>
+      <c r="B44" s="15">
+        <v>3.608843017578125</v>
+      </c>
+      <c r="C44" s="16">
+        <v>2000</v>
+      </c>
+      <c r="D44" s="17">
+        <v>554.19423628523168</v>
+      </c>
+      <c r="E44" s="17">
+        <v>21205.860736282626</v>
+      </c>
+      <c r="F44" s="17">
+        <v>76528.622449867675</v>
+      </c>
+      <c r="G44" s="17">
+        <v>84000</v>
+      </c>
+      <c r="H44" s="17">
+        <v>76528.622449867675</v>
+      </c>
+      <c r="I44" s="17">
         <v>-7471.3775501323253</v>
       </c>
     </row>
@@ -4940,7 +5067,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D545"/>
+  <dimension ref="A1:D566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -10620,7 +10747,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A545" si="3">A355+1</f>
+        <f t="shared" ref="A356:A566" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -13656,6 +13783,342 @@
       <c r="D545" s="18">
         <f>SUM(C$3:C545)/A545</f>
         <v>29.540486543586262</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="A546" s="18">
+        <f t="shared" si="3"/>
+        <v>544</v>
+      </c>
+      <c r="B546" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="C546" s="20">
+        <v>22.340000150000002</v>
+      </c>
+      <c r="D546" s="18">
+        <f>SUM(C$3:C546)/A546</f>
+        <v>29.527250355362757</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="A547" s="18">
+        <f t="shared" si="3"/>
+        <v>545</v>
+      </c>
+      <c r="B547" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="C547" s="20">
+        <v>22.469999309999999</v>
+      </c>
+      <c r="D547" s="18">
+        <f>SUM(C$3:C547)/A547</f>
+        <v>29.514301270875851</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" s="18">
+        <f t="shared" si="3"/>
+        <v>546</v>
+      </c>
+      <c r="B548" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="C548" s="20">
+        <v>22.25</v>
+      </c>
+      <c r="D548" s="18">
+        <f>SUM(C$3:C548)/A548</f>
+        <v>29.500996689793663</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549" s="18">
+        <f t="shared" si="3"/>
+        <v>547</v>
+      </c>
+      <c r="B549" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="C549" s="20">
+        <v>22.120000839999999</v>
+      </c>
+      <c r="D549" s="18">
+        <f>SUM(C$3:C549)/A549</f>
+        <v>29.487503095918353</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="A550" s="18">
+        <f t="shared" si="3"/>
+        <v>548</v>
+      </c>
+      <c r="B550" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C550" s="20">
+        <v>21.879999160000001</v>
+      </c>
+      <c r="D550" s="18">
+        <f>SUM(C$3:C550)/A550</f>
+        <v>29.473620789465947</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4">
+      <c r="A551" s="18">
+        <f t="shared" si="3"/>
+        <v>549</v>
+      </c>
+      <c r="B551" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C551" s="20">
+        <v>22.040000920000001</v>
+      </c>
+      <c r="D551" s="18">
+        <f>SUM(C$3:C551)/A551</f>
+        <v>29.460080498264738</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="A552" s="18">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="B552" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="C552" s="20">
+        <v>22.280000690000001</v>
+      </c>
+      <c r="D552" s="18">
+        <f>SUM(C$3:C552)/A552</f>
+        <v>29.447025807704254</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4">
+      <c r="A553" s="18">
+        <f t="shared" si="3"/>
+        <v>551</v>
+      </c>
+      <c r="B553" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="C553" s="20">
+        <v>22.040000920000001</v>
+      </c>
+      <c r="D553" s="18">
+        <f>SUM(C$3:C553)/A553</f>
+        <v>29.433582931320036</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="A554" s="18">
+        <f t="shared" si="3"/>
+        <v>552</v>
+      </c>
+      <c r="B554" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="C554" s="20">
+        <v>22.370000839999999</v>
+      </c>
+      <c r="D554" s="18">
+        <f>SUM(C$3:C554)/A554</f>
+        <v>29.420786586951703</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4">
+      <c r="A555" s="18">
+        <f t="shared" si="3"/>
+        <v>553</v>
+      </c>
+      <c r="B555" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="C555" s="20">
+        <v>22.31999969</v>
+      </c>
+      <c r="D555" s="18">
+        <f>SUM(C$3:C555)/A555</f>
+        <v>29.40794610431707</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556" s="18">
+        <f t="shared" si="3"/>
+        <v>554</v>
+      </c>
+      <c r="B556" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="C556" s="20">
+        <v>22.190000529999999</v>
+      </c>
+      <c r="D556" s="18">
+        <f>SUM(C$3:C556)/A556</f>
+        <v>29.394917321691949</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557" s="18">
+        <f t="shared" si="3"/>
+        <v>555</v>
+      </c>
+      <c r="B557" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="C557" s="20">
+        <v>22.090000150000002</v>
+      </c>
+      <c r="D557" s="18">
+        <f>SUM(C$3:C557)/A557</f>
+        <v>29.381755308769979</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4">
+      <c r="A558" s="18">
+        <f t="shared" si="3"/>
+        <v>556</v>
+      </c>
+      <c r="B558" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="C558" s="20">
+        <v>21.969999309999999</v>
+      </c>
+      <c r="D558" s="18">
+        <f>SUM(C$3:C558)/A558</f>
+        <v>29.368424812369312</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="A559" s="18">
+        <f t="shared" si="3"/>
+        <v>557</v>
+      </c>
+      <c r="B559" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="C559" s="20">
+        <v>21.719999309999999</v>
+      </c>
+      <c r="D559" s="18">
+        <f>SUM(C$3:C559)/A559</f>
+        <v>29.354693348271702</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560" s="18">
+        <f t="shared" si="3"/>
+        <v>558</v>
+      </c>
+      <c r="B560" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="C560" s="20">
+        <v>21.649999619999999</v>
+      </c>
+      <c r="D560" s="18">
+        <f>SUM(C$3:C560)/A560</f>
+        <v>29.340885653418169</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561" s="18">
+        <f t="shared" si="3"/>
+        <v>559</v>
+      </c>
+      <c r="B561" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="C561" s="20">
+        <v>21.510000229999999</v>
+      </c>
+      <c r="D561" s="18">
+        <f>SUM(C$3:C561)/A561</f>
+        <v>29.326876913841392</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562" s="18">
+        <f t="shared" si="3"/>
+        <v>560</v>
+      </c>
+      <c r="B562" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="C562" s="20">
+        <v>22.06999969</v>
+      </c>
+      <c r="D562" s="18">
+        <f>SUM(C$3:C562)/A562</f>
+        <v>29.313918204513104</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="A563" s="18">
+        <f t="shared" si="3"/>
+        <v>561</v>
+      </c>
+      <c r="B563" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C563" s="20">
+        <v>21.969999309999999</v>
+      </c>
+      <c r="D563" s="18">
+        <f>SUM(C$3:C563)/A563</f>
+        <v>29.300827439995256</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="A564" s="18">
+        <f t="shared" si="3"/>
+        <v>562</v>
+      </c>
+      <c r="B564" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="C564" s="20">
+        <v>21.920000080000001</v>
+      </c>
+      <c r="D564" s="18">
+        <f>SUM(C$3:C564)/A564</f>
+        <v>29.287694295226583</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="A565" s="18">
+        <f t="shared" si="3"/>
+        <v>563</v>
+      </c>
+      <c r="B565" s="19">
+        <v>45135</v>
+      </c>
+      <c r="C565" s="20">
+        <v>22.25</v>
+      </c>
+      <c r="D565" s="18">
+        <f>SUM(C$3:C565)/A565</f>
+        <v>29.275193950119608</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="A566" s="18">
+        <f t="shared" si="3"/>
+        <v>564</v>
+      </c>
+      <c r="B566" s="19">
+        <v>45138</v>
+      </c>
+      <c r="C566" s="20">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D566" s="18">
+        <f>SUM(C$3:C566)/A566</f>
+        <v>29.263021620154856</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -2741,7 +2741,7 @@
                   <c:v>74528.622449867675</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>76528.622449867675</c:v>
+                  <c:v>76973.687038967822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3044,7 +3044,7 @@
                   <c:v>-7471.3775501323253</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-7471.3775501323253</c:v>
+                  <c:v>-7026.3129610321776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3066,11 +3066,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="398009856"/>
-        <c:axId val="398011392"/>
+        <c:axId val="553620992"/>
+        <c:axId val="553622912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="398009856"/>
+        <c:axId val="553620992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3113,14 +3113,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398011392"/>
+        <c:crossAx val="553622912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="398011392"/>
+        <c:axId val="553622912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3171,7 +3171,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398009856"/>
+        <c:crossAx val="553620992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5030,28 +5030,28 @@
         <v>45138</v>
       </c>
       <c r="B44" s="15">
-        <v>3.608843017578125</v>
+        <v>3.6303940429687498</v>
       </c>
       <c r="C44" s="16">
         <v>2000</v>
       </c>
       <c r="D44" s="17">
-        <v>554.19423628523168</v>
+        <v>550.90438567503338</v>
       </c>
       <c r="E44" s="17">
-        <v>21205.860736282626</v>
+        <v>21202.570885672427</v>
       </c>
       <c r="F44" s="17">
-        <v>76528.622449867675</v>
+        <v>76973.687038967822</v>
       </c>
       <c r="G44" s="17">
         <v>84000</v>
       </c>
       <c r="H44" s="17">
-        <v>76528.622449867675</v>
+        <v>76973.687038967822</v>
       </c>
       <c r="I44" s="17">
-        <v>-7471.3775501323253</v>
+        <v>-7026.3129610321776</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="418">
   <si>
     <t>PE</t>
   </si>
@@ -1550,6 +1550,90 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2023/8/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/29
+</t>
+  </si>
+  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1583,10 +1667,6 @@
   </si>
   <si>
     <t>利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3066,11 +3146,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="553620992"/>
-        <c:axId val="553622912"/>
+        <c:axId val="92341760"/>
+        <c:axId val="92343296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="553620992"/>
+        <c:axId val="92341760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3113,14 +3193,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553622912"/>
+        <c:crossAx val="92343296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="553622912"/>
+        <c:axId val="92343296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3171,7 +3251,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553620992"/>
+        <c:crossAx val="92341760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3607,31 +3687,31 @@
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="K1" s="11"/>
     </row>
@@ -3642,7 +3722,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3681,25 +3761,25 @@
       </c>
       <c r="J3" s="6"/>
       <c r="L3" s="26" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="T3" s="23">
         <v>44196</v>
@@ -5067,7 +5147,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D566"/>
+  <dimension ref="A1:D589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -10747,7 +10827,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A566" si="3">A355+1</f>
+        <f t="shared" ref="A356:A589" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -14119,6 +14199,374 @@
       <c r="D566" s="18">
         <f>SUM(C$3:C566)/A566</f>
         <v>29.263021620154856</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="A567" s="18">
+        <f t="shared" si="3"/>
+        <v>565</v>
+      </c>
+      <c r="B567" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="C567" s="20">
+        <v>22.309999470000001</v>
+      </c>
+      <c r="D567" s="18">
+        <f>SUM(C$3:C567)/A567</f>
+        <v>29.250715386260772</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="A568" s="18">
+        <f t="shared" si="3"/>
+        <v>566</v>
+      </c>
+      <c r="B568" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="C568" s="20">
+        <v>22.239999770000001</v>
+      </c>
+      <c r="D568" s="18">
+        <f>SUM(C$3:C568)/A568</f>
+        <v>29.23832896291049</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="A569" s="18">
+        <f t="shared" si="3"/>
+        <v>567</v>
+      </c>
+      <c r="B569" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="C569" s="20">
+        <v>22.350000380000001</v>
+      </c>
+      <c r="D569" s="18">
+        <f>SUM(C$3:C569)/A569</f>
+        <v>29.226180235251036</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="A570" s="18">
+        <f t="shared" si="3"/>
+        <v>568</v>
+      </c>
+      <c r="B570" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="C570" s="20">
+        <v>22.510000229999999</v>
+      </c>
+      <c r="D570" s="18">
+        <f>SUM(C$3:C570)/A570</f>
+        <v>29.214355974678409</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="A571" s="18">
+        <f t="shared" si="3"/>
+        <v>569</v>
+      </c>
+      <c r="B571" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="C571" s="20">
+        <v>22.290000920000001</v>
+      </c>
+      <c r="D571" s="18">
+        <f>SUM(C$3:C571)/A571</f>
+        <v>29.202186633633278</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4">
+      <c r="A572" s="18">
+        <f t="shared" si="3"/>
+        <v>570</v>
+      </c>
+      <c r="B572" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="C572" s="20">
+        <v>22.219999309999999</v>
+      </c>
+      <c r="D572" s="18">
+        <f>SUM(C$3:C572)/A572</f>
+        <v>29.189937182188306</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573" s="18">
+        <f t="shared" si="3"/>
+        <v>571</v>
+      </c>
+      <c r="B573" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="C573" s="20">
+        <v>22.100000380000001</v>
+      </c>
+      <c r="D573" s="18">
+        <f>SUM(C$3:C573)/A573</f>
+        <v>29.177520480258032</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574" s="18">
+        <f t="shared" si="3"/>
+        <v>572</v>
+      </c>
+      <c r="B574" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="C574" s="20">
+        <v>22.090000150000002</v>
+      </c>
+      <c r="D574" s="18">
+        <f>SUM(C$3:C574)/A574</f>
+        <v>29.165129710449889</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575" s="18">
+        <f t="shared" si="3"/>
+        <v>573</v>
+      </c>
+      <c r="B575" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="C575" s="20">
+        <v>21.620000839999999</v>
+      </c>
+      <c r="D575" s="18">
+        <f>SUM(C$3:C575)/A575</f>
+        <v>29.151961946278075</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576" s="18">
+        <f t="shared" si="3"/>
+        <v>574</v>
+      </c>
+      <c r="B576" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="C576" s="20">
+        <v>21.409999849999998</v>
+      </c>
+      <c r="D576" s="18">
+        <f>SUM(C$3:C576)/A576</f>
+        <v>29.138474207434385</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577" s="18">
+        <f t="shared" si="3"/>
+        <v>575</v>
+      </c>
+      <c r="B577" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="C577" s="20">
+        <v>21.229999540000001</v>
+      </c>
+      <c r="D577" s="18">
+        <f>SUM(C$3:C577)/A577</f>
+        <v>29.124720338447538</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578" s="18">
+        <f t="shared" si="3"/>
+        <v>576</v>
+      </c>
+      <c r="B578" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C578" s="20">
+        <v>21.010000229999999</v>
+      </c>
+      <c r="D578" s="18">
+        <f>SUM(C$3:C578)/A578</f>
+        <v>29.110632282703705</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="A579" s="18">
+        <f t="shared" si="3"/>
+        <v>577</v>
+      </c>
+      <c r="B579" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="C579" s="20">
+        <v>21.149999619999999</v>
+      </c>
+      <c r="D579" s="18">
+        <f>SUM(C$3:C579)/A579</f>
+        <v>29.096835692300406</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580" s="18">
+        <f t="shared" si="3"/>
+        <v>578</v>
+      </c>
+      <c r="B580" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="C580" s="20">
+        <v>20.829999919999999</v>
+      </c>
+      <c r="D580" s="18">
+        <f>SUM(C$3:C580)/A580</f>
+        <v>29.082533208265282</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581" s="18">
+        <f t="shared" si="3"/>
+        <v>579</v>
+      </c>
+      <c r="B581" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="C581" s="20">
+        <v>20.549999239999998</v>
+      </c>
+      <c r="D581" s="18">
+        <f>SUM(C$3:C581)/A581</f>
+        <v>29.067796534744961</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582" s="18">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="B582" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="C582" s="20">
+        <v>20.629999160000001</v>
+      </c>
+      <c r="D582" s="18">
+        <f>SUM(C$3:C582)/A582</f>
+        <v>29.053248608236778</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4">
+      <c r="A583" s="18">
+        <f t="shared" si="3"/>
+        <v>581</v>
+      </c>
+      <c r="B583" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="C583" s="20">
+        <v>20.159999849999998</v>
+      </c>
+      <c r="D583" s="18">
+        <f>SUM(C$3:C583)/A583</f>
+        <v>29.037941811751001</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4">
+      <c r="A584" s="18">
+        <f t="shared" si="3"/>
+        <v>582</v>
+      </c>
+      <c r="B584" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="C584" s="20">
+        <v>20.399999619999999</v>
+      </c>
+      <c r="D584" s="18">
+        <f>SUM(C$3:C584)/A584</f>
+        <v>29.023099986679263</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4">
+      <c r="A585" s="18">
+        <f t="shared" si="3"/>
+        <v>583</v>
+      </c>
+      <c r="B585" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="C585" s="20">
+        <v>20.149999619999999</v>
+      </c>
+      <c r="D585" s="18">
+        <f>SUM(C$3:C585)/A585</f>
+        <v>29.007880260492847</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4">
+      <c r="A586" s="18">
+        <f t="shared" si="3"/>
+        <v>584</v>
+      </c>
+      <c r="B586" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="C586" s="20">
+        <v>20.399999619999999</v>
+      </c>
+      <c r="D586" s="18">
+        <f>SUM(C$3:C586)/A586</f>
+        <v>28.993140738848169</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4">
+      <c r="A587" s="18">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="B587" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="C587" s="20">
+        <v>20.879999160000001</v>
+      </c>
+      <c r="D587" s="18">
+        <f>SUM(C$3:C587)/A587</f>
+        <v>28.979272120764666</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4">
+      <c r="A588" s="18">
+        <f t="shared" si="3"/>
+        <v>586</v>
+      </c>
+      <c r="B588" s="19">
+        <v>45168</v>
+      </c>
+      <c r="C588" s="20">
+        <v>20.989999770000001</v>
+      </c>
+      <c r="D588" s="18">
+        <f>SUM(C$3:C588)/A588</f>
+        <v>28.965638550200225</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4">
+      <c r="A589" s="18">
+        <f t="shared" si="3"/>
+        <v>587</v>
+      </c>
+      <c r="B589" s="19">
+        <v>45169</v>
+      </c>
+      <c r="C589" s="20">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D589" s="18">
+        <f>SUM(C$3:C589)/A589</f>
+        <v>28.951898109092557</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模型一" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="397">
   <si>
     <t>PE</t>
   </si>
@@ -1547,90 +1547,6 @@
   </si>
   <si>
     <t xml:space="preserve">2023/7/27
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/2
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/3
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/4
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/7
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/9
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/11
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/14
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/15
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/16
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/17
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/18
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/21
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/22
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/23
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/24
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/25
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/28
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/29
 </t>
   </si>
   <si>
@@ -1705,7 +1621,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2257,133 +2173,133 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45016</c:v>
+                  <c:v>3.7161979980468751</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45044</c:v>
+                  <c:v>3.6159379882812499</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45077</c:v>
+                  <c:v>3.4505849609374999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45107</c:v>
+                  <c:v>3.608843017578125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45138</c:v>
+                  <c:v>3.6303940429687498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2395,130 +2311,130 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000</c:v>
+                  <c:v>3783.4996370436897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6000</c:v>
+                  <c:v>6143.6117008713063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8173.7580810682693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10000</c:v>
+                  <c:v>11353.811149064422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12000</c:v>
+                  <c:v>14968.552321848347</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14000</c:v>
+                  <c:v>16822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16000</c:v>
+                  <c:v>18240.153038857396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18000</c:v>
+                  <c:v>21221.531045139225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20000</c:v>
+                  <c:v>23603.74034292587</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22000</c:v>
+                  <c:v>28072.985437531297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24000</c:v>
+                  <c:v>31610.696441599135</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26000</c:v>
+                  <c:v>31960.877336479982</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28000</c:v>
+                  <c:v>32030.541196234128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30000</c:v>
+                  <c:v>36542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32000</c:v>
+                  <c:v>40028.514786085325</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34000</c:v>
+                  <c:v>43079.887556825692</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36000</c:v>
+                  <c:v>43952.380972166822</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38000</c:v>
+                  <c:v>44041.688138414858</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40000</c:v>
+                  <c:v>45572.995207693384</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42000</c:v>
+                  <c:v>49094.404023982002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44000</c:v>
+                  <c:v>51969.911593071687</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46000</c:v>
+                  <c:v>53008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48000</c:v>
+                  <c:v>49351.052479165373</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50000</c:v>
+                  <c:v>51254.60334650999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52000</c:v>
+                  <c:v>47701.945217252243</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54000</c:v>
+                  <c:v>45202.535414395512</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56000</c:v>
+                  <c:v>48944.813088421164</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58000</c:v>
+                  <c:v>57317.86097478633</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60000</c:v>
+                  <c:v>56010.270798873862</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62000</c:v>
+                  <c:v>55547.679913640975</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>64000</c:v>
+                  <c:v>52229.088937270295</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66000</c:v>
+                  <c:v>53475.074735568647</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>68000</c:v>
+                  <c:v>58406.85441256113</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70000</c:v>
+                  <c:v>60293.406710853284</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72000</c:v>
+                  <c:v>68151.7828856181</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>74000</c:v>
+                  <c:v>67767.93214664339</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>76000</c:v>
+                  <c:v>70476.779226985323</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>78000</c:v>
+                  <c:v>70575.372849483087</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>80000</c:v>
+                  <c:v>69348.035546023719</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82000</c:v>
+                  <c:v>74528.622449867675</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>84000</c:v>
+                  <c:v>76973.687038967822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2560,133 +2476,133 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45016</c:v>
+                  <c:v>3.7161979980468751</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45044</c:v>
+                  <c:v>3.6159379882812499</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45077</c:v>
+                  <c:v>3.4505849609374999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45107</c:v>
+                  <c:v>3.608843017578125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45138</c:v>
+                  <c:v>3.6303940429687498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2698,130 +2614,130 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>2000.0000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3783.4996370436897</c:v>
+                  <c:v>-216.50036295631025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6143.6117008713063</c:v>
+                  <c:v>143.61170087130631</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8173.7580810682693</c:v>
+                  <c:v>173.75808106826935</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11353.811149064422</c:v>
+                  <c:v>1353.8111490644224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14968.552321848347</c:v>
+                  <c:v>2968.5523218483468</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16822.477397497114</c:v>
+                  <c:v>2822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18240.153038857396</c:v>
+                  <c:v>2240.1530388573956</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21221.531045139225</c:v>
+                  <c:v>3221.5310451392252</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23603.74034292587</c:v>
+                  <c:v>3603.7403429258702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28072.985437531297</c:v>
+                  <c:v>6072.9854375312971</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31610.696441599135</c:v>
+                  <c:v>7610.6964415991351</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31960.877336479982</c:v>
+                  <c:v>5960.8773364799818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32030.541196234128</c:v>
+                  <c:v>4030.5411962341277</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36542.468793623324</c:v>
+                  <c:v>6542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40028.514786085325</c:v>
+                  <c:v>8028.5147860853249</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43079.887556825692</c:v>
+                  <c:v>9079.8875568256917</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43952.380972166822</c:v>
+                  <c:v>7952.3809721668222</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44041.688138414858</c:v>
+                  <c:v>6041.6881384148583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45572.995207693384</c:v>
+                  <c:v>5572.9952076933841</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49094.404023982002</c:v>
+                  <c:v>7094.4040239820024</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51969.911593071687</c:v>
+                  <c:v>7969.9115930716871</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53008.069006718506</c:v>
+                  <c:v>7008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49351.052479165373</c:v>
+                  <c:v>1351.0524791653734</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51254.60334650999</c:v>
+                  <c:v>1254.6033465099899</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>47701.945217252243</c:v>
+                  <c:v>-4298.0547827477567</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45202.535414395512</c:v>
+                  <c:v>-8797.4645856044881</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48944.813088421164</c:v>
+                  <c:v>-7055.1869115788359</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57317.86097478633</c:v>
+                  <c:v>-682.13902521366981</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56010.270798873862</c:v>
+                  <c:v>-3989.7292011261379</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55547.679913640975</c:v>
+                  <c:v>-6452.3200863590246</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52229.088937270295</c:v>
+                  <c:v>-11770.911062729705</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>53475.074735568647</c:v>
+                  <c:v>-12524.925264431353</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58406.85441256113</c:v>
+                  <c:v>-9593.1455874388703</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>60293.406710853284</c:v>
+                  <c:v>-9706.5932891467164</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>68151.7828856181</c:v>
+                  <c:v>-3848.2171143818996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67767.93214664339</c:v>
+                  <c:v>-6232.0678533566097</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70476.779226985323</c:v>
+                  <c:v>-5523.2207730146765</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>70575.372849483087</c:v>
+                  <c:v>-7424.6271505169134</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69348.035546023719</c:v>
+                  <c:v>-10651.964453976281</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>74528.622449867675</c:v>
+                  <c:v>-7471.3775501323253</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>76973.687038967822</c:v>
+                  <c:v>-7026.3129610321776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2863,133 +2779,133 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45016</c:v>
+                  <c:v>3.7161979980468751</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45044</c:v>
+                  <c:v>3.6159379882812499</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45077</c:v>
+                  <c:v>3.4505849609374999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45107</c:v>
+                  <c:v>3.608843017578125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45138</c:v>
+                  <c:v>3.6303940429687498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2998,134 +2914,8 @@
             <c:numRef>
               <c:f>模型一!金额</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-216.50036295631025</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>143.61170087130631</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>173.75808106826935</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1353.8111490644224</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2968.5523218483468</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2822.477397497114</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2240.1530388573956</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3221.5310451392252</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3603.7403429258702</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6072.9854375312971</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7610.6964415991351</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5960.8773364799818</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4030.5411962341277</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6542.468793623324</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8028.5147860853249</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9079.8875568256917</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7952.3809721668222</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6041.6881384148583</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5572.9952076933841</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7094.4040239820024</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7969.9115930716871</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7008.069006718506</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1351.0524791653734</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1254.6033465099899</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-4298.0547827477567</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-8797.4645856044881</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-7055.1869115788359</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-682.13902521366981</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-3989.7292011261379</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-6452.3200863590246</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-11770.911062729705</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-12524.925264431353</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-9593.1455874388703</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-9706.5932891467164</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-3848.2171143818996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-6232.0678533566097</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-5523.2207730146765</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-7424.6271505169134</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-10651.964453976281</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-7471.3775501323253</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-7026.3129610321776</c:v>
-                </c:pt>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3146,17 +2936,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92341760"/>
-        <c:axId val="92343296"/>
+        <c:axId val="43804928"/>
+        <c:axId val="45293568"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="92341760"/>
+      <c:catAx>
+        <c:axId val="43804928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -3193,14 +2983,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92343296"/>
+        <c:crossAx val="45293568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="92343296"/>
+        <c:axId val="45293568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3251,7 +3042,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92341760"/>
+        <c:crossAx val="43804928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3659,12 +3450,12 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -3685,44 +3476,44 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:25" ht="14.1" customHeight="1">
+    <row r="2" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
         <v>2000</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3731,7 +3522,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:25" ht="14.1" customHeight="1">
+    <row r="3" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -3761,25 +3552,25 @@
       </c>
       <c r="J3" s="6"/>
       <c r="L3" s="26" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="T3" s="23">
         <v>44196</v>
@@ -3802,7 +3593,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.1" customHeight="1">
+    <row r="4" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -3873,7 +3664,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.1" customHeight="1">
+    <row r="5" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -3940,7 +3731,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.1" customHeight="1">
+    <row r="6" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -4000,7 +3791,7 @@
         <v>60293.406710853284</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.1" customHeight="1">
+    <row r="7" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -4033,7 +3824,7 @@
         <v>-7.3828223896210132E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14.1" customHeight="1">
+    <row r="8" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -4063,7 +3854,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="14.1" customHeight="1">
+    <row r="9" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -4093,7 +3884,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="14.1" customHeight="1">
+    <row r="10" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -4123,7 +3914,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:25" ht="14.1" customHeight="1">
+    <row r="11" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -4153,7 +3944,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:25" ht="14.1" customHeight="1">
+    <row r="12" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -4183,7 +3974,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:25" ht="14.1" customHeight="1">
+    <row r="13" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -4213,7 +4004,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:25" ht="14.1" customHeight="1">
+    <row r="14" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -4243,7 +4034,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="14.1" customHeight="1">
+    <row r="15" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -4273,7 +4064,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:25" ht="14.1" customHeight="1">
+    <row r="16" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -4303,7 +4094,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -4333,7 +4124,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -4363,7 +4154,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -4393,7 +4184,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -4423,7 +4214,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -4454,7 +4245,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -4484,7 +4275,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -4514,7 +4305,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -4544,7 +4335,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -4574,7 +4365,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -4604,7 +4395,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -4634,7 +4425,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -4664,7 +4455,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -4694,7 +4485,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -4724,7 +4515,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -4754,7 +4545,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -4784,7 +4575,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -4815,7 +4606,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75">
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -4844,7 +4635,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75">
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -4873,7 +4664,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75">
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -4902,7 +4693,7 @@
         <v>-9593.1455874388703</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75">
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>44925</v>
       </c>
@@ -4931,7 +4722,7 @@
         <v>-9706.5932891467164</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.75">
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>44957</v>
       </c>
@@ -4960,7 +4751,7 @@
         <v>-3848.2171143818996</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="12.75">
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>44985</v>
       </c>
@@ -4989,7 +4780,7 @@
         <v>-6232.0678533566097</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="12.75">
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>45016</v>
       </c>
@@ -5018,7 +4809,7 @@
         <v>-5523.2207730146765</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="12.75">
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>45044</v>
       </c>
@@ -5047,7 +4838,7 @@
         <v>-7424.6271505169134</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="12.75">
+    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>45077</v>
       </c>
@@ -5076,7 +4867,7 @@
         <v>-10651.964453976281</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="12.75">
+    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>45107</v>
       </c>
@@ -5105,7 +4896,7 @@
         <v>-7471.3775501323253</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="12.75">
+    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>45138</v>
       </c>
@@ -5147,13 +4938,13 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D589"/>
+  <dimension ref="A1:D566"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -5161,7 +4952,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="30" t="s">
         <v>181</v>
       </c>
@@ -5169,7 +4960,7 @@
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
@@ -5178,7 +4969,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -5193,7 +4984,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -5209,7 +5000,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5225,7 +5016,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5241,7 +5032,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5257,7 +5048,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5273,7 +5064,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5289,7 +5080,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5305,7 +5096,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5321,7 +5112,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5337,7 +5128,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5353,7 +5144,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5369,7 +5160,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5385,7 +5176,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5401,7 +5192,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5417,7 +5208,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5433,7 +5224,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5449,7 +5240,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5465,7 +5256,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5481,7 +5272,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5497,7 +5288,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5513,7 +5304,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5529,7 +5320,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5545,7 +5336,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5561,7 +5352,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5577,7 +5368,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5593,7 +5384,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5609,7 +5400,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5625,7 +5416,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5641,7 +5432,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5657,7 +5448,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5673,7 +5464,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5689,7 +5480,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5705,7 +5496,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5721,7 +5512,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -5737,7 +5528,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -5753,7 +5544,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -5769,7 +5560,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -5785,7 +5576,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -5801,7 +5592,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -5817,7 +5608,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -5833,7 +5624,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -5849,7 +5640,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -5865,7 +5656,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -5881,7 +5672,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -5897,7 +5688,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -5913,7 +5704,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -5929,7 +5720,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -5945,7 +5736,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -5961,7 +5752,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -5977,7 +5768,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -5993,7 +5784,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -6009,7 +5800,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -6025,7 +5816,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -6041,7 +5832,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -6057,7 +5848,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -6073,7 +5864,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -6089,7 +5880,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -6105,7 +5896,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -6121,7 +5912,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -6137,7 +5928,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -6153,7 +5944,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -6169,7 +5960,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -6185,7 +5976,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -6201,7 +5992,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -6217,7 +6008,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -6233,7 +6024,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -6249,7 +6040,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -6265,7 +6056,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -6281,7 +6072,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -6297,7 +6088,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -6313,7 +6104,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -6329,7 +6120,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -6345,7 +6136,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -6361,7 +6152,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -6377,7 +6168,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -6393,7 +6184,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -6409,7 +6200,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -6425,7 +6216,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -6441,7 +6232,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -6457,7 +6248,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -6473,7 +6264,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -6489,7 +6280,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -6505,7 +6296,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -6521,7 +6312,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -6537,7 +6328,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -6553,7 +6344,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -6569,7 +6360,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -6585,7 +6376,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -6601,7 +6392,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -6617,7 +6408,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -6633,7 +6424,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -6649,7 +6440,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -6665,7 +6456,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -6681,7 +6472,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -6697,7 +6488,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -6713,7 +6504,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -6729,7 +6520,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -6745,7 +6536,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -6761,7 +6552,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -6777,7 +6568,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -6793,7 +6584,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -6809,7 +6600,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -6825,7 +6616,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -6841,7 +6632,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -6857,7 +6648,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -6873,7 +6664,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -6889,7 +6680,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -6905,7 +6696,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -6921,7 +6712,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -6937,7 +6728,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -6953,7 +6744,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -6969,7 +6760,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -6985,7 +6776,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -7001,7 +6792,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -7017,7 +6808,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -7033,7 +6824,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -7049,7 +6840,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -7065,7 +6856,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -7081,7 +6872,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -7097,7 +6888,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -7113,7 +6904,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -7129,7 +6920,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -7145,7 +6936,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -7161,7 +6952,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -7177,7 +6968,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -7193,7 +6984,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -7209,7 +7000,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -7225,7 +7016,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -7241,7 +7032,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -7257,7 +7048,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -7273,7 +7064,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -7289,7 +7080,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -7305,7 +7096,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -7321,7 +7112,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -7337,7 +7128,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -7353,7 +7144,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -7369,7 +7160,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -7385,7 +7176,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -7401,7 +7192,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -7417,7 +7208,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -7433,7 +7224,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -7449,7 +7240,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -7465,7 +7256,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -7481,7 +7272,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -7497,7 +7288,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -7513,7 +7304,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -7529,7 +7320,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -7545,7 +7336,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -7561,7 +7352,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -7577,7 +7368,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -7593,7 +7384,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -7609,7 +7400,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -7625,7 +7416,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -7641,7 +7432,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -7657,7 +7448,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -7673,7 +7464,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -7689,7 +7480,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -7705,7 +7496,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -7721,7 +7512,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -7737,7 +7528,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -7753,7 +7544,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -7769,7 +7560,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -7785,7 +7576,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -7801,7 +7592,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -7817,7 +7608,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -7833,7 +7624,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -7849,7 +7640,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -7865,7 +7656,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -7881,7 +7672,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -7897,7 +7688,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -7913,7 +7704,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -7929,7 +7720,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -7945,7 +7736,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -7961,7 +7752,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -7977,7 +7768,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -7993,7 +7784,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -8009,7 +7800,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -8025,7 +7816,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -8041,7 +7832,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -8057,7 +7848,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -8073,7 +7864,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -8089,7 +7880,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -8105,7 +7896,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -8121,7 +7912,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -8137,7 +7928,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -8153,7 +7944,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -8169,7 +7960,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -8185,7 +7976,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -8201,7 +7992,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -8217,7 +8008,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -8233,7 +8024,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -8249,7 +8040,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -8265,7 +8056,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -8281,7 +8072,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -8297,7 +8088,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -8313,7 +8104,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -8329,7 +8120,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -8345,7 +8136,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -8361,7 +8152,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -8377,7 +8168,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -8393,7 +8184,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -8409,7 +8200,7 @@
         <v>37.709801928118821</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -8425,7 +8216,7 @@
         <v>37.677783194876852</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -8441,7 +8232,7 @@
         <v>37.643186222549026</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -8457,7 +8248,7 @@
         <v>37.61082921770732</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -8473,7 +8264,7 @@
         <v>37.576601888834951</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -8489,7 +8280,7 @@
         <v>37.53951685371981</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -8505,7 +8296,7 @@
         <v>37.502548024519236</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -8521,7 +8312,7 @@
         <v>37.469330088851677</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -8537,7 +8328,7 @@
         <v>37.436714235285713</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -8553,7 +8344,7 @@
         <v>37.405118435402848</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -8569,7 +8360,7 @@
         <v>37.373584854622642</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -8585,7 +8376,7 @@
         <v>37.341971777323948</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -8601,7 +8392,7 @@
         <v>37.308551350934586</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -8617,7 +8408,7 @@
         <v>37.279162738930239</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -8633,7 +8424,7 @@
         <v>37.24703698620371</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -8649,7 +8440,7 @@
         <v>37.217787966082959</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -8665,7 +8456,7 @@
         <v>37.189128385091756</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -8681,7 +8472,7 @@
         <v>37.160593554703212</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -8697,7 +8488,7 @@
         <v>37.130136307090922</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -8713,7 +8504,7 @@
         <v>37.098280487375575</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -8729,7 +8520,7 @@
         <v>37.064549496936955</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -8745,7 +8536,7 @@
         <v>37.025425957264588</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -8761,7 +8552,7 @@
         <v>36.983839230133938</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -8777,7 +8568,7 @@
         <v>36.941866615422235</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -8793,7 +8584,7 @@
         <v>36.903230033407091</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -8809,7 +8600,7 @@
         <v>36.865991137929527</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -8825,7 +8616,7 @@
         <v>36.824824508114048</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -8841,7 +8632,7 @@
         <v>36.779912614716174</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -8857,7 +8648,7 @@
         <v>36.740347778608708</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -8873,7 +8664,7 @@
         <v>36.704372248441572</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -8889,7 +8680,7 @@
         <v>36.668318920431048</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -8905,7 +8696,7 @@
         <v>36.63334759656653</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -8921,7 +8712,7 @@
         <v>36.597521324786335</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -8937,7 +8728,7 @@
         <v>36.562765916212776</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -8953,7 +8744,7 @@
         <v>36.527669453389834</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -8969,7 +8760,7 @@
         <v>36.490042158691992</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -8985,7 +8776,7 @@
         <v>36.450924335798327</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -9001,7 +8792,7 @@
         <v>36.41142256129708</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -9017,7 +8808,7 @@
         <v>36.376291632041678</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -9033,7 +8824,7 @@
         <v>36.340041456763494</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -9049,7 +8840,7 @@
         <v>36.304917319132237</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -9065,7 +8856,7 @@
         <v>36.269300373868319</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -9081,7 +8872,7 @@
         <v>36.232131113155745</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -9097,7 +8888,7 @@
         <v>36.195142823224494</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -9113,7 +8904,7 @@
         <v>36.154146310162609</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -9129,7 +8920,7 @@
         <v>36.115546530931177</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -9145,7 +8936,7 @@
         <v>36.075483844556452</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -9161,7 +8952,7 @@
         <v>36.036385516465863</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -9177,7 +8968,7 @@
         <v>35.997079970720002</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -9193,7 +8984,7 @@
         <v>35.958844590836655</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -9209,7 +9000,7 @@
         <v>35.919801560079364</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -9225,7 +9016,7 @@
         <v>35.878497993873516</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -9241,7 +9032,7 @@
         <v>35.83523618834645</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -9257,7 +9048,7 @@
         <v>35.79231369109803</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -9273,7 +9064,7 @@
         <v>35.74410153121093</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -9289,7 +9080,7 @@
         <v>35.695175066420227</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -9305,7 +9096,7 @@
         <v>35.650930204496113</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -9321,7 +9112,7 @@
         <v>35.606409241698827</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -9337,7 +9128,7 @@
         <v>35.566115356769217</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -9353,7 +9144,7 @@
         <v>35.518850545210718</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -9369,7 +9160,7 @@
         <v>35.469999967977095</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -9385,7 +9176,7 @@
         <v>35.420532283992387</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -9401,7 +9192,7 @@
         <v>35.37265148249999</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -9417,7 +9208,7 @@
         <v>35.327660347698107</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -9433,7 +9224,7 @@
         <v>35.282706740526301</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -9449,7 +9240,7 @@
         <v>35.238764015805231</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -9465,7 +9256,7 @@
         <v>35.194179078880587</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -9481,7 +9272,7 @@
         <v>35.151561311078062</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -9497,7 +9288,7 @@
         <v>35.109185154666655</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -9513,7 +9304,7 @@
         <v>35.067416947158662</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -9529,7 +9320,7 @@
         <v>35.027352914264696</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -9545,7 +9336,7 @@
         <v>34.987142827545782</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -9561,7 +9352,7 @@
         <v>34.944160551094882</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -9577,7 +9368,7 @@
         <v>34.901854510799993</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -9593,7 +9384,7 @@
         <v>34.85992750141304</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -9609,7 +9400,7 @@
         <v>34.818447621768946</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -9625,7 +9416,7 @@
         <v>34.778237376330928</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -9641,7 +9432,7 @@
         <v>34.740071647956981</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -9657,7 +9448,7 @@
         <v>34.70282139017857</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -9673,7 +9464,7 @@
         <v>34.666548005266904</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -9689,7 +9480,7 @@
         <v>34.633439678723406</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -9705,7 +9496,7 @@
         <v>34.600353321060069</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -9721,7 +9512,7 @@
         <v>34.568168975140843</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -9737,7 +9528,7 @@
         <v>34.533719259438591</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -9753,7 +9544,7 @@
         <v>34.501713245104895</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -9769,7 +9560,7 @@
         <v>34.441254312613239</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -9785,7 +9576,7 @@
         <v>34.410590237256947</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -9801,7 +9592,7 @@
         <v>34.381418643148791</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -9817,7 +9608,7 @@
         <v>34.352517199551727</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -9833,7 +9624,7 @@
         <v>34.325532604364263</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -9849,7 +9640,7 @@
         <v>34.300479411301374</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -9865,7 +9656,7 @@
         <v>34.275528968839595</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -9881,7 +9672,7 @@
         <v>34.249421728741503</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -9897,7 +9688,7 @@
         <v>34.225660976338986</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -9913,7 +9704,7 @@
         <v>34.203749958750002</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -9929,7 +9720,7 @@
         <v>34.182424204141412</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -9945,7 +9736,7 @@
         <v>34.162248284261743</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -9961,7 +9752,7 @@
         <v>34.139999963010034</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -9977,7 +9768,7 @@
         <v>34.118899961366665</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -9993,7 +9784,7 @@
         <v>34.097375374750825</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -10009,7 +9800,7 @@
         <v>34.077450290463574</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -10025,7 +9816,7 @@
         <v>34.057161676666666</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -10041,7 +9832,7 @@
         <v>34.036282852335525</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -10057,7 +9848,7 @@
         <v>34.016754055836067</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -10073,7 +9864,7 @@
         <v>33.996633946535951</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -10089,7 +9880,7 @@
         <v>33.974755662312702</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -10105,7 +9896,7 @@
         <v>33.951363599967529</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -10121,7 +9912,7 @@
         <v>33.928932004045308</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -10137,7 +9928,7 @@
         <v>33.908064478483865</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -10153,7 +9944,7 @@
         <v>33.886044976848872</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -10169,7 +9960,7 @@
         <v>33.865032011923077</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -10185,7 +9976,7 @@
         <v>33.843258744281151</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -10201,7 +9992,7 @@
         <v>33.821847094904456</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -10217,7 +10008,7 @@
         <v>33.799841229174596</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -10233,7 +10024,7 @@
         <v>33.777689830474678</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -10249,7 +10040,7 @@
         <v>33.754952637602521</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -10265,7 +10056,7 @@
         <v>33.732798695597481</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -10281,7 +10072,7 @@
         <v>33.71050152363636</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -10297,7 +10088,7 @@
         <v>33.688624953499996</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -10313,7 +10104,7 @@
         <v>33.665700887975071</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -10329,7 +10120,7 @@
         <v>33.644596229440985</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -10345,7 +10136,7 @@
         <v>33.621981380433432</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -10361,7 +10152,7 @@
         <v>33.598333289753079</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -10377,7 +10168,7 @@
         <v>33.575199956553838</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -10393,7 +10184,7 @@
         <v>33.553374186993857</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -10409,7 +10200,7 @@
         <v>33.531651332477054</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -10425,7 +10216,7 @@
         <v>33.510396296310965</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -10441,7 +10232,7 @@
         <v>33.488176249088134</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -10457,7 +10248,7 @@
         <v>33.467939351363626</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -10473,7 +10264,7 @@
         <v>33.447250715377635</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -10489,7 +10280,7 @@
         <v>33.426957788765044</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -10505,7 +10296,7 @@
         <v>33.406816772312297</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -10521,7 +10312,7 @@
         <v>33.388113727634718</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -10537,7 +10328,7 @@
         <v>33.369134285731334</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -10553,7 +10344,7 @@
         <v>33.348869003541658</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -10569,7 +10360,7 @@
         <v>33.32994060682492</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -10585,7 +10376,7 @@
         <v>33.310798772514786</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -10601,7 +10392,7 @@
         <v>33.289085504041289</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -10617,7 +10408,7 @@
         <v>33.267352898499993</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -10633,7 +10424,7 @@
         <v>33.245395853900284</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -10649,7 +10440,7 @@
         <v>33.223099377251451</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -10665,7 +10456,7 @@
         <v>33.200524742157427</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -10681,7 +10472,7 @@
         <v>33.177209264156971</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -10697,7 +10488,7 @@
         <v>33.152579672985496</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -10713,7 +10504,7 @@
         <v>33.127959789537563</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -10729,7 +10520,7 @@
         <v>33.103008894783848</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -10745,7 +10536,7 @@
         <v>33.078402550028727</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -10761,7 +10552,7 @@
         <v>33.054624894269331</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -10777,7 +10568,7 @@
         <v>33.030011681799991</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -10793,7 +10584,7 @@
         <v>33.006479169886028</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -10809,7 +10600,7 @@
         <v>32.983534626789762</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -10825,9 +10616,9 @@
         <v>32.959558608016984</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A589" si="3">A355+1</f>
+        <f t="shared" ref="A356:A566" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -10841,7 +10632,7 @@
         <v>32.934079628898296</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -10857,7 +10648,7 @@
         <v>32.907504756704213</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -10873,7 +10664,7 @@
         <v>32.881079181544933</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -10889,7 +10680,7 @@
         <v>32.854801648823518</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -10905,7 +10696,7 @@
         <v>32.828196057625689</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -10921,7 +10712,7 @@
         <v>32.800958742701937</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -10937,7 +10728,7 @@
         <v>32.773483857305543</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -10953,7 +10744,7 @@
         <v>32.746410494819933</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -10969,7 +10760,7 @@
         <v>32.72075742715468</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -10985,7 +10776,7 @@
         <v>32.693785643608805</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -11001,7 +10792,7 @@
         <v>32.667236783846143</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -11017,7 +10808,7 @@
         <v>32.639682710465742</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -11033,7 +10824,7 @@
         <v>32.610721831256818</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -11049,7 +10840,7 @@
         <v>32.582463732997262</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -11065,7 +10856,7 @@
         <v>32.556207038288029</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -11081,7 +10872,7 @@
         <v>32.529902955203234</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -11097,7 +10888,7 @@
         <v>32.505903216459444</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -11113,7 +10904,7 @@
         <v>32.482221534770872</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -11129,7 +10920,7 @@
         <v>32.459016639193536</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -11145,7 +10936,7 @@
         <v>32.435239115093815</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -11161,7 +10952,7 @@
         <v>32.411080720721912</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -11177,7 +10968,7 @@
         <v>32.386891172533318</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -11193,7 +10984,7 @@
         <v>32.361473908563816</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -11209,7 +11000,7 @@
         <v>32.335952757002637</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -11225,7 +11016,7 @@
         <v>32.311730660581993</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -11241,7 +11032,7 @@
         <v>32.28705590707122</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -11257,7 +11048,7 @@
         <v>32.260353126763142</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -11273,7 +11064,7 @@
         <v>32.234052986719142</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -11289,7 +11080,7 @@
         <v>32.207969079581133</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -11305,7 +11096,7 @@
         <v>32.182882999425566</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -11321,7 +11112,7 @@
         <v>32.15761507374998</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -11337,7 +11128,7 @@
         <v>32.134348543064917</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -11353,7 +11144,7 @@
         <v>32.111176657020707</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -11369,7 +11160,7 @@
         <v>32.08771108604649</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -11385,7 +11176,7 @@
         <v>32.063670594149464</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -11401,7 +11192,7 @@
         <v>32.038622596966562</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -11417,7 +11208,7 @@
         <v>32.015113310410236</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -11433,7 +11224,7 @@
         <v>31.991775423145757</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -11449,7 +11240,7 @@
         <v>31.969985181658139</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -11465,7 +11256,7 @@
         <v>31.947491578549599</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -11481,7 +11272,7 @@
         <v>31.924807590355311</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -11497,7 +11288,7 @@
         <v>31.902289091873399</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -11513,7 +11304,7 @@
         <v>31.879808563863616</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -11529,7 +11320,7 @@
         <v>31.856559674836252</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -11545,7 +11336,7 @@
         <v>31.83315123575375</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -11561,7 +11352,7 @@
         <v>31.809784942506248</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -11577,7 +11368,7 @@
         <v>31.786160481674983</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -11593,7 +11384,7 @@
         <v>31.762254846458838</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -11609,7 +11400,7 @@
         <v>31.739711925845754</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -11625,7 +11416,7 @@
         <v>31.717553830421821</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="18">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -11641,7 +11432,7 @@
         <v>31.696396519158398</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="18">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -11657,7 +11448,7 @@
         <v>31.674998010938253</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="18">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -11673,7 +11464,7 @@
         <v>31.654172890985205</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="18">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -11689,7 +11480,7 @@
         <v>31.634039785798507</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="18">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -11705,7 +11496,7 @@
         <v>31.614471059901945</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="18">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -11721,7 +11512,7 @@
         <v>31.594949123716365</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="18">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -11737,7 +11528,7 @@
         <v>31.576034614024373</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="18">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -11753,7 +11544,7 @@
         <v>31.556628204695848</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="18">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -11769,7 +11560,7 @@
         <v>31.536660660315519</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="18">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -11785,7 +11576,7 @@
         <v>31.516644533922502</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="18">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -11801,7 +11592,7 @@
         <v>31.497280658236697</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="18">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -11817,7 +11608,7 @@
         <v>31.477648657566249</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="18">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -11833,7 +11624,7 @@
         <v>31.4574620019471</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="18">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -11849,7 +11640,7 @@
         <v>31.436484872637873</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="18">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -11865,7 +11656,7 @@
         <v>31.415368881578932</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="18">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -11881,7 +11672,7 @@
         <v>31.3942104814797</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="18">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -11897,7 +11688,7 @@
         <v>31.372914744047605</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="18">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -11913,7 +11704,7 @@
         <v>31.352527775344406</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="18">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -11929,7 +11720,7 @@
         <v>31.332735055497619</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="18">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -11945,7 +11736,7 @@
         <v>31.312397619290767</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="18">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -11961,7 +11752,7 @@
         <v>31.29222687073112</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="18">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -11977,7 +11768,7 @@
         <v>31.272103983435283</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="18">
         <f t="shared" si="3"/>
         <v>426</v>
@@ -11993,7 +11784,7 @@
         <v>31.252545055150357</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="18">
         <f t="shared" si="3"/>
         <v>427</v>
@@ -12009,7 +11800,7 @@
         <v>31.232820125100137</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="18">
         <f t="shared" si="3"/>
         <v>428</v>
@@ -12025,7 +11816,7 @@
         <v>31.214542507628902</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="18">
         <f t="shared" si="3"/>
         <v>429</v>
@@ -12041,7 +11832,7 @@
         <v>31.196559891061003</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="18">
         <f t="shared" si="3"/>
         <v>430</v>
@@ -12057,7 +11848,7 @@
         <v>31.178846960904366</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="18">
         <f t="shared" si="3"/>
         <v>431</v>
@@ -12073,7 +11864,7 @@
         <v>31.161773069335734</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="18">
         <f t="shared" si="3"/>
         <v>432</v>
@@ -12089,7 +11880,7 @@
         <v>31.144384704866276</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="18">
         <f t="shared" si="3"/>
         <v>433</v>
@@ -12105,7 +11896,7 @@
         <v>31.127376889581701</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="18">
         <f t="shared" si="3"/>
         <v>434</v>
@@ -12121,7 +11912,7 @@
         <v>31.111184777811857</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="18">
         <f t="shared" si="3"/>
         <v>435</v>
@@ -12137,7 +11928,7 @@
         <v>31.095871711111002</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="18">
         <f t="shared" si="3"/>
         <v>436</v>
@@ -12153,7 +11944,7 @@
         <v>31.080789437594152</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="18">
         <f t="shared" si="3"/>
         <v>437</v>
@@ -12169,7 +11960,7 @@
         <v>31.065799074319667</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="18">
         <f t="shared" si="3"/>
         <v>438</v>
@@ -12185,7 +11976,7 @@
         <v>31.051356610157107</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="18">
         <f t="shared" si="3"/>
         <v>439</v>
@@ -12201,7 +11992,7 @@
         <v>31.037184954834895</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="18">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -12217,7 +12008,7 @@
         <v>31.023850443747303</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="18">
         <f t="shared" si="3"/>
         <v>441</v>
@@ -12233,7 +12024,7 @@
         <v>31.009964160696924</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="18">
         <f t="shared" si="3"/>
         <v>442</v>
@@ -12249,7 +12040,7 @@
         <v>30.996909942618423</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="18">
         <f t="shared" si="3"/>
         <v>443</v>
@@ -12265,7 +12056,7 @@
         <v>30.983666351687006</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="18">
         <f t="shared" si="3"/>
         <v>444</v>
@@ -12281,7 +12072,7 @@
         <v>30.970031968710234</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="18">
         <f t="shared" si="3"/>
         <v>445</v>
@@ -12297,7 +12088,7 @@
         <v>30.955717290982793</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="18">
         <f t="shared" si="3"/>
         <v>446</v>
@@ -12313,7 +12104,7 @@
         <v>30.94148922667566</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="18">
         <f t="shared" si="3"/>
         <v>447</v>
@@ -12329,7 +12120,7 @@
         <v>30.927078736235668</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="18">
         <f t="shared" si="3"/>
         <v>448</v>
@@ -12345,7 +12136,7 @@
         <v>30.913558473074428</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="18">
         <f t="shared" si="3"/>
         <v>449</v>
@@ -12361,7 +12152,7 @@
         <v>30.899586181129941</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="18">
         <f t="shared" si="3"/>
         <v>450</v>
@@ -12377,7 +12168,7 @@
         <v>30.886209321082987</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="18">
         <f t="shared" si="3"/>
         <v>451</v>
@@ -12393,7 +12184,7 @@
         <v>30.872736571967504</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="18">
         <f t="shared" si="3"/>
         <v>452</v>
@@ -12409,7 +12200,7 @@
         <v>30.859168570193237</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="18">
         <f t="shared" si="3"/>
         <v>453</v>
@@ -12425,7 +12216,7 @@
         <v>30.845108594916873</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="18">
         <f t="shared" si="3"/>
         <v>454</v>
@@ -12441,7 +12232,7 @@
         <v>30.829921132725424</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="18">
         <f t="shared" si="3"/>
         <v>455</v>
@@ -12457,7 +12248,7 @@
         <v>30.815811415620537</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="18">
         <f t="shared" si="3"/>
         <v>456</v>
@@ -12473,7 +12264,7 @@
         <v>30.801741652910842</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="18">
         <f t="shared" si="3"/>
         <v>457</v>
@@ -12489,7 +12280,7 @@
         <v>30.787295830388061</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="18">
         <f t="shared" si="3"/>
         <v>458</v>
@@ -12505,7 +12296,7 @@
         <v>30.772978589579356</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="18">
         <f t="shared" si="3"/>
         <v>459</v>
@@ -12521,7 +12312,7 @@
         <v>30.758266218926675</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="18">
         <f t="shared" si="3"/>
         <v>460</v>
@@ -12537,7 +12328,7 @@
         <v>30.743096076472487</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="18">
         <f t="shared" si="3"/>
         <v>461</v>
@@ -12553,7 +12344,7 @@
         <v>30.728425585070163</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="18">
         <f t="shared" si="3"/>
         <v>462</v>
@@ -12569,7 +12360,7 @@
         <v>30.714489600946631</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="18">
         <f t="shared" si="3"/>
         <v>463</v>
@@ -12585,7 +12376,7 @@
         <v>30.70024664465949</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="18">
         <f t="shared" si="3"/>
         <v>464</v>
@@ -12601,7 +12392,7 @@
         <v>30.686065080425308</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="18">
         <f t="shared" si="3"/>
         <v>465</v>
@@ -12617,7 +12408,7 @@
         <v>30.672095049134068</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="18">
         <f t="shared" si="3"/>
         <v>466</v>
@@ -12633,7 +12424,7 @@
         <v>30.657219308191721</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="18">
         <f t="shared" si="3"/>
         <v>467</v>
@@ -12649,7 +12440,7 @@
         <v>30.642235968880819</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="18">
         <f t="shared" si="3"/>
         <v>468</v>
@@ -12665,7 +12456,7 @@
         <v>30.62733802894731</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="18">
         <f t="shared" si="3"/>
         <v>469</v>
@@ -12681,7 +12472,7 @@
         <v>30.612055856348277</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="18">
         <f t="shared" si="3"/>
         <v>470</v>
@@ -12697,7 +12488,7 @@
         <v>30.596923822611366</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="18">
         <f t="shared" si="3"/>
         <v>471</v>
@@ -12713,7 +12504,7 @@
         <v>30.581431413731085</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="18">
         <f t="shared" si="3"/>
         <v>472</v>
@@ -12729,7 +12520,7 @@
         <v>30.565962280841823</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="18">
         <f t="shared" si="3"/>
         <v>473</v>
@@ -12745,7 +12536,7 @@
         <v>30.549797455892897</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="18">
         <f t="shared" si="3"/>
         <v>474</v>
@@ -12761,7 +12552,7 @@
         <v>30.533743031998608</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="18">
         <f t="shared" si="3"/>
         <v>475</v>
@@ -12777,7 +12568,7 @@
         <v>30.517798307889137</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="18">
         <f t="shared" si="3"/>
         <v>476</v>
@@ -12793,7 +12584,7 @@
         <v>30.502739908880965</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="18">
         <f t="shared" si="3"/>
         <v>477</v>
@@ -12809,7 +12600,7 @@
         <v>30.488226827143272</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="18">
         <f t="shared" si="3"/>
         <v>478</v>
@@ -12825,7 +12616,7 @@
         <v>30.474402083069752</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="18">
         <f t="shared" si="3"/>
         <v>479</v>
@@ -12841,7 +12632,7 @@
         <v>30.460676816967307</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="18">
         <f t="shared" si="3"/>
         <v>480</v>
@@ -12857,7 +12648,7 @@
         <v>30.447092074702791</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="18">
         <f t="shared" si="3"/>
         <v>481</v>
@@ -12873,7 +12664,7 @@
         <v>30.433023276855177</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="18">
         <f t="shared" si="3"/>
         <v>482</v>
@@ -12889,7 +12680,7 @@
         <v>30.41932405827249</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="18">
         <f t="shared" si="3"/>
         <v>483</v>
@@ -12905,7 +12696,7 @@
         <v>30.405992123452055</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="18">
         <f t="shared" si="3"/>
         <v>484</v>
@@ -12921,7 +12712,7 @@
         <v>30.393087180738309</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="18">
         <f t="shared" si="3"/>
         <v>485</v>
@@ -12937,7 +12728,7 @@
         <v>30.380668446015136</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="18">
         <f t="shared" si="3"/>
         <v>486</v>
@@ -12953,7 +12744,7 @@
         <v>30.368053901887535</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="18">
         <f t="shared" si="3"/>
         <v>487</v>
@@ -12969,7 +12760,7 @@
         <v>30.355655433752244</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="18">
         <f t="shared" si="3"/>
         <v>488</v>
@@ -12985,7 +12776,7 @@
         <v>30.343902043191274</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="18">
         <f t="shared" si="3"/>
         <v>489</v>
@@ -13001,7 +12792,7 @@
         <v>30.331971773634645</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="18">
         <f t="shared" si="3"/>
         <v>490</v>
@@ -13017,7 +12808,7 @@
         <v>30.320069790423148</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="18">
         <f t="shared" si="3"/>
         <v>491</v>
@@ -13033,7 +12824,7 @@
         <v>30.308195920727783</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="18">
         <f t="shared" si="3"/>
         <v>492</v>
@@ -13049,7 +12840,7 @@
         <v>30.295577637108419</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="18">
         <f t="shared" si="3"/>
         <v>493</v>
@@ -13065,7 +12856,7 @@
         <v>30.283436504923614</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="18">
         <f t="shared" si="3"/>
         <v>494</v>
@@ -13081,7 +12872,7 @@
         <v>30.271627930541179</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="18">
         <f t="shared" si="3"/>
         <v>495</v>
@@ -13097,7 +12888,7 @@
         <v>30.260008481105739</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="18">
         <f t="shared" si="3"/>
         <v>496</v>
@@ -13113,7 +12904,7 @@
         <v>30.248032656930125</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="18">
         <f t="shared" si="3"/>
         <v>497</v>
@@ -13129,7 +12920,7 @@
         <v>30.235742851564066</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="18">
         <f t="shared" si="3"/>
         <v>498</v>
@@ -13145,7 +12936,7 @@
         <v>30.222598790677392</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="18">
         <f t="shared" si="3"/>
         <v>499</v>
@@ -13161,7 +12952,7 @@
         <v>30.209046486647978</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="18">
         <f t="shared" si="3"/>
         <v>500</v>
@@ -13177,7 +12968,7 @@
         <v>30.19472839215468</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="18">
         <f t="shared" si="3"/>
         <v>501</v>
@@ -13193,7 +12984,7 @@
         <v>30.180846698298083</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="18">
         <f t="shared" si="3"/>
         <v>502</v>
@@ -13209,7 +13000,7 @@
         <v>30.167478476409045</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="18">
         <f t="shared" si="3"/>
         <v>503</v>
@@ -13225,7 +13016,7 @@
         <v>30.154382097569265</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="18">
         <f t="shared" si="3"/>
         <v>504</v>
@@ -13241,7 +13032,7 @@
         <v>30.138460702851869</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="18">
         <f t="shared" si="3"/>
         <v>505</v>
@@ -13257,7 +13048,7 @@
         <v>30.122127116093743</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="18">
         <f t="shared" si="3"/>
         <v>506</v>
@@ -13273,7 +13064,7 @@
         <v>30.105917378868263</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="18">
         <f t="shared" si="3"/>
         <v>507</v>
@@ -13289,7 +13080,7 @@
         <v>30.089317937351755</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="18">
         <f t="shared" si="3"/>
         <v>508</v>
@@ -13305,7 +13096,7 @@
         <v>30.073039751825473</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" s="18">
         <f t="shared" si="3"/>
         <v>509</v>
@@ -13321,7 +13112,7 @@
         <v>30.056904115004599</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" s="18">
         <f t="shared" si="3"/>
         <v>510</v>
@@ -13337,7 +13128,7 @@
         <v>30.040400380249686</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" s="18">
         <f t="shared" si="3"/>
         <v>511</v>
@@ -13353,7 +13144,7 @@
         <v>30.024704881384224</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" s="18">
         <f t="shared" si="3"/>
         <v>512</v>
@@ -13369,7 +13160,7 @@
         <v>30.00889491151824</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" s="18">
         <f t="shared" si="3"/>
         <v>513</v>
@@ -13385,7 +13176,7 @@
         <v>29.993185566193642</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" s="18">
         <f t="shared" si="3"/>
         <v>514</v>
@@ -13401,7 +13192,7 @@
         <v>29.977498435345016</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" s="18">
         <f t="shared" si="3"/>
         <v>515</v>
@@ -13417,7 +13208,7 @@
         <v>29.961988729198715</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" s="18">
         <f t="shared" si="3"/>
         <v>516</v>
@@ -13433,7 +13224,7 @@
         <v>29.946597279064608</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" s="18">
         <f t="shared" si="3"/>
         <v>517</v>
@@ -13449,7 +13240,7 @@
         <v>29.930897864598332</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" s="18">
         <f t="shared" si="3"/>
         <v>518</v>
@@ -13465,7 +13256,7 @@
         <v>29.914930880014165</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" s="18">
         <f t="shared" si="3"/>
         <v>519</v>
@@ -13481,7 +13272,7 @@
         <v>29.899006156969822</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="18">
         <f t="shared" si="3"/>
         <v>520</v>
@@ -13497,7 +13288,7 @@
         <v>29.883027299264111</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="18">
         <f t="shared" si="3"/>
         <v>521</v>
@@ -13513,7 +13304,7 @@
         <v>29.86661073999489</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" s="18">
         <f t="shared" si="3"/>
         <v>522</v>
@@ -13529,7 +13320,7 @@
         <v>29.850621065128998</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="18">
         <f t="shared" si="3"/>
         <v>523</v>
@@ -13545,7 +13336,7 @@
         <v>29.834329246495866</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="18">
         <f t="shared" si="3"/>
         <v>524</v>
@@ -13561,7 +13352,7 @@
         <v>29.818271366407131</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="18">
         <f t="shared" si="3"/>
         <v>525</v>
@@ -13577,7 +13368,7 @@
         <v>29.802865134356836</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="18">
         <f t="shared" si="3"/>
         <v>526</v>
@@ -13593,7 +13384,7 @@
         <v>29.787327366344751</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="18">
         <f t="shared" si="3"/>
         <v>527</v>
@@ -13609,7 +13400,7 @@
         <v>29.771222379387741</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="18">
         <f t="shared" si="3"/>
         <v>528</v>
@@ -13625,7 +13416,7 @@
         <v>29.754742790960869</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="18">
         <f t="shared" si="3"/>
         <v>529</v>
@@ -13641,7 +13432,7 @@
         <v>29.738344411242608</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="18">
         <f t="shared" si="3"/>
         <v>530</v>
@@ -13657,7 +13448,7 @@
         <v>29.722290930353473</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="18">
         <f t="shared" si="3"/>
         <v>531</v>
@@ -13673,7 +13464,7 @@
         <v>29.706655731011939</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="18">
         <f t="shared" si="3"/>
         <v>532</v>
@@ -13689,7 +13480,7 @@
         <v>29.691511640577708</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="18">
         <f t="shared" si="3"/>
         <v>533</v>
@@ -13705,7 +13496,7 @@
         <v>29.676461900313956</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="18">
         <f t="shared" si="3"/>
         <v>534</v>
@@ -13721,7 +13512,7 @@
         <v>29.662592122335841</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="18">
         <f t="shared" si="3"/>
         <v>535</v>
@@ -13737,7 +13528,7 @@
         <v>29.649353632238018</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="18">
         <f t="shared" si="3"/>
         <v>536</v>
@@ -13753,7 +13544,7 @@
         <v>29.636127225218917</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="18">
         <f t="shared" si="3"/>
         <v>537</v>
@@ -13769,7 +13560,7 @@
         <v>29.623322519455009</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="18">
         <f t="shared" si="3"/>
         <v>538</v>
@@ -13785,7 +13576,7 @@
         <v>29.609747569957882</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="18">
         <f t="shared" si="3"/>
         <v>539</v>
@@ -13801,7 +13592,7 @@
         <v>29.595647853186161</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" s="18">
         <f t="shared" si="3"/>
         <v>540</v>
@@ -13817,7 +13608,7 @@
         <v>29.581933691476557</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" s="18">
         <f t="shared" si="3"/>
         <v>541</v>
@@ -13833,7 +13624,7 @@
         <v>29.568011446649429</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="18">
         <f t="shared" si="3"/>
         <v>542</v>
@@ -13849,7 +13640,7 @@
         <v>29.554029875290293</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="18">
         <f t="shared" si="3"/>
         <v>543</v>
@@ -13865,7 +13656,7 @@
         <v>29.540486543586262</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="18">
         <f t="shared" si="3"/>
         <v>544</v>
@@ -13881,7 +13672,7 @@
         <v>29.527250355362757</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="18">
         <f t="shared" si="3"/>
         <v>545</v>
@@ -13897,7 +13688,7 @@
         <v>29.514301270875851</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="18">
         <f t="shared" si="3"/>
         <v>546</v>
@@ -13913,7 +13704,7 @@
         <v>29.500996689793663</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="18">
         <f t="shared" si="3"/>
         <v>547</v>
@@ -13929,7 +13720,7 @@
         <v>29.487503095918353</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="18">
         <f t="shared" si="3"/>
         <v>548</v>
@@ -13945,7 +13736,7 @@
         <v>29.473620789465947</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="18">
         <f t="shared" si="3"/>
         <v>549</v>
@@ -13961,7 +13752,7 @@
         <v>29.460080498264738</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="18">
         <f t="shared" si="3"/>
         <v>550</v>
@@ -13977,7 +13768,7 @@
         <v>29.447025807704254</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="18">
         <f t="shared" si="3"/>
         <v>551</v>
@@ -13993,7 +13784,7 @@
         <v>29.433582931320036</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="18">
         <f t="shared" si="3"/>
         <v>552</v>
@@ -14009,7 +13800,7 @@
         <v>29.420786586951703</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="18">
         <f t="shared" si="3"/>
         <v>553</v>
@@ -14025,7 +13816,7 @@
         <v>29.40794610431707</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="18">
         <f t="shared" si="3"/>
         <v>554</v>
@@ -14041,7 +13832,7 @@
         <v>29.394917321691949</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="18">
         <f t="shared" si="3"/>
         <v>555</v>
@@ -14057,7 +13848,7 @@
         <v>29.381755308769979</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="18">
         <f t="shared" si="3"/>
         <v>556</v>
@@ -14073,7 +13864,7 @@
         <v>29.368424812369312</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="18">
         <f t="shared" si="3"/>
         <v>557</v>
@@ -14089,7 +13880,7 @@
         <v>29.354693348271702</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="18">
         <f t="shared" si="3"/>
         <v>558</v>
@@ -14105,7 +13896,7 @@
         <v>29.340885653418169</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" s="18">
         <f t="shared" si="3"/>
         <v>559</v>
@@ -14121,7 +13912,7 @@
         <v>29.326876913841392</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" s="18">
         <f t="shared" si="3"/>
         <v>560</v>
@@ -14137,7 +13928,7 @@
         <v>29.313918204513104</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" s="18">
         <f t="shared" si="3"/>
         <v>561</v>
@@ -14153,7 +13944,7 @@
         <v>29.300827439995256</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" s="18">
         <f t="shared" si="3"/>
         <v>562</v>
@@ -14169,7 +13960,7 @@
         <v>29.287694295226583</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" s="18">
         <f t="shared" si="3"/>
         <v>563</v>
@@ -14185,7 +13976,7 @@
         <v>29.275193950119608</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" s="18">
         <f t="shared" si="3"/>
         <v>564</v>
@@ -14199,374 +13990,6 @@
       <c r="D566" s="18">
         <f>SUM(C$3:C566)/A566</f>
         <v>29.263021620154856</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4">
-      <c r="A567" s="18">
-        <f t="shared" si="3"/>
-        <v>565</v>
-      </c>
-      <c r="B567" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="C567" s="20">
-        <v>22.309999470000001</v>
-      </c>
-      <c r="D567" s="18">
-        <f>SUM(C$3:C567)/A567</f>
-        <v>29.250715386260772</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4">
-      <c r="A568" s="18">
-        <f t="shared" si="3"/>
-        <v>566</v>
-      </c>
-      <c r="B568" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="C568" s="20">
-        <v>22.239999770000001</v>
-      </c>
-      <c r="D568" s="18">
-        <f>SUM(C$3:C568)/A568</f>
-        <v>29.23832896291049</v>
-      </c>
-    </row>
-    <row r="569" spans="1:4">
-      <c r="A569" s="18">
-        <f t="shared" si="3"/>
-        <v>567</v>
-      </c>
-      <c r="B569" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="C569" s="20">
-        <v>22.350000380000001</v>
-      </c>
-      <c r="D569" s="18">
-        <f>SUM(C$3:C569)/A569</f>
-        <v>29.226180235251036</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4">
-      <c r="A570" s="18">
-        <f t="shared" si="3"/>
-        <v>568</v>
-      </c>
-      <c r="B570" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="C570" s="20">
-        <v>22.510000229999999</v>
-      </c>
-      <c r="D570" s="18">
-        <f>SUM(C$3:C570)/A570</f>
-        <v>29.214355974678409</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4">
-      <c r="A571" s="18">
-        <f t="shared" si="3"/>
-        <v>569</v>
-      </c>
-      <c r="B571" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="C571" s="20">
-        <v>22.290000920000001</v>
-      </c>
-      <c r="D571" s="18">
-        <f>SUM(C$3:C571)/A571</f>
-        <v>29.202186633633278</v>
-      </c>
-    </row>
-    <row r="572" spans="1:4">
-      <c r="A572" s="18">
-        <f t="shared" si="3"/>
-        <v>570</v>
-      </c>
-      <c r="B572" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="C572" s="20">
-        <v>22.219999309999999</v>
-      </c>
-      <c r="D572" s="18">
-        <f>SUM(C$3:C572)/A572</f>
-        <v>29.189937182188306</v>
-      </c>
-    </row>
-    <row r="573" spans="1:4">
-      <c r="A573" s="18">
-        <f t="shared" si="3"/>
-        <v>571</v>
-      </c>
-      <c r="B573" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="C573" s="20">
-        <v>22.100000380000001</v>
-      </c>
-      <c r="D573" s="18">
-        <f>SUM(C$3:C573)/A573</f>
-        <v>29.177520480258032</v>
-      </c>
-    </row>
-    <row r="574" spans="1:4">
-      <c r="A574" s="18">
-        <f t="shared" si="3"/>
-        <v>572</v>
-      </c>
-      <c r="B574" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="C574" s="20">
-        <v>22.090000150000002</v>
-      </c>
-      <c r="D574" s="18">
-        <f>SUM(C$3:C574)/A574</f>
-        <v>29.165129710449889</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4">
-      <c r="A575" s="18">
-        <f t="shared" si="3"/>
-        <v>573</v>
-      </c>
-      <c r="B575" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="C575" s="20">
-        <v>21.620000839999999</v>
-      </c>
-      <c r="D575" s="18">
-        <f>SUM(C$3:C575)/A575</f>
-        <v>29.151961946278075</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4">
-      <c r="A576" s="18">
-        <f t="shared" si="3"/>
-        <v>574</v>
-      </c>
-      <c r="B576" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="C576" s="20">
-        <v>21.409999849999998</v>
-      </c>
-      <c r="D576" s="18">
-        <f>SUM(C$3:C576)/A576</f>
-        <v>29.138474207434385</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4">
-      <c r="A577" s="18">
-        <f t="shared" si="3"/>
-        <v>575</v>
-      </c>
-      <c r="B577" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="C577" s="20">
-        <v>21.229999540000001</v>
-      </c>
-      <c r="D577" s="18">
-        <f>SUM(C$3:C577)/A577</f>
-        <v>29.124720338447538</v>
-      </c>
-    </row>
-    <row r="578" spans="1:4">
-      <c r="A578" s="18">
-        <f t="shared" si="3"/>
-        <v>576</v>
-      </c>
-      <c r="B578" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="C578" s="20">
-        <v>21.010000229999999</v>
-      </c>
-      <c r="D578" s="18">
-        <f>SUM(C$3:C578)/A578</f>
-        <v>29.110632282703705</v>
-      </c>
-    </row>
-    <row r="579" spans="1:4">
-      <c r="A579" s="18">
-        <f t="shared" si="3"/>
-        <v>577</v>
-      </c>
-      <c r="B579" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="C579" s="20">
-        <v>21.149999619999999</v>
-      </c>
-      <c r="D579" s="18">
-        <f>SUM(C$3:C579)/A579</f>
-        <v>29.096835692300406</v>
-      </c>
-    </row>
-    <row r="580" spans="1:4">
-      <c r="A580" s="18">
-        <f t="shared" si="3"/>
-        <v>578</v>
-      </c>
-      <c r="B580" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="C580" s="20">
-        <v>20.829999919999999</v>
-      </c>
-      <c r="D580" s="18">
-        <f>SUM(C$3:C580)/A580</f>
-        <v>29.082533208265282</v>
-      </c>
-    </row>
-    <row r="581" spans="1:4">
-      <c r="A581" s="18">
-        <f t="shared" si="3"/>
-        <v>579</v>
-      </c>
-      <c r="B581" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="C581" s="20">
-        <v>20.549999239999998</v>
-      </c>
-      <c r="D581" s="18">
-        <f>SUM(C$3:C581)/A581</f>
-        <v>29.067796534744961</v>
-      </c>
-    </row>
-    <row r="582" spans="1:4">
-      <c r="A582" s="18">
-        <f t="shared" si="3"/>
-        <v>580</v>
-      </c>
-      <c r="B582" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="C582" s="20">
-        <v>20.629999160000001</v>
-      </c>
-      <c r="D582" s="18">
-        <f>SUM(C$3:C582)/A582</f>
-        <v>29.053248608236778</v>
-      </c>
-    </row>
-    <row r="583" spans="1:4">
-      <c r="A583" s="18">
-        <f t="shared" si="3"/>
-        <v>581</v>
-      </c>
-      <c r="B583" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="C583" s="20">
-        <v>20.159999849999998</v>
-      </c>
-      <c r="D583" s="18">
-        <f>SUM(C$3:C583)/A583</f>
-        <v>29.037941811751001</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4">
-      <c r="A584" s="18">
-        <f t="shared" si="3"/>
-        <v>582</v>
-      </c>
-      <c r="B584" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="C584" s="20">
-        <v>20.399999619999999</v>
-      </c>
-      <c r="D584" s="18">
-        <f>SUM(C$3:C584)/A584</f>
-        <v>29.023099986679263</v>
-      </c>
-    </row>
-    <row r="585" spans="1:4">
-      <c r="A585" s="18">
-        <f t="shared" si="3"/>
-        <v>583</v>
-      </c>
-      <c r="B585" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="C585" s="20">
-        <v>20.149999619999999</v>
-      </c>
-      <c r="D585" s="18">
-        <f>SUM(C$3:C585)/A585</f>
-        <v>29.007880260492847</v>
-      </c>
-    </row>
-    <row r="586" spans="1:4">
-      <c r="A586" s="18">
-        <f t="shared" si="3"/>
-        <v>584</v>
-      </c>
-      <c r="B586" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="C586" s="20">
-        <v>20.399999619999999</v>
-      </c>
-      <c r="D586" s="18">
-        <f>SUM(C$3:C586)/A586</f>
-        <v>28.993140738848169</v>
-      </c>
-    </row>
-    <row r="587" spans="1:4">
-      <c r="A587" s="18">
-        <f t="shared" si="3"/>
-        <v>585</v>
-      </c>
-      <c r="B587" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="C587" s="20">
-        <v>20.879999160000001</v>
-      </c>
-      <c r="D587" s="18">
-        <f>SUM(C$3:C587)/A587</f>
-        <v>28.979272120764666</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4">
-      <c r="A588" s="18">
-        <f t="shared" si="3"/>
-        <v>586</v>
-      </c>
-      <c r="B588" s="19">
-        <v>45168</v>
-      </c>
-      <c r="C588" s="20">
-        <v>20.989999770000001</v>
-      </c>
-      <c r="D588" s="18">
-        <f>SUM(C$3:C588)/A588</f>
-        <v>28.965638550200225</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4">
-      <c r="A589" s="18">
-        <f t="shared" si="3"/>
-        <v>587</v>
-      </c>
-      <c r="B589" s="19">
-        <v>45169</v>
-      </c>
-      <c r="C589" s="20">
-        <v>20.899999619999999</v>
-      </c>
-      <c r="D589" s="18">
-        <f>SUM(C$3:C589)/A589</f>
-        <v>28.951898109092557</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="模型一" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="418">
   <si>
     <t>PE</t>
   </si>
@@ -1547,6 +1547,90 @@
   </si>
   <si>
     <t xml:space="preserve">2023/7/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/29
 </t>
   </si>
   <si>
@@ -1621,7 +1705,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2173,133 +2257,133 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7161979980468751</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.6159379882812499</c:v>
+                  <c:v>45044</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.4505849609374999</c:v>
+                  <c:v>45077</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.608843017578125</c:v>
+                  <c:v>45107</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.6303940429687498</c:v>
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2311,130 +2395,130 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>2000.0000000000002</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3783.4996370436897</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6143.6117008713063</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8173.7580810682693</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11353.811149064422</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14968.552321848347</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16822.477397497114</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18240.153038857396</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21221.531045139225</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23603.74034292587</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28072.985437531297</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31610.696441599135</c:v>
+                  <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31960.877336479982</c:v>
+                  <c:v>26000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32030.541196234128</c:v>
+                  <c:v>28000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36542.468793623324</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40028.514786085325</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43079.887556825692</c:v>
+                  <c:v>34000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43952.380972166822</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44041.688138414858</c:v>
+                  <c:v>38000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45572.995207693384</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49094.404023982002</c:v>
+                  <c:v>42000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51969.911593071687</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53008.069006718506</c:v>
+                  <c:v>46000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49351.052479165373</c:v>
+                  <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51254.60334650999</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>47701.945217252243</c:v>
+                  <c:v>52000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45202.535414395512</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48944.813088421164</c:v>
+                  <c:v>56000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57317.86097478633</c:v>
+                  <c:v>58000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56010.270798873862</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55547.679913640975</c:v>
+                  <c:v>62000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52229.088937270295</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>53475.074735568647</c:v>
+                  <c:v>66000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58406.85441256113</c:v>
+                  <c:v>68000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>60293.406710853284</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>68151.7828856181</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67767.93214664339</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70476.779226985323</c:v>
+                  <c:v>76000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>70575.372849483087</c:v>
+                  <c:v>78000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69348.035546023719</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>74528.622449867675</c:v>
+                  <c:v>82000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>76973.687038967822</c:v>
+                  <c:v>84000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2476,133 +2560,133 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7161979980468751</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.6159379882812499</c:v>
+                  <c:v>45044</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.4505849609374999</c:v>
+                  <c:v>45077</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.608843017578125</c:v>
+                  <c:v>45107</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.6303940429687498</c:v>
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2614,130 +2698,130 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2000.0000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-216.50036295631025</c:v>
+                  <c:v>3783.4996370436897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143.61170087130631</c:v>
+                  <c:v>6143.6117008713063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>173.75808106826935</c:v>
+                  <c:v>8173.7580810682693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1353.8111490644224</c:v>
+                  <c:v>11353.811149064422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2968.5523218483468</c:v>
+                  <c:v>14968.552321848347</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2822.477397497114</c:v>
+                  <c:v>16822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2240.1530388573956</c:v>
+                  <c:v>18240.153038857396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3221.5310451392252</c:v>
+                  <c:v>21221.531045139225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3603.7403429258702</c:v>
+                  <c:v>23603.74034292587</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6072.9854375312971</c:v>
+                  <c:v>28072.985437531297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7610.6964415991351</c:v>
+                  <c:v>31610.696441599135</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5960.8773364799818</c:v>
+                  <c:v>31960.877336479982</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4030.5411962341277</c:v>
+                  <c:v>32030.541196234128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6542.468793623324</c:v>
+                  <c:v>36542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8028.5147860853249</c:v>
+                  <c:v>40028.514786085325</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9079.8875568256917</c:v>
+                  <c:v>43079.887556825692</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7952.3809721668222</c:v>
+                  <c:v>43952.380972166822</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6041.6881384148583</c:v>
+                  <c:v>44041.688138414858</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5572.9952076933841</c:v>
+                  <c:v>45572.995207693384</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7094.4040239820024</c:v>
+                  <c:v>49094.404023982002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7969.9115930716871</c:v>
+                  <c:v>51969.911593071687</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7008.069006718506</c:v>
+                  <c:v>53008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1351.0524791653734</c:v>
+                  <c:v>49351.052479165373</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1254.6033465099899</c:v>
+                  <c:v>51254.60334650999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-4298.0547827477567</c:v>
+                  <c:v>47701.945217252243</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-8797.4645856044881</c:v>
+                  <c:v>45202.535414395512</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-7055.1869115788359</c:v>
+                  <c:v>48944.813088421164</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-682.13902521366981</c:v>
+                  <c:v>57317.86097478633</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3989.7292011261379</c:v>
+                  <c:v>56010.270798873862</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-6452.3200863590246</c:v>
+                  <c:v>55547.679913640975</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-11770.911062729705</c:v>
+                  <c:v>52229.088937270295</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-12524.925264431353</c:v>
+                  <c:v>53475.074735568647</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-9593.1455874388703</c:v>
+                  <c:v>58406.85441256113</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-9706.5932891467164</c:v>
+                  <c:v>60293.406710853284</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-3848.2171143818996</c:v>
+                  <c:v>68151.7828856181</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-6232.0678533566097</c:v>
+                  <c:v>67767.93214664339</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-5523.2207730146765</c:v>
+                  <c:v>70476.779226985323</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-7424.6271505169134</c:v>
+                  <c:v>70575.372849483087</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-10651.964453976281</c:v>
+                  <c:v>69348.035546023719</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-7471.3775501323253</c:v>
+                  <c:v>74528.622449867675</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-7026.3129610321776</c:v>
+                  <c:v>76973.687038967822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2779,133 +2863,133 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7161979980468751</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.6159379882812499</c:v>
+                  <c:v>45044</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.4505849609374999</c:v>
+                  <c:v>45077</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.608843017578125</c:v>
+                  <c:v>45107</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.6303940429687498</c:v>
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2914,8 +2998,134 @@
             <c:numRef>
               <c:f>模型一!金额</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-216.50036295631025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143.61170087130631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173.75808106826935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1353.8111490644224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2968.5523218483468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2822.477397497114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2240.1530388573956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3221.5310451392252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3603.7403429258702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6072.9854375312971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7610.6964415991351</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5960.8773364799818</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4030.5411962341277</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6542.468793623324</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8028.5147860853249</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9079.8875568256917</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7952.3809721668222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6041.6881384148583</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5572.9952076933841</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7094.4040239820024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7969.9115930716871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7008.069006718506</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1351.0524791653734</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1254.6033465099899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4298.0547827477567</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-8797.4645856044881</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7055.1869115788359</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-682.13902521366981</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3989.7292011261379</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6452.3200863590246</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-11770.911062729705</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-12524.925264431353</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-9593.1455874388703</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9706.5932891467164</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3848.2171143818996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6232.0678533566097</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-5523.2207730146765</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7424.6271505169134</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-10651.964453976281</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7471.3775501323253</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7026.3129610321776</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2936,17 +3146,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="43804928"/>
-        <c:axId val="45293568"/>
+        <c:axId val="92341760"/>
+        <c:axId val="92343296"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="43804928"/>
+      <c:dateAx>
+        <c:axId val="92341760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2983,15 +3193,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45293568"/>
+        <c:crossAx val="92343296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="45293568"/>
+        <c:axId val="92343296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3042,7 +3251,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43804928"/>
+        <c:crossAx val="92341760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3450,12 +3659,12 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -3476,44 +3685,44 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
         <v>2000</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3522,7 +3731,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="14.1" customHeight="1">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -3552,25 +3761,25 @@
       </c>
       <c r="J3" s="6"/>
       <c r="L3" s="26" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="T3" s="23">
         <v>44196</v>
@@ -3593,7 +3802,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="14.1" customHeight="1">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -3664,7 +3873,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="14.1" customHeight="1">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -3731,7 +3940,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="14.1" customHeight="1">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -3791,7 +4000,7 @@
         <v>60293.406710853284</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="14.1" customHeight="1">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -3824,7 +4033,7 @@
         <v>-7.3828223896210132E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="14.1" customHeight="1">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -3854,7 +4063,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="14.1" customHeight="1">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -3884,7 +4093,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="14.1" customHeight="1">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -3914,7 +4123,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="14.1" customHeight="1">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -3944,7 +4153,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="14.1" customHeight="1">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -3974,7 +4183,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="14.1" customHeight="1">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -4004,7 +4213,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="14.1" customHeight="1">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -4034,7 +4243,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="14.1" customHeight="1">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -4064,7 +4273,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="14.1" customHeight="1">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -4094,7 +4303,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -4124,7 +4333,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -4154,7 +4363,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -4184,7 +4393,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -4214,7 +4423,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -4245,7 +4454,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -4275,7 +4484,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -4305,7 +4514,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -4335,7 +4544,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -4365,7 +4574,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -4395,7 +4604,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -4425,7 +4634,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -4455,7 +4664,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -4485,7 +4694,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -4515,7 +4724,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -4545,7 +4754,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -4575,7 +4784,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -4606,7 +4815,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="12.75">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -4635,7 +4844,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="12.75">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -4664,7 +4873,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="12.75">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -4693,7 +4902,7 @@
         <v>-9593.1455874388703</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="12.75">
       <c r="A37" s="14">
         <v>44925</v>
       </c>
@@ -4722,7 +4931,7 @@
         <v>-9706.5932891467164</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="12.75">
       <c r="A38" s="14">
         <v>44957</v>
       </c>
@@ -4751,7 +4960,7 @@
         <v>-3848.2171143818996</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="12.75">
       <c r="A39" s="14">
         <v>44985</v>
       </c>
@@ -4780,7 +4989,7 @@
         <v>-6232.0678533566097</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="12.75">
       <c r="A40" s="14">
         <v>45016</v>
       </c>
@@ -4809,7 +5018,7 @@
         <v>-5523.2207730146765</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="12.75">
       <c r="A41" s="14">
         <v>45044</v>
       </c>
@@ -4838,7 +5047,7 @@
         <v>-7424.6271505169134</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="12.75">
       <c r="A42" s="14">
         <v>45077</v>
       </c>
@@ -4867,7 +5076,7 @@
         <v>-10651.964453976281</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="12.75">
       <c r="A43" s="14">
         <v>45107</v>
       </c>
@@ -4896,7 +5105,7 @@
         <v>-7471.3775501323253</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="12.75">
       <c r="A44" s="14">
         <v>45138</v>
       </c>
@@ -4938,13 +5147,13 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D566"/>
+  <dimension ref="A1:D589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -4952,7 +5161,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="B1" s="30" t="s">
         <v>181</v>
       </c>
@@ -4960,7 +5169,7 @@
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
@@ -4969,7 +5178,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -4984,7 +5193,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -5000,7 +5209,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5016,7 +5225,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5032,7 +5241,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5048,7 +5257,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5064,7 +5273,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5080,7 +5289,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5096,7 +5305,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5112,7 +5321,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5128,7 +5337,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5144,7 +5353,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5160,7 +5369,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5176,7 +5385,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5192,7 +5401,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5208,7 +5417,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5224,7 +5433,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5240,7 +5449,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5256,7 +5465,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5272,7 +5481,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5288,7 +5497,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5304,7 +5513,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5320,7 +5529,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5336,7 +5545,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5352,7 +5561,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5368,7 +5577,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5384,7 +5593,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5400,7 +5609,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5416,7 +5625,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5432,7 +5641,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5448,7 +5657,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5464,7 +5673,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5480,7 +5689,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5496,7 +5705,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5512,7 +5721,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -5528,7 +5737,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -5544,7 +5753,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -5560,7 +5769,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -5576,7 +5785,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -5592,7 +5801,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -5608,7 +5817,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -5624,7 +5833,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -5640,7 +5849,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -5656,7 +5865,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -5672,7 +5881,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -5688,7 +5897,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -5704,7 +5913,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -5720,7 +5929,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -5736,7 +5945,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -5752,7 +5961,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -5768,7 +5977,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -5784,7 +5993,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -5800,7 +6009,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -5816,7 +6025,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -5832,7 +6041,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -5848,7 +6057,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -5864,7 +6073,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -5880,7 +6089,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -5896,7 +6105,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -5912,7 +6121,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -5928,7 +6137,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -5944,7 +6153,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -5960,7 +6169,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -5976,7 +6185,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -5992,7 +6201,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -6008,7 +6217,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -6024,7 +6233,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -6040,7 +6249,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -6056,7 +6265,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -6072,7 +6281,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -6088,7 +6297,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -6104,7 +6313,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -6120,7 +6329,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -6136,7 +6345,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -6152,7 +6361,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -6168,7 +6377,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -6184,7 +6393,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -6200,7 +6409,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -6216,7 +6425,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -6232,7 +6441,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -6248,7 +6457,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -6264,7 +6473,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -6280,7 +6489,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -6296,7 +6505,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -6312,7 +6521,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -6328,7 +6537,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -6344,7 +6553,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -6360,7 +6569,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -6376,7 +6585,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -6392,7 +6601,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -6408,7 +6617,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -6424,7 +6633,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -6440,7 +6649,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -6456,7 +6665,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -6472,7 +6681,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -6488,7 +6697,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -6504,7 +6713,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -6520,7 +6729,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -6536,7 +6745,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -6552,7 +6761,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -6568,7 +6777,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -6584,7 +6793,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -6600,7 +6809,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -6616,7 +6825,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -6632,7 +6841,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -6648,7 +6857,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -6664,7 +6873,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -6680,7 +6889,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -6696,7 +6905,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -6712,7 +6921,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -6728,7 +6937,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -6744,7 +6953,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -6760,7 +6969,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -6776,7 +6985,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -6792,7 +7001,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -6808,7 +7017,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -6824,7 +7033,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -6840,7 +7049,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -6856,7 +7065,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -6872,7 +7081,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -6888,7 +7097,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -6904,7 +7113,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -6920,7 +7129,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -6936,7 +7145,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -6952,7 +7161,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -6968,7 +7177,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -6984,7 +7193,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -7000,7 +7209,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -7016,7 +7225,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -7032,7 +7241,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -7048,7 +7257,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -7064,7 +7273,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -7080,7 +7289,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -7096,7 +7305,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -7112,7 +7321,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -7128,7 +7337,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -7144,7 +7353,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -7160,7 +7369,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -7176,7 +7385,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -7192,7 +7401,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -7208,7 +7417,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -7224,7 +7433,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -7240,7 +7449,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -7256,7 +7465,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -7272,7 +7481,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -7288,7 +7497,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -7304,7 +7513,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -7320,7 +7529,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -7336,7 +7545,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -7352,7 +7561,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -7368,7 +7577,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -7384,7 +7593,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -7400,7 +7609,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -7416,7 +7625,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -7432,7 +7641,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -7448,7 +7657,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -7464,7 +7673,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -7480,7 +7689,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -7496,7 +7705,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -7512,7 +7721,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -7528,7 +7737,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -7544,7 +7753,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -7560,7 +7769,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -7576,7 +7785,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -7592,7 +7801,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -7608,7 +7817,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -7624,7 +7833,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -7640,7 +7849,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -7656,7 +7865,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -7672,7 +7881,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -7688,7 +7897,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -7704,7 +7913,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -7720,7 +7929,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -7736,7 +7945,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -7752,7 +7961,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -7768,7 +7977,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -7784,7 +7993,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -7800,7 +8009,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -7816,7 +8025,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -7832,7 +8041,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -7848,7 +8057,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -7864,7 +8073,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -7880,7 +8089,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -7896,7 +8105,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -7912,7 +8121,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -7928,7 +8137,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -7944,7 +8153,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -7960,7 +8169,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -7976,7 +8185,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -7992,7 +8201,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -8008,7 +8217,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -8024,7 +8233,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -8040,7 +8249,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -8056,7 +8265,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -8072,7 +8281,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -8088,7 +8297,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -8104,7 +8313,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -8120,7 +8329,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -8136,7 +8345,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -8152,7 +8361,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -8168,7 +8377,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -8184,7 +8393,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -8200,7 +8409,7 @@
         <v>37.709801928118821</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -8216,7 +8425,7 @@
         <v>37.677783194876852</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -8232,7 +8441,7 @@
         <v>37.643186222549026</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -8248,7 +8457,7 @@
         <v>37.61082921770732</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -8264,7 +8473,7 @@
         <v>37.576601888834951</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -8280,7 +8489,7 @@
         <v>37.53951685371981</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -8296,7 +8505,7 @@
         <v>37.502548024519236</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -8312,7 +8521,7 @@
         <v>37.469330088851677</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -8328,7 +8537,7 @@
         <v>37.436714235285713</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -8344,7 +8553,7 @@
         <v>37.405118435402848</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -8360,7 +8569,7 @@
         <v>37.373584854622642</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -8376,7 +8585,7 @@
         <v>37.341971777323948</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -8392,7 +8601,7 @@
         <v>37.308551350934586</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -8408,7 +8617,7 @@
         <v>37.279162738930239</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -8424,7 +8633,7 @@
         <v>37.24703698620371</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -8440,7 +8649,7 @@
         <v>37.217787966082959</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -8456,7 +8665,7 @@
         <v>37.189128385091756</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -8472,7 +8681,7 @@
         <v>37.160593554703212</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -8488,7 +8697,7 @@
         <v>37.130136307090922</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -8504,7 +8713,7 @@
         <v>37.098280487375575</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -8520,7 +8729,7 @@
         <v>37.064549496936955</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -8536,7 +8745,7 @@
         <v>37.025425957264588</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -8552,7 +8761,7 @@
         <v>36.983839230133938</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -8568,7 +8777,7 @@
         <v>36.941866615422235</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -8584,7 +8793,7 @@
         <v>36.903230033407091</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -8600,7 +8809,7 @@
         <v>36.865991137929527</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -8616,7 +8825,7 @@
         <v>36.824824508114048</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -8632,7 +8841,7 @@
         <v>36.779912614716174</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -8648,7 +8857,7 @@
         <v>36.740347778608708</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -8664,7 +8873,7 @@
         <v>36.704372248441572</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -8680,7 +8889,7 @@
         <v>36.668318920431048</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -8696,7 +8905,7 @@
         <v>36.63334759656653</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -8712,7 +8921,7 @@
         <v>36.597521324786335</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -8728,7 +8937,7 @@
         <v>36.562765916212776</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -8744,7 +8953,7 @@
         <v>36.527669453389834</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -8760,7 +8969,7 @@
         <v>36.490042158691992</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -8776,7 +8985,7 @@
         <v>36.450924335798327</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -8792,7 +9001,7 @@
         <v>36.41142256129708</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -8808,7 +9017,7 @@
         <v>36.376291632041678</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -8824,7 +9033,7 @@
         <v>36.340041456763494</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -8840,7 +9049,7 @@
         <v>36.304917319132237</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -8856,7 +9065,7 @@
         <v>36.269300373868319</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -8872,7 +9081,7 @@
         <v>36.232131113155745</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -8888,7 +9097,7 @@
         <v>36.195142823224494</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -8904,7 +9113,7 @@
         <v>36.154146310162609</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -8920,7 +9129,7 @@
         <v>36.115546530931177</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -8936,7 +9145,7 @@
         <v>36.075483844556452</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -8952,7 +9161,7 @@
         <v>36.036385516465863</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -8968,7 +9177,7 @@
         <v>35.997079970720002</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -8984,7 +9193,7 @@
         <v>35.958844590836655</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -9000,7 +9209,7 @@
         <v>35.919801560079364</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -9016,7 +9225,7 @@
         <v>35.878497993873516</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -9032,7 +9241,7 @@
         <v>35.83523618834645</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -9048,7 +9257,7 @@
         <v>35.79231369109803</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -9064,7 +9273,7 @@
         <v>35.74410153121093</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -9080,7 +9289,7 @@
         <v>35.695175066420227</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -9096,7 +9305,7 @@
         <v>35.650930204496113</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -9112,7 +9321,7 @@
         <v>35.606409241698827</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -9128,7 +9337,7 @@
         <v>35.566115356769217</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -9144,7 +9353,7 @@
         <v>35.518850545210718</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -9160,7 +9369,7 @@
         <v>35.469999967977095</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -9176,7 +9385,7 @@
         <v>35.420532283992387</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -9192,7 +9401,7 @@
         <v>35.37265148249999</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -9208,7 +9417,7 @@
         <v>35.327660347698107</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -9224,7 +9433,7 @@
         <v>35.282706740526301</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -9240,7 +9449,7 @@
         <v>35.238764015805231</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -9256,7 +9465,7 @@
         <v>35.194179078880587</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -9272,7 +9481,7 @@
         <v>35.151561311078062</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -9288,7 +9497,7 @@
         <v>35.109185154666655</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -9304,7 +9513,7 @@
         <v>35.067416947158662</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -9320,7 +9529,7 @@
         <v>35.027352914264696</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -9336,7 +9545,7 @@
         <v>34.987142827545782</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -9352,7 +9561,7 @@
         <v>34.944160551094882</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -9368,7 +9577,7 @@
         <v>34.901854510799993</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -9384,7 +9593,7 @@
         <v>34.85992750141304</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -9400,7 +9609,7 @@
         <v>34.818447621768946</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -9416,7 +9625,7 @@
         <v>34.778237376330928</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -9432,7 +9641,7 @@
         <v>34.740071647956981</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -9448,7 +9657,7 @@
         <v>34.70282139017857</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -9464,7 +9673,7 @@
         <v>34.666548005266904</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -9480,7 +9689,7 @@
         <v>34.633439678723406</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -9496,7 +9705,7 @@
         <v>34.600353321060069</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -9512,7 +9721,7 @@
         <v>34.568168975140843</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -9528,7 +9737,7 @@
         <v>34.533719259438591</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -9544,7 +9753,7 @@
         <v>34.501713245104895</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -9560,7 +9769,7 @@
         <v>34.441254312613239</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -9576,7 +9785,7 @@
         <v>34.410590237256947</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -9592,7 +9801,7 @@
         <v>34.381418643148791</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -9608,7 +9817,7 @@
         <v>34.352517199551727</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -9624,7 +9833,7 @@
         <v>34.325532604364263</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -9640,7 +9849,7 @@
         <v>34.300479411301374</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -9656,7 +9865,7 @@
         <v>34.275528968839595</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -9672,7 +9881,7 @@
         <v>34.249421728741503</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -9688,7 +9897,7 @@
         <v>34.225660976338986</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -9704,7 +9913,7 @@
         <v>34.203749958750002</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -9720,7 +9929,7 @@
         <v>34.182424204141412</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -9736,7 +9945,7 @@
         <v>34.162248284261743</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -9752,7 +9961,7 @@
         <v>34.139999963010034</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -9768,7 +9977,7 @@
         <v>34.118899961366665</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -9784,7 +9993,7 @@
         <v>34.097375374750825</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -9800,7 +10009,7 @@
         <v>34.077450290463574</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -9816,7 +10025,7 @@
         <v>34.057161676666666</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -9832,7 +10041,7 @@
         <v>34.036282852335525</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -9848,7 +10057,7 @@
         <v>34.016754055836067</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -9864,7 +10073,7 @@
         <v>33.996633946535951</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -9880,7 +10089,7 @@
         <v>33.974755662312702</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -9896,7 +10105,7 @@
         <v>33.951363599967529</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -9912,7 +10121,7 @@
         <v>33.928932004045308</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -9928,7 +10137,7 @@
         <v>33.908064478483865</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -9944,7 +10153,7 @@
         <v>33.886044976848872</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -9960,7 +10169,7 @@
         <v>33.865032011923077</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -9976,7 +10185,7 @@
         <v>33.843258744281151</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -9992,7 +10201,7 @@
         <v>33.821847094904456</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -10008,7 +10217,7 @@
         <v>33.799841229174596</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -10024,7 +10233,7 @@
         <v>33.777689830474678</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -10040,7 +10249,7 @@
         <v>33.754952637602521</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -10056,7 +10265,7 @@
         <v>33.732798695597481</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -10072,7 +10281,7 @@
         <v>33.71050152363636</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -10088,7 +10297,7 @@
         <v>33.688624953499996</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -10104,7 +10313,7 @@
         <v>33.665700887975071</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -10120,7 +10329,7 @@
         <v>33.644596229440985</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -10136,7 +10345,7 @@
         <v>33.621981380433432</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -10152,7 +10361,7 @@
         <v>33.598333289753079</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -10168,7 +10377,7 @@
         <v>33.575199956553838</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -10184,7 +10393,7 @@
         <v>33.553374186993857</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -10200,7 +10409,7 @@
         <v>33.531651332477054</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -10216,7 +10425,7 @@
         <v>33.510396296310965</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -10232,7 +10441,7 @@
         <v>33.488176249088134</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -10248,7 +10457,7 @@
         <v>33.467939351363626</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -10264,7 +10473,7 @@
         <v>33.447250715377635</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -10280,7 +10489,7 @@
         <v>33.426957788765044</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -10296,7 +10505,7 @@
         <v>33.406816772312297</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -10312,7 +10521,7 @@
         <v>33.388113727634718</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -10328,7 +10537,7 @@
         <v>33.369134285731334</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -10344,7 +10553,7 @@
         <v>33.348869003541658</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -10360,7 +10569,7 @@
         <v>33.32994060682492</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -10376,7 +10585,7 @@
         <v>33.310798772514786</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -10392,7 +10601,7 @@
         <v>33.289085504041289</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -10408,7 +10617,7 @@
         <v>33.267352898499993</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -10424,7 +10633,7 @@
         <v>33.245395853900284</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -10440,7 +10649,7 @@
         <v>33.223099377251451</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -10456,7 +10665,7 @@
         <v>33.200524742157427</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -10472,7 +10681,7 @@
         <v>33.177209264156971</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -10488,7 +10697,7 @@
         <v>33.152579672985496</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -10504,7 +10713,7 @@
         <v>33.127959789537563</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -10520,7 +10729,7 @@
         <v>33.103008894783848</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -10536,7 +10745,7 @@
         <v>33.078402550028727</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -10552,7 +10761,7 @@
         <v>33.054624894269331</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -10568,7 +10777,7 @@
         <v>33.030011681799991</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -10584,7 +10793,7 @@
         <v>33.006479169886028</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -10600,7 +10809,7 @@
         <v>32.983534626789762</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -10616,9 +10825,9 @@
         <v>32.959558608016984</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A566" si="3">A355+1</f>
+        <f t="shared" ref="A356:A589" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -10632,7 +10841,7 @@
         <v>32.934079628898296</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -10648,7 +10857,7 @@
         <v>32.907504756704213</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -10664,7 +10873,7 @@
         <v>32.881079181544933</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -10680,7 +10889,7 @@
         <v>32.854801648823518</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -10696,7 +10905,7 @@
         <v>32.828196057625689</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -10712,7 +10921,7 @@
         <v>32.800958742701937</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -10728,7 +10937,7 @@
         <v>32.773483857305543</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -10744,7 +10953,7 @@
         <v>32.746410494819933</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -10760,7 +10969,7 @@
         <v>32.72075742715468</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -10776,7 +10985,7 @@
         <v>32.693785643608805</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -10792,7 +11001,7 @@
         <v>32.667236783846143</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -10808,7 +11017,7 @@
         <v>32.639682710465742</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -10824,7 +11033,7 @@
         <v>32.610721831256818</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -10840,7 +11049,7 @@
         <v>32.582463732997262</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -10856,7 +11065,7 @@
         <v>32.556207038288029</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -10872,7 +11081,7 @@
         <v>32.529902955203234</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -10888,7 +11097,7 @@
         <v>32.505903216459444</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -10904,7 +11113,7 @@
         <v>32.482221534770872</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -10920,7 +11129,7 @@
         <v>32.459016639193536</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -10936,7 +11145,7 @@
         <v>32.435239115093815</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -10952,7 +11161,7 @@
         <v>32.411080720721912</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -10968,7 +11177,7 @@
         <v>32.386891172533318</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -10984,7 +11193,7 @@
         <v>32.361473908563816</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -11000,7 +11209,7 @@
         <v>32.335952757002637</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -11016,7 +11225,7 @@
         <v>32.311730660581993</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -11032,7 +11241,7 @@
         <v>32.28705590707122</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -11048,7 +11257,7 @@
         <v>32.260353126763142</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -11064,7 +11273,7 @@
         <v>32.234052986719142</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -11080,7 +11289,7 @@
         <v>32.207969079581133</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -11096,7 +11305,7 @@
         <v>32.182882999425566</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -11112,7 +11321,7 @@
         <v>32.15761507374998</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -11128,7 +11337,7 @@
         <v>32.134348543064917</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -11144,7 +11353,7 @@
         <v>32.111176657020707</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -11160,7 +11369,7 @@
         <v>32.08771108604649</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -11176,7 +11385,7 @@
         <v>32.063670594149464</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -11192,7 +11401,7 @@
         <v>32.038622596966562</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -11208,7 +11417,7 @@
         <v>32.015113310410236</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -11224,7 +11433,7 @@
         <v>31.991775423145757</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -11240,7 +11449,7 @@
         <v>31.969985181658139</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -11256,7 +11465,7 @@
         <v>31.947491578549599</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -11272,7 +11481,7 @@
         <v>31.924807590355311</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -11288,7 +11497,7 @@
         <v>31.902289091873399</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -11304,7 +11513,7 @@
         <v>31.879808563863616</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -11320,7 +11529,7 @@
         <v>31.856559674836252</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -11336,7 +11545,7 @@
         <v>31.83315123575375</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -11352,7 +11561,7 @@
         <v>31.809784942506248</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -11368,7 +11577,7 @@
         <v>31.786160481674983</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -11384,7 +11593,7 @@
         <v>31.762254846458838</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -11400,7 +11609,7 @@
         <v>31.739711925845754</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -11416,7 +11625,7 @@
         <v>31.717553830421821</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4">
       <c r="A406" s="18">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -11432,7 +11641,7 @@
         <v>31.696396519158398</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4">
       <c r="A407" s="18">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -11448,7 +11657,7 @@
         <v>31.674998010938253</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4">
       <c r="A408" s="18">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -11464,7 +11673,7 @@
         <v>31.654172890985205</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4">
       <c r="A409" s="18">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -11480,7 +11689,7 @@
         <v>31.634039785798507</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4">
       <c r="A410" s="18">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -11496,7 +11705,7 @@
         <v>31.614471059901945</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4">
       <c r="A411" s="18">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -11512,7 +11721,7 @@
         <v>31.594949123716365</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4">
       <c r="A412" s="18">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -11528,7 +11737,7 @@
         <v>31.576034614024373</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4">
       <c r="A413" s="18">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -11544,7 +11753,7 @@
         <v>31.556628204695848</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4">
       <c r="A414" s="18">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -11560,7 +11769,7 @@
         <v>31.536660660315519</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4">
       <c r="A415" s="18">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -11576,7 +11785,7 @@
         <v>31.516644533922502</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4">
       <c r="A416" s="18">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -11592,7 +11801,7 @@
         <v>31.497280658236697</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4">
       <c r="A417" s="18">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -11608,7 +11817,7 @@
         <v>31.477648657566249</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4">
       <c r="A418" s="18">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -11624,7 +11833,7 @@
         <v>31.4574620019471</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4">
       <c r="A419" s="18">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -11640,7 +11849,7 @@
         <v>31.436484872637873</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4">
       <c r="A420" s="18">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -11656,7 +11865,7 @@
         <v>31.415368881578932</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4">
       <c r="A421" s="18">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -11672,7 +11881,7 @@
         <v>31.3942104814797</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4">
       <c r="A422" s="18">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -11688,7 +11897,7 @@
         <v>31.372914744047605</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4">
       <c r="A423" s="18">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -11704,7 +11913,7 @@
         <v>31.352527775344406</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4">
       <c r="A424" s="18">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -11720,7 +11929,7 @@
         <v>31.332735055497619</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4">
       <c r="A425" s="18">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -11736,7 +11945,7 @@
         <v>31.312397619290767</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4">
       <c r="A426" s="18">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -11752,7 +11961,7 @@
         <v>31.29222687073112</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4">
       <c r="A427" s="18">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -11768,7 +11977,7 @@
         <v>31.272103983435283</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4">
       <c r="A428" s="18">
         <f t="shared" si="3"/>
         <v>426</v>
@@ -11784,7 +11993,7 @@
         <v>31.252545055150357</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4">
       <c r="A429" s="18">
         <f t="shared" si="3"/>
         <v>427</v>
@@ -11800,7 +12009,7 @@
         <v>31.232820125100137</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4">
       <c r="A430" s="18">
         <f t="shared" si="3"/>
         <v>428</v>
@@ -11816,7 +12025,7 @@
         <v>31.214542507628902</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4">
       <c r="A431" s="18">
         <f t="shared" si="3"/>
         <v>429</v>
@@ -11832,7 +12041,7 @@
         <v>31.196559891061003</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4">
       <c r="A432" s="18">
         <f t="shared" si="3"/>
         <v>430</v>
@@ -11848,7 +12057,7 @@
         <v>31.178846960904366</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4">
       <c r="A433" s="18">
         <f t="shared" si="3"/>
         <v>431</v>
@@ -11864,7 +12073,7 @@
         <v>31.161773069335734</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4">
       <c r="A434" s="18">
         <f t="shared" si="3"/>
         <v>432</v>
@@ -11880,7 +12089,7 @@
         <v>31.144384704866276</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4">
       <c r="A435" s="18">
         <f t="shared" si="3"/>
         <v>433</v>
@@ -11896,7 +12105,7 @@
         <v>31.127376889581701</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4">
       <c r="A436" s="18">
         <f t="shared" si="3"/>
         <v>434</v>
@@ -11912,7 +12121,7 @@
         <v>31.111184777811857</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4">
       <c r="A437" s="18">
         <f t="shared" si="3"/>
         <v>435</v>
@@ -11928,7 +12137,7 @@
         <v>31.095871711111002</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4">
       <c r="A438" s="18">
         <f t="shared" si="3"/>
         <v>436</v>
@@ -11944,7 +12153,7 @@
         <v>31.080789437594152</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4">
       <c r="A439" s="18">
         <f t="shared" si="3"/>
         <v>437</v>
@@ -11960,7 +12169,7 @@
         <v>31.065799074319667</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4">
       <c r="A440" s="18">
         <f t="shared" si="3"/>
         <v>438</v>
@@ -11976,7 +12185,7 @@
         <v>31.051356610157107</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4">
       <c r="A441" s="18">
         <f t="shared" si="3"/>
         <v>439</v>
@@ -11992,7 +12201,7 @@
         <v>31.037184954834895</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4">
       <c r="A442" s="18">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -12008,7 +12217,7 @@
         <v>31.023850443747303</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4">
       <c r="A443" s="18">
         <f t="shared" si="3"/>
         <v>441</v>
@@ -12024,7 +12233,7 @@
         <v>31.009964160696924</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4">
       <c r="A444" s="18">
         <f t="shared" si="3"/>
         <v>442</v>
@@ -12040,7 +12249,7 @@
         <v>30.996909942618423</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4">
       <c r="A445" s="18">
         <f t="shared" si="3"/>
         <v>443</v>
@@ -12056,7 +12265,7 @@
         <v>30.983666351687006</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4">
       <c r="A446" s="18">
         <f t="shared" si="3"/>
         <v>444</v>
@@ -12072,7 +12281,7 @@
         <v>30.970031968710234</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4">
       <c r="A447" s="18">
         <f t="shared" si="3"/>
         <v>445</v>
@@ -12088,7 +12297,7 @@
         <v>30.955717290982793</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4">
       <c r="A448" s="18">
         <f t="shared" si="3"/>
         <v>446</v>
@@ -12104,7 +12313,7 @@
         <v>30.94148922667566</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4">
       <c r="A449" s="18">
         <f t="shared" si="3"/>
         <v>447</v>
@@ -12120,7 +12329,7 @@
         <v>30.927078736235668</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4">
       <c r="A450" s="18">
         <f t="shared" si="3"/>
         <v>448</v>
@@ -12136,7 +12345,7 @@
         <v>30.913558473074428</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4">
       <c r="A451" s="18">
         <f t="shared" si="3"/>
         <v>449</v>
@@ -12152,7 +12361,7 @@
         <v>30.899586181129941</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4">
       <c r="A452" s="18">
         <f t="shared" si="3"/>
         <v>450</v>
@@ -12168,7 +12377,7 @@
         <v>30.886209321082987</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4">
       <c r="A453" s="18">
         <f t="shared" si="3"/>
         <v>451</v>
@@ -12184,7 +12393,7 @@
         <v>30.872736571967504</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4">
       <c r="A454" s="18">
         <f t="shared" si="3"/>
         <v>452</v>
@@ -12200,7 +12409,7 @@
         <v>30.859168570193237</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4">
       <c r="A455" s="18">
         <f t="shared" si="3"/>
         <v>453</v>
@@ -12216,7 +12425,7 @@
         <v>30.845108594916873</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4">
       <c r="A456" s="18">
         <f t="shared" si="3"/>
         <v>454</v>
@@ -12232,7 +12441,7 @@
         <v>30.829921132725424</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4">
       <c r="A457" s="18">
         <f t="shared" si="3"/>
         <v>455</v>
@@ -12248,7 +12457,7 @@
         <v>30.815811415620537</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4">
       <c r="A458" s="18">
         <f t="shared" si="3"/>
         <v>456</v>
@@ -12264,7 +12473,7 @@
         <v>30.801741652910842</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4">
       <c r="A459" s="18">
         <f t="shared" si="3"/>
         <v>457</v>
@@ -12280,7 +12489,7 @@
         <v>30.787295830388061</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4">
       <c r="A460" s="18">
         <f t="shared" si="3"/>
         <v>458</v>
@@ -12296,7 +12505,7 @@
         <v>30.772978589579356</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4">
       <c r="A461" s="18">
         <f t="shared" si="3"/>
         <v>459</v>
@@ -12312,7 +12521,7 @@
         <v>30.758266218926675</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4">
       <c r="A462" s="18">
         <f t="shared" si="3"/>
         <v>460</v>
@@ -12328,7 +12537,7 @@
         <v>30.743096076472487</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4">
       <c r="A463" s="18">
         <f t="shared" si="3"/>
         <v>461</v>
@@ -12344,7 +12553,7 @@
         <v>30.728425585070163</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4">
       <c r="A464" s="18">
         <f t="shared" si="3"/>
         <v>462</v>
@@ -12360,7 +12569,7 @@
         <v>30.714489600946631</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4">
       <c r="A465" s="18">
         <f t="shared" si="3"/>
         <v>463</v>
@@ -12376,7 +12585,7 @@
         <v>30.70024664465949</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4">
       <c r="A466" s="18">
         <f t="shared" si="3"/>
         <v>464</v>
@@ -12392,7 +12601,7 @@
         <v>30.686065080425308</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4">
       <c r="A467" s="18">
         <f t="shared" si="3"/>
         <v>465</v>
@@ -12408,7 +12617,7 @@
         <v>30.672095049134068</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4">
       <c r="A468" s="18">
         <f t="shared" si="3"/>
         <v>466</v>
@@ -12424,7 +12633,7 @@
         <v>30.657219308191721</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4">
       <c r="A469" s="18">
         <f t="shared" si="3"/>
         <v>467</v>
@@ -12440,7 +12649,7 @@
         <v>30.642235968880819</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4">
       <c r="A470" s="18">
         <f t="shared" si="3"/>
         <v>468</v>
@@ -12456,7 +12665,7 @@
         <v>30.62733802894731</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4">
       <c r="A471" s="18">
         <f t="shared" si="3"/>
         <v>469</v>
@@ -12472,7 +12681,7 @@
         <v>30.612055856348277</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4">
       <c r="A472" s="18">
         <f t="shared" si="3"/>
         <v>470</v>
@@ -12488,7 +12697,7 @@
         <v>30.596923822611366</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4">
       <c r="A473" s="18">
         <f t="shared" si="3"/>
         <v>471</v>
@@ -12504,7 +12713,7 @@
         <v>30.581431413731085</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4">
       <c r="A474" s="18">
         <f t="shared" si="3"/>
         <v>472</v>
@@ -12520,7 +12729,7 @@
         <v>30.565962280841823</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4">
       <c r="A475" s="18">
         <f t="shared" si="3"/>
         <v>473</v>
@@ -12536,7 +12745,7 @@
         <v>30.549797455892897</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4">
       <c r="A476" s="18">
         <f t="shared" si="3"/>
         <v>474</v>
@@ -12552,7 +12761,7 @@
         <v>30.533743031998608</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4">
       <c r="A477" s="18">
         <f t="shared" si="3"/>
         <v>475</v>
@@ -12568,7 +12777,7 @@
         <v>30.517798307889137</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4">
       <c r="A478" s="18">
         <f t="shared" si="3"/>
         <v>476</v>
@@ -12584,7 +12793,7 @@
         <v>30.502739908880965</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4">
       <c r="A479" s="18">
         <f t="shared" si="3"/>
         <v>477</v>
@@ -12600,7 +12809,7 @@
         <v>30.488226827143272</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4">
       <c r="A480" s="18">
         <f t="shared" si="3"/>
         <v>478</v>
@@ -12616,7 +12825,7 @@
         <v>30.474402083069752</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:4">
       <c r="A481" s="18">
         <f t="shared" si="3"/>
         <v>479</v>
@@ -12632,7 +12841,7 @@
         <v>30.460676816967307</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:4">
       <c r="A482" s="18">
         <f t="shared" si="3"/>
         <v>480</v>
@@ -12648,7 +12857,7 @@
         <v>30.447092074702791</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4">
       <c r="A483" s="18">
         <f t="shared" si="3"/>
         <v>481</v>
@@ -12664,7 +12873,7 @@
         <v>30.433023276855177</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:4">
       <c r="A484" s="18">
         <f t="shared" si="3"/>
         <v>482</v>
@@ -12680,7 +12889,7 @@
         <v>30.41932405827249</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4">
       <c r="A485" s="18">
         <f t="shared" si="3"/>
         <v>483</v>
@@ -12696,7 +12905,7 @@
         <v>30.405992123452055</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:4">
       <c r="A486" s="18">
         <f t="shared" si="3"/>
         <v>484</v>
@@ -12712,7 +12921,7 @@
         <v>30.393087180738309</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:4">
       <c r="A487" s="18">
         <f t="shared" si="3"/>
         <v>485</v>
@@ -12728,7 +12937,7 @@
         <v>30.380668446015136</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:4">
       <c r="A488" s="18">
         <f t="shared" si="3"/>
         <v>486</v>
@@ -12744,7 +12953,7 @@
         <v>30.368053901887535</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:4">
       <c r="A489" s="18">
         <f t="shared" si="3"/>
         <v>487</v>
@@ -12760,7 +12969,7 @@
         <v>30.355655433752244</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:4">
       <c r="A490" s="18">
         <f t="shared" si="3"/>
         <v>488</v>
@@ -12776,7 +12985,7 @@
         <v>30.343902043191274</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:4">
       <c r="A491" s="18">
         <f t="shared" si="3"/>
         <v>489</v>
@@ -12792,7 +13001,7 @@
         <v>30.331971773634645</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:4">
       <c r="A492" s="18">
         <f t="shared" si="3"/>
         <v>490</v>
@@ -12808,7 +13017,7 @@
         <v>30.320069790423148</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:4">
       <c r="A493" s="18">
         <f t="shared" si="3"/>
         <v>491</v>
@@ -12824,7 +13033,7 @@
         <v>30.308195920727783</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:4">
       <c r="A494" s="18">
         <f t="shared" si="3"/>
         <v>492</v>
@@ -12840,7 +13049,7 @@
         <v>30.295577637108419</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:4">
       <c r="A495" s="18">
         <f t="shared" si="3"/>
         <v>493</v>
@@ -12856,7 +13065,7 @@
         <v>30.283436504923614</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:4">
       <c r="A496" s="18">
         <f t="shared" si="3"/>
         <v>494</v>
@@ -12872,7 +13081,7 @@
         <v>30.271627930541179</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4">
       <c r="A497" s="18">
         <f t="shared" si="3"/>
         <v>495</v>
@@ -12888,7 +13097,7 @@
         <v>30.260008481105739</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:4">
       <c r="A498" s="18">
         <f t="shared" si="3"/>
         <v>496</v>
@@ -12904,7 +13113,7 @@
         <v>30.248032656930125</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:4">
       <c r="A499" s="18">
         <f t="shared" si="3"/>
         <v>497</v>
@@ -12920,7 +13129,7 @@
         <v>30.235742851564066</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:4">
       <c r="A500" s="18">
         <f t="shared" si="3"/>
         <v>498</v>
@@ -12936,7 +13145,7 @@
         <v>30.222598790677392</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4">
       <c r="A501" s="18">
         <f t="shared" si="3"/>
         <v>499</v>
@@ -12952,7 +13161,7 @@
         <v>30.209046486647978</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4">
       <c r="A502" s="18">
         <f t="shared" si="3"/>
         <v>500</v>
@@ -12968,7 +13177,7 @@
         <v>30.19472839215468</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4">
       <c r="A503" s="18">
         <f t="shared" si="3"/>
         <v>501</v>
@@ -12984,7 +13193,7 @@
         <v>30.180846698298083</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4">
       <c r="A504" s="18">
         <f t="shared" si="3"/>
         <v>502</v>
@@ -13000,7 +13209,7 @@
         <v>30.167478476409045</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4">
       <c r="A505" s="18">
         <f t="shared" si="3"/>
         <v>503</v>
@@ -13016,7 +13225,7 @@
         <v>30.154382097569265</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4">
       <c r="A506" s="18">
         <f t="shared" si="3"/>
         <v>504</v>
@@ -13032,7 +13241,7 @@
         <v>30.138460702851869</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4">
       <c r="A507" s="18">
         <f t="shared" si="3"/>
         <v>505</v>
@@ -13048,7 +13257,7 @@
         <v>30.122127116093743</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4">
       <c r="A508" s="18">
         <f t="shared" si="3"/>
         <v>506</v>
@@ -13064,7 +13273,7 @@
         <v>30.105917378868263</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4">
       <c r="A509" s="18">
         <f t="shared" si="3"/>
         <v>507</v>
@@ -13080,7 +13289,7 @@
         <v>30.089317937351755</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4">
       <c r="A510" s="18">
         <f t="shared" si="3"/>
         <v>508</v>
@@ -13096,7 +13305,7 @@
         <v>30.073039751825473</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:4">
       <c r="A511" s="18">
         <f t="shared" si="3"/>
         <v>509</v>
@@ -13112,7 +13321,7 @@
         <v>30.056904115004599</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:4">
       <c r="A512" s="18">
         <f t="shared" si="3"/>
         <v>510</v>
@@ -13128,7 +13337,7 @@
         <v>30.040400380249686</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:4">
       <c r="A513" s="18">
         <f t="shared" si="3"/>
         <v>511</v>
@@ -13144,7 +13353,7 @@
         <v>30.024704881384224</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:4">
       <c r="A514" s="18">
         <f t="shared" si="3"/>
         <v>512</v>
@@ -13160,7 +13369,7 @@
         <v>30.00889491151824</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:4">
       <c r="A515" s="18">
         <f t="shared" si="3"/>
         <v>513</v>
@@ -13176,7 +13385,7 @@
         <v>29.993185566193642</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:4">
       <c r="A516" s="18">
         <f t="shared" si="3"/>
         <v>514</v>
@@ -13192,7 +13401,7 @@
         <v>29.977498435345016</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:4">
       <c r="A517" s="18">
         <f t="shared" si="3"/>
         <v>515</v>
@@ -13208,7 +13417,7 @@
         <v>29.961988729198715</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:4">
       <c r="A518" s="18">
         <f t="shared" si="3"/>
         <v>516</v>
@@ -13224,7 +13433,7 @@
         <v>29.946597279064608</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:4">
       <c r="A519" s="18">
         <f t="shared" si="3"/>
         <v>517</v>
@@ -13240,7 +13449,7 @@
         <v>29.930897864598332</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:4">
       <c r="A520" s="18">
         <f t="shared" si="3"/>
         <v>518</v>
@@ -13256,7 +13465,7 @@
         <v>29.914930880014165</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:4">
       <c r="A521" s="18">
         <f t="shared" si="3"/>
         <v>519</v>
@@ -13272,7 +13481,7 @@
         <v>29.899006156969822</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:4">
       <c r="A522" s="18">
         <f t="shared" si="3"/>
         <v>520</v>
@@ -13288,7 +13497,7 @@
         <v>29.883027299264111</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:4">
       <c r="A523" s="18">
         <f t="shared" si="3"/>
         <v>521</v>
@@ -13304,7 +13513,7 @@
         <v>29.86661073999489</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:4">
       <c r="A524" s="18">
         <f t="shared" si="3"/>
         <v>522</v>
@@ -13320,7 +13529,7 @@
         <v>29.850621065128998</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:4">
       <c r="A525" s="18">
         <f t="shared" si="3"/>
         <v>523</v>
@@ -13336,7 +13545,7 @@
         <v>29.834329246495866</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:4">
       <c r="A526" s="18">
         <f t="shared" si="3"/>
         <v>524</v>
@@ -13352,7 +13561,7 @@
         <v>29.818271366407131</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:4">
       <c r="A527" s="18">
         <f t="shared" si="3"/>
         <v>525</v>
@@ -13368,7 +13577,7 @@
         <v>29.802865134356836</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:4">
       <c r="A528" s="18">
         <f t="shared" si="3"/>
         <v>526</v>
@@ -13384,7 +13593,7 @@
         <v>29.787327366344751</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:4">
       <c r="A529" s="18">
         <f t="shared" si="3"/>
         <v>527</v>
@@ -13400,7 +13609,7 @@
         <v>29.771222379387741</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:4">
       <c r="A530" s="18">
         <f t="shared" si="3"/>
         <v>528</v>
@@ -13416,7 +13625,7 @@
         <v>29.754742790960869</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:4">
       <c r="A531" s="18">
         <f t="shared" si="3"/>
         <v>529</v>
@@ -13432,7 +13641,7 @@
         <v>29.738344411242608</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:4">
       <c r="A532" s="18">
         <f t="shared" si="3"/>
         <v>530</v>
@@ -13448,7 +13657,7 @@
         <v>29.722290930353473</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:4">
       <c r="A533" s="18">
         <f t="shared" si="3"/>
         <v>531</v>
@@ -13464,7 +13673,7 @@
         <v>29.706655731011939</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:4">
       <c r="A534" s="18">
         <f t="shared" si="3"/>
         <v>532</v>
@@ -13480,7 +13689,7 @@
         <v>29.691511640577708</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:4">
       <c r="A535" s="18">
         <f t="shared" si="3"/>
         <v>533</v>
@@ -13496,7 +13705,7 @@
         <v>29.676461900313956</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:4">
       <c r="A536" s="18">
         <f t="shared" si="3"/>
         <v>534</v>
@@ -13512,7 +13721,7 @@
         <v>29.662592122335841</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:4">
       <c r="A537" s="18">
         <f t="shared" si="3"/>
         <v>535</v>
@@ -13528,7 +13737,7 @@
         <v>29.649353632238018</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:4">
       <c r="A538" s="18">
         <f t="shared" si="3"/>
         <v>536</v>
@@ -13544,7 +13753,7 @@
         <v>29.636127225218917</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:4">
       <c r="A539" s="18">
         <f t="shared" si="3"/>
         <v>537</v>
@@ -13560,7 +13769,7 @@
         <v>29.623322519455009</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:4">
       <c r="A540" s="18">
         <f t="shared" si="3"/>
         <v>538</v>
@@ -13576,7 +13785,7 @@
         <v>29.609747569957882</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:4">
       <c r="A541" s="18">
         <f t="shared" si="3"/>
         <v>539</v>
@@ -13592,7 +13801,7 @@
         <v>29.595647853186161</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:4">
       <c r="A542" s="18">
         <f t="shared" si="3"/>
         <v>540</v>
@@ -13608,7 +13817,7 @@
         <v>29.581933691476557</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:4">
       <c r="A543" s="18">
         <f t="shared" si="3"/>
         <v>541</v>
@@ -13624,7 +13833,7 @@
         <v>29.568011446649429</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:4">
       <c r="A544" s="18">
         <f t="shared" si="3"/>
         <v>542</v>
@@ -13640,7 +13849,7 @@
         <v>29.554029875290293</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4">
       <c r="A545" s="18">
         <f t="shared" si="3"/>
         <v>543</v>
@@ -13656,7 +13865,7 @@
         <v>29.540486543586262</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:4">
       <c r="A546" s="18">
         <f t="shared" si="3"/>
         <v>544</v>
@@ -13672,7 +13881,7 @@
         <v>29.527250355362757</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4">
       <c r="A547" s="18">
         <f t="shared" si="3"/>
         <v>545</v>
@@ -13688,7 +13897,7 @@
         <v>29.514301270875851</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:4">
       <c r="A548" s="18">
         <f t="shared" si="3"/>
         <v>546</v>
@@ -13704,7 +13913,7 @@
         <v>29.500996689793663</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4">
       <c r="A549" s="18">
         <f t="shared" si="3"/>
         <v>547</v>
@@ -13720,7 +13929,7 @@
         <v>29.487503095918353</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4">
       <c r="A550" s="18">
         <f t="shared" si="3"/>
         <v>548</v>
@@ -13736,7 +13945,7 @@
         <v>29.473620789465947</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4">
       <c r="A551" s="18">
         <f t="shared" si="3"/>
         <v>549</v>
@@ -13752,7 +13961,7 @@
         <v>29.460080498264738</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4">
       <c r="A552" s="18">
         <f t="shared" si="3"/>
         <v>550</v>
@@ -13768,7 +13977,7 @@
         <v>29.447025807704254</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4">
       <c r="A553" s="18">
         <f t="shared" si="3"/>
         <v>551</v>
@@ -13784,7 +13993,7 @@
         <v>29.433582931320036</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4">
       <c r="A554" s="18">
         <f t="shared" si="3"/>
         <v>552</v>
@@ -13800,7 +14009,7 @@
         <v>29.420786586951703</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4">
       <c r="A555" s="18">
         <f t="shared" si="3"/>
         <v>553</v>
@@ -13816,7 +14025,7 @@
         <v>29.40794610431707</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4">
       <c r="A556" s="18">
         <f t="shared" si="3"/>
         <v>554</v>
@@ -13832,7 +14041,7 @@
         <v>29.394917321691949</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4">
       <c r="A557" s="18">
         <f t="shared" si="3"/>
         <v>555</v>
@@ -13848,7 +14057,7 @@
         <v>29.381755308769979</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4">
       <c r="A558" s="18">
         <f t="shared" si="3"/>
         <v>556</v>
@@ -13864,7 +14073,7 @@
         <v>29.368424812369312</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4">
       <c r="A559" s="18">
         <f t="shared" si="3"/>
         <v>557</v>
@@ -13880,7 +14089,7 @@
         <v>29.354693348271702</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4">
       <c r="A560" s="18">
         <f t="shared" si="3"/>
         <v>558</v>
@@ -13896,7 +14105,7 @@
         <v>29.340885653418169</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:4">
       <c r="A561" s="18">
         <f t="shared" si="3"/>
         <v>559</v>
@@ -13912,7 +14121,7 @@
         <v>29.326876913841392</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:4">
       <c r="A562" s="18">
         <f t="shared" si="3"/>
         <v>560</v>
@@ -13928,7 +14137,7 @@
         <v>29.313918204513104</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:4">
       <c r="A563" s="18">
         <f t="shared" si="3"/>
         <v>561</v>
@@ -13944,7 +14153,7 @@
         <v>29.300827439995256</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:4">
       <c r="A564" s="18">
         <f t="shared" si="3"/>
         <v>562</v>
@@ -13960,7 +14169,7 @@
         <v>29.287694295226583</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:4">
       <c r="A565" s="18">
         <f t="shared" si="3"/>
         <v>563</v>
@@ -13976,7 +14185,7 @@
         <v>29.275193950119608</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:4">
       <c r="A566" s="18">
         <f t="shared" si="3"/>
         <v>564</v>
@@ -13990,6 +14199,374 @@
       <c r="D566" s="18">
         <f>SUM(C$3:C566)/A566</f>
         <v>29.263021620154856</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="A567" s="18">
+        <f t="shared" si="3"/>
+        <v>565</v>
+      </c>
+      <c r="B567" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="C567" s="20">
+        <v>22.309999470000001</v>
+      </c>
+      <c r="D567" s="18">
+        <f>SUM(C$3:C567)/A567</f>
+        <v>29.250715386260772</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="A568" s="18">
+        <f t="shared" si="3"/>
+        <v>566</v>
+      </c>
+      <c r="B568" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="C568" s="20">
+        <v>22.239999770000001</v>
+      </c>
+      <c r="D568" s="18">
+        <f>SUM(C$3:C568)/A568</f>
+        <v>29.23832896291049</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="A569" s="18">
+        <f t="shared" si="3"/>
+        <v>567</v>
+      </c>
+      <c r="B569" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="C569" s="20">
+        <v>22.350000380000001</v>
+      </c>
+      <c r="D569" s="18">
+        <f>SUM(C$3:C569)/A569</f>
+        <v>29.226180235251036</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="A570" s="18">
+        <f t="shared" si="3"/>
+        <v>568</v>
+      </c>
+      <c r="B570" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="C570" s="20">
+        <v>22.510000229999999</v>
+      </c>
+      <c r="D570" s="18">
+        <f>SUM(C$3:C570)/A570</f>
+        <v>29.214355974678409</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="A571" s="18">
+        <f t="shared" si="3"/>
+        <v>569</v>
+      </c>
+      <c r="B571" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="C571" s="20">
+        <v>22.290000920000001</v>
+      </c>
+      <c r="D571" s="18">
+        <f>SUM(C$3:C571)/A571</f>
+        <v>29.202186633633278</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4">
+      <c r="A572" s="18">
+        <f t="shared" si="3"/>
+        <v>570</v>
+      </c>
+      <c r="B572" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="C572" s="20">
+        <v>22.219999309999999</v>
+      </c>
+      <c r="D572" s="18">
+        <f>SUM(C$3:C572)/A572</f>
+        <v>29.189937182188306</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573" s="18">
+        <f t="shared" si="3"/>
+        <v>571</v>
+      </c>
+      <c r="B573" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="C573" s="20">
+        <v>22.100000380000001</v>
+      </c>
+      <c r="D573" s="18">
+        <f>SUM(C$3:C573)/A573</f>
+        <v>29.177520480258032</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574" s="18">
+        <f t="shared" si="3"/>
+        <v>572</v>
+      </c>
+      <c r="B574" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="C574" s="20">
+        <v>22.090000150000002</v>
+      </c>
+      <c r="D574" s="18">
+        <f>SUM(C$3:C574)/A574</f>
+        <v>29.165129710449889</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575" s="18">
+        <f t="shared" si="3"/>
+        <v>573</v>
+      </c>
+      <c r="B575" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="C575" s="20">
+        <v>21.620000839999999</v>
+      </c>
+      <c r="D575" s="18">
+        <f>SUM(C$3:C575)/A575</f>
+        <v>29.151961946278075</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576" s="18">
+        <f t="shared" si="3"/>
+        <v>574</v>
+      </c>
+      <c r="B576" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="C576" s="20">
+        <v>21.409999849999998</v>
+      </c>
+      <c r="D576" s="18">
+        <f>SUM(C$3:C576)/A576</f>
+        <v>29.138474207434385</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577" s="18">
+        <f t="shared" si="3"/>
+        <v>575</v>
+      </c>
+      <c r="B577" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="C577" s="20">
+        <v>21.229999540000001</v>
+      </c>
+      <c r="D577" s="18">
+        <f>SUM(C$3:C577)/A577</f>
+        <v>29.124720338447538</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578" s="18">
+        <f t="shared" si="3"/>
+        <v>576</v>
+      </c>
+      <c r="B578" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C578" s="20">
+        <v>21.010000229999999</v>
+      </c>
+      <c r="D578" s="18">
+        <f>SUM(C$3:C578)/A578</f>
+        <v>29.110632282703705</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="A579" s="18">
+        <f t="shared" si="3"/>
+        <v>577</v>
+      </c>
+      <c r="B579" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="C579" s="20">
+        <v>21.149999619999999</v>
+      </c>
+      <c r="D579" s="18">
+        <f>SUM(C$3:C579)/A579</f>
+        <v>29.096835692300406</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580" s="18">
+        <f t="shared" si="3"/>
+        <v>578</v>
+      </c>
+      <c r="B580" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="C580" s="20">
+        <v>20.829999919999999</v>
+      </c>
+      <c r="D580" s="18">
+        <f>SUM(C$3:C580)/A580</f>
+        <v>29.082533208265282</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581" s="18">
+        <f t="shared" si="3"/>
+        <v>579</v>
+      </c>
+      <c r="B581" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="C581" s="20">
+        <v>20.549999239999998</v>
+      </c>
+      <c r="D581" s="18">
+        <f>SUM(C$3:C581)/A581</f>
+        <v>29.067796534744961</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582" s="18">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="B582" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="C582" s="20">
+        <v>20.629999160000001</v>
+      </c>
+      <c r="D582" s="18">
+        <f>SUM(C$3:C582)/A582</f>
+        <v>29.053248608236778</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4">
+      <c r="A583" s="18">
+        <f t="shared" si="3"/>
+        <v>581</v>
+      </c>
+      <c r="B583" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="C583" s="20">
+        <v>20.159999849999998</v>
+      </c>
+      <c r="D583" s="18">
+        <f>SUM(C$3:C583)/A583</f>
+        <v>29.037941811751001</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4">
+      <c r="A584" s="18">
+        <f t="shared" si="3"/>
+        <v>582</v>
+      </c>
+      <c r="B584" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="C584" s="20">
+        <v>20.399999619999999</v>
+      </c>
+      <c r="D584" s="18">
+        <f>SUM(C$3:C584)/A584</f>
+        <v>29.023099986679263</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4">
+      <c r="A585" s="18">
+        <f t="shared" si="3"/>
+        <v>583</v>
+      </c>
+      <c r="B585" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="C585" s="20">
+        <v>20.149999619999999</v>
+      </c>
+      <c r="D585" s="18">
+        <f>SUM(C$3:C585)/A585</f>
+        <v>29.007880260492847</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4">
+      <c r="A586" s="18">
+        <f t="shared" si="3"/>
+        <v>584</v>
+      </c>
+      <c r="B586" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="C586" s="20">
+        <v>20.399999619999999</v>
+      </c>
+      <c r="D586" s="18">
+        <f>SUM(C$3:C586)/A586</f>
+        <v>28.993140738848169</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4">
+      <c r="A587" s="18">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="B587" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="C587" s="20">
+        <v>20.879999160000001</v>
+      </c>
+      <c r="D587" s="18">
+        <f>SUM(C$3:C587)/A587</f>
+        <v>28.979272120764666</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4">
+      <c r="A588" s="18">
+        <f t="shared" si="3"/>
+        <v>586</v>
+      </c>
+      <c r="B588" s="19">
+        <v>45168</v>
+      </c>
+      <c r="C588" s="20">
+        <v>20.989999770000001</v>
+      </c>
+      <c r="D588" s="18">
+        <f>SUM(C$3:C588)/A588</f>
+        <v>28.965638550200225</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4">
+      <c r="A589" s="18">
+        <f t="shared" si="3"/>
+        <v>587</v>
+      </c>
+      <c r="B589" s="19">
+        <v>45169</v>
+      </c>
+      <c r="C589" s="20">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D589" s="18">
+        <f>SUM(C$3:C589)/A589</f>
+        <v>28.951898109092557</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -2258,7 +2258,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2384,6 +2384,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2393,7 +2396,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2519,6 +2522,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>84000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>86000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2561,7 +2567,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2687,6 +2693,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2696,7 +2705,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -2822,6 +2831,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>76973.687038967822</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>73729.125531655038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2864,7 +2876,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2990,6 +3002,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2999,7 +3014,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3125,6 +3140,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-7026.3129610321776</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-12270.874468344962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3146,11 +3164,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92341760"/>
-        <c:axId val="92343296"/>
+        <c:axId val="465550720"/>
+        <c:axId val="489994880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92341760"/>
+        <c:axId val="465550720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3193,14 +3211,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92343296"/>
+        <c:crossAx val="489994880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92343296"/>
+        <c:axId val="489994880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3251,7 +3269,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92341760"/>
+        <c:crossAx val="465550720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3657,7 +3675,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5134,6 +5152,35 @@
         <v>-7026.3129610321776</v>
       </c>
     </row>
+    <row r="45" spans="1:12" ht="12.75">
+      <c r="A45" s="14">
+        <v>45169</v>
+      </c>
+      <c r="B45" s="15">
+        <v>3.3830390625</v>
+      </c>
+      <c r="C45" s="16">
+        <v>2000</v>
+      </c>
+      <c r="D45" s="17">
+        <v>591.18442413787534</v>
+      </c>
+      <c r="E45" s="17">
+        <v>21793.755309810302</v>
+      </c>
+      <c r="F45" s="17">
+        <v>73729.125531655038</v>
+      </c>
+      <c r="G45" s="17">
+        <v>86000</v>
+      </c>
+      <c r="H45" s="17">
+        <v>73729.125531655038</v>
+      </c>
+      <c r="I45" s="17">
+        <v>-12270.874468344962</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="437">
   <si>
     <t>PE</t>
   </si>
@@ -1634,6 +1634,78 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2023/9/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/26
+</t>
+  </si>
+  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1667,6 +1739,10 @@
   </si>
   <si>
     <t>利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3164,11 +3240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465550720"/>
-        <c:axId val="489994880"/>
+        <c:axId val="495852544"/>
+        <c:axId val="519480064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="465550720"/>
+        <c:axId val="495852544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3211,14 +3287,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489994880"/>
+        <c:crossAx val="519480064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489994880"/>
+        <c:axId val="519480064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3269,7 +3345,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465550720"/>
+        <c:crossAx val="495852544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3705,31 +3781,31 @@
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="K1" s="11"/>
     </row>
@@ -3740,7 +3816,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3779,25 +3855,25 @@
       </c>
       <c r="J3" s="6"/>
       <c r="L3" s="26" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="T3" s="23">
         <v>44196</v>
@@ -5194,7 +5270,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D589"/>
+  <dimension ref="A1:D609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -10874,7 +10950,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A589" si="3">A355+1</f>
+        <f t="shared" ref="A356:A609" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -14614,6 +14690,326 @@
       <c r="D589" s="18">
         <f>SUM(C$3:C589)/A589</f>
         <v>28.951898109092557</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4">
+      <c r="A590" s="18">
+        <f t="shared" si="3"/>
+        <v>588</v>
+      </c>
+      <c r="B590" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="C590" s="20">
+        <v>20.190000529999999</v>
+      </c>
+      <c r="D590" s="18">
+        <f>SUM(C$3:C590)/A590</f>
+        <v>28.93699692273356</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4">
+      <c r="A591" s="18">
+        <f t="shared" si="3"/>
+        <v>589</v>
+      </c>
+      <c r="B591" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="C591" s="20">
+        <v>20.379999160000001</v>
+      </c>
+      <c r="D591" s="18">
+        <f>SUM(C$3:C591)/A591</f>
+        <v>28.922468912949629</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4">
+      <c r="A592" s="18">
+        <f t="shared" si="3"/>
+        <v>590</v>
+      </c>
+      <c r="B592" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="C592" s="20">
+        <v>20.25</v>
+      </c>
+      <c r="D592" s="18">
+        <f>SUM(C$3:C592)/A592</f>
+        <v>28.907769813097172</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4">
+      <c r="A593" s="18">
+        <f t="shared" si="3"/>
+        <v>591</v>
+      </c>
+      <c r="B593" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="C593" s="20">
+        <v>20.149999619999999</v>
+      </c>
+      <c r="D593" s="18">
+        <f>SUM(C$3:C593)/A593</f>
+        <v>28.892951251010714</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4">
+      <c r="A594" s="18">
+        <f t="shared" si="3"/>
+        <v>592</v>
+      </c>
+      <c r="B594" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="C594" s="20">
+        <v>19.729999540000001</v>
+      </c>
+      <c r="D594" s="18">
+        <f>SUM(C$3:C594)/A594</f>
+        <v>28.877473292039408</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4">
+      <c r="A595" s="18">
+        <f t="shared" si="3"/>
+        <v>593</v>
+      </c>
+      <c r="B595" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="C595" s="20">
+        <v>19.61000061</v>
+      </c>
+      <c r="D595" s="18">
+        <f>SUM(C$3:C595)/A595</f>
+        <v>28.861845176218093</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4">
+      <c r="A596" s="18">
+        <f t="shared" si="3"/>
+        <v>594</v>
+      </c>
+      <c r="B596" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="C596" s="20">
+        <v>19.770000459999999</v>
+      </c>
+      <c r="D596" s="18">
+        <f>SUM(C$3:C596)/A596</f>
+        <v>28.846539040332207</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4">
+      <c r="A597" s="18">
+        <f t="shared" si="3"/>
+        <v>595</v>
+      </c>
+      <c r="B597" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="C597" s="20">
+        <v>19.770000459999999</v>
+      </c>
+      <c r="D597" s="18">
+        <f>SUM(C$3:C597)/A597</f>
+        <v>28.831284353642573</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4">
+      <c r="A598" s="18">
+        <f t="shared" si="3"/>
+        <v>596</v>
+      </c>
+      <c r="B598" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="C598" s="20">
+        <v>19.520000459999999</v>
+      </c>
+      <c r="D598" s="18">
+        <f>SUM(C$3:C598)/A598</f>
+        <v>28.815661394089481</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4">
+      <c r="A599" s="18">
+        <f t="shared" si="3"/>
+        <v>597</v>
+      </c>
+      <c r="B599" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="C599" s="20">
+        <v>19.36000061</v>
+      </c>
+      <c r="D599" s="18">
+        <f>SUM(C$3:C599)/A599</f>
+        <v>28.799822766310438</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4">
+      <c r="A600" s="18">
+        <f t="shared" si="3"/>
+        <v>598</v>
+      </c>
+      <c r="B600" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="C600" s="20">
+        <v>19.219999309999999</v>
+      </c>
+      <c r="D600" s="18">
+        <f>SUM(C$3:C600)/A600</f>
+        <v>28.783802994644365</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4">
+      <c r="A601" s="18">
+        <f t="shared" si="3"/>
+        <v>599</v>
+      </c>
+      <c r="B601" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="C601" s="20">
+        <v>19.370000839999999</v>
+      </c>
+      <c r="D601" s="18">
+        <f>SUM(C$3:C601)/A601</f>
+        <v>28.768087131281021</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4">
+      <c r="A602" s="18">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="B602" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="C602" s="20">
+        <v>19.219999309999999</v>
+      </c>
+      <c r="D602" s="18">
+        <f>SUM(C$3:C602)/A602</f>
+        <v>28.752173651578886</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4">
+      <c r="A603" s="18">
+        <f t="shared" si="3"/>
+        <v>601</v>
+      </c>
+      <c r="B603" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="C603" s="20">
+        <v>19.120000839999999</v>
+      </c>
+      <c r="D603" s="18">
+        <f>SUM(C$3:C603)/A603</f>
+        <v>28.736146741742651</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4">
+      <c r="A604" s="18">
+        <f t="shared" si="3"/>
+        <v>602</v>
+      </c>
+      <c r="B604" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="C604" s="20">
+        <v>18.959999079999999</v>
+      </c>
+      <c r="D604" s="18">
+        <f>SUM(C$3:C604)/A604</f>
+        <v>28.719907293799558</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4">
+      <c r="A605" s="18">
+        <f t="shared" si="3"/>
+        <v>603</v>
+      </c>
+      <c r="B605" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="C605" s="20">
+        <v>19.370000839999999</v>
+      </c>
+      <c r="D605" s="18">
+        <f>SUM(C$3:C605)/A605</f>
+        <v>28.704401644622447</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4">
+      <c r="A606" s="18">
+        <f t="shared" si="3"/>
+        <v>604</v>
+      </c>
+      <c r="B606" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="C606" s="20">
+        <v>19.290000920000001</v>
+      </c>
+      <c r="D606" s="18">
+        <f>SUM(C$3:C606)/A606</f>
+        <v>28.688814888455852</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4">
+      <c r="A607" s="18">
+        <f t="shared" si="3"/>
+        <v>605</v>
+      </c>
+      <c r="B607" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="C607" s="20">
+        <v>19.170000080000001</v>
+      </c>
+      <c r="D607" s="18">
+        <f>SUM(C$3:C607)/A607</f>
+        <v>28.673081310260059</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4">
+      <c r="A608" s="18">
+        <f t="shared" si="3"/>
+        <v>606</v>
+      </c>
+      <c r="B608" s="19">
+        <v>45196</v>
+      </c>
+      <c r="C608" s="20">
+        <v>19.25</v>
+      </c>
+      <c r="D608" s="18">
+        <f>SUM(C$3:C608)/A608</f>
+        <v>28.657531671134215</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4">
+      <c r="A609" s="18">
+        <f t="shared" si="3"/>
+        <v>607</v>
+      </c>
+      <c r="B609" s="19">
+        <v>45197</v>
+      </c>
+      <c r="C609" s="20">
+        <v>19.25</v>
+      </c>
+      <c r="D609" s="18">
+        <f>SUM(C$3:C609)/A609</f>
+        <v>28.642033266404177</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模型一" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="419">
   <si>
     <t>PE</t>
   </si>
@@ -1631,78 +1631,6 @@
   </si>
   <si>
     <t xml:space="preserve">2023/8/29
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/9/1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/9/4
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/9/5
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/9/6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/9/7
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/9/8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/9/11
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/9/12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/9/13
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/9/14
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/9/15
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/9/18
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/9/19
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/9/20
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/9/21
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/9/22
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/9/25
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/9/26
 </t>
   </si>
   <si>
@@ -1781,7 +1709,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2333,136 +2261,136 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45016</c:v>
+                  <c:v>3.7161979980468751</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45044</c:v>
+                  <c:v>3.6159379882812499</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45077</c:v>
+                  <c:v>3.4505849609374999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45107</c:v>
+                  <c:v>3.608843017578125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45138</c:v>
+                  <c:v>3.6303940429687498</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>45169</c:v>
+                  <c:v>3.3830390625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2474,133 +2402,133 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000</c:v>
+                  <c:v>3783.4996370436897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6000</c:v>
+                  <c:v>6143.6117008713063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8173.7580810682693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10000</c:v>
+                  <c:v>11353.811149064422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12000</c:v>
+                  <c:v>14968.552321848347</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14000</c:v>
+                  <c:v>16822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16000</c:v>
+                  <c:v>18240.153038857396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18000</c:v>
+                  <c:v>21221.531045139225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20000</c:v>
+                  <c:v>23603.74034292587</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22000</c:v>
+                  <c:v>28072.985437531297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24000</c:v>
+                  <c:v>31610.696441599135</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26000</c:v>
+                  <c:v>31960.877336479982</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28000</c:v>
+                  <c:v>32030.541196234128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30000</c:v>
+                  <c:v>36542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32000</c:v>
+                  <c:v>40028.514786085325</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34000</c:v>
+                  <c:v>43079.887556825692</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36000</c:v>
+                  <c:v>43952.380972166822</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38000</c:v>
+                  <c:v>44041.688138414858</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40000</c:v>
+                  <c:v>45572.995207693384</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42000</c:v>
+                  <c:v>49094.404023982002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44000</c:v>
+                  <c:v>51969.911593071687</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46000</c:v>
+                  <c:v>53008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48000</c:v>
+                  <c:v>49351.052479165373</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50000</c:v>
+                  <c:v>51254.60334650999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52000</c:v>
+                  <c:v>47701.945217252243</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54000</c:v>
+                  <c:v>45202.535414395512</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56000</c:v>
+                  <c:v>48944.813088421164</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58000</c:v>
+                  <c:v>57317.86097478633</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60000</c:v>
+                  <c:v>56010.270798873862</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62000</c:v>
+                  <c:v>55547.679913640975</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>64000</c:v>
+                  <c:v>52229.088937270295</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66000</c:v>
+                  <c:v>53475.074735568647</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>68000</c:v>
+                  <c:v>58406.85441256113</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70000</c:v>
+                  <c:v>60293.406710853284</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72000</c:v>
+                  <c:v>68151.7828856181</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>74000</c:v>
+                  <c:v>67767.93214664339</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>76000</c:v>
+                  <c:v>70476.779226985323</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>78000</c:v>
+                  <c:v>70575.372849483087</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>80000</c:v>
+                  <c:v>69348.035546023719</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82000</c:v>
+                  <c:v>74528.622449867675</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>84000</c:v>
+                  <c:v>76973.687038967822</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>86000</c:v>
+                  <c:v>73729.125531655038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2642,136 +2570,136 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45016</c:v>
+                  <c:v>3.7161979980468751</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45044</c:v>
+                  <c:v>3.6159379882812499</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45077</c:v>
+                  <c:v>3.4505849609374999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45107</c:v>
+                  <c:v>3.608843017578125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45138</c:v>
+                  <c:v>3.6303940429687498</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>45169</c:v>
+                  <c:v>3.3830390625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2783,133 +2711,133 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>2000.0000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3783.4996370436897</c:v>
+                  <c:v>-216.50036295631025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6143.6117008713063</c:v>
+                  <c:v>143.61170087130631</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8173.7580810682693</c:v>
+                  <c:v>173.75808106826935</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11353.811149064422</c:v>
+                  <c:v>1353.8111490644224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14968.552321848347</c:v>
+                  <c:v>2968.5523218483468</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16822.477397497114</c:v>
+                  <c:v>2822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18240.153038857396</c:v>
+                  <c:v>2240.1530388573956</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21221.531045139225</c:v>
+                  <c:v>3221.5310451392252</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23603.74034292587</c:v>
+                  <c:v>3603.7403429258702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28072.985437531297</c:v>
+                  <c:v>6072.9854375312971</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31610.696441599135</c:v>
+                  <c:v>7610.6964415991351</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31960.877336479982</c:v>
+                  <c:v>5960.8773364799818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32030.541196234128</c:v>
+                  <c:v>4030.5411962341277</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36542.468793623324</c:v>
+                  <c:v>6542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40028.514786085325</c:v>
+                  <c:v>8028.5147860853249</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43079.887556825692</c:v>
+                  <c:v>9079.8875568256917</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43952.380972166822</c:v>
+                  <c:v>7952.3809721668222</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44041.688138414858</c:v>
+                  <c:v>6041.6881384148583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45572.995207693384</c:v>
+                  <c:v>5572.9952076933841</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49094.404023982002</c:v>
+                  <c:v>7094.4040239820024</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51969.911593071687</c:v>
+                  <c:v>7969.9115930716871</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53008.069006718506</c:v>
+                  <c:v>7008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49351.052479165373</c:v>
+                  <c:v>1351.0524791653734</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51254.60334650999</c:v>
+                  <c:v>1254.6033465099899</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>47701.945217252243</c:v>
+                  <c:v>-4298.0547827477567</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45202.535414395512</c:v>
+                  <c:v>-8797.4645856044881</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48944.813088421164</c:v>
+                  <c:v>-7055.1869115788359</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57317.86097478633</c:v>
+                  <c:v>-682.13902521366981</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56010.270798873862</c:v>
+                  <c:v>-3989.7292011261379</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55547.679913640975</c:v>
+                  <c:v>-6452.3200863590246</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52229.088937270295</c:v>
+                  <c:v>-11770.911062729705</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>53475.074735568647</c:v>
+                  <c:v>-12524.925264431353</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58406.85441256113</c:v>
+                  <c:v>-9593.1455874388703</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>60293.406710853284</c:v>
+                  <c:v>-9706.5932891467164</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>68151.7828856181</c:v>
+                  <c:v>-3848.2171143818996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67767.93214664339</c:v>
+                  <c:v>-6232.0678533566097</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70476.779226985323</c:v>
+                  <c:v>-5523.2207730146765</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>70575.372849483087</c:v>
+                  <c:v>-7424.6271505169134</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69348.035546023719</c:v>
+                  <c:v>-10651.964453976281</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>74528.622449867675</c:v>
+                  <c:v>-7471.3775501323253</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>76973.687038967822</c:v>
+                  <c:v>-7026.3129610321776</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>73729.125531655038</c:v>
+                  <c:v>-12270.874468344962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2951,136 +2879,136 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45016</c:v>
+                  <c:v>3.7161979980468751</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45044</c:v>
+                  <c:v>3.6159379882812499</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45077</c:v>
+                  <c:v>3.4505849609374999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45107</c:v>
+                  <c:v>3.608843017578125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45138</c:v>
+                  <c:v>3.6303940429687498</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>45169</c:v>
+                  <c:v>3.3830390625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3089,137 +3017,8 @@
             <c:numRef>
               <c:f>模型一!金额</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-216.50036295631025</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>143.61170087130631</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>173.75808106826935</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1353.8111490644224</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2968.5523218483468</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2822.477397497114</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2240.1530388573956</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3221.5310451392252</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3603.7403429258702</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6072.9854375312971</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7610.6964415991351</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5960.8773364799818</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4030.5411962341277</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6542.468793623324</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8028.5147860853249</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9079.8875568256917</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7952.3809721668222</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6041.6881384148583</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5572.9952076933841</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7094.4040239820024</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7969.9115930716871</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7008.069006718506</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1351.0524791653734</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1254.6033465099899</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-4298.0547827477567</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-8797.4645856044881</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-7055.1869115788359</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-682.13902521366981</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-3989.7292011261379</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-6452.3200863590246</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-11770.911062729705</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-12524.925264431353</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-9593.1455874388703</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-9706.5932891467164</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-3848.2171143818996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-6232.0678533566097</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-5523.2207730146765</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-7424.6271505169134</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-10651.964453976281</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-7471.3775501323253</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-7026.3129610321776</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-12270.874468344962</c:v>
-                </c:pt>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3240,17 +3039,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="495852544"/>
-        <c:axId val="519480064"/>
+        <c:axId val="133497984"/>
+        <c:axId val="133499520"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="495852544"/>
+      <c:catAx>
+        <c:axId val="133497984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -3287,14 +3086,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519480064"/>
+        <c:crossAx val="133499520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="519480064"/>
+        <c:axId val="133499520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3345,7 +3145,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495852544"/>
+        <c:crossAx val="133497984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3753,12 +3553,12 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -3779,44 +3579,44 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:25" ht="14.1" customHeight="1">
+    <row r="2" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
         <v>2000</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3825,7 +3625,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:25" ht="14.1" customHeight="1">
+    <row r="3" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -3855,25 +3655,25 @@
       </c>
       <c r="J3" s="6"/>
       <c r="L3" s="26" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="T3" s="23">
         <v>44196</v>
@@ -3896,7 +3696,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.1" customHeight="1">
+    <row r="4" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -3967,7 +3767,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.1" customHeight="1">
+    <row r="5" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -4034,7 +3834,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.1" customHeight="1">
+    <row r="6" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -4094,7 +3894,7 @@
         <v>60293.406710853284</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.1" customHeight="1">
+    <row r="7" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -4127,7 +3927,7 @@
         <v>-7.3828223896210132E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14.1" customHeight="1">
+    <row r="8" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -4157,7 +3957,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="14.1" customHeight="1">
+    <row r="9" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -4187,7 +3987,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="14.1" customHeight="1">
+    <row r="10" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -4217,7 +4017,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:25" ht="14.1" customHeight="1">
+    <row r="11" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -4247,7 +4047,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:25" ht="14.1" customHeight="1">
+    <row r="12" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -4277,7 +4077,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:25" ht="14.1" customHeight="1">
+    <row r="13" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -4307,7 +4107,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:25" ht="14.1" customHeight="1">
+    <row r="14" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -4337,7 +4137,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="14.1" customHeight="1">
+    <row r="15" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -4367,7 +4167,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:25" ht="14.1" customHeight="1">
+    <row r="16" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -4397,7 +4197,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -4427,7 +4227,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -4457,7 +4257,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -4487,7 +4287,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -4517,7 +4317,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -4548,7 +4348,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -4578,7 +4378,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -4608,7 +4408,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -4638,7 +4438,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -4668,7 +4468,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -4698,7 +4498,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -4728,7 +4528,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -4758,7 +4558,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -4788,7 +4588,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -4818,7 +4618,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -4848,7 +4648,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -4878,7 +4678,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -4909,7 +4709,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75">
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -4938,7 +4738,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75">
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -4967,7 +4767,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75">
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -4996,7 +4796,7 @@
         <v>-9593.1455874388703</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75">
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>44925</v>
       </c>
@@ -5025,7 +4825,7 @@
         <v>-9706.5932891467164</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.75">
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>44957</v>
       </c>
@@ -5054,7 +4854,7 @@
         <v>-3848.2171143818996</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="12.75">
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>44985</v>
       </c>
@@ -5083,7 +4883,7 @@
         <v>-6232.0678533566097</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="12.75">
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>45016</v>
       </c>
@@ -5112,7 +4912,7 @@
         <v>-5523.2207730146765</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="12.75">
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>45044</v>
       </c>
@@ -5141,7 +4941,7 @@
         <v>-7424.6271505169134</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="12.75">
+    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>45077</v>
       </c>
@@ -5170,7 +4970,7 @@
         <v>-10651.964453976281</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="12.75">
+    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>45107</v>
       </c>
@@ -5199,7 +4999,7 @@
         <v>-7471.3775501323253</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="12.75">
+    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>45138</v>
       </c>
@@ -5228,7 +5028,7 @@
         <v>-7026.3129610321776</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="12.75">
+    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>45169</v>
       </c>
@@ -5270,13 +5070,13 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D609"/>
+  <dimension ref="A1:D589"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -5284,7 +5084,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="30" t="s">
         <v>181</v>
       </c>
@@ -5292,7 +5092,7 @@
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
@@ -5301,7 +5101,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -5316,7 +5116,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -5332,7 +5132,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5348,7 +5148,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5364,7 +5164,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5380,7 +5180,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5396,7 +5196,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5412,7 +5212,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5428,7 +5228,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5444,7 +5244,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5460,7 +5260,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5476,7 +5276,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5492,7 +5292,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5508,7 +5308,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5524,7 +5324,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5540,7 +5340,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5556,7 +5356,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5572,7 +5372,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5588,7 +5388,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5604,7 +5404,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5620,7 +5420,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5636,7 +5436,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5652,7 +5452,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5668,7 +5468,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5684,7 +5484,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5700,7 +5500,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5716,7 +5516,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5732,7 +5532,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5748,7 +5548,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5764,7 +5564,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5780,7 +5580,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5796,7 +5596,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5812,7 +5612,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5828,7 +5628,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5844,7 +5644,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -5860,7 +5660,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -5876,7 +5676,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -5892,7 +5692,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -5908,7 +5708,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -5924,7 +5724,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -5940,7 +5740,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -5956,7 +5756,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -5972,7 +5772,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -5988,7 +5788,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -6004,7 +5804,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -6020,7 +5820,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -6036,7 +5836,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -6052,7 +5852,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -6068,7 +5868,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -6084,7 +5884,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -6100,7 +5900,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -6116,7 +5916,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -6132,7 +5932,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -6148,7 +5948,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -6164,7 +5964,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -6180,7 +5980,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -6196,7 +5996,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -6212,7 +6012,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -6228,7 +6028,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -6244,7 +6044,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -6260,7 +6060,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -6276,7 +6076,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -6292,7 +6092,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -6308,7 +6108,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -6324,7 +6124,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -6340,7 +6140,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -6356,7 +6156,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -6372,7 +6172,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -6388,7 +6188,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -6404,7 +6204,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -6420,7 +6220,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -6436,7 +6236,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -6452,7 +6252,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -6468,7 +6268,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -6484,7 +6284,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -6500,7 +6300,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -6516,7 +6316,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -6532,7 +6332,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -6548,7 +6348,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -6564,7 +6364,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -6580,7 +6380,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -6596,7 +6396,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -6612,7 +6412,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -6628,7 +6428,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -6644,7 +6444,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -6660,7 +6460,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -6676,7 +6476,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -6692,7 +6492,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -6708,7 +6508,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -6724,7 +6524,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -6740,7 +6540,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -6756,7 +6556,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -6772,7 +6572,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -6788,7 +6588,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -6804,7 +6604,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -6820,7 +6620,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -6836,7 +6636,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -6852,7 +6652,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -6868,7 +6668,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -6884,7 +6684,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -6900,7 +6700,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -6916,7 +6716,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -6932,7 +6732,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -6948,7 +6748,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -6964,7 +6764,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -6980,7 +6780,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -6996,7 +6796,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -7012,7 +6812,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -7028,7 +6828,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -7044,7 +6844,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -7060,7 +6860,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -7076,7 +6876,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -7092,7 +6892,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -7108,7 +6908,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -7124,7 +6924,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -7140,7 +6940,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -7156,7 +6956,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -7172,7 +6972,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -7188,7 +6988,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -7204,7 +7004,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -7220,7 +7020,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -7236,7 +7036,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -7252,7 +7052,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -7268,7 +7068,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -7284,7 +7084,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -7300,7 +7100,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -7316,7 +7116,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -7332,7 +7132,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -7348,7 +7148,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -7364,7 +7164,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -7380,7 +7180,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -7396,7 +7196,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -7412,7 +7212,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -7428,7 +7228,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -7444,7 +7244,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -7460,7 +7260,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -7476,7 +7276,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -7492,7 +7292,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -7508,7 +7308,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -7524,7 +7324,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -7540,7 +7340,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -7556,7 +7356,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -7572,7 +7372,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -7588,7 +7388,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -7604,7 +7404,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -7620,7 +7420,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -7636,7 +7436,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -7652,7 +7452,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -7668,7 +7468,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -7684,7 +7484,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -7700,7 +7500,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -7716,7 +7516,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -7732,7 +7532,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -7748,7 +7548,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -7764,7 +7564,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -7780,7 +7580,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -7796,7 +7596,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -7812,7 +7612,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -7828,7 +7628,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -7844,7 +7644,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -7860,7 +7660,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -7876,7 +7676,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -7892,7 +7692,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -7908,7 +7708,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -7924,7 +7724,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -7940,7 +7740,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -7956,7 +7756,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -7972,7 +7772,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -7988,7 +7788,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -8004,7 +7804,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -8020,7 +7820,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -8036,7 +7836,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -8052,7 +7852,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -8068,7 +7868,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -8084,7 +7884,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -8100,7 +7900,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -8116,7 +7916,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -8132,7 +7932,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -8148,7 +7948,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -8164,7 +7964,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -8180,7 +7980,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -8196,7 +7996,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -8212,7 +8012,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -8228,7 +8028,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -8244,7 +8044,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -8260,7 +8060,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -8276,7 +8076,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -8292,7 +8092,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -8308,7 +8108,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -8324,7 +8124,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -8340,7 +8140,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -8356,7 +8156,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -8372,7 +8172,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -8388,7 +8188,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -8404,7 +8204,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -8420,7 +8220,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -8436,7 +8236,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -8452,7 +8252,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -8468,7 +8268,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -8484,7 +8284,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -8500,7 +8300,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -8516,7 +8316,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -8532,7 +8332,7 @@
         <v>37.709801928118821</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -8548,7 +8348,7 @@
         <v>37.677783194876852</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -8564,7 +8364,7 @@
         <v>37.643186222549026</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -8580,7 +8380,7 @@
         <v>37.61082921770732</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -8596,7 +8396,7 @@
         <v>37.576601888834951</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -8612,7 +8412,7 @@
         <v>37.53951685371981</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -8628,7 +8428,7 @@
         <v>37.502548024519236</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -8644,7 +8444,7 @@
         <v>37.469330088851677</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -8660,7 +8460,7 @@
         <v>37.436714235285713</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -8676,7 +8476,7 @@
         <v>37.405118435402848</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -8692,7 +8492,7 @@
         <v>37.373584854622642</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -8708,7 +8508,7 @@
         <v>37.341971777323948</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -8724,7 +8524,7 @@
         <v>37.308551350934586</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -8740,7 +8540,7 @@
         <v>37.279162738930239</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -8756,7 +8556,7 @@
         <v>37.24703698620371</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -8772,7 +8572,7 @@
         <v>37.217787966082959</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -8788,7 +8588,7 @@
         <v>37.189128385091756</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -8804,7 +8604,7 @@
         <v>37.160593554703212</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -8820,7 +8620,7 @@
         <v>37.130136307090922</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -8836,7 +8636,7 @@
         <v>37.098280487375575</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -8852,7 +8652,7 @@
         <v>37.064549496936955</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -8868,7 +8668,7 @@
         <v>37.025425957264588</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -8884,7 +8684,7 @@
         <v>36.983839230133938</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -8900,7 +8700,7 @@
         <v>36.941866615422235</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -8916,7 +8716,7 @@
         <v>36.903230033407091</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -8932,7 +8732,7 @@
         <v>36.865991137929527</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -8948,7 +8748,7 @@
         <v>36.824824508114048</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -8964,7 +8764,7 @@
         <v>36.779912614716174</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -8980,7 +8780,7 @@
         <v>36.740347778608708</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -8996,7 +8796,7 @@
         <v>36.704372248441572</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -9012,7 +8812,7 @@
         <v>36.668318920431048</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -9028,7 +8828,7 @@
         <v>36.63334759656653</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -9044,7 +8844,7 @@
         <v>36.597521324786335</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -9060,7 +8860,7 @@
         <v>36.562765916212776</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -9076,7 +8876,7 @@
         <v>36.527669453389834</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -9092,7 +8892,7 @@
         <v>36.490042158691992</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -9108,7 +8908,7 @@
         <v>36.450924335798327</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -9124,7 +8924,7 @@
         <v>36.41142256129708</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -9140,7 +8940,7 @@
         <v>36.376291632041678</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -9156,7 +8956,7 @@
         <v>36.340041456763494</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -9172,7 +8972,7 @@
         <v>36.304917319132237</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -9188,7 +8988,7 @@
         <v>36.269300373868319</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -9204,7 +9004,7 @@
         <v>36.232131113155745</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -9220,7 +9020,7 @@
         <v>36.195142823224494</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -9236,7 +9036,7 @@
         <v>36.154146310162609</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -9252,7 +9052,7 @@
         <v>36.115546530931177</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -9268,7 +9068,7 @@
         <v>36.075483844556452</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -9284,7 +9084,7 @@
         <v>36.036385516465863</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -9300,7 +9100,7 @@
         <v>35.997079970720002</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -9316,7 +9116,7 @@
         <v>35.958844590836655</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -9332,7 +9132,7 @@
         <v>35.919801560079364</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -9348,7 +9148,7 @@
         <v>35.878497993873516</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -9364,7 +9164,7 @@
         <v>35.83523618834645</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -9380,7 +9180,7 @@
         <v>35.79231369109803</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -9396,7 +9196,7 @@
         <v>35.74410153121093</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -9412,7 +9212,7 @@
         <v>35.695175066420227</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -9428,7 +9228,7 @@
         <v>35.650930204496113</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -9444,7 +9244,7 @@
         <v>35.606409241698827</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -9460,7 +9260,7 @@
         <v>35.566115356769217</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -9476,7 +9276,7 @@
         <v>35.518850545210718</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -9492,7 +9292,7 @@
         <v>35.469999967977095</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -9508,7 +9308,7 @@
         <v>35.420532283992387</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -9524,7 +9324,7 @@
         <v>35.37265148249999</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -9540,7 +9340,7 @@
         <v>35.327660347698107</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -9556,7 +9356,7 @@
         <v>35.282706740526301</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -9572,7 +9372,7 @@
         <v>35.238764015805231</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -9588,7 +9388,7 @@
         <v>35.194179078880587</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -9604,7 +9404,7 @@
         <v>35.151561311078062</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -9620,7 +9420,7 @@
         <v>35.109185154666655</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -9636,7 +9436,7 @@
         <v>35.067416947158662</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -9652,7 +9452,7 @@
         <v>35.027352914264696</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -9668,7 +9468,7 @@
         <v>34.987142827545782</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -9684,7 +9484,7 @@
         <v>34.944160551094882</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -9700,7 +9500,7 @@
         <v>34.901854510799993</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -9716,7 +9516,7 @@
         <v>34.85992750141304</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -9732,7 +9532,7 @@
         <v>34.818447621768946</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -9748,7 +9548,7 @@
         <v>34.778237376330928</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -9764,7 +9564,7 @@
         <v>34.740071647956981</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -9780,7 +9580,7 @@
         <v>34.70282139017857</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -9796,7 +9596,7 @@
         <v>34.666548005266904</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -9812,7 +9612,7 @@
         <v>34.633439678723406</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -9828,7 +9628,7 @@
         <v>34.600353321060069</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -9844,7 +9644,7 @@
         <v>34.568168975140843</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -9860,7 +9660,7 @@
         <v>34.533719259438591</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -9876,7 +9676,7 @@
         <v>34.501713245104895</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -9892,7 +9692,7 @@
         <v>34.441254312613239</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -9908,7 +9708,7 @@
         <v>34.410590237256947</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -9924,7 +9724,7 @@
         <v>34.381418643148791</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -9940,7 +9740,7 @@
         <v>34.352517199551727</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -9956,7 +9756,7 @@
         <v>34.325532604364263</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -9972,7 +9772,7 @@
         <v>34.300479411301374</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -9988,7 +9788,7 @@
         <v>34.275528968839595</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -10004,7 +9804,7 @@
         <v>34.249421728741503</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -10020,7 +9820,7 @@
         <v>34.225660976338986</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -10036,7 +9836,7 @@
         <v>34.203749958750002</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -10052,7 +9852,7 @@
         <v>34.182424204141412</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -10068,7 +9868,7 @@
         <v>34.162248284261743</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -10084,7 +9884,7 @@
         <v>34.139999963010034</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -10100,7 +9900,7 @@
         <v>34.118899961366665</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -10116,7 +9916,7 @@
         <v>34.097375374750825</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -10132,7 +9932,7 @@
         <v>34.077450290463574</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -10148,7 +9948,7 @@
         <v>34.057161676666666</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -10164,7 +9964,7 @@
         <v>34.036282852335525</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -10180,7 +9980,7 @@
         <v>34.016754055836067</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -10196,7 +9996,7 @@
         <v>33.996633946535951</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -10212,7 +10012,7 @@
         <v>33.974755662312702</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -10228,7 +10028,7 @@
         <v>33.951363599967529</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -10244,7 +10044,7 @@
         <v>33.928932004045308</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -10260,7 +10060,7 @@
         <v>33.908064478483865</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -10276,7 +10076,7 @@
         <v>33.886044976848872</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -10292,7 +10092,7 @@
         <v>33.865032011923077</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -10308,7 +10108,7 @@
         <v>33.843258744281151</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -10324,7 +10124,7 @@
         <v>33.821847094904456</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -10340,7 +10140,7 @@
         <v>33.799841229174596</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -10356,7 +10156,7 @@
         <v>33.777689830474678</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -10372,7 +10172,7 @@
         <v>33.754952637602521</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -10388,7 +10188,7 @@
         <v>33.732798695597481</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -10404,7 +10204,7 @@
         <v>33.71050152363636</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -10420,7 +10220,7 @@
         <v>33.688624953499996</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -10436,7 +10236,7 @@
         <v>33.665700887975071</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -10452,7 +10252,7 @@
         <v>33.644596229440985</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -10468,7 +10268,7 @@
         <v>33.621981380433432</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -10484,7 +10284,7 @@
         <v>33.598333289753079</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -10500,7 +10300,7 @@
         <v>33.575199956553838</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -10516,7 +10316,7 @@
         <v>33.553374186993857</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -10532,7 +10332,7 @@
         <v>33.531651332477054</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -10548,7 +10348,7 @@
         <v>33.510396296310965</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -10564,7 +10364,7 @@
         <v>33.488176249088134</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -10580,7 +10380,7 @@
         <v>33.467939351363626</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -10596,7 +10396,7 @@
         <v>33.447250715377635</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -10612,7 +10412,7 @@
         <v>33.426957788765044</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -10628,7 +10428,7 @@
         <v>33.406816772312297</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -10644,7 +10444,7 @@
         <v>33.388113727634718</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -10660,7 +10460,7 @@
         <v>33.369134285731334</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -10676,7 +10476,7 @@
         <v>33.348869003541658</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -10692,7 +10492,7 @@
         <v>33.32994060682492</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -10708,7 +10508,7 @@
         <v>33.310798772514786</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -10724,7 +10524,7 @@
         <v>33.289085504041289</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -10740,7 +10540,7 @@
         <v>33.267352898499993</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -10756,7 +10556,7 @@
         <v>33.245395853900284</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -10772,7 +10572,7 @@
         <v>33.223099377251451</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -10788,7 +10588,7 @@
         <v>33.200524742157427</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -10804,7 +10604,7 @@
         <v>33.177209264156971</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -10820,7 +10620,7 @@
         <v>33.152579672985496</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -10836,7 +10636,7 @@
         <v>33.127959789537563</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -10852,7 +10652,7 @@
         <v>33.103008894783848</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -10868,7 +10668,7 @@
         <v>33.078402550028727</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -10884,7 +10684,7 @@
         <v>33.054624894269331</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -10900,7 +10700,7 @@
         <v>33.030011681799991</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -10916,7 +10716,7 @@
         <v>33.006479169886028</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -10932,7 +10732,7 @@
         <v>32.983534626789762</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -10948,9 +10748,9 @@
         <v>32.959558608016984</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A609" si="3">A355+1</f>
+        <f t="shared" ref="A356:A589" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -10964,7 +10764,7 @@
         <v>32.934079628898296</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -10980,7 +10780,7 @@
         <v>32.907504756704213</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -10996,7 +10796,7 @@
         <v>32.881079181544933</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -11012,7 +10812,7 @@
         <v>32.854801648823518</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -11028,7 +10828,7 @@
         <v>32.828196057625689</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -11044,7 +10844,7 @@
         <v>32.800958742701937</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -11060,7 +10860,7 @@
         <v>32.773483857305543</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -11076,7 +10876,7 @@
         <v>32.746410494819933</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -11092,7 +10892,7 @@
         <v>32.72075742715468</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -11108,7 +10908,7 @@
         <v>32.693785643608805</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -11124,7 +10924,7 @@
         <v>32.667236783846143</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -11140,7 +10940,7 @@
         <v>32.639682710465742</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -11156,7 +10956,7 @@
         <v>32.610721831256818</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -11172,7 +10972,7 @@
         <v>32.582463732997262</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -11188,7 +10988,7 @@
         <v>32.556207038288029</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -11204,7 +11004,7 @@
         <v>32.529902955203234</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -11220,7 +11020,7 @@
         <v>32.505903216459444</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -11236,7 +11036,7 @@
         <v>32.482221534770872</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -11252,7 +11052,7 @@
         <v>32.459016639193536</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -11268,7 +11068,7 @@
         <v>32.435239115093815</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -11284,7 +11084,7 @@
         <v>32.411080720721912</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -11300,7 +11100,7 @@
         <v>32.386891172533318</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -11316,7 +11116,7 @@
         <v>32.361473908563816</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -11332,7 +11132,7 @@
         <v>32.335952757002637</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -11348,7 +11148,7 @@
         <v>32.311730660581993</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -11364,7 +11164,7 @@
         <v>32.28705590707122</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -11380,7 +11180,7 @@
         <v>32.260353126763142</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -11396,7 +11196,7 @@
         <v>32.234052986719142</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -11412,7 +11212,7 @@
         <v>32.207969079581133</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -11428,7 +11228,7 @@
         <v>32.182882999425566</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -11444,7 +11244,7 @@
         <v>32.15761507374998</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -11460,7 +11260,7 @@
         <v>32.134348543064917</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -11476,7 +11276,7 @@
         <v>32.111176657020707</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -11492,7 +11292,7 @@
         <v>32.08771108604649</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -11508,7 +11308,7 @@
         <v>32.063670594149464</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -11524,7 +11324,7 @@
         <v>32.038622596966562</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -11540,7 +11340,7 @@
         <v>32.015113310410236</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -11556,7 +11356,7 @@
         <v>31.991775423145757</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -11572,7 +11372,7 @@
         <v>31.969985181658139</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -11588,7 +11388,7 @@
         <v>31.947491578549599</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -11604,7 +11404,7 @@
         <v>31.924807590355311</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -11620,7 +11420,7 @@
         <v>31.902289091873399</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -11636,7 +11436,7 @@
         <v>31.879808563863616</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -11652,7 +11452,7 @@
         <v>31.856559674836252</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -11668,7 +11468,7 @@
         <v>31.83315123575375</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -11684,7 +11484,7 @@
         <v>31.809784942506248</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -11700,7 +11500,7 @@
         <v>31.786160481674983</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -11716,7 +11516,7 @@
         <v>31.762254846458838</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -11732,7 +11532,7 @@
         <v>31.739711925845754</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -11748,7 +11548,7 @@
         <v>31.717553830421821</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="18">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -11764,7 +11564,7 @@
         <v>31.696396519158398</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="18">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -11780,7 +11580,7 @@
         <v>31.674998010938253</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="18">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -11796,7 +11596,7 @@
         <v>31.654172890985205</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="18">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -11812,7 +11612,7 @@
         <v>31.634039785798507</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="18">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -11828,7 +11628,7 @@
         <v>31.614471059901945</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="18">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -11844,7 +11644,7 @@
         <v>31.594949123716365</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="18">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -11860,7 +11660,7 @@
         <v>31.576034614024373</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="18">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -11876,7 +11676,7 @@
         <v>31.556628204695848</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="18">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -11892,7 +11692,7 @@
         <v>31.536660660315519</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="18">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -11908,7 +11708,7 @@
         <v>31.516644533922502</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="18">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -11924,7 +11724,7 @@
         <v>31.497280658236697</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="18">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -11940,7 +11740,7 @@
         <v>31.477648657566249</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="18">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -11956,7 +11756,7 @@
         <v>31.4574620019471</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="18">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -11972,7 +11772,7 @@
         <v>31.436484872637873</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="18">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -11988,7 +11788,7 @@
         <v>31.415368881578932</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="18">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -12004,7 +11804,7 @@
         <v>31.3942104814797</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="18">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -12020,7 +11820,7 @@
         <v>31.372914744047605</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="18">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -12036,7 +11836,7 @@
         <v>31.352527775344406</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="18">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -12052,7 +11852,7 @@
         <v>31.332735055497619</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="18">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -12068,7 +11868,7 @@
         <v>31.312397619290767</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="18">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -12084,7 +11884,7 @@
         <v>31.29222687073112</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="18">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -12100,7 +11900,7 @@
         <v>31.272103983435283</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="18">
         <f t="shared" si="3"/>
         <v>426</v>
@@ -12116,7 +11916,7 @@
         <v>31.252545055150357</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="18">
         <f t="shared" si="3"/>
         <v>427</v>
@@ -12132,7 +11932,7 @@
         <v>31.232820125100137</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="18">
         <f t="shared" si="3"/>
         <v>428</v>
@@ -12148,7 +11948,7 @@
         <v>31.214542507628902</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="18">
         <f t="shared" si="3"/>
         <v>429</v>
@@ -12164,7 +11964,7 @@
         <v>31.196559891061003</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="18">
         <f t="shared" si="3"/>
         <v>430</v>
@@ -12180,7 +11980,7 @@
         <v>31.178846960904366</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="18">
         <f t="shared" si="3"/>
         <v>431</v>
@@ -12196,7 +11996,7 @@
         <v>31.161773069335734</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="18">
         <f t="shared" si="3"/>
         <v>432</v>
@@ -12212,7 +12012,7 @@
         <v>31.144384704866276</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="18">
         <f t="shared" si="3"/>
         <v>433</v>
@@ -12228,7 +12028,7 @@
         <v>31.127376889581701</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="18">
         <f t="shared" si="3"/>
         <v>434</v>
@@ -12244,7 +12044,7 @@
         <v>31.111184777811857</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="18">
         <f t="shared" si="3"/>
         <v>435</v>
@@ -12260,7 +12060,7 @@
         <v>31.095871711111002</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="18">
         <f t="shared" si="3"/>
         <v>436</v>
@@ -12276,7 +12076,7 @@
         <v>31.080789437594152</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="18">
         <f t="shared" si="3"/>
         <v>437</v>
@@ -12292,7 +12092,7 @@
         <v>31.065799074319667</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="18">
         <f t="shared" si="3"/>
         <v>438</v>
@@ -12308,7 +12108,7 @@
         <v>31.051356610157107</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="18">
         <f t="shared" si="3"/>
         <v>439</v>
@@ -12324,7 +12124,7 @@
         <v>31.037184954834895</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="18">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -12340,7 +12140,7 @@
         <v>31.023850443747303</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="18">
         <f t="shared" si="3"/>
         <v>441</v>
@@ -12356,7 +12156,7 @@
         <v>31.009964160696924</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="18">
         <f t="shared" si="3"/>
         <v>442</v>
@@ -12372,7 +12172,7 @@
         <v>30.996909942618423</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="18">
         <f t="shared" si="3"/>
         <v>443</v>
@@ -12388,7 +12188,7 @@
         <v>30.983666351687006</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="18">
         <f t="shared" si="3"/>
         <v>444</v>
@@ -12404,7 +12204,7 @@
         <v>30.970031968710234</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="18">
         <f t="shared" si="3"/>
         <v>445</v>
@@ -12420,7 +12220,7 @@
         <v>30.955717290982793</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="18">
         <f t="shared" si="3"/>
         <v>446</v>
@@ -12436,7 +12236,7 @@
         <v>30.94148922667566</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="18">
         <f t="shared" si="3"/>
         <v>447</v>
@@ -12452,7 +12252,7 @@
         <v>30.927078736235668</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="18">
         <f t="shared" si="3"/>
         <v>448</v>
@@ -12468,7 +12268,7 @@
         <v>30.913558473074428</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="18">
         <f t="shared" si="3"/>
         <v>449</v>
@@ -12484,7 +12284,7 @@
         <v>30.899586181129941</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="18">
         <f t="shared" si="3"/>
         <v>450</v>
@@ -12500,7 +12300,7 @@
         <v>30.886209321082987</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="18">
         <f t="shared" si="3"/>
         <v>451</v>
@@ -12516,7 +12316,7 @@
         <v>30.872736571967504</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="18">
         <f t="shared" si="3"/>
         <v>452</v>
@@ -12532,7 +12332,7 @@
         <v>30.859168570193237</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="18">
         <f t="shared" si="3"/>
         <v>453</v>
@@ -12548,7 +12348,7 @@
         <v>30.845108594916873</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="18">
         <f t="shared" si="3"/>
         <v>454</v>
@@ -12564,7 +12364,7 @@
         <v>30.829921132725424</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="18">
         <f t="shared" si="3"/>
         <v>455</v>
@@ -12580,7 +12380,7 @@
         <v>30.815811415620537</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="18">
         <f t="shared" si="3"/>
         <v>456</v>
@@ -12596,7 +12396,7 @@
         <v>30.801741652910842</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="18">
         <f t="shared" si="3"/>
         <v>457</v>
@@ -12612,7 +12412,7 @@
         <v>30.787295830388061</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="18">
         <f t="shared" si="3"/>
         <v>458</v>
@@ -12628,7 +12428,7 @@
         <v>30.772978589579356</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="18">
         <f t="shared" si="3"/>
         <v>459</v>
@@ -12644,7 +12444,7 @@
         <v>30.758266218926675</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="18">
         <f t="shared" si="3"/>
         <v>460</v>
@@ -12660,7 +12460,7 @@
         <v>30.743096076472487</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="18">
         <f t="shared" si="3"/>
         <v>461</v>
@@ -12676,7 +12476,7 @@
         <v>30.728425585070163</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="18">
         <f t="shared" si="3"/>
         <v>462</v>
@@ -12692,7 +12492,7 @@
         <v>30.714489600946631</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="18">
         <f t="shared" si="3"/>
         <v>463</v>
@@ -12708,7 +12508,7 @@
         <v>30.70024664465949</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="18">
         <f t="shared" si="3"/>
         <v>464</v>
@@ -12724,7 +12524,7 @@
         <v>30.686065080425308</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="18">
         <f t="shared" si="3"/>
         <v>465</v>
@@ -12740,7 +12540,7 @@
         <v>30.672095049134068</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="18">
         <f t="shared" si="3"/>
         <v>466</v>
@@ -12756,7 +12556,7 @@
         <v>30.657219308191721</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="18">
         <f t="shared" si="3"/>
         <v>467</v>
@@ -12772,7 +12572,7 @@
         <v>30.642235968880819</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="18">
         <f t="shared" si="3"/>
         <v>468</v>
@@ -12788,7 +12588,7 @@
         <v>30.62733802894731</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="18">
         <f t="shared" si="3"/>
         <v>469</v>
@@ -12804,7 +12604,7 @@
         <v>30.612055856348277</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="18">
         <f t="shared" si="3"/>
         <v>470</v>
@@ -12820,7 +12620,7 @@
         <v>30.596923822611366</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="18">
         <f t="shared" si="3"/>
         <v>471</v>
@@ -12836,7 +12636,7 @@
         <v>30.581431413731085</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="18">
         <f t="shared" si="3"/>
         <v>472</v>
@@ -12852,7 +12652,7 @@
         <v>30.565962280841823</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="18">
         <f t="shared" si="3"/>
         <v>473</v>
@@ -12868,7 +12668,7 @@
         <v>30.549797455892897</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="18">
         <f t="shared" si="3"/>
         <v>474</v>
@@ -12884,7 +12684,7 @@
         <v>30.533743031998608</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="18">
         <f t="shared" si="3"/>
         <v>475</v>
@@ -12900,7 +12700,7 @@
         <v>30.517798307889137</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="18">
         <f t="shared" si="3"/>
         <v>476</v>
@@ -12916,7 +12716,7 @@
         <v>30.502739908880965</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="18">
         <f t="shared" si="3"/>
         <v>477</v>
@@ -12932,7 +12732,7 @@
         <v>30.488226827143272</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="18">
         <f t="shared" si="3"/>
         <v>478</v>
@@ -12948,7 +12748,7 @@
         <v>30.474402083069752</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="18">
         <f t="shared" si="3"/>
         <v>479</v>
@@ -12964,7 +12764,7 @@
         <v>30.460676816967307</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="18">
         <f t="shared" si="3"/>
         <v>480</v>
@@ -12980,7 +12780,7 @@
         <v>30.447092074702791</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="18">
         <f t="shared" si="3"/>
         <v>481</v>
@@ -12996,7 +12796,7 @@
         <v>30.433023276855177</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="18">
         <f t="shared" si="3"/>
         <v>482</v>
@@ -13012,7 +12812,7 @@
         <v>30.41932405827249</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="18">
         <f t="shared" si="3"/>
         <v>483</v>
@@ -13028,7 +12828,7 @@
         <v>30.405992123452055</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="18">
         <f t="shared" si="3"/>
         <v>484</v>
@@ -13044,7 +12844,7 @@
         <v>30.393087180738309</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="18">
         <f t="shared" si="3"/>
         <v>485</v>
@@ -13060,7 +12860,7 @@
         <v>30.380668446015136</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="18">
         <f t="shared" si="3"/>
         <v>486</v>
@@ -13076,7 +12876,7 @@
         <v>30.368053901887535</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="18">
         <f t="shared" si="3"/>
         <v>487</v>
@@ -13092,7 +12892,7 @@
         <v>30.355655433752244</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="18">
         <f t="shared" si="3"/>
         <v>488</v>
@@ -13108,7 +12908,7 @@
         <v>30.343902043191274</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="18">
         <f t="shared" si="3"/>
         <v>489</v>
@@ -13124,7 +12924,7 @@
         <v>30.331971773634645</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="18">
         <f t="shared" si="3"/>
         <v>490</v>
@@ -13140,7 +12940,7 @@
         <v>30.320069790423148</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="18">
         <f t="shared" si="3"/>
         <v>491</v>
@@ -13156,7 +12956,7 @@
         <v>30.308195920727783</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="18">
         <f t="shared" si="3"/>
         <v>492</v>
@@ -13172,7 +12972,7 @@
         <v>30.295577637108419</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="18">
         <f t="shared" si="3"/>
         <v>493</v>
@@ -13188,7 +12988,7 @@
         <v>30.283436504923614</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="18">
         <f t="shared" si="3"/>
         <v>494</v>
@@ -13204,7 +13004,7 @@
         <v>30.271627930541179</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="18">
         <f t="shared" si="3"/>
         <v>495</v>
@@ -13220,7 +13020,7 @@
         <v>30.260008481105739</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="18">
         <f t="shared" si="3"/>
         <v>496</v>
@@ -13236,7 +13036,7 @@
         <v>30.248032656930125</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="18">
         <f t="shared" si="3"/>
         <v>497</v>
@@ -13252,7 +13052,7 @@
         <v>30.235742851564066</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="18">
         <f t="shared" si="3"/>
         <v>498</v>
@@ -13268,7 +13068,7 @@
         <v>30.222598790677392</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="18">
         <f t="shared" si="3"/>
         <v>499</v>
@@ -13284,7 +13084,7 @@
         <v>30.209046486647978</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="18">
         <f t="shared" si="3"/>
         <v>500</v>
@@ -13300,7 +13100,7 @@
         <v>30.19472839215468</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="18">
         <f t="shared" si="3"/>
         <v>501</v>
@@ -13316,7 +13116,7 @@
         <v>30.180846698298083</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="18">
         <f t="shared" si="3"/>
         <v>502</v>
@@ -13332,7 +13132,7 @@
         <v>30.167478476409045</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="18">
         <f t="shared" si="3"/>
         <v>503</v>
@@ -13348,7 +13148,7 @@
         <v>30.154382097569265</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="18">
         <f t="shared" si="3"/>
         <v>504</v>
@@ -13364,7 +13164,7 @@
         <v>30.138460702851869</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="18">
         <f t="shared" si="3"/>
         <v>505</v>
@@ -13380,7 +13180,7 @@
         <v>30.122127116093743</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="18">
         <f t="shared" si="3"/>
         <v>506</v>
@@ -13396,7 +13196,7 @@
         <v>30.105917378868263</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="18">
         <f t="shared" si="3"/>
         <v>507</v>
@@ -13412,7 +13212,7 @@
         <v>30.089317937351755</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="18">
         <f t="shared" si="3"/>
         <v>508</v>
@@ -13428,7 +13228,7 @@
         <v>30.073039751825473</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" s="18">
         <f t="shared" si="3"/>
         <v>509</v>
@@ -13444,7 +13244,7 @@
         <v>30.056904115004599</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" s="18">
         <f t="shared" si="3"/>
         <v>510</v>
@@ -13460,7 +13260,7 @@
         <v>30.040400380249686</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" s="18">
         <f t="shared" si="3"/>
         <v>511</v>
@@ -13476,7 +13276,7 @@
         <v>30.024704881384224</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" s="18">
         <f t="shared" si="3"/>
         <v>512</v>
@@ -13492,7 +13292,7 @@
         <v>30.00889491151824</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" s="18">
         <f t="shared" si="3"/>
         <v>513</v>
@@ -13508,7 +13308,7 @@
         <v>29.993185566193642</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" s="18">
         <f t="shared" si="3"/>
         <v>514</v>
@@ -13524,7 +13324,7 @@
         <v>29.977498435345016</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" s="18">
         <f t="shared" si="3"/>
         <v>515</v>
@@ -13540,7 +13340,7 @@
         <v>29.961988729198715</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" s="18">
         <f t="shared" si="3"/>
         <v>516</v>
@@ -13556,7 +13356,7 @@
         <v>29.946597279064608</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" s="18">
         <f t="shared" si="3"/>
         <v>517</v>
@@ -13572,7 +13372,7 @@
         <v>29.930897864598332</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" s="18">
         <f t="shared" si="3"/>
         <v>518</v>
@@ -13588,7 +13388,7 @@
         <v>29.914930880014165</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" s="18">
         <f t="shared" si="3"/>
         <v>519</v>
@@ -13604,7 +13404,7 @@
         <v>29.899006156969822</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="18">
         <f t="shared" si="3"/>
         <v>520</v>
@@ -13620,7 +13420,7 @@
         <v>29.883027299264111</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="18">
         <f t="shared" si="3"/>
         <v>521</v>
@@ -13636,7 +13436,7 @@
         <v>29.86661073999489</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" s="18">
         <f t="shared" si="3"/>
         <v>522</v>
@@ -13652,7 +13452,7 @@
         <v>29.850621065128998</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="18">
         <f t="shared" si="3"/>
         <v>523</v>
@@ -13668,7 +13468,7 @@
         <v>29.834329246495866</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="18">
         <f t="shared" si="3"/>
         <v>524</v>
@@ -13684,7 +13484,7 @@
         <v>29.818271366407131</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="18">
         <f t="shared" si="3"/>
         <v>525</v>
@@ -13700,7 +13500,7 @@
         <v>29.802865134356836</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="18">
         <f t="shared" si="3"/>
         <v>526</v>
@@ -13716,7 +13516,7 @@
         <v>29.787327366344751</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="18">
         <f t="shared" si="3"/>
         <v>527</v>
@@ -13732,7 +13532,7 @@
         <v>29.771222379387741</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="18">
         <f t="shared" si="3"/>
         <v>528</v>
@@ -13748,7 +13548,7 @@
         <v>29.754742790960869</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="18">
         <f t="shared" si="3"/>
         <v>529</v>
@@ -13764,7 +13564,7 @@
         <v>29.738344411242608</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="18">
         <f t="shared" si="3"/>
         <v>530</v>
@@ -13780,7 +13580,7 @@
         <v>29.722290930353473</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="18">
         <f t="shared" si="3"/>
         <v>531</v>
@@ -13796,7 +13596,7 @@
         <v>29.706655731011939</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="18">
         <f t="shared" si="3"/>
         <v>532</v>
@@ -13812,7 +13612,7 @@
         <v>29.691511640577708</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="18">
         <f t="shared" si="3"/>
         <v>533</v>
@@ -13828,7 +13628,7 @@
         <v>29.676461900313956</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="18">
         <f t="shared" si="3"/>
         <v>534</v>
@@ -13844,7 +13644,7 @@
         <v>29.662592122335841</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="18">
         <f t="shared" si="3"/>
         <v>535</v>
@@ -13860,7 +13660,7 @@
         <v>29.649353632238018</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="18">
         <f t="shared" si="3"/>
         <v>536</v>
@@ -13876,7 +13676,7 @@
         <v>29.636127225218917</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="18">
         <f t="shared" si="3"/>
         <v>537</v>
@@ -13892,7 +13692,7 @@
         <v>29.623322519455009</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="18">
         <f t="shared" si="3"/>
         <v>538</v>
@@ -13908,7 +13708,7 @@
         <v>29.609747569957882</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="18">
         <f t="shared" si="3"/>
         <v>539</v>
@@ -13924,7 +13724,7 @@
         <v>29.595647853186161</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" s="18">
         <f t="shared" si="3"/>
         <v>540</v>
@@ -13940,7 +13740,7 @@
         <v>29.581933691476557</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" s="18">
         <f t="shared" si="3"/>
         <v>541</v>
@@ -13956,7 +13756,7 @@
         <v>29.568011446649429</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="18">
         <f t="shared" si="3"/>
         <v>542</v>
@@ -13972,7 +13772,7 @@
         <v>29.554029875290293</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="18">
         <f t="shared" si="3"/>
         <v>543</v>
@@ -13988,7 +13788,7 @@
         <v>29.540486543586262</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="18">
         <f t="shared" si="3"/>
         <v>544</v>
@@ -14004,7 +13804,7 @@
         <v>29.527250355362757</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="18">
         <f t="shared" si="3"/>
         <v>545</v>
@@ -14020,7 +13820,7 @@
         <v>29.514301270875851</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="18">
         <f t="shared" si="3"/>
         <v>546</v>
@@ -14036,7 +13836,7 @@
         <v>29.500996689793663</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="18">
         <f t="shared" si="3"/>
         <v>547</v>
@@ -14052,7 +13852,7 @@
         <v>29.487503095918353</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="18">
         <f t="shared" si="3"/>
         <v>548</v>
@@ -14068,7 +13868,7 @@
         <v>29.473620789465947</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="18">
         <f t="shared" si="3"/>
         <v>549</v>
@@ -14084,7 +13884,7 @@
         <v>29.460080498264738</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="18">
         <f t="shared" si="3"/>
         <v>550</v>
@@ -14100,7 +13900,7 @@
         <v>29.447025807704254</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="18">
         <f t="shared" si="3"/>
         <v>551</v>
@@ -14116,7 +13916,7 @@
         <v>29.433582931320036</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="18">
         <f t="shared" si="3"/>
         <v>552</v>
@@ -14132,7 +13932,7 @@
         <v>29.420786586951703</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="18">
         <f t="shared" si="3"/>
         <v>553</v>
@@ -14148,7 +13948,7 @@
         <v>29.40794610431707</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="18">
         <f t="shared" si="3"/>
         <v>554</v>
@@ -14164,7 +13964,7 @@
         <v>29.394917321691949</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="18">
         <f t="shared" si="3"/>
         <v>555</v>
@@ -14180,7 +13980,7 @@
         <v>29.381755308769979</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="18">
         <f t="shared" si="3"/>
         <v>556</v>
@@ -14196,7 +13996,7 @@
         <v>29.368424812369312</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="18">
         <f t="shared" si="3"/>
         <v>557</v>
@@ -14212,7 +14012,7 @@
         <v>29.354693348271702</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="18">
         <f t="shared" si="3"/>
         <v>558</v>
@@ -14228,7 +14028,7 @@
         <v>29.340885653418169</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" s="18">
         <f t="shared" si="3"/>
         <v>559</v>
@@ -14244,7 +14044,7 @@
         <v>29.326876913841392</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" s="18">
         <f t="shared" si="3"/>
         <v>560</v>
@@ -14260,7 +14060,7 @@
         <v>29.313918204513104</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" s="18">
         <f t="shared" si="3"/>
         <v>561</v>
@@ -14276,7 +14076,7 @@
         <v>29.300827439995256</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" s="18">
         <f t="shared" si="3"/>
         <v>562</v>
@@ -14292,7 +14092,7 @@
         <v>29.287694295226583</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" s="18">
         <f t="shared" si="3"/>
         <v>563</v>
@@ -14308,7 +14108,7 @@
         <v>29.275193950119608</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" s="18">
         <f t="shared" si="3"/>
         <v>564</v>
@@ -14324,7 +14124,7 @@
         <v>29.263021620154856</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" s="18">
         <f t="shared" si="3"/>
         <v>565</v>
@@ -14340,7 +14140,7 @@
         <v>29.250715386260772</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" s="18">
         <f t="shared" si="3"/>
         <v>566</v>
@@ -14356,7 +14156,7 @@
         <v>29.23832896291049</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" s="18">
         <f t="shared" si="3"/>
         <v>567</v>
@@ -14372,7 +14172,7 @@
         <v>29.226180235251036</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" s="18">
         <f t="shared" si="3"/>
         <v>568</v>
@@ -14388,7 +14188,7 @@
         <v>29.214355974678409</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" s="18">
         <f t="shared" si="3"/>
         <v>569</v>
@@ -14404,7 +14204,7 @@
         <v>29.202186633633278</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" s="18">
         <f t="shared" si="3"/>
         <v>570</v>
@@ -14420,7 +14220,7 @@
         <v>29.189937182188306</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" s="18">
         <f t="shared" si="3"/>
         <v>571</v>
@@ -14436,7 +14236,7 @@
         <v>29.177520480258032</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" s="18">
         <f t="shared" si="3"/>
         <v>572</v>
@@ -14452,7 +14252,7 @@
         <v>29.165129710449889</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" s="18">
         <f t="shared" si="3"/>
         <v>573</v>
@@ -14468,7 +14268,7 @@
         <v>29.151961946278075</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" s="18">
         <f t="shared" si="3"/>
         <v>574</v>
@@ -14484,7 +14284,7 @@
         <v>29.138474207434385</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577" s="18">
         <f t="shared" si="3"/>
         <v>575</v>
@@ -14500,7 +14300,7 @@
         <v>29.124720338447538</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" s="18">
         <f t="shared" si="3"/>
         <v>576</v>
@@ -14516,7 +14316,7 @@
         <v>29.110632282703705</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" s="18">
         <f t="shared" si="3"/>
         <v>577</v>
@@ -14532,7 +14332,7 @@
         <v>29.096835692300406</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580" s="18">
         <f t="shared" si="3"/>
         <v>578</v>
@@ -14548,7 +14348,7 @@
         <v>29.082533208265282</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581" s="18">
         <f t="shared" si="3"/>
         <v>579</v>
@@ -14564,7 +14364,7 @@
         <v>29.067796534744961</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582" s="18">
         <f t="shared" si="3"/>
         <v>580</v>
@@ -14580,7 +14380,7 @@
         <v>29.053248608236778</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583" s="18">
         <f t="shared" si="3"/>
         <v>581</v>
@@ -14596,7 +14396,7 @@
         <v>29.037941811751001</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584" s="18">
         <f t="shared" si="3"/>
         <v>582</v>
@@ -14612,7 +14412,7 @@
         <v>29.023099986679263</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A585" s="18">
         <f t="shared" si="3"/>
         <v>583</v>
@@ -14628,7 +14428,7 @@
         <v>29.007880260492847</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A586" s="18">
         <f t="shared" si="3"/>
         <v>584</v>
@@ -14644,7 +14444,7 @@
         <v>28.993140738848169</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587" s="18">
         <f t="shared" si="3"/>
         <v>585</v>
@@ -14660,7 +14460,7 @@
         <v>28.979272120764666</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A588" s="18">
         <f t="shared" si="3"/>
         <v>586</v>
@@ -14676,7 +14476,7 @@
         <v>28.965638550200225</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589" s="18">
         <f t="shared" si="3"/>
         <v>587</v>
@@ -14690,326 +14490,6 @@
       <c r="D589" s="18">
         <f>SUM(C$3:C589)/A589</f>
         <v>28.951898109092557</v>
-      </c>
-    </row>
-    <row r="590" spans="1:4">
-      <c r="A590" s="18">
-        <f t="shared" si="3"/>
-        <v>588</v>
-      </c>
-      <c r="B590" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="C590" s="20">
-        <v>20.190000529999999</v>
-      </c>
-      <c r="D590" s="18">
-        <f>SUM(C$3:C590)/A590</f>
-        <v>28.93699692273356</v>
-      </c>
-    </row>
-    <row r="591" spans="1:4">
-      <c r="A591" s="18">
-        <f t="shared" si="3"/>
-        <v>589</v>
-      </c>
-      <c r="B591" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="C591" s="20">
-        <v>20.379999160000001</v>
-      </c>
-      <c r="D591" s="18">
-        <f>SUM(C$3:C591)/A591</f>
-        <v>28.922468912949629</v>
-      </c>
-    </row>
-    <row r="592" spans="1:4">
-      <c r="A592" s="18">
-        <f t="shared" si="3"/>
-        <v>590</v>
-      </c>
-      <c r="B592" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="C592" s="20">
-        <v>20.25</v>
-      </c>
-      <c r="D592" s="18">
-        <f>SUM(C$3:C592)/A592</f>
-        <v>28.907769813097172</v>
-      </c>
-    </row>
-    <row r="593" spans="1:4">
-      <c r="A593" s="18">
-        <f t="shared" si="3"/>
-        <v>591</v>
-      </c>
-      <c r="B593" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="C593" s="20">
-        <v>20.149999619999999</v>
-      </c>
-      <c r="D593" s="18">
-        <f>SUM(C$3:C593)/A593</f>
-        <v>28.892951251010714</v>
-      </c>
-    </row>
-    <row r="594" spans="1:4">
-      <c r="A594" s="18">
-        <f t="shared" si="3"/>
-        <v>592</v>
-      </c>
-      <c r="B594" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="C594" s="20">
-        <v>19.729999540000001</v>
-      </c>
-      <c r="D594" s="18">
-        <f>SUM(C$3:C594)/A594</f>
-        <v>28.877473292039408</v>
-      </c>
-    </row>
-    <row r="595" spans="1:4">
-      <c r="A595" s="18">
-        <f t="shared" si="3"/>
-        <v>593</v>
-      </c>
-      <c r="B595" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="C595" s="20">
-        <v>19.61000061</v>
-      </c>
-      <c r="D595" s="18">
-        <f>SUM(C$3:C595)/A595</f>
-        <v>28.861845176218093</v>
-      </c>
-    </row>
-    <row r="596" spans="1:4">
-      <c r="A596" s="18">
-        <f t="shared" si="3"/>
-        <v>594</v>
-      </c>
-      <c r="B596" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="C596" s="20">
-        <v>19.770000459999999</v>
-      </c>
-      <c r="D596" s="18">
-        <f>SUM(C$3:C596)/A596</f>
-        <v>28.846539040332207</v>
-      </c>
-    </row>
-    <row r="597" spans="1:4">
-      <c r="A597" s="18">
-        <f t="shared" si="3"/>
-        <v>595</v>
-      </c>
-      <c r="B597" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="C597" s="20">
-        <v>19.770000459999999</v>
-      </c>
-      <c r="D597" s="18">
-        <f>SUM(C$3:C597)/A597</f>
-        <v>28.831284353642573</v>
-      </c>
-    </row>
-    <row r="598" spans="1:4">
-      <c r="A598" s="18">
-        <f t="shared" si="3"/>
-        <v>596</v>
-      </c>
-      <c r="B598" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="C598" s="20">
-        <v>19.520000459999999</v>
-      </c>
-      <c r="D598" s="18">
-        <f>SUM(C$3:C598)/A598</f>
-        <v>28.815661394089481</v>
-      </c>
-    </row>
-    <row r="599" spans="1:4">
-      <c r="A599" s="18">
-        <f t="shared" si="3"/>
-        <v>597</v>
-      </c>
-      <c r="B599" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="C599" s="20">
-        <v>19.36000061</v>
-      </c>
-      <c r="D599" s="18">
-        <f>SUM(C$3:C599)/A599</f>
-        <v>28.799822766310438</v>
-      </c>
-    </row>
-    <row r="600" spans="1:4">
-      <c r="A600" s="18">
-        <f t="shared" si="3"/>
-        <v>598</v>
-      </c>
-      <c r="B600" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="C600" s="20">
-        <v>19.219999309999999</v>
-      </c>
-      <c r="D600" s="18">
-        <f>SUM(C$3:C600)/A600</f>
-        <v>28.783802994644365</v>
-      </c>
-    </row>
-    <row r="601" spans="1:4">
-      <c r="A601" s="18">
-        <f t="shared" si="3"/>
-        <v>599</v>
-      </c>
-      <c r="B601" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="C601" s="20">
-        <v>19.370000839999999</v>
-      </c>
-      <c r="D601" s="18">
-        <f>SUM(C$3:C601)/A601</f>
-        <v>28.768087131281021</v>
-      </c>
-    </row>
-    <row r="602" spans="1:4">
-      <c r="A602" s="18">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="B602" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="C602" s="20">
-        <v>19.219999309999999</v>
-      </c>
-      <c r="D602" s="18">
-        <f>SUM(C$3:C602)/A602</f>
-        <v>28.752173651578886</v>
-      </c>
-    </row>
-    <row r="603" spans="1:4">
-      <c r="A603" s="18">
-        <f t="shared" si="3"/>
-        <v>601</v>
-      </c>
-      <c r="B603" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="C603" s="20">
-        <v>19.120000839999999</v>
-      </c>
-      <c r="D603" s="18">
-        <f>SUM(C$3:C603)/A603</f>
-        <v>28.736146741742651</v>
-      </c>
-    </row>
-    <row r="604" spans="1:4">
-      <c r="A604" s="18">
-        <f t="shared" si="3"/>
-        <v>602</v>
-      </c>
-      <c r="B604" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="C604" s="20">
-        <v>18.959999079999999</v>
-      </c>
-      <c r="D604" s="18">
-        <f>SUM(C$3:C604)/A604</f>
-        <v>28.719907293799558</v>
-      </c>
-    </row>
-    <row r="605" spans="1:4">
-      <c r="A605" s="18">
-        <f t="shared" si="3"/>
-        <v>603</v>
-      </c>
-      <c r="B605" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="C605" s="20">
-        <v>19.370000839999999</v>
-      </c>
-      <c r="D605" s="18">
-        <f>SUM(C$3:C605)/A605</f>
-        <v>28.704401644622447</v>
-      </c>
-    </row>
-    <row r="606" spans="1:4">
-      <c r="A606" s="18">
-        <f t="shared" si="3"/>
-        <v>604</v>
-      </c>
-      <c r="B606" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="C606" s="20">
-        <v>19.290000920000001</v>
-      </c>
-      <c r="D606" s="18">
-        <f>SUM(C$3:C606)/A606</f>
-        <v>28.688814888455852</v>
-      </c>
-    </row>
-    <row r="607" spans="1:4">
-      <c r="A607" s="18">
-        <f t="shared" si="3"/>
-        <v>605</v>
-      </c>
-      <c r="B607" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="C607" s="20">
-        <v>19.170000080000001</v>
-      </c>
-      <c r="D607" s="18">
-        <f>SUM(C$3:C607)/A607</f>
-        <v>28.673081310260059</v>
-      </c>
-    </row>
-    <row r="608" spans="1:4">
-      <c r="A608" s="18">
-        <f t="shared" si="3"/>
-        <v>606</v>
-      </c>
-      <c r="B608" s="19">
-        <v>45196</v>
-      </c>
-      <c r="C608" s="20">
-        <v>19.25</v>
-      </c>
-      <c r="D608" s="18">
-        <f>SUM(C$3:C608)/A608</f>
-        <v>28.657531671134215</v>
-      </c>
-    </row>
-    <row r="609" spans="1:4">
-      <c r="A609" s="18">
-        <f t="shared" si="3"/>
-        <v>607</v>
-      </c>
-      <c r="B609" s="19">
-        <v>45197</v>
-      </c>
-      <c r="C609" s="20">
-        <v>19.25</v>
-      </c>
-      <c r="D609" s="18">
-        <f>SUM(C$3:C609)/A609</f>
-        <v>28.642033266404177</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="模型一" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="437">
   <si>
     <t>PE</t>
   </si>
@@ -1631,6 +1631,78 @@
   </si>
   <si>
     <t xml:space="preserve">2023/8/29
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/26
 </t>
   </si>
   <si>
@@ -1709,7 +1781,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2261,136 +2333,136 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7161979980468751</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.6159379882812499</c:v>
+                  <c:v>45044</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.4505849609374999</c:v>
+                  <c:v>45077</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.608843017578125</c:v>
+                  <c:v>45107</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.6303940429687498</c:v>
+                  <c:v>45138</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.3830390625</c:v>
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2402,133 +2474,133 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>2000.0000000000002</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3783.4996370436897</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6143.6117008713063</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8173.7580810682693</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11353.811149064422</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14968.552321848347</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16822.477397497114</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18240.153038857396</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21221.531045139225</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23603.74034292587</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28072.985437531297</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31610.696441599135</c:v>
+                  <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31960.877336479982</c:v>
+                  <c:v>26000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32030.541196234128</c:v>
+                  <c:v>28000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36542.468793623324</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40028.514786085325</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43079.887556825692</c:v>
+                  <c:v>34000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43952.380972166822</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44041.688138414858</c:v>
+                  <c:v>38000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45572.995207693384</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49094.404023982002</c:v>
+                  <c:v>42000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51969.911593071687</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53008.069006718506</c:v>
+                  <c:v>46000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49351.052479165373</c:v>
+                  <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51254.60334650999</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>47701.945217252243</c:v>
+                  <c:v>52000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45202.535414395512</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48944.813088421164</c:v>
+                  <c:v>56000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57317.86097478633</c:v>
+                  <c:v>58000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56010.270798873862</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55547.679913640975</c:v>
+                  <c:v>62000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52229.088937270295</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>53475.074735568647</c:v>
+                  <c:v>66000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58406.85441256113</c:v>
+                  <c:v>68000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>60293.406710853284</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>68151.7828856181</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67767.93214664339</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70476.779226985323</c:v>
+                  <c:v>76000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>70575.372849483087</c:v>
+                  <c:v>78000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69348.035546023719</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>74528.622449867675</c:v>
+                  <c:v>82000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>76973.687038967822</c:v>
+                  <c:v>84000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>73729.125531655038</c:v>
+                  <c:v>86000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2570,136 +2642,136 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7161979980468751</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.6159379882812499</c:v>
+                  <c:v>45044</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.4505849609374999</c:v>
+                  <c:v>45077</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.608843017578125</c:v>
+                  <c:v>45107</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.6303940429687498</c:v>
+                  <c:v>45138</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.3830390625</c:v>
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2711,133 +2783,133 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2000.0000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-216.50036295631025</c:v>
+                  <c:v>3783.4996370436897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143.61170087130631</c:v>
+                  <c:v>6143.6117008713063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>173.75808106826935</c:v>
+                  <c:v>8173.7580810682693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1353.8111490644224</c:v>
+                  <c:v>11353.811149064422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2968.5523218483468</c:v>
+                  <c:v>14968.552321848347</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2822.477397497114</c:v>
+                  <c:v>16822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2240.1530388573956</c:v>
+                  <c:v>18240.153038857396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3221.5310451392252</c:v>
+                  <c:v>21221.531045139225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3603.7403429258702</c:v>
+                  <c:v>23603.74034292587</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6072.9854375312971</c:v>
+                  <c:v>28072.985437531297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7610.6964415991351</c:v>
+                  <c:v>31610.696441599135</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5960.8773364799818</c:v>
+                  <c:v>31960.877336479982</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4030.5411962341277</c:v>
+                  <c:v>32030.541196234128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6542.468793623324</c:v>
+                  <c:v>36542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8028.5147860853249</c:v>
+                  <c:v>40028.514786085325</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9079.8875568256917</c:v>
+                  <c:v>43079.887556825692</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7952.3809721668222</c:v>
+                  <c:v>43952.380972166822</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6041.6881384148583</c:v>
+                  <c:v>44041.688138414858</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5572.9952076933841</c:v>
+                  <c:v>45572.995207693384</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7094.4040239820024</c:v>
+                  <c:v>49094.404023982002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7969.9115930716871</c:v>
+                  <c:v>51969.911593071687</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7008.069006718506</c:v>
+                  <c:v>53008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1351.0524791653734</c:v>
+                  <c:v>49351.052479165373</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1254.6033465099899</c:v>
+                  <c:v>51254.60334650999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-4298.0547827477567</c:v>
+                  <c:v>47701.945217252243</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-8797.4645856044881</c:v>
+                  <c:v>45202.535414395512</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-7055.1869115788359</c:v>
+                  <c:v>48944.813088421164</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-682.13902521366981</c:v>
+                  <c:v>57317.86097478633</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3989.7292011261379</c:v>
+                  <c:v>56010.270798873862</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-6452.3200863590246</c:v>
+                  <c:v>55547.679913640975</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-11770.911062729705</c:v>
+                  <c:v>52229.088937270295</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-12524.925264431353</c:v>
+                  <c:v>53475.074735568647</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-9593.1455874388703</c:v>
+                  <c:v>58406.85441256113</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-9706.5932891467164</c:v>
+                  <c:v>60293.406710853284</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-3848.2171143818996</c:v>
+                  <c:v>68151.7828856181</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-6232.0678533566097</c:v>
+                  <c:v>67767.93214664339</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-5523.2207730146765</c:v>
+                  <c:v>70476.779226985323</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-7424.6271505169134</c:v>
+                  <c:v>70575.372849483087</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-10651.964453976281</c:v>
+                  <c:v>69348.035546023719</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-7471.3775501323253</c:v>
+                  <c:v>74528.622449867675</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-7026.3129610321776</c:v>
+                  <c:v>76973.687038967822</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-12270.874468344962</c:v>
+                  <c:v>73729.125531655038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2879,136 +2951,136 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7161979980468751</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.6159379882812499</c:v>
+                  <c:v>45044</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.4505849609374999</c:v>
+                  <c:v>45077</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.608843017578125</c:v>
+                  <c:v>45107</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.6303940429687498</c:v>
+                  <c:v>45138</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.3830390625</c:v>
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3017,8 +3089,137 @@
             <c:numRef>
               <c:f>模型一!金额</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-216.50036295631025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143.61170087130631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173.75808106826935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1353.8111490644224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2968.5523218483468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2822.477397497114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2240.1530388573956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3221.5310451392252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3603.7403429258702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6072.9854375312971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7610.6964415991351</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5960.8773364799818</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4030.5411962341277</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6542.468793623324</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8028.5147860853249</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9079.8875568256917</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7952.3809721668222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6041.6881384148583</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5572.9952076933841</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7094.4040239820024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7969.9115930716871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7008.069006718506</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1351.0524791653734</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1254.6033465099899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4298.0547827477567</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-8797.4645856044881</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7055.1869115788359</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-682.13902521366981</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3989.7292011261379</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6452.3200863590246</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-11770.911062729705</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-12524.925264431353</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-9593.1455874388703</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9706.5932891467164</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3848.2171143818996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6232.0678533566097</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-5523.2207730146765</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7424.6271505169134</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-10651.964453976281</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7471.3775501323253</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7026.3129610321776</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-12270.874468344962</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3039,17 +3240,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133497984"/>
-        <c:axId val="133499520"/>
+        <c:axId val="495852544"/>
+        <c:axId val="519480064"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="133497984"/>
+      <c:dateAx>
+        <c:axId val="495852544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -3086,15 +3287,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133499520"/>
+        <c:crossAx val="519480064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="133499520"/>
+        <c:axId val="519480064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3145,7 +3345,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133497984"/>
+        <c:crossAx val="495852544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3553,12 +3753,12 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -3579,44 +3779,44 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
         <v>2000</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3625,7 +3825,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="14.1" customHeight="1">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -3655,25 +3855,25 @@
       </c>
       <c r="J3" s="6"/>
       <c r="L3" s="26" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="T3" s="23">
         <v>44196</v>
@@ -3696,7 +3896,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="14.1" customHeight="1">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -3767,7 +3967,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="14.1" customHeight="1">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -3834,7 +4034,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="14.1" customHeight="1">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -3894,7 +4094,7 @@
         <v>60293.406710853284</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="14.1" customHeight="1">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -3927,7 +4127,7 @@
         <v>-7.3828223896210132E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="14.1" customHeight="1">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -3957,7 +4157,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="14.1" customHeight="1">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -3987,7 +4187,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="14.1" customHeight="1">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -4017,7 +4217,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="14.1" customHeight="1">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -4047,7 +4247,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="14.1" customHeight="1">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -4077,7 +4277,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="14.1" customHeight="1">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -4107,7 +4307,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="14.1" customHeight="1">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -4137,7 +4337,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="14.1" customHeight="1">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -4167,7 +4367,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="14.1" customHeight="1">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -4197,7 +4397,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -4227,7 +4427,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -4257,7 +4457,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -4287,7 +4487,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -4317,7 +4517,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -4348,7 +4548,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -4378,7 +4578,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -4408,7 +4608,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -4438,7 +4638,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -4468,7 +4668,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -4498,7 +4698,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -4528,7 +4728,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -4558,7 +4758,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -4588,7 +4788,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -4618,7 +4818,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -4648,7 +4848,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -4678,7 +4878,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -4709,7 +4909,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="12.75">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -4738,7 +4938,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="12.75">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -4767,7 +4967,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="12.75">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -4796,7 +4996,7 @@
         <v>-9593.1455874388703</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="12.75">
       <c r="A37" s="14">
         <v>44925</v>
       </c>
@@ -4825,7 +5025,7 @@
         <v>-9706.5932891467164</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="12.75">
       <c r="A38" s="14">
         <v>44957</v>
       </c>
@@ -4854,7 +5054,7 @@
         <v>-3848.2171143818996</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="12.75">
       <c r="A39" s="14">
         <v>44985</v>
       </c>
@@ -4883,7 +5083,7 @@
         <v>-6232.0678533566097</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="12.75">
       <c r="A40" s="14">
         <v>45016</v>
       </c>
@@ -4912,7 +5112,7 @@
         <v>-5523.2207730146765</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="12.75">
       <c r="A41" s="14">
         <v>45044</v>
       </c>
@@ -4941,7 +5141,7 @@
         <v>-7424.6271505169134</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="12.75">
       <c r="A42" s="14">
         <v>45077</v>
       </c>
@@ -4970,7 +5170,7 @@
         <v>-10651.964453976281</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="12.75">
       <c r="A43" s="14">
         <v>45107</v>
       </c>
@@ -4999,7 +5199,7 @@
         <v>-7471.3775501323253</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="12.75">
       <c r="A44" s="14">
         <v>45138</v>
       </c>
@@ -5028,7 +5228,7 @@
         <v>-7026.3129610321776</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="12.75">
       <c r="A45" s="14">
         <v>45169</v>
       </c>
@@ -5070,13 +5270,13 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D589"/>
+  <dimension ref="A1:D609"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -5084,7 +5284,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="B1" s="30" t="s">
         <v>181</v>
       </c>
@@ -5092,7 +5292,7 @@
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
@@ -5101,7 +5301,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -5116,7 +5316,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -5132,7 +5332,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5148,7 +5348,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5164,7 +5364,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5180,7 +5380,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5196,7 +5396,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5212,7 +5412,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5228,7 +5428,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5244,7 +5444,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5260,7 +5460,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5276,7 +5476,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5292,7 +5492,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5308,7 +5508,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5324,7 +5524,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5340,7 +5540,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5356,7 +5556,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5372,7 +5572,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5388,7 +5588,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5404,7 +5604,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5420,7 +5620,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5436,7 +5636,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5452,7 +5652,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5468,7 +5668,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5484,7 +5684,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5500,7 +5700,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5516,7 +5716,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5532,7 +5732,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5548,7 +5748,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5564,7 +5764,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5580,7 +5780,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5596,7 +5796,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5612,7 +5812,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5628,7 +5828,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5644,7 +5844,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -5660,7 +5860,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -5676,7 +5876,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -5692,7 +5892,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -5708,7 +5908,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -5724,7 +5924,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -5740,7 +5940,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -5756,7 +5956,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -5772,7 +5972,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -5788,7 +5988,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -5804,7 +6004,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -5820,7 +6020,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -5836,7 +6036,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -5852,7 +6052,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -5868,7 +6068,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -5884,7 +6084,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -5900,7 +6100,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -5916,7 +6116,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -5932,7 +6132,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -5948,7 +6148,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -5964,7 +6164,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -5980,7 +6180,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -5996,7 +6196,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -6012,7 +6212,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -6028,7 +6228,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -6044,7 +6244,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -6060,7 +6260,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -6076,7 +6276,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -6092,7 +6292,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -6108,7 +6308,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -6124,7 +6324,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -6140,7 +6340,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -6156,7 +6356,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -6172,7 +6372,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -6188,7 +6388,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -6204,7 +6404,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -6220,7 +6420,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -6236,7 +6436,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -6252,7 +6452,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -6268,7 +6468,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -6284,7 +6484,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -6300,7 +6500,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -6316,7 +6516,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -6332,7 +6532,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -6348,7 +6548,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -6364,7 +6564,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -6380,7 +6580,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -6396,7 +6596,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -6412,7 +6612,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -6428,7 +6628,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -6444,7 +6644,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -6460,7 +6660,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -6476,7 +6676,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -6492,7 +6692,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -6508,7 +6708,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -6524,7 +6724,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -6540,7 +6740,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -6556,7 +6756,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -6572,7 +6772,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -6588,7 +6788,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -6604,7 +6804,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -6620,7 +6820,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -6636,7 +6836,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -6652,7 +6852,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -6668,7 +6868,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -6684,7 +6884,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -6700,7 +6900,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -6716,7 +6916,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -6732,7 +6932,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -6748,7 +6948,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -6764,7 +6964,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -6780,7 +6980,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -6796,7 +6996,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -6812,7 +7012,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -6828,7 +7028,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -6844,7 +7044,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -6860,7 +7060,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -6876,7 +7076,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -6892,7 +7092,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -6908,7 +7108,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -6924,7 +7124,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -6940,7 +7140,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -6956,7 +7156,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -6972,7 +7172,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -6988,7 +7188,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -7004,7 +7204,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -7020,7 +7220,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -7036,7 +7236,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -7052,7 +7252,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -7068,7 +7268,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -7084,7 +7284,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -7100,7 +7300,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -7116,7 +7316,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -7132,7 +7332,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -7148,7 +7348,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -7164,7 +7364,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -7180,7 +7380,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -7196,7 +7396,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -7212,7 +7412,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -7228,7 +7428,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -7244,7 +7444,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -7260,7 +7460,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -7276,7 +7476,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -7292,7 +7492,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -7308,7 +7508,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -7324,7 +7524,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -7340,7 +7540,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -7356,7 +7556,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -7372,7 +7572,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -7388,7 +7588,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -7404,7 +7604,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -7420,7 +7620,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -7436,7 +7636,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -7452,7 +7652,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -7468,7 +7668,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -7484,7 +7684,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -7500,7 +7700,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -7516,7 +7716,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -7532,7 +7732,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -7548,7 +7748,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -7564,7 +7764,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -7580,7 +7780,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -7596,7 +7796,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -7612,7 +7812,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -7628,7 +7828,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -7644,7 +7844,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -7660,7 +7860,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -7676,7 +7876,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -7692,7 +7892,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -7708,7 +7908,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -7724,7 +7924,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -7740,7 +7940,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -7756,7 +7956,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -7772,7 +7972,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -7788,7 +7988,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -7804,7 +8004,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -7820,7 +8020,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -7836,7 +8036,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -7852,7 +8052,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -7868,7 +8068,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -7884,7 +8084,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -7900,7 +8100,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -7916,7 +8116,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -7932,7 +8132,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -7948,7 +8148,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -7964,7 +8164,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -7980,7 +8180,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -7996,7 +8196,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -8012,7 +8212,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -8028,7 +8228,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -8044,7 +8244,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -8060,7 +8260,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -8076,7 +8276,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -8092,7 +8292,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -8108,7 +8308,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -8124,7 +8324,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -8140,7 +8340,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -8156,7 +8356,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -8172,7 +8372,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -8188,7 +8388,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -8204,7 +8404,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -8220,7 +8420,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -8236,7 +8436,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -8252,7 +8452,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -8268,7 +8468,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -8284,7 +8484,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -8300,7 +8500,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -8316,7 +8516,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -8332,7 +8532,7 @@
         <v>37.709801928118821</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -8348,7 +8548,7 @@
         <v>37.677783194876852</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -8364,7 +8564,7 @@
         <v>37.643186222549026</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -8380,7 +8580,7 @@
         <v>37.61082921770732</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -8396,7 +8596,7 @@
         <v>37.576601888834951</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -8412,7 +8612,7 @@
         <v>37.53951685371981</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -8428,7 +8628,7 @@
         <v>37.502548024519236</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -8444,7 +8644,7 @@
         <v>37.469330088851677</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -8460,7 +8660,7 @@
         <v>37.436714235285713</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -8476,7 +8676,7 @@
         <v>37.405118435402848</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -8492,7 +8692,7 @@
         <v>37.373584854622642</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -8508,7 +8708,7 @@
         <v>37.341971777323948</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -8524,7 +8724,7 @@
         <v>37.308551350934586</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -8540,7 +8740,7 @@
         <v>37.279162738930239</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -8556,7 +8756,7 @@
         <v>37.24703698620371</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -8572,7 +8772,7 @@
         <v>37.217787966082959</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -8588,7 +8788,7 @@
         <v>37.189128385091756</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -8604,7 +8804,7 @@
         <v>37.160593554703212</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -8620,7 +8820,7 @@
         <v>37.130136307090922</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -8636,7 +8836,7 @@
         <v>37.098280487375575</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -8652,7 +8852,7 @@
         <v>37.064549496936955</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -8668,7 +8868,7 @@
         <v>37.025425957264588</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -8684,7 +8884,7 @@
         <v>36.983839230133938</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -8700,7 +8900,7 @@
         <v>36.941866615422235</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -8716,7 +8916,7 @@
         <v>36.903230033407091</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -8732,7 +8932,7 @@
         <v>36.865991137929527</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -8748,7 +8948,7 @@
         <v>36.824824508114048</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -8764,7 +8964,7 @@
         <v>36.779912614716174</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -8780,7 +8980,7 @@
         <v>36.740347778608708</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -8796,7 +8996,7 @@
         <v>36.704372248441572</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -8812,7 +9012,7 @@
         <v>36.668318920431048</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -8828,7 +9028,7 @@
         <v>36.63334759656653</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -8844,7 +9044,7 @@
         <v>36.597521324786335</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -8860,7 +9060,7 @@
         <v>36.562765916212776</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -8876,7 +9076,7 @@
         <v>36.527669453389834</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -8892,7 +9092,7 @@
         <v>36.490042158691992</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -8908,7 +9108,7 @@
         <v>36.450924335798327</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -8924,7 +9124,7 @@
         <v>36.41142256129708</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -8940,7 +9140,7 @@
         <v>36.376291632041678</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -8956,7 +9156,7 @@
         <v>36.340041456763494</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -8972,7 +9172,7 @@
         <v>36.304917319132237</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -8988,7 +9188,7 @@
         <v>36.269300373868319</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -9004,7 +9204,7 @@
         <v>36.232131113155745</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -9020,7 +9220,7 @@
         <v>36.195142823224494</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -9036,7 +9236,7 @@
         <v>36.154146310162609</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -9052,7 +9252,7 @@
         <v>36.115546530931177</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -9068,7 +9268,7 @@
         <v>36.075483844556452</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -9084,7 +9284,7 @@
         <v>36.036385516465863</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -9100,7 +9300,7 @@
         <v>35.997079970720002</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -9116,7 +9316,7 @@
         <v>35.958844590836655</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -9132,7 +9332,7 @@
         <v>35.919801560079364</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -9148,7 +9348,7 @@
         <v>35.878497993873516</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -9164,7 +9364,7 @@
         <v>35.83523618834645</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -9180,7 +9380,7 @@
         <v>35.79231369109803</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -9196,7 +9396,7 @@
         <v>35.74410153121093</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -9212,7 +9412,7 @@
         <v>35.695175066420227</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -9228,7 +9428,7 @@
         <v>35.650930204496113</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -9244,7 +9444,7 @@
         <v>35.606409241698827</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -9260,7 +9460,7 @@
         <v>35.566115356769217</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -9276,7 +9476,7 @@
         <v>35.518850545210718</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -9292,7 +9492,7 @@
         <v>35.469999967977095</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -9308,7 +9508,7 @@
         <v>35.420532283992387</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -9324,7 +9524,7 @@
         <v>35.37265148249999</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -9340,7 +9540,7 @@
         <v>35.327660347698107</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -9356,7 +9556,7 @@
         <v>35.282706740526301</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -9372,7 +9572,7 @@
         <v>35.238764015805231</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -9388,7 +9588,7 @@
         <v>35.194179078880587</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -9404,7 +9604,7 @@
         <v>35.151561311078062</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -9420,7 +9620,7 @@
         <v>35.109185154666655</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -9436,7 +9636,7 @@
         <v>35.067416947158662</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -9452,7 +9652,7 @@
         <v>35.027352914264696</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -9468,7 +9668,7 @@
         <v>34.987142827545782</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -9484,7 +9684,7 @@
         <v>34.944160551094882</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -9500,7 +9700,7 @@
         <v>34.901854510799993</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -9516,7 +9716,7 @@
         <v>34.85992750141304</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -9532,7 +9732,7 @@
         <v>34.818447621768946</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -9548,7 +9748,7 @@
         <v>34.778237376330928</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -9564,7 +9764,7 @@
         <v>34.740071647956981</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -9580,7 +9780,7 @@
         <v>34.70282139017857</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -9596,7 +9796,7 @@
         <v>34.666548005266904</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -9612,7 +9812,7 @@
         <v>34.633439678723406</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -9628,7 +9828,7 @@
         <v>34.600353321060069</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -9644,7 +9844,7 @@
         <v>34.568168975140843</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -9660,7 +9860,7 @@
         <v>34.533719259438591</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -9676,7 +9876,7 @@
         <v>34.501713245104895</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -9692,7 +9892,7 @@
         <v>34.441254312613239</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -9708,7 +9908,7 @@
         <v>34.410590237256947</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -9724,7 +9924,7 @@
         <v>34.381418643148791</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -9740,7 +9940,7 @@
         <v>34.352517199551727</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -9756,7 +9956,7 @@
         <v>34.325532604364263</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -9772,7 +9972,7 @@
         <v>34.300479411301374</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -9788,7 +9988,7 @@
         <v>34.275528968839595</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -9804,7 +10004,7 @@
         <v>34.249421728741503</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -9820,7 +10020,7 @@
         <v>34.225660976338986</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -9836,7 +10036,7 @@
         <v>34.203749958750002</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -9852,7 +10052,7 @@
         <v>34.182424204141412</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -9868,7 +10068,7 @@
         <v>34.162248284261743</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -9884,7 +10084,7 @@
         <v>34.139999963010034</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -9900,7 +10100,7 @@
         <v>34.118899961366665</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -9916,7 +10116,7 @@
         <v>34.097375374750825</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -9932,7 +10132,7 @@
         <v>34.077450290463574</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -9948,7 +10148,7 @@
         <v>34.057161676666666</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -9964,7 +10164,7 @@
         <v>34.036282852335525</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -9980,7 +10180,7 @@
         <v>34.016754055836067</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -9996,7 +10196,7 @@
         <v>33.996633946535951</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -10012,7 +10212,7 @@
         <v>33.974755662312702</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -10028,7 +10228,7 @@
         <v>33.951363599967529</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -10044,7 +10244,7 @@
         <v>33.928932004045308</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -10060,7 +10260,7 @@
         <v>33.908064478483865</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -10076,7 +10276,7 @@
         <v>33.886044976848872</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -10092,7 +10292,7 @@
         <v>33.865032011923077</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -10108,7 +10308,7 @@
         <v>33.843258744281151</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -10124,7 +10324,7 @@
         <v>33.821847094904456</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -10140,7 +10340,7 @@
         <v>33.799841229174596</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -10156,7 +10356,7 @@
         <v>33.777689830474678</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -10172,7 +10372,7 @@
         <v>33.754952637602521</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -10188,7 +10388,7 @@
         <v>33.732798695597481</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -10204,7 +10404,7 @@
         <v>33.71050152363636</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -10220,7 +10420,7 @@
         <v>33.688624953499996</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -10236,7 +10436,7 @@
         <v>33.665700887975071</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -10252,7 +10452,7 @@
         <v>33.644596229440985</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -10268,7 +10468,7 @@
         <v>33.621981380433432</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -10284,7 +10484,7 @@
         <v>33.598333289753079</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -10300,7 +10500,7 @@
         <v>33.575199956553838</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -10316,7 +10516,7 @@
         <v>33.553374186993857</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -10332,7 +10532,7 @@
         <v>33.531651332477054</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -10348,7 +10548,7 @@
         <v>33.510396296310965</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -10364,7 +10564,7 @@
         <v>33.488176249088134</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -10380,7 +10580,7 @@
         <v>33.467939351363626</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -10396,7 +10596,7 @@
         <v>33.447250715377635</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -10412,7 +10612,7 @@
         <v>33.426957788765044</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -10428,7 +10628,7 @@
         <v>33.406816772312297</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -10444,7 +10644,7 @@
         <v>33.388113727634718</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -10460,7 +10660,7 @@
         <v>33.369134285731334</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -10476,7 +10676,7 @@
         <v>33.348869003541658</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -10492,7 +10692,7 @@
         <v>33.32994060682492</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -10508,7 +10708,7 @@
         <v>33.310798772514786</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -10524,7 +10724,7 @@
         <v>33.289085504041289</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -10540,7 +10740,7 @@
         <v>33.267352898499993</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -10556,7 +10756,7 @@
         <v>33.245395853900284</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -10572,7 +10772,7 @@
         <v>33.223099377251451</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -10588,7 +10788,7 @@
         <v>33.200524742157427</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -10604,7 +10804,7 @@
         <v>33.177209264156971</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -10620,7 +10820,7 @@
         <v>33.152579672985496</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -10636,7 +10836,7 @@
         <v>33.127959789537563</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -10652,7 +10852,7 @@
         <v>33.103008894783848</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -10668,7 +10868,7 @@
         <v>33.078402550028727</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -10684,7 +10884,7 @@
         <v>33.054624894269331</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -10700,7 +10900,7 @@
         <v>33.030011681799991</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -10716,7 +10916,7 @@
         <v>33.006479169886028</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -10732,7 +10932,7 @@
         <v>32.983534626789762</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -10748,9 +10948,9 @@
         <v>32.959558608016984</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A589" si="3">A355+1</f>
+        <f t="shared" ref="A356:A609" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -10764,7 +10964,7 @@
         <v>32.934079628898296</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -10780,7 +10980,7 @@
         <v>32.907504756704213</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -10796,7 +10996,7 @@
         <v>32.881079181544933</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -10812,7 +11012,7 @@
         <v>32.854801648823518</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -10828,7 +11028,7 @@
         <v>32.828196057625689</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -10844,7 +11044,7 @@
         <v>32.800958742701937</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -10860,7 +11060,7 @@
         <v>32.773483857305543</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -10876,7 +11076,7 @@
         <v>32.746410494819933</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -10892,7 +11092,7 @@
         <v>32.72075742715468</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -10908,7 +11108,7 @@
         <v>32.693785643608805</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -10924,7 +11124,7 @@
         <v>32.667236783846143</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -10940,7 +11140,7 @@
         <v>32.639682710465742</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -10956,7 +11156,7 @@
         <v>32.610721831256818</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -10972,7 +11172,7 @@
         <v>32.582463732997262</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -10988,7 +11188,7 @@
         <v>32.556207038288029</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -11004,7 +11204,7 @@
         <v>32.529902955203234</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -11020,7 +11220,7 @@
         <v>32.505903216459444</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -11036,7 +11236,7 @@
         <v>32.482221534770872</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -11052,7 +11252,7 @@
         <v>32.459016639193536</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -11068,7 +11268,7 @@
         <v>32.435239115093815</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -11084,7 +11284,7 @@
         <v>32.411080720721912</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -11100,7 +11300,7 @@
         <v>32.386891172533318</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -11116,7 +11316,7 @@
         <v>32.361473908563816</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -11132,7 +11332,7 @@
         <v>32.335952757002637</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -11148,7 +11348,7 @@
         <v>32.311730660581993</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -11164,7 +11364,7 @@
         <v>32.28705590707122</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -11180,7 +11380,7 @@
         <v>32.260353126763142</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -11196,7 +11396,7 @@
         <v>32.234052986719142</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -11212,7 +11412,7 @@
         <v>32.207969079581133</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -11228,7 +11428,7 @@
         <v>32.182882999425566</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -11244,7 +11444,7 @@
         <v>32.15761507374998</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -11260,7 +11460,7 @@
         <v>32.134348543064917</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -11276,7 +11476,7 @@
         <v>32.111176657020707</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -11292,7 +11492,7 @@
         <v>32.08771108604649</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -11308,7 +11508,7 @@
         <v>32.063670594149464</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -11324,7 +11524,7 @@
         <v>32.038622596966562</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -11340,7 +11540,7 @@
         <v>32.015113310410236</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -11356,7 +11556,7 @@
         <v>31.991775423145757</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -11372,7 +11572,7 @@
         <v>31.969985181658139</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -11388,7 +11588,7 @@
         <v>31.947491578549599</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -11404,7 +11604,7 @@
         <v>31.924807590355311</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -11420,7 +11620,7 @@
         <v>31.902289091873399</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -11436,7 +11636,7 @@
         <v>31.879808563863616</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -11452,7 +11652,7 @@
         <v>31.856559674836252</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -11468,7 +11668,7 @@
         <v>31.83315123575375</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -11484,7 +11684,7 @@
         <v>31.809784942506248</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -11500,7 +11700,7 @@
         <v>31.786160481674983</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -11516,7 +11716,7 @@
         <v>31.762254846458838</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -11532,7 +11732,7 @@
         <v>31.739711925845754</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -11548,7 +11748,7 @@
         <v>31.717553830421821</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4">
       <c r="A406" s="18">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -11564,7 +11764,7 @@
         <v>31.696396519158398</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4">
       <c r="A407" s="18">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -11580,7 +11780,7 @@
         <v>31.674998010938253</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4">
       <c r="A408" s="18">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -11596,7 +11796,7 @@
         <v>31.654172890985205</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4">
       <c r="A409" s="18">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -11612,7 +11812,7 @@
         <v>31.634039785798507</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4">
       <c r="A410" s="18">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -11628,7 +11828,7 @@
         <v>31.614471059901945</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4">
       <c r="A411" s="18">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -11644,7 +11844,7 @@
         <v>31.594949123716365</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4">
       <c r="A412" s="18">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -11660,7 +11860,7 @@
         <v>31.576034614024373</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4">
       <c r="A413" s="18">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -11676,7 +11876,7 @@
         <v>31.556628204695848</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4">
       <c r="A414" s="18">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -11692,7 +11892,7 @@
         <v>31.536660660315519</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4">
       <c r="A415" s="18">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -11708,7 +11908,7 @@
         <v>31.516644533922502</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4">
       <c r="A416" s="18">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -11724,7 +11924,7 @@
         <v>31.497280658236697</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4">
       <c r="A417" s="18">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -11740,7 +11940,7 @@
         <v>31.477648657566249</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4">
       <c r="A418" s="18">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -11756,7 +11956,7 @@
         <v>31.4574620019471</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4">
       <c r="A419" s="18">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -11772,7 +11972,7 @@
         <v>31.436484872637873</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4">
       <c r="A420" s="18">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -11788,7 +11988,7 @@
         <v>31.415368881578932</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4">
       <c r="A421" s="18">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -11804,7 +12004,7 @@
         <v>31.3942104814797</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4">
       <c r="A422" s="18">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -11820,7 +12020,7 @@
         <v>31.372914744047605</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4">
       <c r="A423" s="18">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -11836,7 +12036,7 @@
         <v>31.352527775344406</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4">
       <c r="A424" s="18">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -11852,7 +12052,7 @@
         <v>31.332735055497619</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4">
       <c r="A425" s="18">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -11868,7 +12068,7 @@
         <v>31.312397619290767</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4">
       <c r="A426" s="18">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -11884,7 +12084,7 @@
         <v>31.29222687073112</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4">
       <c r="A427" s="18">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -11900,7 +12100,7 @@
         <v>31.272103983435283</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4">
       <c r="A428" s="18">
         <f t="shared" si="3"/>
         <v>426</v>
@@ -11916,7 +12116,7 @@
         <v>31.252545055150357</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4">
       <c r="A429" s="18">
         <f t="shared" si="3"/>
         <v>427</v>
@@ -11932,7 +12132,7 @@
         <v>31.232820125100137</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4">
       <c r="A430" s="18">
         <f t="shared" si="3"/>
         <v>428</v>
@@ -11948,7 +12148,7 @@
         <v>31.214542507628902</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4">
       <c r="A431" s="18">
         <f t="shared" si="3"/>
         <v>429</v>
@@ -11964,7 +12164,7 @@
         <v>31.196559891061003</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4">
       <c r="A432" s="18">
         <f t="shared" si="3"/>
         <v>430</v>
@@ -11980,7 +12180,7 @@
         <v>31.178846960904366</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4">
       <c r="A433" s="18">
         <f t="shared" si="3"/>
         <v>431</v>
@@ -11996,7 +12196,7 @@
         <v>31.161773069335734</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4">
       <c r="A434" s="18">
         <f t="shared" si="3"/>
         <v>432</v>
@@ -12012,7 +12212,7 @@
         <v>31.144384704866276</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4">
       <c r="A435" s="18">
         <f t="shared" si="3"/>
         <v>433</v>
@@ -12028,7 +12228,7 @@
         <v>31.127376889581701</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4">
       <c r="A436" s="18">
         <f t="shared" si="3"/>
         <v>434</v>
@@ -12044,7 +12244,7 @@
         <v>31.111184777811857</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4">
       <c r="A437" s="18">
         <f t="shared" si="3"/>
         <v>435</v>
@@ -12060,7 +12260,7 @@
         <v>31.095871711111002</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4">
       <c r="A438" s="18">
         <f t="shared" si="3"/>
         <v>436</v>
@@ -12076,7 +12276,7 @@
         <v>31.080789437594152</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4">
       <c r="A439" s="18">
         <f t="shared" si="3"/>
         <v>437</v>
@@ -12092,7 +12292,7 @@
         <v>31.065799074319667</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4">
       <c r="A440" s="18">
         <f t="shared" si="3"/>
         <v>438</v>
@@ -12108,7 +12308,7 @@
         <v>31.051356610157107</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4">
       <c r="A441" s="18">
         <f t="shared" si="3"/>
         <v>439</v>
@@ -12124,7 +12324,7 @@
         <v>31.037184954834895</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4">
       <c r="A442" s="18">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -12140,7 +12340,7 @@
         <v>31.023850443747303</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4">
       <c r="A443" s="18">
         <f t="shared" si="3"/>
         <v>441</v>
@@ -12156,7 +12356,7 @@
         <v>31.009964160696924</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4">
       <c r="A444" s="18">
         <f t="shared" si="3"/>
         <v>442</v>
@@ -12172,7 +12372,7 @@
         <v>30.996909942618423</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4">
       <c r="A445" s="18">
         <f t="shared" si="3"/>
         <v>443</v>
@@ -12188,7 +12388,7 @@
         <v>30.983666351687006</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4">
       <c r="A446" s="18">
         <f t="shared" si="3"/>
         <v>444</v>
@@ -12204,7 +12404,7 @@
         <v>30.970031968710234</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4">
       <c r="A447" s="18">
         <f t="shared" si="3"/>
         <v>445</v>
@@ -12220,7 +12420,7 @@
         <v>30.955717290982793</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4">
       <c r="A448" s="18">
         <f t="shared" si="3"/>
         <v>446</v>
@@ -12236,7 +12436,7 @@
         <v>30.94148922667566</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4">
       <c r="A449" s="18">
         <f t="shared" si="3"/>
         <v>447</v>
@@ -12252,7 +12452,7 @@
         <v>30.927078736235668</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4">
       <c r="A450" s="18">
         <f t="shared" si="3"/>
         <v>448</v>
@@ -12268,7 +12468,7 @@
         <v>30.913558473074428</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4">
       <c r="A451" s="18">
         <f t="shared" si="3"/>
         <v>449</v>
@@ -12284,7 +12484,7 @@
         <v>30.899586181129941</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4">
       <c r="A452" s="18">
         <f t="shared" si="3"/>
         <v>450</v>
@@ -12300,7 +12500,7 @@
         <v>30.886209321082987</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4">
       <c r="A453" s="18">
         <f t="shared" si="3"/>
         <v>451</v>
@@ -12316,7 +12516,7 @@
         <v>30.872736571967504</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4">
       <c r="A454" s="18">
         <f t="shared" si="3"/>
         <v>452</v>
@@ -12332,7 +12532,7 @@
         <v>30.859168570193237</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4">
       <c r="A455" s="18">
         <f t="shared" si="3"/>
         <v>453</v>
@@ -12348,7 +12548,7 @@
         <v>30.845108594916873</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4">
       <c r="A456" s="18">
         <f t="shared" si="3"/>
         <v>454</v>
@@ -12364,7 +12564,7 @@
         <v>30.829921132725424</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4">
       <c r="A457" s="18">
         <f t="shared" si="3"/>
         <v>455</v>
@@ -12380,7 +12580,7 @@
         <v>30.815811415620537</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4">
       <c r="A458" s="18">
         <f t="shared" si="3"/>
         <v>456</v>
@@ -12396,7 +12596,7 @@
         <v>30.801741652910842</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4">
       <c r="A459" s="18">
         <f t="shared" si="3"/>
         <v>457</v>
@@ -12412,7 +12612,7 @@
         <v>30.787295830388061</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4">
       <c r="A460" s="18">
         <f t="shared" si="3"/>
         <v>458</v>
@@ -12428,7 +12628,7 @@
         <v>30.772978589579356</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4">
       <c r="A461" s="18">
         <f t="shared" si="3"/>
         <v>459</v>
@@ -12444,7 +12644,7 @@
         <v>30.758266218926675</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4">
       <c r="A462" s="18">
         <f t="shared" si="3"/>
         <v>460</v>
@@ -12460,7 +12660,7 @@
         <v>30.743096076472487</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4">
       <c r="A463" s="18">
         <f t="shared" si="3"/>
         <v>461</v>
@@ -12476,7 +12676,7 @@
         <v>30.728425585070163</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4">
       <c r="A464" s="18">
         <f t="shared" si="3"/>
         <v>462</v>
@@ -12492,7 +12692,7 @@
         <v>30.714489600946631</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4">
       <c r="A465" s="18">
         <f t="shared" si="3"/>
         <v>463</v>
@@ -12508,7 +12708,7 @@
         <v>30.70024664465949</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4">
       <c r="A466" s="18">
         <f t="shared" si="3"/>
         <v>464</v>
@@ -12524,7 +12724,7 @@
         <v>30.686065080425308</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4">
       <c r="A467" s="18">
         <f t="shared" si="3"/>
         <v>465</v>
@@ -12540,7 +12740,7 @@
         <v>30.672095049134068</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4">
       <c r="A468" s="18">
         <f t="shared" si="3"/>
         <v>466</v>
@@ -12556,7 +12756,7 @@
         <v>30.657219308191721</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4">
       <c r="A469" s="18">
         <f t="shared" si="3"/>
         <v>467</v>
@@ -12572,7 +12772,7 @@
         <v>30.642235968880819</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4">
       <c r="A470" s="18">
         <f t="shared" si="3"/>
         <v>468</v>
@@ -12588,7 +12788,7 @@
         <v>30.62733802894731</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4">
       <c r="A471" s="18">
         <f t="shared" si="3"/>
         <v>469</v>
@@ -12604,7 +12804,7 @@
         <v>30.612055856348277</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4">
       <c r="A472" s="18">
         <f t="shared" si="3"/>
         <v>470</v>
@@ -12620,7 +12820,7 @@
         <v>30.596923822611366</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4">
       <c r="A473" s="18">
         <f t="shared" si="3"/>
         <v>471</v>
@@ -12636,7 +12836,7 @@
         <v>30.581431413731085</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4">
       <c r="A474" s="18">
         <f t="shared" si="3"/>
         <v>472</v>
@@ -12652,7 +12852,7 @@
         <v>30.565962280841823</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4">
       <c r="A475" s="18">
         <f t="shared" si="3"/>
         <v>473</v>
@@ -12668,7 +12868,7 @@
         <v>30.549797455892897</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4">
       <c r="A476" s="18">
         <f t="shared" si="3"/>
         <v>474</v>
@@ -12684,7 +12884,7 @@
         <v>30.533743031998608</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4">
       <c r="A477" s="18">
         <f t="shared" si="3"/>
         <v>475</v>
@@ -12700,7 +12900,7 @@
         <v>30.517798307889137</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4">
       <c r="A478" s="18">
         <f t="shared" si="3"/>
         <v>476</v>
@@ -12716,7 +12916,7 @@
         <v>30.502739908880965</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4">
       <c r="A479" s="18">
         <f t="shared" si="3"/>
         <v>477</v>
@@ -12732,7 +12932,7 @@
         <v>30.488226827143272</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4">
       <c r="A480" s="18">
         <f t="shared" si="3"/>
         <v>478</v>
@@ -12748,7 +12948,7 @@
         <v>30.474402083069752</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:4">
       <c r="A481" s="18">
         <f t="shared" si="3"/>
         <v>479</v>
@@ -12764,7 +12964,7 @@
         <v>30.460676816967307</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:4">
       <c r="A482" s="18">
         <f t="shared" si="3"/>
         <v>480</v>
@@ -12780,7 +12980,7 @@
         <v>30.447092074702791</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4">
       <c r="A483" s="18">
         <f t="shared" si="3"/>
         <v>481</v>
@@ -12796,7 +12996,7 @@
         <v>30.433023276855177</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:4">
       <c r="A484" s="18">
         <f t="shared" si="3"/>
         <v>482</v>
@@ -12812,7 +13012,7 @@
         <v>30.41932405827249</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4">
       <c r="A485" s="18">
         <f t="shared" si="3"/>
         <v>483</v>
@@ -12828,7 +13028,7 @@
         <v>30.405992123452055</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:4">
       <c r="A486" s="18">
         <f t="shared" si="3"/>
         <v>484</v>
@@ -12844,7 +13044,7 @@
         <v>30.393087180738309</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:4">
       <c r="A487" s="18">
         <f t="shared" si="3"/>
         <v>485</v>
@@ -12860,7 +13060,7 @@
         <v>30.380668446015136</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:4">
       <c r="A488" s="18">
         <f t="shared" si="3"/>
         <v>486</v>
@@ -12876,7 +13076,7 @@
         <v>30.368053901887535</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:4">
       <c r="A489" s="18">
         <f t="shared" si="3"/>
         <v>487</v>
@@ -12892,7 +13092,7 @@
         <v>30.355655433752244</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:4">
       <c r="A490" s="18">
         <f t="shared" si="3"/>
         <v>488</v>
@@ -12908,7 +13108,7 @@
         <v>30.343902043191274</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:4">
       <c r="A491" s="18">
         <f t="shared" si="3"/>
         <v>489</v>
@@ -12924,7 +13124,7 @@
         <v>30.331971773634645</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:4">
       <c r="A492" s="18">
         <f t="shared" si="3"/>
         <v>490</v>
@@ -12940,7 +13140,7 @@
         <v>30.320069790423148</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:4">
       <c r="A493" s="18">
         <f t="shared" si="3"/>
         <v>491</v>
@@ -12956,7 +13156,7 @@
         <v>30.308195920727783</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:4">
       <c r="A494" s="18">
         <f t="shared" si="3"/>
         <v>492</v>
@@ -12972,7 +13172,7 @@
         <v>30.295577637108419</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:4">
       <c r="A495" s="18">
         <f t="shared" si="3"/>
         <v>493</v>
@@ -12988,7 +13188,7 @@
         <v>30.283436504923614</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:4">
       <c r="A496" s="18">
         <f t="shared" si="3"/>
         <v>494</v>
@@ -13004,7 +13204,7 @@
         <v>30.271627930541179</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4">
       <c r="A497" s="18">
         <f t="shared" si="3"/>
         <v>495</v>
@@ -13020,7 +13220,7 @@
         <v>30.260008481105739</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:4">
       <c r="A498" s="18">
         <f t="shared" si="3"/>
         <v>496</v>
@@ -13036,7 +13236,7 @@
         <v>30.248032656930125</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:4">
       <c r="A499" s="18">
         <f t="shared" si="3"/>
         <v>497</v>
@@ -13052,7 +13252,7 @@
         <v>30.235742851564066</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:4">
       <c r="A500" s="18">
         <f t="shared" si="3"/>
         <v>498</v>
@@ -13068,7 +13268,7 @@
         <v>30.222598790677392</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4">
       <c r="A501" s="18">
         <f t="shared" si="3"/>
         <v>499</v>
@@ -13084,7 +13284,7 @@
         <v>30.209046486647978</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4">
       <c r="A502" s="18">
         <f t="shared" si="3"/>
         <v>500</v>
@@ -13100,7 +13300,7 @@
         <v>30.19472839215468</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4">
       <c r="A503" s="18">
         <f t="shared" si="3"/>
         <v>501</v>
@@ -13116,7 +13316,7 @@
         <v>30.180846698298083</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4">
       <c r="A504" s="18">
         <f t="shared" si="3"/>
         <v>502</v>
@@ -13132,7 +13332,7 @@
         <v>30.167478476409045</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4">
       <c r="A505" s="18">
         <f t="shared" si="3"/>
         <v>503</v>
@@ -13148,7 +13348,7 @@
         <v>30.154382097569265</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4">
       <c r="A506" s="18">
         <f t="shared" si="3"/>
         <v>504</v>
@@ -13164,7 +13364,7 @@
         <v>30.138460702851869</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4">
       <c r="A507" s="18">
         <f t="shared" si="3"/>
         <v>505</v>
@@ -13180,7 +13380,7 @@
         <v>30.122127116093743</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4">
       <c r="A508" s="18">
         <f t="shared" si="3"/>
         <v>506</v>
@@ -13196,7 +13396,7 @@
         <v>30.105917378868263</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4">
       <c r="A509" s="18">
         <f t="shared" si="3"/>
         <v>507</v>
@@ -13212,7 +13412,7 @@
         <v>30.089317937351755</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4">
       <c r="A510" s="18">
         <f t="shared" si="3"/>
         <v>508</v>
@@ -13228,7 +13428,7 @@
         <v>30.073039751825473</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:4">
       <c r="A511" s="18">
         <f t="shared" si="3"/>
         <v>509</v>
@@ -13244,7 +13444,7 @@
         <v>30.056904115004599</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:4">
       <c r="A512" s="18">
         <f t="shared" si="3"/>
         <v>510</v>
@@ -13260,7 +13460,7 @@
         <v>30.040400380249686</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:4">
       <c r="A513" s="18">
         <f t="shared" si="3"/>
         <v>511</v>
@@ -13276,7 +13476,7 @@
         <v>30.024704881384224</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:4">
       <c r="A514" s="18">
         <f t="shared" si="3"/>
         <v>512</v>
@@ -13292,7 +13492,7 @@
         <v>30.00889491151824</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:4">
       <c r="A515" s="18">
         <f t="shared" si="3"/>
         <v>513</v>
@@ -13308,7 +13508,7 @@
         <v>29.993185566193642</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:4">
       <c r="A516" s="18">
         <f t="shared" si="3"/>
         <v>514</v>
@@ -13324,7 +13524,7 @@
         <v>29.977498435345016</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:4">
       <c r="A517" s="18">
         <f t="shared" si="3"/>
         <v>515</v>
@@ -13340,7 +13540,7 @@
         <v>29.961988729198715</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:4">
       <c r="A518" s="18">
         <f t="shared" si="3"/>
         <v>516</v>
@@ -13356,7 +13556,7 @@
         <v>29.946597279064608</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:4">
       <c r="A519" s="18">
         <f t="shared" si="3"/>
         <v>517</v>
@@ -13372,7 +13572,7 @@
         <v>29.930897864598332</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:4">
       <c r="A520" s="18">
         <f t="shared" si="3"/>
         <v>518</v>
@@ -13388,7 +13588,7 @@
         <v>29.914930880014165</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:4">
       <c r="A521" s="18">
         <f t="shared" si="3"/>
         <v>519</v>
@@ -13404,7 +13604,7 @@
         <v>29.899006156969822</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:4">
       <c r="A522" s="18">
         <f t="shared" si="3"/>
         <v>520</v>
@@ -13420,7 +13620,7 @@
         <v>29.883027299264111</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:4">
       <c r="A523" s="18">
         <f t="shared" si="3"/>
         <v>521</v>
@@ -13436,7 +13636,7 @@
         <v>29.86661073999489</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:4">
       <c r="A524" s="18">
         <f t="shared" si="3"/>
         <v>522</v>
@@ -13452,7 +13652,7 @@
         <v>29.850621065128998</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:4">
       <c r="A525" s="18">
         <f t="shared" si="3"/>
         <v>523</v>
@@ -13468,7 +13668,7 @@
         <v>29.834329246495866</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:4">
       <c r="A526" s="18">
         <f t="shared" si="3"/>
         <v>524</v>
@@ -13484,7 +13684,7 @@
         <v>29.818271366407131</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:4">
       <c r="A527" s="18">
         <f t="shared" si="3"/>
         <v>525</v>
@@ -13500,7 +13700,7 @@
         <v>29.802865134356836</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:4">
       <c r="A528" s="18">
         <f t="shared" si="3"/>
         <v>526</v>
@@ -13516,7 +13716,7 @@
         <v>29.787327366344751</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:4">
       <c r="A529" s="18">
         <f t="shared" si="3"/>
         <v>527</v>
@@ -13532,7 +13732,7 @@
         <v>29.771222379387741</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:4">
       <c r="A530" s="18">
         <f t="shared" si="3"/>
         <v>528</v>
@@ -13548,7 +13748,7 @@
         <v>29.754742790960869</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:4">
       <c r="A531" s="18">
         <f t="shared" si="3"/>
         <v>529</v>
@@ -13564,7 +13764,7 @@
         <v>29.738344411242608</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:4">
       <c r="A532" s="18">
         <f t="shared" si="3"/>
         <v>530</v>
@@ -13580,7 +13780,7 @@
         <v>29.722290930353473</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:4">
       <c r="A533" s="18">
         <f t="shared" si="3"/>
         <v>531</v>
@@ -13596,7 +13796,7 @@
         <v>29.706655731011939</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:4">
       <c r="A534" s="18">
         <f t="shared" si="3"/>
         <v>532</v>
@@ -13612,7 +13812,7 @@
         <v>29.691511640577708</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:4">
       <c r="A535" s="18">
         <f t="shared" si="3"/>
         <v>533</v>
@@ -13628,7 +13828,7 @@
         <v>29.676461900313956</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:4">
       <c r="A536" s="18">
         <f t="shared" si="3"/>
         <v>534</v>
@@ -13644,7 +13844,7 @@
         <v>29.662592122335841</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:4">
       <c r="A537" s="18">
         <f t="shared" si="3"/>
         <v>535</v>
@@ -13660,7 +13860,7 @@
         <v>29.649353632238018</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:4">
       <c r="A538" s="18">
         <f t="shared" si="3"/>
         <v>536</v>
@@ -13676,7 +13876,7 @@
         <v>29.636127225218917</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:4">
       <c r="A539" s="18">
         <f t="shared" si="3"/>
         <v>537</v>
@@ -13692,7 +13892,7 @@
         <v>29.623322519455009</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:4">
       <c r="A540" s="18">
         <f t="shared" si="3"/>
         <v>538</v>
@@ -13708,7 +13908,7 @@
         <v>29.609747569957882</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:4">
       <c r="A541" s="18">
         <f t="shared" si="3"/>
         <v>539</v>
@@ -13724,7 +13924,7 @@
         <v>29.595647853186161</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:4">
       <c r="A542" s="18">
         <f t="shared" si="3"/>
         <v>540</v>
@@ -13740,7 +13940,7 @@
         <v>29.581933691476557</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:4">
       <c r="A543" s="18">
         <f t="shared" si="3"/>
         <v>541</v>
@@ -13756,7 +13956,7 @@
         <v>29.568011446649429</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:4">
       <c r="A544" s="18">
         <f t="shared" si="3"/>
         <v>542</v>
@@ -13772,7 +13972,7 @@
         <v>29.554029875290293</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4">
       <c r="A545" s="18">
         <f t="shared" si="3"/>
         <v>543</v>
@@ -13788,7 +13988,7 @@
         <v>29.540486543586262</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:4">
       <c r="A546" s="18">
         <f t="shared" si="3"/>
         <v>544</v>
@@ -13804,7 +14004,7 @@
         <v>29.527250355362757</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4">
       <c r="A547" s="18">
         <f t="shared" si="3"/>
         <v>545</v>
@@ -13820,7 +14020,7 @@
         <v>29.514301270875851</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:4">
       <c r="A548" s="18">
         <f t="shared" si="3"/>
         <v>546</v>
@@ -13836,7 +14036,7 @@
         <v>29.500996689793663</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4">
       <c r="A549" s="18">
         <f t="shared" si="3"/>
         <v>547</v>
@@ -13852,7 +14052,7 @@
         <v>29.487503095918353</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4">
       <c r="A550" s="18">
         <f t="shared" si="3"/>
         <v>548</v>
@@ -13868,7 +14068,7 @@
         <v>29.473620789465947</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4">
       <c r="A551" s="18">
         <f t="shared" si="3"/>
         <v>549</v>
@@ -13884,7 +14084,7 @@
         <v>29.460080498264738</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4">
       <c r="A552" s="18">
         <f t="shared" si="3"/>
         <v>550</v>
@@ -13900,7 +14100,7 @@
         <v>29.447025807704254</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4">
       <c r="A553" s="18">
         <f t="shared" si="3"/>
         <v>551</v>
@@ -13916,7 +14116,7 @@
         <v>29.433582931320036</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4">
       <c r="A554" s="18">
         <f t="shared" si="3"/>
         <v>552</v>
@@ -13932,7 +14132,7 @@
         <v>29.420786586951703</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4">
       <c r="A555" s="18">
         <f t="shared" si="3"/>
         <v>553</v>
@@ -13948,7 +14148,7 @@
         <v>29.40794610431707</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4">
       <c r="A556" s="18">
         <f t="shared" si="3"/>
         <v>554</v>
@@ -13964,7 +14164,7 @@
         <v>29.394917321691949</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4">
       <c r="A557" s="18">
         <f t="shared" si="3"/>
         <v>555</v>
@@ -13980,7 +14180,7 @@
         <v>29.381755308769979</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4">
       <c r="A558" s="18">
         <f t="shared" si="3"/>
         <v>556</v>
@@ -13996,7 +14196,7 @@
         <v>29.368424812369312</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4">
       <c r="A559" s="18">
         <f t="shared" si="3"/>
         <v>557</v>
@@ -14012,7 +14212,7 @@
         <v>29.354693348271702</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4">
       <c r="A560" s="18">
         <f t="shared" si="3"/>
         <v>558</v>
@@ -14028,7 +14228,7 @@
         <v>29.340885653418169</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:4">
       <c r="A561" s="18">
         <f t="shared" si="3"/>
         <v>559</v>
@@ -14044,7 +14244,7 @@
         <v>29.326876913841392</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:4">
       <c r="A562" s="18">
         <f t="shared" si="3"/>
         <v>560</v>
@@ -14060,7 +14260,7 @@
         <v>29.313918204513104</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:4">
       <c r="A563" s="18">
         <f t="shared" si="3"/>
         <v>561</v>
@@ -14076,7 +14276,7 @@
         <v>29.300827439995256</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:4">
       <c r="A564" s="18">
         <f t="shared" si="3"/>
         <v>562</v>
@@ -14092,7 +14292,7 @@
         <v>29.287694295226583</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:4">
       <c r="A565" s="18">
         <f t="shared" si="3"/>
         <v>563</v>
@@ -14108,7 +14308,7 @@
         <v>29.275193950119608</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:4">
       <c r="A566" s="18">
         <f t="shared" si="3"/>
         <v>564</v>
@@ -14124,7 +14324,7 @@
         <v>29.263021620154856</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:4">
       <c r="A567" s="18">
         <f t="shared" si="3"/>
         <v>565</v>
@@ -14140,7 +14340,7 @@
         <v>29.250715386260772</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:4">
       <c r="A568" s="18">
         <f t="shared" si="3"/>
         <v>566</v>
@@ -14156,7 +14356,7 @@
         <v>29.23832896291049</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:4">
       <c r="A569" s="18">
         <f t="shared" si="3"/>
         <v>567</v>
@@ -14172,7 +14372,7 @@
         <v>29.226180235251036</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:4">
       <c r="A570" s="18">
         <f t="shared" si="3"/>
         <v>568</v>
@@ -14188,7 +14388,7 @@
         <v>29.214355974678409</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:4">
       <c r="A571" s="18">
         <f t="shared" si="3"/>
         <v>569</v>
@@ -14204,7 +14404,7 @@
         <v>29.202186633633278</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:4">
       <c r="A572" s="18">
         <f t="shared" si="3"/>
         <v>570</v>
@@ -14220,7 +14420,7 @@
         <v>29.189937182188306</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:4">
       <c r="A573" s="18">
         <f t="shared" si="3"/>
         <v>571</v>
@@ -14236,7 +14436,7 @@
         <v>29.177520480258032</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:4">
       <c r="A574" s="18">
         <f t="shared" si="3"/>
         <v>572</v>
@@ -14252,7 +14452,7 @@
         <v>29.165129710449889</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:4">
       <c r="A575" s="18">
         <f t="shared" si="3"/>
         <v>573</v>
@@ -14268,7 +14468,7 @@
         <v>29.151961946278075</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:4">
       <c r="A576" s="18">
         <f t="shared" si="3"/>
         <v>574</v>
@@ -14284,7 +14484,7 @@
         <v>29.138474207434385</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:4">
       <c r="A577" s="18">
         <f t="shared" si="3"/>
         <v>575</v>
@@ -14300,7 +14500,7 @@
         <v>29.124720338447538</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:4">
       <c r="A578" s="18">
         <f t="shared" si="3"/>
         <v>576</v>
@@ -14316,7 +14516,7 @@
         <v>29.110632282703705</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:4">
       <c r="A579" s="18">
         <f t="shared" si="3"/>
         <v>577</v>
@@ -14332,7 +14532,7 @@
         <v>29.096835692300406</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:4">
       <c r="A580" s="18">
         <f t="shared" si="3"/>
         <v>578</v>
@@ -14348,7 +14548,7 @@
         <v>29.082533208265282</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:4">
       <c r="A581" s="18">
         <f t="shared" si="3"/>
         <v>579</v>
@@ -14364,7 +14564,7 @@
         <v>29.067796534744961</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:4">
       <c r="A582" s="18">
         <f t="shared" si="3"/>
         <v>580</v>
@@ -14380,7 +14580,7 @@
         <v>29.053248608236778</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:4">
       <c r="A583" s="18">
         <f t="shared" si="3"/>
         <v>581</v>
@@ -14396,7 +14596,7 @@
         <v>29.037941811751001</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:4">
       <c r="A584" s="18">
         <f t="shared" si="3"/>
         <v>582</v>
@@ -14412,7 +14612,7 @@
         <v>29.023099986679263</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:4">
       <c r="A585" s="18">
         <f t="shared" si="3"/>
         <v>583</v>
@@ -14428,7 +14628,7 @@
         <v>29.007880260492847</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:4">
       <c r="A586" s="18">
         <f t="shared" si="3"/>
         <v>584</v>
@@ -14444,7 +14644,7 @@
         <v>28.993140738848169</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:4">
       <c r="A587" s="18">
         <f t="shared" si="3"/>
         <v>585</v>
@@ -14460,7 +14660,7 @@
         <v>28.979272120764666</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:4">
       <c r="A588" s="18">
         <f t="shared" si="3"/>
         <v>586</v>
@@ -14476,7 +14676,7 @@
         <v>28.965638550200225</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:4">
       <c r="A589" s="18">
         <f t="shared" si="3"/>
         <v>587</v>
@@ -14490,6 +14690,326 @@
       <c r="D589" s="18">
         <f>SUM(C$3:C589)/A589</f>
         <v>28.951898109092557</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4">
+      <c r="A590" s="18">
+        <f t="shared" si="3"/>
+        <v>588</v>
+      </c>
+      <c r="B590" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="C590" s="20">
+        <v>20.190000529999999</v>
+      </c>
+      <c r="D590" s="18">
+        <f>SUM(C$3:C590)/A590</f>
+        <v>28.93699692273356</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4">
+      <c r="A591" s="18">
+        <f t="shared" si="3"/>
+        <v>589</v>
+      </c>
+      <c r="B591" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="C591" s="20">
+        <v>20.379999160000001</v>
+      </c>
+      <c r="D591" s="18">
+        <f>SUM(C$3:C591)/A591</f>
+        <v>28.922468912949629</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4">
+      <c r="A592" s="18">
+        <f t="shared" si="3"/>
+        <v>590</v>
+      </c>
+      <c r="B592" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="C592" s="20">
+        <v>20.25</v>
+      </c>
+      <c r="D592" s="18">
+        <f>SUM(C$3:C592)/A592</f>
+        <v>28.907769813097172</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4">
+      <c r="A593" s="18">
+        <f t="shared" si="3"/>
+        <v>591</v>
+      </c>
+      <c r="B593" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="C593" s="20">
+        <v>20.149999619999999</v>
+      </c>
+      <c r="D593" s="18">
+        <f>SUM(C$3:C593)/A593</f>
+        <v>28.892951251010714</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4">
+      <c r="A594" s="18">
+        <f t="shared" si="3"/>
+        <v>592</v>
+      </c>
+      <c r="B594" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="C594" s="20">
+        <v>19.729999540000001</v>
+      </c>
+      <c r="D594" s="18">
+        <f>SUM(C$3:C594)/A594</f>
+        <v>28.877473292039408</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4">
+      <c r="A595" s="18">
+        <f t="shared" si="3"/>
+        <v>593</v>
+      </c>
+      <c r="B595" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="C595" s="20">
+        <v>19.61000061</v>
+      </c>
+      <c r="D595" s="18">
+        <f>SUM(C$3:C595)/A595</f>
+        <v>28.861845176218093</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4">
+      <c r="A596" s="18">
+        <f t="shared" si="3"/>
+        <v>594</v>
+      </c>
+      <c r="B596" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="C596" s="20">
+        <v>19.770000459999999</v>
+      </c>
+      <c r="D596" s="18">
+        <f>SUM(C$3:C596)/A596</f>
+        <v>28.846539040332207</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4">
+      <c r="A597" s="18">
+        <f t="shared" si="3"/>
+        <v>595</v>
+      </c>
+      <c r="B597" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="C597" s="20">
+        <v>19.770000459999999</v>
+      </c>
+      <c r="D597" s="18">
+        <f>SUM(C$3:C597)/A597</f>
+        <v>28.831284353642573</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4">
+      <c r="A598" s="18">
+        <f t="shared" si="3"/>
+        <v>596</v>
+      </c>
+      <c r="B598" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="C598" s="20">
+        <v>19.520000459999999</v>
+      </c>
+      <c r="D598" s="18">
+        <f>SUM(C$3:C598)/A598</f>
+        <v>28.815661394089481</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4">
+      <c r="A599" s="18">
+        <f t="shared" si="3"/>
+        <v>597</v>
+      </c>
+      <c r="B599" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="C599" s="20">
+        <v>19.36000061</v>
+      </c>
+      <c r="D599" s="18">
+        <f>SUM(C$3:C599)/A599</f>
+        <v>28.799822766310438</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4">
+      <c r="A600" s="18">
+        <f t="shared" si="3"/>
+        <v>598</v>
+      </c>
+      <c r="B600" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="C600" s="20">
+        <v>19.219999309999999</v>
+      </c>
+      <c r="D600" s="18">
+        <f>SUM(C$3:C600)/A600</f>
+        <v>28.783802994644365</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4">
+      <c r="A601" s="18">
+        <f t="shared" si="3"/>
+        <v>599</v>
+      </c>
+      <c r="B601" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="C601" s="20">
+        <v>19.370000839999999</v>
+      </c>
+      <c r="D601" s="18">
+        <f>SUM(C$3:C601)/A601</f>
+        <v>28.768087131281021</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4">
+      <c r="A602" s="18">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="B602" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="C602" s="20">
+        <v>19.219999309999999</v>
+      </c>
+      <c r="D602" s="18">
+        <f>SUM(C$3:C602)/A602</f>
+        <v>28.752173651578886</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4">
+      <c r="A603" s="18">
+        <f t="shared" si="3"/>
+        <v>601</v>
+      </c>
+      <c r="B603" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="C603" s="20">
+        <v>19.120000839999999</v>
+      </c>
+      <c r="D603" s="18">
+        <f>SUM(C$3:C603)/A603</f>
+        <v>28.736146741742651</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4">
+      <c r="A604" s="18">
+        <f t="shared" si="3"/>
+        <v>602</v>
+      </c>
+      <c r="B604" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="C604" s="20">
+        <v>18.959999079999999</v>
+      </c>
+      <c r="D604" s="18">
+        <f>SUM(C$3:C604)/A604</f>
+        <v>28.719907293799558</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4">
+      <c r="A605" s="18">
+        <f t="shared" si="3"/>
+        <v>603</v>
+      </c>
+      <c r="B605" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="C605" s="20">
+        <v>19.370000839999999</v>
+      </c>
+      <c r="D605" s="18">
+        <f>SUM(C$3:C605)/A605</f>
+        <v>28.704401644622447</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4">
+      <c r="A606" s="18">
+        <f t="shared" si="3"/>
+        <v>604</v>
+      </c>
+      <c r="B606" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="C606" s="20">
+        <v>19.290000920000001</v>
+      </c>
+      <c r="D606" s="18">
+        <f>SUM(C$3:C606)/A606</f>
+        <v>28.688814888455852</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4">
+      <c r="A607" s="18">
+        <f t="shared" si="3"/>
+        <v>605</v>
+      </c>
+      <c r="B607" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="C607" s="20">
+        <v>19.170000080000001</v>
+      </c>
+      <c r="D607" s="18">
+        <f>SUM(C$3:C607)/A607</f>
+        <v>28.673081310260059</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4">
+      <c r="A608" s="18">
+        <f t="shared" si="3"/>
+        <v>606</v>
+      </c>
+      <c r="B608" s="19">
+        <v>45196</v>
+      </c>
+      <c r="C608" s="20">
+        <v>19.25</v>
+      </c>
+      <c r="D608" s="18">
+        <f>SUM(C$3:C608)/A608</f>
+        <v>28.657531671134215</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4">
+      <c r="A609" s="18">
+        <f t="shared" si="3"/>
+        <v>607</v>
+      </c>
+      <c r="B609" s="19">
+        <v>45197</v>
+      </c>
+      <c r="C609" s="20">
+        <v>19.25</v>
+      </c>
+      <c r="D609" s="18">
+        <f>SUM(C$3:C609)/A609</f>
+        <v>28.642033266404177</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="436">
   <si>
     <t>PE</t>
   </si>
@@ -1739,10 +1739,6 @@
   </si>
   <si>
     <t>利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2334,7 +2330,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2463,6 +2459,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2472,7 +2471,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2601,6 +2600,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>86000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>88000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2643,7 +2645,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2772,6 +2774,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2781,7 +2786,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -2910,6 +2915,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>73729.125531655038</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>72419.198943977608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2952,7 +2960,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -3081,6 +3089,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3090,7 +3101,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3219,6 +3230,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>-12270.874468344962</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-15580.801056022392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3240,11 +3254,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="495852544"/>
-        <c:axId val="519480064"/>
+        <c:axId val="451744512"/>
+        <c:axId val="451746048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="495852544"/>
+        <c:axId val="451744512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3287,14 +3301,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519480064"/>
+        <c:crossAx val="451746048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="519480064"/>
+        <c:axId val="451746048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3345,7 +3359,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495852544"/>
+        <c:crossAx val="451744512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3751,7 +3765,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3816,7 +3830,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3855,25 +3869,25 @@
       </c>
       <c r="J3" s="6"/>
       <c r="L3" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="M3" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="N3" s="27" t="s">
         <v>431</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>432</v>
       </c>
       <c r="O3" s="27" t="s">
         <v>428</v>
       </c>
       <c r="P3" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q3" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="R3" s="27" t="s">
         <v>434</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>435</v>
       </c>
       <c r="T3" s="23">
         <v>44196</v>
@@ -5255,6 +5269,35 @@
       </c>
       <c r="I45" s="17">
         <v>-12270.874468344962</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="12.75">
+      <c r="A46" s="14">
+        <v>45197</v>
+      </c>
+      <c r="B46" s="15">
+        <v>3.2311640625</v>
+      </c>
+      <c r="C46" s="16">
+        <v>2000</v>
+      </c>
+      <c r="D46" s="17">
+        <v>618.97197459313475</v>
+      </c>
+      <c r="E46" s="17">
+        <v>22412.727284403438</v>
+      </c>
+      <c r="F46" s="17">
+        <v>72419.198943977608</v>
+      </c>
+      <c r="G46" s="17">
+        <v>88000</v>
+      </c>
+      <c r="H46" s="17">
+        <v>72419.198943977608</v>
+      </c>
+      <c r="I46" s="17">
+        <v>-15580.801056022392</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="452">
   <si>
     <t>PE</t>
   </si>
@@ -1706,6 +1706,66 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2023/10/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/27
+</t>
+  </si>
+  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1739,6 +1799,10 @@
   </si>
   <si>
     <t>利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3254,11 +3318,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451744512"/>
-        <c:axId val="451746048"/>
+        <c:axId val="420109696"/>
+        <c:axId val="476399872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451744512"/>
+        <c:axId val="420109696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3301,14 +3365,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451746048"/>
+        <c:crossAx val="476399872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
+        <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451746048"/>
+        <c:axId val="476399872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3359,7 +3423,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451744512"/>
+        <c:crossAx val="420109696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3795,31 +3859,31 @@
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="K1" s="11"/>
     </row>
@@ -3830,7 +3894,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3869,25 +3933,25 @@
       </c>
       <c r="J3" s="6"/>
       <c r="L3" s="26" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="T3" s="23">
         <v>44196</v>
@@ -5313,7 +5377,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D609"/>
+  <dimension ref="A1:D626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -10993,7 +11057,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A609" si="3">A355+1</f>
+        <f t="shared" ref="A356:A610" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -15053,6 +15117,278 @@
       <c r="D609" s="18">
         <f>SUM(C$3:C609)/A609</f>
         <v>28.642033266404177</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4">
+      <c r="A610" s="18">
+        <f t="shared" si="3"/>
+        <v>608</v>
+      </c>
+      <c r="B610" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="C610" s="20">
+        <v>19.350000380000001</v>
+      </c>
+      <c r="D610" s="18">
+        <f>SUM(C$3:C610)/A610</f>
+        <v>28.626750317577855</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4">
+      <c r="A611" s="18">
+        <f t="shared" ref="A611:A626" si="4">A610+1</f>
+        <v>609</v>
+      </c>
+      <c r="B611" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="C611" s="20">
+        <v>19.18000031</v>
+      </c>
+      <c r="D611" s="18">
+        <f>SUM(C$3:C611)/A611</f>
+        <v>28.611238412803505</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4">
+      <c r="A612" s="18">
+        <f t="shared" si="4"/>
+        <v>610</v>
+      </c>
+      <c r="B612" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="C612" s="20">
+        <v>19.309999470000001</v>
+      </c>
+      <c r="D612" s="18">
+        <f>SUM(C$3:C612)/A612</f>
+        <v>28.595990480110384</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4">
+      <c r="A613" s="18">
+        <f t="shared" si="4"/>
+        <v>611</v>
+      </c>
+      <c r="B613" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="C613" s="20">
+        <v>19.459999079999999</v>
+      </c>
+      <c r="D613" s="18">
+        <f>SUM(C$3:C613)/A613</f>
+        <v>28.581037957360614</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4">
+      <c r="A614" s="18">
+        <f t="shared" si="4"/>
+        <v>612</v>
+      </c>
+      <c r="B614" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="C614" s="20">
+        <v>19.219999309999999</v>
+      </c>
+      <c r="D614" s="18">
+        <f>SUM(C$3:C614)/A614</f>
+        <v>28.565742142577346</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4">
+      <c r="A615" s="18">
+        <f t="shared" si="4"/>
+        <v>613</v>
+      </c>
+      <c r="B615" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="C615" s="20">
+        <v>18.93000031</v>
+      </c>
+      <c r="D615" s="18">
+        <f>SUM(C$3:C615)/A615</f>
+        <v>28.550023151007071</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4">
+      <c r="A616" s="18">
+        <f t="shared" si="4"/>
+        <v>614</v>
+      </c>
+      <c r="B616" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="C616" s="20">
+        <v>18.950000760000002</v>
+      </c>
+      <c r="D616" s="18">
+        <f>SUM(C$3:C616)/A616</f>
+        <v>28.53438793538654</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4">
+      <c r="A617" s="18">
+        <f t="shared" si="4"/>
+        <v>615</v>
+      </c>
+      <c r="B617" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="C617" s="20">
+        <v>18.760000229999999</v>
+      </c>
+      <c r="D617" s="18">
+        <f>SUM(C$3:C617)/A617</f>
+        <v>28.518494622044447</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4">
+      <c r="A618" s="18">
+        <f t="shared" si="4"/>
+        <v>616</v>
+      </c>
+      <c r="B618" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="C618" s="20">
+        <v>18.409999849999998</v>
+      </c>
+      <c r="D618" s="18">
+        <f>SUM(C$3:C618)/A618</f>
+        <v>28.502084727933983</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4">
+      <c r="A619" s="18">
+        <f t="shared" si="4"/>
+        <v>617</v>
+      </c>
+      <c r="B619" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="C619" s="20">
+        <v>18.200000760000002</v>
+      </c>
+      <c r="D619" s="18">
+        <f>SUM(C$3:C619)/A619</f>
+        <v>28.485387671259858</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4">
+      <c r="A620" s="18">
+        <f t="shared" si="4"/>
+        <v>618</v>
+      </c>
+      <c r="B620" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="C620" s="20">
+        <v>18.040000920000001</v>
+      </c>
+      <c r="D620" s="18">
+        <f>SUM(C$3:C620)/A620</f>
+        <v>28.468485750950375</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4">
+      <c r="A621" s="18">
+        <f t="shared" si="4"/>
+        <v>619</v>
+      </c>
+      <c r="B621" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="C621" s="20">
+        <v>18.059999470000001</v>
+      </c>
+      <c r="D621" s="18">
+        <f>SUM(C$3:C621)/A621</f>
+        <v>28.451670748880986</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4">
+      <c r="A622" s="18">
+        <f t="shared" si="4"/>
+        <v>620</v>
+      </c>
+      <c r="B622" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="C622" s="20">
+        <v>18.100000380000001</v>
+      </c>
+      <c r="D622" s="18">
+        <f>SUM(C$3:C622)/A622</f>
+        <v>28.434974506350532</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4">
+      <c r="A623" s="18">
+        <f t="shared" si="4"/>
+        <v>621</v>
+      </c>
+      <c r="B623" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="C623" s="20">
+        <v>18.159999849999998</v>
+      </c>
+      <c r="D623" s="18">
+        <f>SUM(C$3:C623)/A623</f>
+        <v>28.418428653441755</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4">
+      <c r="A624" s="18">
+        <f t="shared" si="4"/>
+        <v>622</v>
+      </c>
+      <c r="B624" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="C624" s="20">
+        <v>18.620000839999999</v>
+      </c>
+      <c r="D624" s="18">
+        <f>SUM(C$3:C624)/A624</f>
+        <v>28.402675554063229</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4">
+      <c r="A625" s="18">
+        <f t="shared" si="4"/>
+        <v>623</v>
+      </c>
+      <c r="B625" s="19">
+        <v>45229</v>
+      </c>
+      <c r="C625" s="20">
+        <v>18.969999309999999</v>
+      </c>
+      <c r="D625" s="18">
+        <f>SUM(C$3:C625)/A625</f>
+        <v>28.387534821729261</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4">
+      <c r="A626" s="18">
+        <f t="shared" si="4"/>
+        <v>624</v>
+      </c>
+      <c r="B626" s="19">
+        <v>45230</v>
+      </c>
+      <c r="C626" s="20">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D626" s="18">
+        <f>SUM(C$3:C626)/A626</f>
+        <v>28.372122106405978</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模型一" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="437">
   <si>
     <t>PE</t>
   </si>
@@ -1703,66 +1703,6 @@
   </si>
   <si>
     <t xml:space="preserve">2023/9/26
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/10/9
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/10/10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/10/11
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/10/12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/10/13
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/10/16
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/10/17
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/10/18
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/10/19
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/10/20
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/10/23
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/10/24
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/10/25
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/10/26
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/10/27
 </t>
   </si>
   <si>
@@ -1841,7 +1781,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2393,139 +2333,139 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45016</c:v>
+                  <c:v>3.7161979980468751</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45044</c:v>
+                  <c:v>3.6159379882812499</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45077</c:v>
+                  <c:v>3.4505849609374999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45107</c:v>
+                  <c:v>3.608843017578125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45138</c:v>
+                  <c:v>3.6303940429687498</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>45169</c:v>
+                  <c:v>3.3830390625</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45197</c:v>
+                  <c:v>3.2311640625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2537,136 +2477,136 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000</c:v>
+                  <c:v>3783.4996370436897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6000</c:v>
+                  <c:v>6143.6117008713063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8173.7580810682693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10000</c:v>
+                  <c:v>11353.811149064422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12000</c:v>
+                  <c:v>14968.552321848347</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14000</c:v>
+                  <c:v>16822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16000</c:v>
+                  <c:v>18240.153038857396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18000</c:v>
+                  <c:v>21221.531045139225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20000</c:v>
+                  <c:v>23603.74034292587</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22000</c:v>
+                  <c:v>28072.985437531297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24000</c:v>
+                  <c:v>31610.696441599135</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26000</c:v>
+                  <c:v>31960.877336479982</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28000</c:v>
+                  <c:v>32030.541196234128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30000</c:v>
+                  <c:v>36542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32000</c:v>
+                  <c:v>40028.514786085325</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34000</c:v>
+                  <c:v>43079.887556825692</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36000</c:v>
+                  <c:v>43952.380972166822</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38000</c:v>
+                  <c:v>44041.688138414858</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40000</c:v>
+                  <c:v>45572.995207693384</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42000</c:v>
+                  <c:v>49094.404023982002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44000</c:v>
+                  <c:v>51969.911593071687</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46000</c:v>
+                  <c:v>53008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48000</c:v>
+                  <c:v>49351.052479165373</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50000</c:v>
+                  <c:v>51254.60334650999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52000</c:v>
+                  <c:v>47701.945217252243</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54000</c:v>
+                  <c:v>45202.535414395512</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56000</c:v>
+                  <c:v>48944.813088421164</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58000</c:v>
+                  <c:v>57317.86097478633</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60000</c:v>
+                  <c:v>56010.270798873862</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62000</c:v>
+                  <c:v>55547.679913640975</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>64000</c:v>
+                  <c:v>52229.088937270295</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66000</c:v>
+                  <c:v>53475.074735568647</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>68000</c:v>
+                  <c:v>58406.85441256113</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70000</c:v>
+                  <c:v>60293.406710853284</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72000</c:v>
+                  <c:v>68151.7828856181</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>74000</c:v>
+                  <c:v>67767.93214664339</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>76000</c:v>
+                  <c:v>70476.779226985323</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>78000</c:v>
+                  <c:v>70575.372849483087</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>80000</c:v>
+                  <c:v>69348.035546023719</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82000</c:v>
+                  <c:v>74528.622449867675</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>84000</c:v>
+                  <c:v>76973.687038967822</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>86000</c:v>
+                  <c:v>73729.125531655038</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>88000</c:v>
+                  <c:v>72419.198943977608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2708,139 +2648,139 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45016</c:v>
+                  <c:v>3.7161979980468751</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45044</c:v>
+                  <c:v>3.6159379882812499</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45077</c:v>
+                  <c:v>3.4505849609374999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45107</c:v>
+                  <c:v>3.608843017578125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45138</c:v>
+                  <c:v>3.6303940429687498</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>45169</c:v>
+                  <c:v>3.3830390625</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45197</c:v>
+                  <c:v>3.2311640625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2852,136 +2792,136 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>2000.0000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3783.4996370436897</c:v>
+                  <c:v>-216.50036295631025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6143.6117008713063</c:v>
+                  <c:v>143.61170087130631</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8173.7580810682693</c:v>
+                  <c:v>173.75808106826935</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11353.811149064422</c:v>
+                  <c:v>1353.8111490644224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14968.552321848347</c:v>
+                  <c:v>2968.5523218483468</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16822.477397497114</c:v>
+                  <c:v>2822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18240.153038857396</c:v>
+                  <c:v>2240.1530388573956</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21221.531045139225</c:v>
+                  <c:v>3221.5310451392252</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23603.74034292587</c:v>
+                  <c:v>3603.7403429258702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28072.985437531297</c:v>
+                  <c:v>6072.9854375312971</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31610.696441599135</c:v>
+                  <c:v>7610.6964415991351</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31960.877336479982</c:v>
+                  <c:v>5960.8773364799818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32030.541196234128</c:v>
+                  <c:v>4030.5411962341277</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36542.468793623324</c:v>
+                  <c:v>6542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40028.514786085325</c:v>
+                  <c:v>8028.5147860853249</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43079.887556825692</c:v>
+                  <c:v>9079.8875568256917</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43952.380972166822</c:v>
+                  <c:v>7952.3809721668222</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44041.688138414858</c:v>
+                  <c:v>6041.6881384148583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45572.995207693384</c:v>
+                  <c:v>5572.9952076933841</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49094.404023982002</c:v>
+                  <c:v>7094.4040239820024</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51969.911593071687</c:v>
+                  <c:v>7969.9115930716871</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53008.069006718506</c:v>
+                  <c:v>7008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49351.052479165373</c:v>
+                  <c:v>1351.0524791653734</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51254.60334650999</c:v>
+                  <c:v>1254.6033465099899</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>47701.945217252243</c:v>
+                  <c:v>-4298.0547827477567</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45202.535414395512</c:v>
+                  <c:v>-8797.4645856044881</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48944.813088421164</c:v>
+                  <c:v>-7055.1869115788359</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57317.86097478633</c:v>
+                  <c:v>-682.13902521366981</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56010.270798873862</c:v>
+                  <c:v>-3989.7292011261379</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55547.679913640975</c:v>
+                  <c:v>-6452.3200863590246</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52229.088937270295</c:v>
+                  <c:v>-11770.911062729705</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>53475.074735568647</c:v>
+                  <c:v>-12524.925264431353</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58406.85441256113</c:v>
+                  <c:v>-9593.1455874388703</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>60293.406710853284</c:v>
+                  <c:v>-9706.5932891467164</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>68151.7828856181</c:v>
+                  <c:v>-3848.2171143818996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67767.93214664339</c:v>
+                  <c:v>-6232.0678533566097</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70476.779226985323</c:v>
+                  <c:v>-5523.2207730146765</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>70575.372849483087</c:v>
+                  <c:v>-7424.6271505169134</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69348.035546023719</c:v>
+                  <c:v>-10651.964453976281</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>74528.622449867675</c:v>
+                  <c:v>-7471.3775501323253</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>76973.687038967822</c:v>
+                  <c:v>-7026.3129610321776</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>73729.125531655038</c:v>
+                  <c:v>-12270.874468344962</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>72419.198943977608</c:v>
+                  <c:v>-15580.801056022392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3023,139 +2963,139 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45016</c:v>
+                  <c:v>3.7161979980468751</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45044</c:v>
+                  <c:v>3.6159379882812499</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45077</c:v>
+                  <c:v>3.4505849609374999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45107</c:v>
+                  <c:v>3.608843017578125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45138</c:v>
+                  <c:v>3.6303940429687498</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>45169</c:v>
+                  <c:v>3.3830390625</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45197</c:v>
+                  <c:v>3.2311640625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3164,140 +3104,8 @@
             <c:numRef>
               <c:f>模型一!金额</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-216.50036295631025</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>143.61170087130631</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>173.75808106826935</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1353.8111490644224</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2968.5523218483468</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2822.477397497114</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2240.1530388573956</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3221.5310451392252</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3603.7403429258702</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6072.9854375312971</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7610.6964415991351</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5960.8773364799818</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4030.5411962341277</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6542.468793623324</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8028.5147860853249</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9079.8875568256917</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7952.3809721668222</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6041.6881384148583</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5572.9952076933841</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7094.4040239820024</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7969.9115930716871</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7008.069006718506</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1351.0524791653734</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1254.6033465099899</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-4298.0547827477567</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-8797.4645856044881</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-7055.1869115788359</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-682.13902521366981</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-3989.7292011261379</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-6452.3200863590246</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-11770.911062729705</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-12524.925264431353</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-9593.1455874388703</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-9706.5932891467164</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-3848.2171143818996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-6232.0678533566097</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-5523.2207730146765</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-7424.6271505169134</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-10651.964453976281</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-7471.3775501323253</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-7026.3129610321776</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-12270.874468344962</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-15580.801056022392</c:v>
-                </c:pt>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3318,17 +3126,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="420109696"/>
-        <c:axId val="476399872"/>
+        <c:axId val="241696768"/>
+        <c:axId val="241699072"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="420109696"/>
+      <c:catAx>
+        <c:axId val="241696768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -3365,14 +3173,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476399872"/>
+        <c:crossAx val="241699072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="476399872"/>
+        <c:axId val="241699072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3423,7 +3232,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420109696"/>
+        <c:crossAx val="241696768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3831,12 +3640,12 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -3857,44 +3666,44 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:25" ht="14.1" customHeight="1">
+    <row r="2" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
         <v>2000</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3903,7 +3712,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:25" ht="14.1" customHeight="1">
+    <row r="3" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -3933,25 +3742,25 @@
       </c>
       <c r="J3" s="6"/>
       <c r="L3" s="26" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="T3" s="23">
         <v>44196</v>
@@ -3974,7 +3783,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.1" customHeight="1">
+    <row r="4" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -4045,7 +3854,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.1" customHeight="1">
+    <row r="5" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -4112,7 +3921,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.1" customHeight="1">
+    <row r="6" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -4172,7 +3981,7 @@
         <v>60293.406710853284</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.1" customHeight="1">
+    <row r="7" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -4205,7 +4014,7 @@
         <v>-7.3828223896210132E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14.1" customHeight="1">
+    <row r="8" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -4235,7 +4044,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="14.1" customHeight="1">
+    <row r="9" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -4265,7 +4074,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="14.1" customHeight="1">
+    <row r="10" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -4295,7 +4104,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:25" ht="14.1" customHeight="1">
+    <row r="11" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -4325,7 +4134,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:25" ht="14.1" customHeight="1">
+    <row r="12" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -4355,7 +4164,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:25" ht="14.1" customHeight="1">
+    <row r="13" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -4385,7 +4194,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:25" ht="14.1" customHeight="1">
+    <row r="14" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -4415,7 +4224,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="14.1" customHeight="1">
+    <row r="15" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -4445,7 +4254,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:25" ht="14.1" customHeight="1">
+    <row r="16" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -4475,7 +4284,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -4505,7 +4314,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -4535,7 +4344,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -4565,7 +4374,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -4595,7 +4404,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -4626,7 +4435,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -4656,7 +4465,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -4686,7 +4495,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -4716,7 +4525,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -4746,7 +4555,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -4776,7 +4585,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -4806,7 +4615,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -4836,7 +4645,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -4866,7 +4675,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -4896,7 +4705,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -4926,7 +4735,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -4956,7 +4765,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -4987,7 +4796,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75">
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -5016,7 +4825,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75">
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -5045,7 +4854,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75">
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -5074,7 +4883,7 @@
         <v>-9593.1455874388703</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75">
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>44925</v>
       </c>
@@ -5103,7 +4912,7 @@
         <v>-9706.5932891467164</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.75">
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>44957</v>
       </c>
@@ -5132,7 +4941,7 @@
         <v>-3848.2171143818996</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="12.75">
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>44985</v>
       </c>
@@ -5161,7 +4970,7 @@
         <v>-6232.0678533566097</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="12.75">
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>45016</v>
       </c>
@@ -5190,7 +4999,7 @@
         <v>-5523.2207730146765</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="12.75">
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>45044</v>
       </c>
@@ -5219,7 +5028,7 @@
         <v>-7424.6271505169134</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="12.75">
+    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>45077</v>
       </c>
@@ -5248,7 +5057,7 @@
         <v>-10651.964453976281</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="12.75">
+    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>45107</v>
       </c>
@@ -5277,7 +5086,7 @@
         <v>-7471.3775501323253</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="12.75">
+    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>45138</v>
       </c>
@@ -5306,7 +5115,7 @@
         <v>-7026.3129610321776</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="12.75">
+    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>45169</v>
       </c>
@@ -5335,7 +5144,7 @@
         <v>-12270.874468344962</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="12.75">
+    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>45197</v>
       </c>
@@ -5377,13 +5186,13 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D626"/>
+  <dimension ref="A1:D609"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -5391,7 +5200,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="30" t="s">
         <v>181</v>
       </c>
@@ -5399,7 +5208,7 @@
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
@@ -5408,7 +5217,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -5423,7 +5232,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -5439,7 +5248,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5455,7 +5264,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5471,7 +5280,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5487,7 +5296,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5503,7 +5312,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5519,7 +5328,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5535,7 +5344,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5551,7 +5360,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5567,7 +5376,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5583,7 +5392,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5599,7 +5408,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5615,7 +5424,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5631,7 +5440,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5647,7 +5456,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5663,7 +5472,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5679,7 +5488,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5695,7 +5504,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5711,7 +5520,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5727,7 +5536,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5743,7 +5552,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5759,7 +5568,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5775,7 +5584,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5791,7 +5600,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5807,7 +5616,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5823,7 +5632,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5839,7 +5648,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5855,7 +5664,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5871,7 +5680,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5887,7 +5696,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5903,7 +5712,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5919,7 +5728,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5935,7 +5744,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5951,7 +5760,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -5967,7 +5776,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -5983,7 +5792,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -5999,7 +5808,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -6015,7 +5824,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -6031,7 +5840,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -6047,7 +5856,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -6063,7 +5872,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -6079,7 +5888,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -6095,7 +5904,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -6111,7 +5920,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -6127,7 +5936,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -6143,7 +5952,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -6159,7 +5968,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -6175,7 +5984,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -6191,7 +6000,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -6207,7 +6016,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -6223,7 +6032,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -6239,7 +6048,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -6255,7 +6064,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -6271,7 +6080,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -6287,7 +6096,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -6303,7 +6112,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -6319,7 +6128,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -6335,7 +6144,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -6351,7 +6160,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -6367,7 +6176,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -6383,7 +6192,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -6399,7 +6208,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -6415,7 +6224,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -6431,7 +6240,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -6447,7 +6256,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -6463,7 +6272,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -6479,7 +6288,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -6495,7 +6304,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -6511,7 +6320,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -6527,7 +6336,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -6543,7 +6352,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -6559,7 +6368,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -6575,7 +6384,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -6591,7 +6400,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -6607,7 +6416,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -6623,7 +6432,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -6639,7 +6448,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -6655,7 +6464,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -6671,7 +6480,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -6687,7 +6496,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -6703,7 +6512,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -6719,7 +6528,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -6735,7 +6544,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -6751,7 +6560,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -6767,7 +6576,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -6783,7 +6592,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -6799,7 +6608,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -6815,7 +6624,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -6831,7 +6640,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -6847,7 +6656,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -6863,7 +6672,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -6879,7 +6688,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -6895,7 +6704,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -6911,7 +6720,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -6927,7 +6736,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -6943,7 +6752,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -6959,7 +6768,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -6975,7 +6784,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -6991,7 +6800,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -7007,7 +6816,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -7023,7 +6832,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -7039,7 +6848,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -7055,7 +6864,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -7071,7 +6880,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -7087,7 +6896,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -7103,7 +6912,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -7119,7 +6928,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -7135,7 +6944,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -7151,7 +6960,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -7167,7 +6976,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -7183,7 +6992,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -7199,7 +7008,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -7215,7 +7024,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -7231,7 +7040,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -7247,7 +7056,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -7263,7 +7072,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -7279,7 +7088,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -7295,7 +7104,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -7311,7 +7120,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -7327,7 +7136,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -7343,7 +7152,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -7359,7 +7168,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -7375,7 +7184,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -7391,7 +7200,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -7407,7 +7216,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -7423,7 +7232,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -7439,7 +7248,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -7455,7 +7264,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -7471,7 +7280,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -7487,7 +7296,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -7503,7 +7312,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -7519,7 +7328,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -7535,7 +7344,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -7551,7 +7360,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -7567,7 +7376,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -7583,7 +7392,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -7599,7 +7408,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -7615,7 +7424,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -7631,7 +7440,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -7647,7 +7456,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -7663,7 +7472,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -7679,7 +7488,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -7695,7 +7504,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -7711,7 +7520,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -7727,7 +7536,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -7743,7 +7552,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -7759,7 +7568,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -7775,7 +7584,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -7791,7 +7600,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -7807,7 +7616,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -7823,7 +7632,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -7839,7 +7648,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -7855,7 +7664,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -7871,7 +7680,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -7887,7 +7696,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -7903,7 +7712,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -7919,7 +7728,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -7935,7 +7744,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -7951,7 +7760,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -7967,7 +7776,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -7983,7 +7792,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -7999,7 +7808,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -8015,7 +7824,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -8031,7 +7840,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -8047,7 +7856,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -8063,7 +7872,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -8079,7 +7888,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -8095,7 +7904,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -8111,7 +7920,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -8127,7 +7936,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -8143,7 +7952,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -8159,7 +7968,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -8175,7 +7984,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -8191,7 +8000,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -8207,7 +8016,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -8223,7 +8032,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -8239,7 +8048,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -8255,7 +8064,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -8271,7 +8080,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -8287,7 +8096,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -8303,7 +8112,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -8319,7 +8128,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -8335,7 +8144,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -8351,7 +8160,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -8367,7 +8176,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -8383,7 +8192,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -8399,7 +8208,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -8415,7 +8224,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -8431,7 +8240,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -8447,7 +8256,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -8463,7 +8272,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -8479,7 +8288,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -8495,7 +8304,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -8511,7 +8320,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -8527,7 +8336,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -8543,7 +8352,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -8559,7 +8368,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -8575,7 +8384,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -8591,7 +8400,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -8607,7 +8416,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -8623,7 +8432,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -8639,7 +8448,7 @@
         <v>37.709801928118821</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -8655,7 +8464,7 @@
         <v>37.677783194876852</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -8671,7 +8480,7 @@
         <v>37.643186222549026</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -8687,7 +8496,7 @@
         <v>37.61082921770732</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -8703,7 +8512,7 @@
         <v>37.576601888834951</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -8719,7 +8528,7 @@
         <v>37.53951685371981</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -8735,7 +8544,7 @@
         <v>37.502548024519236</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -8751,7 +8560,7 @@
         <v>37.469330088851677</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -8767,7 +8576,7 @@
         <v>37.436714235285713</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -8783,7 +8592,7 @@
         <v>37.405118435402848</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -8799,7 +8608,7 @@
         <v>37.373584854622642</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -8815,7 +8624,7 @@
         <v>37.341971777323948</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -8831,7 +8640,7 @@
         <v>37.308551350934586</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -8847,7 +8656,7 @@
         <v>37.279162738930239</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -8863,7 +8672,7 @@
         <v>37.24703698620371</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -8879,7 +8688,7 @@
         <v>37.217787966082959</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -8895,7 +8704,7 @@
         <v>37.189128385091756</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -8911,7 +8720,7 @@
         <v>37.160593554703212</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -8927,7 +8736,7 @@
         <v>37.130136307090922</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -8943,7 +8752,7 @@
         <v>37.098280487375575</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -8959,7 +8768,7 @@
         <v>37.064549496936955</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -8975,7 +8784,7 @@
         <v>37.025425957264588</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -8991,7 +8800,7 @@
         <v>36.983839230133938</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -9007,7 +8816,7 @@
         <v>36.941866615422235</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -9023,7 +8832,7 @@
         <v>36.903230033407091</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -9039,7 +8848,7 @@
         <v>36.865991137929527</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -9055,7 +8864,7 @@
         <v>36.824824508114048</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -9071,7 +8880,7 @@
         <v>36.779912614716174</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -9087,7 +8896,7 @@
         <v>36.740347778608708</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -9103,7 +8912,7 @@
         <v>36.704372248441572</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -9119,7 +8928,7 @@
         <v>36.668318920431048</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -9135,7 +8944,7 @@
         <v>36.63334759656653</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -9151,7 +8960,7 @@
         <v>36.597521324786335</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -9167,7 +8976,7 @@
         <v>36.562765916212776</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -9183,7 +8992,7 @@
         <v>36.527669453389834</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -9199,7 +9008,7 @@
         <v>36.490042158691992</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -9215,7 +9024,7 @@
         <v>36.450924335798327</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -9231,7 +9040,7 @@
         <v>36.41142256129708</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -9247,7 +9056,7 @@
         <v>36.376291632041678</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -9263,7 +9072,7 @@
         <v>36.340041456763494</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -9279,7 +9088,7 @@
         <v>36.304917319132237</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -9295,7 +9104,7 @@
         <v>36.269300373868319</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -9311,7 +9120,7 @@
         <v>36.232131113155745</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -9327,7 +9136,7 @@
         <v>36.195142823224494</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -9343,7 +9152,7 @@
         <v>36.154146310162609</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -9359,7 +9168,7 @@
         <v>36.115546530931177</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -9375,7 +9184,7 @@
         <v>36.075483844556452</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -9391,7 +9200,7 @@
         <v>36.036385516465863</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -9407,7 +9216,7 @@
         <v>35.997079970720002</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -9423,7 +9232,7 @@
         <v>35.958844590836655</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -9439,7 +9248,7 @@
         <v>35.919801560079364</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -9455,7 +9264,7 @@
         <v>35.878497993873516</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -9471,7 +9280,7 @@
         <v>35.83523618834645</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -9487,7 +9296,7 @@
         <v>35.79231369109803</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -9503,7 +9312,7 @@
         <v>35.74410153121093</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -9519,7 +9328,7 @@
         <v>35.695175066420227</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -9535,7 +9344,7 @@
         <v>35.650930204496113</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -9551,7 +9360,7 @@
         <v>35.606409241698827</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -9567,7 +9376,7 @@
         <v>35.566115356769217</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -9583,7 +9392,7 @@
         <v>35.518850545210718</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -9599,7 +9408,7 @@
         <v>35.469999967977095</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -9615,7 +9424,7 @@
         <v>35.420532283992387</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -9631,7 +9440,7 @@
         <v>35.37265148249999</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -9647,7 +9456,7 @@
         <v>35.327660347698107</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -9663,7 +9472,7 @@
         <v>35.282706740526301</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -9679,7 +9488,7 @@
         <v>35.238764015805231</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -9695,7 +9504,7 @@
         <v>35.194179078880587</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -9711,7 +9520,7 @@
         <v>35.151561311078062</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -9727,7 +9536,7 @@
         <v>35.109185154666655</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -9743,7 +9552,7 @@
         <v>35.067416947158662</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -9759,7 +9568,7 @@
         <v>35.027352914264696</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -9775,7 +9584,7 @@
         <v>34.987142827545782</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -9791,7 +9600,7 @@
         <v>34.944160551094882</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -9807,7 +9616,7 @@
         <v>34.901854510799993</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -9823,7 +9632,7 @@
         <v>34.85992750141304</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -9839,7 +9648,7 @@
         <v>34.818447621768946</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -9855,7 +9664,7 @@
         <v>34.778237376330928</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -9871,7 +9680,7 @@
         <v>34.740071647956981</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -9887,7 +9696,7 @@
         <v>34.70282139017857</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -9903,7 +9712,7 @@
         <v>34.666548005266904</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -9919,7 +9728,7 @@
         <v>34.633439678723406</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -9935,7 +9744,7 @@
         <v>34.600353321060069</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -9951,7 +9760,7 @@
         <v>34.568168975140843</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -9967,7 +9776,7 @@
         <v>34.533719259438591</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -9983,7 +9792,7 @@
         <v>34.501713245104895</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -9999,7 +9808,7 @@
         <v>34.441254312613239</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -10015,7 +9824,7 @@
         <v>34.410590237256947</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -10031,7 +9840,7 @@
         <v>34.381418643148791</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -10047,7 +9856,7 @@
         <v>34.352517199551727</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -10063,7 +9872,7 @@
         <v>34.325532604364263</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -10079,7 +9888,7 @@
         <v>34.300479411301374</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -10095,7 +9904,7 @@
         <v>34.275528968839595</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -10111,7 +9920,7 @@
         <v>34.249421728741503</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -10127,7 +9936,7 @@
         <v>34.225660976338986</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -10143,7 +9952,7 @@
         <v>34.203749958750002</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -10159,7 +9968,7 @@
         <v>34.182424204141412</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -10175,7 +9984,7 @@
         <v>34.162248284261743</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -10191,7 +10000,7 @@
         <v>34.139999963010034</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -10207,7 +10016,7 @@
         <v>34.118899961366665</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -10223,7 +10032,7 @@
         <v>34.097375374750825</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -10239,7 +10048,7 @@
         <v>34.077450290463574</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -10255,7 +10064,7 @@
         <v>34.057161676666666</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -10271,7 +10080,7 @@
         <v>34.036282852335525</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -10287,7 +10096,7 @@
         <v>34.016754055836067</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -10303,7 +10112,7 @@
         <v>33.996633946535951</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -10319,7 +10128,7 @@
         <v>33.974755662312702</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -10335,7 +10144,7 @@
         <v>33.951363599967529</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -10351,7 +10160,7 @@
         <v>33.928932004045308</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -10367,7 +10176,7 @@
         <v>33.908064478483865</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -10383,7 +10192,7 @@
         <v>33.886044976848872</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -10399,7 +10208,7 @@
         <v>33.865032011923077</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -10415,7 +10224,7 @@
         <v>33.843258744281151</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -10431,7 +10240,7 @@
         <v>33.821847094904456</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -10447,7 +10256,7 @@
         <v>33.799841229174596</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -10463,7 +10272,7 @@
         <v>33.777689830474678</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -10479,7 +10288,7 @@
         <v>33.754952637602521</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -10495,7 +10304,7 @@
         <v>33.732798695597481</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -10511,7 +10320,7 @@
         <v>33.71050152363636</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -10527,7 +10336,7 @@
         <v>33.688624953499996</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -10543,7 +10352,7 @@
         <v>33.665700887975071</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -10559,7 +10368,7 @@
         <v>33.644596229440985</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -10575,7 +10384,7 @@
         <v>33.621981380433432</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -10591,7 +10400,7 @@
         <v>33.598333289753079</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -10607,7 +10416,7 @@
         <v>33.575199956553838</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -10623,7 +10432,7 @@
         <v>33.553374186993857</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -10639,7 +10448,7 @@
         <v>33.531651332477054</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -10655,7 +10464,7 @@
         <v>33.510396296310965</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -10671,7 +10480,7 @@
         <v>33.488176249088134</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -10687,7 +10496,7 @@
         <v>33.467939351363626</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -10703,7 +10512,7 @@
         <v>33.447250715377635</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -10719,7 +10528,7 @@
         <v>33.426957788765044</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -10735,7 +10544,7 @@
         <v>33.406816772312297</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -10751,7 +10560,7 @@
         <v>33.388113727634718</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -10767,7 +10576,7 @@
         <v>33.369134285731334</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -10783,7 +10592,7 @@
         <v>33.348869003541658</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -10799,7 +10608,7 @@
         <v>33.32994060682492</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -10815,7 +10624,7 @@
         <v>33.310798772514786</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -10831,7 +10640,7 @@
         <v>33.289085504041289</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -10847,7 +10656,7 @@
         <v>33.267352898499993</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -10863,7 +10672,7 @@
         <v>33.245395853900284</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -10879,7 +10688,7 @@
         <v>33.223099377251451</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -10895,7 +10704,7 @@
         <v>33.200524742157427</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -10911,7 +10720,7 @@
         <v>33.177209264156971</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -10927,7 +10736,7 @@
         <v>33.152579672985496</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -10943,7 +10752,7 @@
         <v>33.127959789537563</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -10959,7 +10768,7 @@
         <v>33.103008894783848</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -10975,7 +10784,7 @@
         <v>33.078402550028727</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -10991,7 +10800,7 @@
         <v>33.054624894269331</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -11007,7 +10816,7 @@
         <v>33.030011681799991</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -11023,7 +10832,7 @@
         <v>33.006479169886028</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -11039,7 +10848,7 @@
         <v>32.983534626789762</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -11055,9 +10864,9 @@
         <v>32.959558608016984</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A610" si="3">A355+1</f>
+        <f t="shared" ref="A356:A609" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -11071,7 +10880,7 @@
         <v>32.934079628898296</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -11087,7 +10896,7 @@
         <v>32.907504756704213</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -11103,7 +10912,7 @@
         <v>32.881079181544933</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -11119,7 +10928,7 @@
         <v>32.854801648823518</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -11135,7 +10944,7 @@
         <v>32.828196057625689</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -11151,7 +10960,7 @@
         <v>32.800958742701937</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -11167,7 +10976,7 @@
         <v>32.773483857305543</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -11183,7 +10992,7 @@
         <v>32.746410494819933</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -11199,7 +11008,7 @@
         <v>32.72075742715468</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -11215,7 +11024,7 @@
         <v>32.693785643608805</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -11231,7 +11040,7 @@
         <v>32.667236783846143</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -11247,7 +11056,7 @@
         <v>32.639682710465742</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -11263,7 +11072,7 @@
         <v>32.610721831256818</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -11279,7 +11088,7 @@
         <v>32.582463732997262</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -11295,7 +11104,7 @@
         <v>32.556207038288029</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -11311,7 +11120,7 @@
         <v>32.529902955203234</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -11327,7 +11136,7 @@
         <v>32.505903216459444</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -11343,7 +11152,7 @@
         <v>32.482221534770872</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -11359,7 +11168,7 @@
         <v>32.459016639193536</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -11375,7 +11184,7 @@
         <v>32.435239115093815</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -11391,7 +11200,7 @@
         <v>32.411080720721912</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -11407,7 +11216,7 @@
         <v>32.386891172533318</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -11423,7 +11232,7 @@
         <v>32.361473908563816</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -11439,7 +11248,7 @@
         <v>32.335952757002637</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -11455,7 +11264,7 @@
         <v>32.311730660581993</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -11471,7 +11280,7 @@
         <v>32.28705590707122</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -11487,7 +11296,7 @@
         <v>32.260353126763142</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -11503,7 +11312,7 @@
         <v>32.234052986719142</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -11519,7 +11328,7 @@
         <v>32.207969079581133</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -11535,7 +11344,7 @@
         <v>32.182882999425566</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -11551,7 +11360,7 @@
         <v>32.15761507374998</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -11567,7 +11376,7 @@
         <v>32.134348543064917</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -11583,7 +11392,7 @@
         <v>32.111176657020707</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -11599,7 +11408,7 @@
         <v>32.08771108604649</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -11615,7 +11424,7 @@
         <v>32.063670594149464</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -11631,7 +11440,7 @@
         <v>32.038622596966562</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -11647,7 +11456,7 @@
         <v>32.015113310410236</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -11663,7 +11472,7 @@
         <v>31.991775423145757</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -11679,7 +11488,7 @@
         <v>31.969985181658139</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -11695,7 +11504,7 @@
         <v>31.947491578549599</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -11711,7 +11520,7 @@
         <v>31.924807590355311</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -11727,7 +11536,7 @@
         <v>31.902289091873399</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -11743,7 +11552,7 @@
         <v>31.879808563863616</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -11759,7 +11568,7 @@
         <v>31.856559674836252</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -11775,7 +11584,7 @@
         <v>31.83315123575375</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -11791,7 +11600,7 @@
         <v>31.809784942506248</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -11807,7 +11616,7 @@
         <v>31.786160481674983</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -11823,7 +11632,7 @@
         <v>31.762254846458838</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -11839,7 +11648,7 @@
         <v>31.739711925845754</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -11855,7 +11664,7 @@
         <v>31.717553830421821</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="18">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -11871,7 +11680,7 @@
         <v>31.696396519158398</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="18">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -11887,7 +11696,7 @@
         <v>31.674998010938253</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="18">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -11903,7 +11712,7 @@
         <v>31.654172890985205</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="18">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -11919,7 +11728,7 @@
         <v>31.634039785798507</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="18">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -11935,7 +11744,7 @@
         <v>31.614471059901945</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="18">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -11951,7 +11760,7 @@
         <v>31.594949123716365</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="18">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -11967,7 +11776,7 @@
         <v>31.576034614024373</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="18">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -11983,7 +11792,7 @@
         <v>31.556628204695848</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="18">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -11999,7 +11808,7 @@
         <v>31.536660660315519</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="18">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -12015,7 +11824,7 @@
         <v>31.516644533922502</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="18">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -12031,7 +11840,7 @@
         <v>31.497280658236697</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="18">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -12047,7 +11856,7 @@
         <v>31.477648657566249</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="18">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -12063,7 +11872,7 @@
         <v>31.4574620019471</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="18">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -12079,7 +11888,7 @@
         <v>31.436484872637873</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="18">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -12095,7 +11904,7 @@
         <v>31.415368881578932</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="18">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -12111,7 +11920,7 @@
         <v>31.3942104814797</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="18">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -12127,7 +11936,7 @@
         <v>31.372914744047605</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="18">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -12143,7 +11952,7 @@
         <v>31.352527775344406</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="18">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -12159,7 +11968,7 @@
         <v>31.332735055497619</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="18">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -12175,7 +11984,7 @@
         <v>31.312397619290767</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="18">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -12191,7 +12000,7 @@
         <v>31.29222687073112</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="18">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -12207,7 +12016,7 @@
         <v>31.272103983435283</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="18">
         <f t="shared" si="3"/>
         <v>426</v>
@@ -12223,7 +12032,7 @@
         <v>31.252545055150357</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="18">
         <f t="shared" si="3"/>
         <v>427</v>
@@ -12239,7 +12048,7 @@
         <v>31.232820125100137</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="18">
         <f t="shared" si="3"/>
         <v>428</v>
@@ -12255,7 +12064,7 @@
         <v>31.214542507628902</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="18">
         <f t="shared" si="3"/>
         <v>429</v>
@@ -12271,7 +12080,7 @@
         <v>31.196559891061003</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="18">
         <f t="shared" si="3"/>
         <v>430</v>
@@ -12287,7 +12096,7 @@
         <v>31.178846960904366</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="18">
         <f t="shared" si="3"/>
         <v>431</v>
@@ -12303,7 +12112,7 @@
         <v>31.161773069335734</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="18">
         <f t="shared" si="3"/>
         <v>432</v>
@@ -12319,7 +12128,7 @@
         <v>31.144384704866276</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="18">
         <f t="shared" si="3"/>
         <v>433</v>
@@ -12335,7 +12144,7 @@
         <v>31.127376889581701</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="18">
         <f t="shared" si="3"/>
         <v>434</v>
@@ -12351,7 +12160,7 @@
         <v>31.111184777811857</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="18">
         <f t="shared" si="3"/>
         <v>435</v>
@@ -12367,7 +12176,7 @@
         <v>31.095871711111002</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="18">
         <f t="shared" si="3"/>
         <v>436</v>
@@ -12383,7 +12192,7 @@
         <v>31.080789437594152</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="18">
         <f t="shared" si="3"/>
         <v>437</v>
@@ -12399,7 +12208,7 @@
         <v>31.065799074319667</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="18">
         <f t="shared" si="3"/>
         <v>438</v>
@@ -12415,7 +12224,7 @@
         <v>31.051356610157107</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="18">
         <f t="shared" si="3"/>
         <v>439</v>
@@ -12431,7 +12240,7 @@
         <v>31.037184954834895</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="18">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -12447,7 +12256,7 @@
         <v>31.023850443747303</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="18">
         <f t="shared" si="3"/>
         <v>441</v>
@@ -12463,7 +12272,7 @@
         <v>31.009964160696924</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="18">
         <f t="shared" si="3"/>
         <v>442</v>
@@ -12479,7 +12288,7 @@
         <v>30.996909942618423</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="18">
         <f t="shared" si="3"/>
         <v>443</v>
@@ -12495,7 +12304,7 @@
         <v>30.983666351687006</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="18">
         <f t="shared" si="3"/>
         <v>444</v>
@@ -12511,7 +12320,7 @@
         <v>30.970031968710234</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="18">
         <f t="shared" si="3"/>
         <v>445</v>
@@ -12527,7 +12336,7 @@
         <v>30.955717290982793</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="18">
         <f t="shared" si="3"/>
         <v>446</v>
@@ -12543,7 +12352,7 @@
         <v>30.94148922667566</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="18">
         <f t="shared" si="3"/>
         <v>447</v>
@@ -12559,7 +12368,7 @@
         <v>30.927078736235668</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="18">
         <f t="shared" si="3"/>
         <v>448</v>
@@ -12575,7 +12384,7 @@
         <v>30.913558473074428</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="18">
         <f t="shared" si="3"/>
         <v>449</v>
@@ -12591,7 +12400,7 @@
         <v>30.899586181129941</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="18">
         <f t="shared" si="3"/>
         <v>450</v>
@@ -12607,7 +12416,7 @@
         <v>30.886209321082987</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="18">
         <f t="shared" si="3"/>
         <v>451</v>
@@ -12623,7 +12432,7 @@
         <v>30.872736571967504</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="18">
         <f t="shared" si="3"/>
         <v>452</v>
@@ -12639,7 +12448,7 @@
         <v>30.859168570193237</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="18">
         <f t="shared" si="3"/>
         <v>453</v>
@@ -12655,7 +12464,7 @@
         <v>30.845108594916873</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="18">
         <f t="shared" si="3"/>
         <v>454</v>
@@ -12671,7 +12480,7 @@
         <v>30.829921132725424</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="18">
         <f t="shared" si="3"/>
         <v>455</v>
@@ -12687,7 +12496,7 @@
         <v>30.815811415620537</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="18">
         <f t="shared" si="3"/>
         <v>456</v>
@@ -12703,7 +12512,7 @@
         <v>30.801741652910842</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="18">
         <f t="shared" si="3"/>
         <v>457</v>
@@ -12719,7 +12528,7 @@
         <v>30.787295830388061</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="18">
         <f t="shared" si="3"/>
         <v>458</v>
@@ -12735,7 +12544,7 @@
         <v>30.772978589579356</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="18">
         <f t="shared" si="3"/>
         <v>459</v>
@@ -12751,7 +12560,7 @@
         <v>30.758266218926675</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="18">
         <f t="shared" si="3"/>
         <v>460</v>
@@ -12767,7 +12576,7 @@
         <v>30.743096076472487</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="18">
         <f t="shared" si="3"/>
         <v>461</v>
@@ -12783,7 +12592,7 @@
         <v>30.728425585070163</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="18">
         <f t="shared" si="3"/>
         <v>462</v>
@@ -12799,7 +12608,7 @@
         <v>30.714489600946631</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="18">
         <f t="shared" si="3"/>
         <v>463</v>
@@ -12815,7 +12624,7 @@
         <v>30.70024664465949</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="18">
         <f t="shared" si="3"/>
         <v>464</v>
@@ -12831,7 +12640,7 @@
         <v>30.686065080425308</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="18">
         <f t="shared" si="3"/>
         <v>465</v>
@@ -12847,7 +12656,7 @@
         <v>30.672095049134068</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="18">
         <f t="shared" si="3"/>
         <v>466</v>
@@ -12863,7 +12672,7 @@
         <v>30.657219308191721</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="18">
         <f t="shared" si="3"/>
         <v>467</v>
@@ -12879,7 +12688,7 @@
         <v>30.642235968880819</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="18">
         <f t="shared" si="3"/>
         <v>468</v>
@@ -12895,7 +12704,7 @@
         <v>30.62733802894731</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="18">
         <f t="shared" si="3"/>
         <v>469</v>
@@ -12911,7 +12720,7 @@
         <v>30.612055856348277</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="18">
         <f t="shared" si="3"/>
         <v>470</v>
@@ -12927,7 +12736,7 @@
         <v>30.596923822611366</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="18">
         <f t="shared" si="3"/>
         <v>471</v>
@@ -12943,7 +12752,7 @@
         <v>30.581431413731085</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="18">
         <f t="shared" si="3"/>
         <v>472</v>
@@ -12959,7 +12768,7 @@
         <v>30.565962280841823</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="18">
         <f t="shared" si="3"/>
         <v>473</v>
@@ -12975,7 +12784,7 @@
         <v>30.549797455892897</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="18">
         <f t="shared" si="3"/>
         <v>474</v>
@@ -12991,7 +12800,7 @@
         <v>30.533743031998608</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="18">
         <f t="shared" si="3"/>
         <v>475</v>
@@ -13007,7 +12816,7 @@
         <v>30.517798307889137</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="18">
         <f t="shared" si="3"/>
         <v>476</v>
@@ -13023,7 +12832,7 @@
         <v>30.502739908880965</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="18">
         <f t="shared" si="3"/>
         <v>477</v>
@@ -13039,7 +12848,7 @@
         <v>30.488226827143272</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="18">
         <f t="shared" si="3"/>
         <v>478</v>
@@ -13055,7 +12864,7 @@
         <v>30.474402083069752</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="18">
         <f t="shared" si="3"/>
         <v>479</v>
@@ -13071,7 +12880,7 @@
         <v>30.460676816967307</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="18">
         <f t="shared" si="3"/>
         <v>480</v>
@@ -13087,7 +12896,7 @@
         <v>30.447092074702791</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="18">
         <f t="shared" si="3"/>
         <v>481</v>
@@ -13103,7 +12912,7 @@
         <v>30.433023276855177</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="18">
         <f t="shared" si="3"/>
         <v>482</v>
@@ -13119,7 +12928,7 @@
         <v>30.41932405827249</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="18">
         <f t="shared" si="3"/>
         <v>483</v>
@@ -13135,7 +12944,7 @@
         <v>30.405992123452055</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="18">
         <f t="shared" si="3"/>
         <v>484</v>
@@ -13151,7 +12960,7 @@
         <v>30.393087180738309</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="18">
         <f t="shared" si="3"/>
         <v>485</v>
@@ -13167,7 +12976,7 @@
         <v>30.380668446015136</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="18">
         <f t="shared" si="3"/>
         <v>486</v>
@@ -13183,7 +12992,7 @@
         <v>30.368053901887535</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="18">
         <f t="shared" si="3"/>
         <v>487</v>
@@ -13199,7 +13008,7 @@
         <v>30.355655433752244</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="18">
         <f t="shared" si="3"/>
         <v>488</v>
@@ -13215,7 +13024,7 @@
         <v>30.343902043191274</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="18">
         <f t="shared" si="3"/>
         <v>489</v>
@@ -13231,7 +13040,7 @@
         <v>30.331971773634645</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="18">
         <f t="shared" si="3"/>
         <v>490</v>
@@ -13247,7 +13056,7 @@
         <v>30.320069790423148</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="18">
         <f t="shared" si="3"/>
         <v>491</v>
@@ -13263,7 +13072,7 @@
         <v>30.308195920727783</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="18">
         <f t="shared" si="3"/>
         <v>492</v>
@@ -13279,7 +13088,7 @@
         <v>30.295577637108419</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="18">
         <f t="shared" si="3"/>
         <v>493</v>
@@ -13295,7 +13104,7 @@
         <v>30.283436504923614</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="18">
         <f t="shared" si="3"/>
         <v>494</v>
@@ -13311,7 +13120,7 @@
         <v>30.271627930541179</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="18">
         <f t="shared" si="3"/>
         <v>495</v>
@@ -13327,7 +13136,7 @@
         <v>30.260008481105739</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="18">
         <f t="shared" si="3"/>
         <v>496</v>
@@ -13343,7 +13152,7 @@
         <v>30.248032656930125</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="18">
         <f t="shared" si="3"/>
         <v>497</v>
@@ -13359,7 +13168,7 @@
         <v>30.235742851564066</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="18">
         <f t="shared" si="3"/>
         <v>498</v>
@@ -13375,7 +13184,7 @@
         <v>30.222598790677392</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="18">
         <f t="shared" si="3"/>
         <v>499</v>
@@ -13391,7 +13200,7 @@
         <v>30.209046486647978</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="18">
         <f t="shared" si="3"/>
         <v>500</v>
@@ -13407,7 +13216,7 @@
         <v>30.19472839215468</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="18">
         <f t="shared" si="3"/>
         <v>501</v>
@@ -13423,7 +13232,7 @@
         <v>30.180846698298083</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="18">
         <f t="shared" si="3"/>
         <v>502</v>
@@ -13439,7 +13248,7 @@
         <v>30.167478476409045</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="18">
         <f t="shared" si="3"/>
         <v>503</v>
@@ -13455,7 +13264,7 @@
         <v>30.154382097569265</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="18">
         <f t="shared" si="3"/>
         <v>504</v>
@@ -13471,7 +13280,7 @@
         <v>30.138460702851869</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="18">
         <f t="shared" si="3"/>
         <v>505</v>
@@ -13487,7 +13296,7 @@
         <v>30.122127116093743</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="18">
         <f t="shared" si="3"/>
         <v>506</v>
@@ -13503,7 +13312,7 @@
         <v>30.105917378868263</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="18">
         <f t="shared" si="3"/>
         <v>507</v>
@@ -13519,7 +13328,7 @@
         <v>30.089317937351755</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="18">
         <f t="shared" si="3"/>
         <v>508</v>
@@ -13535,7 +13344,7 @@
         <v>30.073039751825473</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" s="18">
         <f t="shared" si="3"/>
         <v>509</v>
@@ -13551,7 +13360,7 @@
         <v>30.056904115004599</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" s="18">
         <f t="shared" si="3"/>
         <v>510</v>
@@ -13567,7 +13376,7 @@
         <v>30.040400380249686</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" s="18">
         <f t="shared" si="3"/>
         <v>511</v>
@@ -13583,7 +13392,7 @@
         <v>30.024704881384224</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" s="18">
         <f t="shared" si="3"/>
         <v>512</v>
@@ -13599,7 +13408,7 @@
         <v>30.00889491151824</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" s="18">
         <f t="shared" si="3"/>
         <v>513</v>
@@ -13615,7 +13424,7 @@
         <v>29.993185566193642</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" s="18">
         <f t="shared" si="3"/>
         <v>514</v>
@@ -13631,7 +13440,7 @@
         <v>29.977498435345016</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" s="18">
         <f t="shared" si="3"/>
         <v>515</v>
@@ -13647,7 +13456,7 @@
         <v>29.961988729198715</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" s="18">
         <f t="shared" si="3"/>
         <v>516</v>
@@ -13663,7 +13472,7 @@
         <v>29.946597279064608</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" s="18">
         <f t="shared" si="3"/>
         <v>517</v>
@@ -13679,7 +13488,7 @@
         <v>29.930897864598332</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" s="18">
         <f t="shared" si="3"/>
         <v>518</v>
@@ -13695,7 +13504,7 @@
         <v>29.914930880014165</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" s="18">
         <f t="shared" si="3"/>
         <v>519</v>
@@ -13711,7 +13520,7 @@
         <v>29.899006156969822</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="18">
         <f t="shared" si="3"/>
         <v>520</v>
@@ -13727,7 +13536,7 @@
         <v>29.883027299264111</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="18">
         <f t="shared" si="3"/>
         <v>521</v>
@@ -13743,7 +13552,7 @@
         <v>29.86661073999489</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" s="18">
         <f t="shared" si="3"/>
         <v>522</v>
@@ -13759,7 +13568,7 @@
         <v>29.850621065128998</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="18">
         <f t="shared" si="3"/>
         <v>523</v>
@@ -13775,7 +13584,7 @@
         <v>29.834329246495866</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="18">
         <f t="shared" si="3"/>
         <v>524</v>
@@ -13791,7 +13600,7 @@
         <v>29.818271366407131</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="18">
         <f t="shared" si="3"/>
         <v>525</v>
@@ -13807,7 +13616,7 @@
         <v>29.802865134356836</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="18">
         <f t="shared" si="3"/>
         <v>526</v>
@@ -13823,7 +13632,7 @@
         <v>29.787327366344751</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="18">
         <f t="shared" si="3"/>
         <v>527</v>
@@ -13839,7 +13648,7 @@
         <v>29.771222379387741</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="18">
         <f t="shared" si="3"/>
         <v>528</v>
@@ -13855,7 +13664,7 @@
         <v>29.754742790960869</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="18">
         <f t="shared" si="3"/>
         <v>529</v>
@@ -13871,7 +13680,7 @@
         <v>29.738344411242608</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="18">
         <f t="shared" si="3"/>
         <v>530</v>
@@ -13887,7 +13696,7 @@
         <v>29.722290930353473</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="18">
         <f t="shared" si="3"/>
         <v>531</v>
@@ -13903,7 +13712,7 @@
         <v>29.706655731011939</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="18">
         <f t="shared" si="3"/>
         <v>532</v>
@@ -13919,7 +13728,7 @@
         <v>29.691511640577708</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="18">
         <f t="shared" si="3"/>
         <v>533</v>
@@ -13935,7 +13744,7 @@
         <v>29.676461900313956</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="18">
         <f t="shared" si="3"/>
         <v>534</v>
@@ -13951,7 +13760,7 @@
         <v>29.662592122335841</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="18">
         <f t="shared" si="3"/>
         <v>535</v>
@@ -13967,7 +13776,7 @@
         <v>29.649353632238018</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="18">
         <f t="shared" si="3"/>
         <v>536</v>
@@ -13983,7 +13792,7 @@
         <v>29.636127225218917</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="18">
         <f t="shared" si="3"/>
         <v>537</v>
@@ -13999,7 +13808,7 @@
         <v>29.623322519455009</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="18">
         <f t="shared" si="3"/>
         <v>538</v>
@@ -14015,7 +13824,7 @@
         <v>29.609747569957882</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="18">
         <f t="shared" si="3"/>
         <v>539</v>
@@ -14031,7 +13840,7 @@
         <v>29.595647853186161</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" s="18">
         <f t="shared" si="3"/>
         <v>540</v>
@@ -14047,7 +13856,7 @@
         <v>29.581933691476557</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" s="18">
         <f t="shared" si="3"/>
         <v>541</v>
@@ -14063,7 +13872,7 @@
         <v>29.568011446649429</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="18">
         <f t="shared" si="3"/>
         <v>542</v>
@@ -14079,7 +13888,7 @@
         <v>29.554029875290293</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="18">
         <f t="shared" si="3"/>
         <v>543</v>
@@ -14095,7 +13904,7 @@
         <v>29.540486543586262</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="18">
         <f t="shared" si="3"/>
         <v>544</v>
@@ -14111,7 +13920,7 @@
         <v>29.527250355362757</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="18">
         <f t="shared" si="3"/>
         <v>545</v>
@@ -14127,7 +13936,7 @@
         <v>29.514301270875851</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="18">
         <f t="shared" si="3"/>
         <v>546</v>
@@ -14143,7 +13952,7 @@
         <v>29.500996689793663</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="18">
         <f t="shared" si="3"/>
         <v>547</v>
@@ -14159,7 +13968,7 @@
         <v>29.487503095918353</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="18">
         <f t="shared" si="3"/>
         <v>548</v>
@@ -14175,7 +13984,7 @@
         <v>29.473620789465947</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="18">
         <f t="shared" si="3"/>
         <v>549</v>
@@ -14191,7 +14000,7 @@
         <v>29.460080498264738</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="18">
         <f t="shared" si="3"/>
         <v>550</v>
@@ -14207,7 +14016,7 @@
         <v>29.447025807704254</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="18">
         <f t="shared" si="3"/>
         <v>551</v>
@@ -14223,7 +14032,7 @@
         <v>29.433582931320036</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="18">
         <f t="shared" si="3"/>
         <v>552</v>
@@ -14239,7 +14048,7 @@
         <v>29.420786586951703</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="18">
         <f t="shared" si="3"/>
         <v>553</v>
@@ -14255,7 +14064,7 @@
         <v>29.40794610431707</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="18">
         <f t="shared" si="3"/>
         <v>554</v>
@@ -14271,7 +14080,7 @@
         <v>29.394917321691949</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="18">
         <f t="shared" si="3"/>
         <v>555</v>
@@ -14287,7 +14096,7 @@
         <v>29.381755308769979</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="18">
         <f t="shared" si="3"/>
         <v>556</v>
@@ -14303,7 +14112,7 @@
         <v>29.368424812369312</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="18">
         <f t="shared" si="3"/>
         <v>557</v>
@@ -14319,7 +14128,7 @@
         <v>29.354693348271702</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="18">
         <f t="shared" si="3"/>
         <v>558</v>
@@ -14335,7 +14144,7 @@
         <v>29.340885653418169</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" s="18">
         <f t="shared" si="3"/>
         <v>559</v>
@@ -14351,7 +14160,7 @@
         <v>29.326876913841392</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" s="18">
         <f t="shared" si="3"/>
         <v>560</v>
@@ -14367,7 +14176,7 @@
         <v>29.313918204513104</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" s="18">
         <f t="shared" si="3"/>
         <v>561</v>
@@ -14383,7 +14192,7 @@
         <v>29.300827439995256</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" s="18">
         <f t="shared" si="3"/>
         <v>562</v>
@@ -14399,7 +14208,7 @@
         <v>29.287694295226583</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" s="18">
         <f t="shared" si="3"/>
         <v>563</v>
@@ -14415,7 +14224,7 @@
         <v>29.275193950119608</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" s="18">
         <f t="shared" si="3"/>
         <v>564</v>
@@ -14431,7 +14240,7 @@
         <v>29.263021620154856</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" s="18">
         <f t="shared" si="3"/>
         <v>565</v>
@@ -14447,7 +14256,7 @@
         <v>29.250715386260772</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" s="18">
         <f t="shared" si="3"/>
         <v>566</v>
@@ -14463,7 +14272,7 @@
         <v>29.23832896291049</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" s="18">
         <f t="shared" si="3"/>
         <v>567</v>
@@ -14479,7 +14288,7 @@
         <v>29.226180235251036</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" s="18">
         <f t="shared" si="3"/>
         <v>568</v>
@@ -14495,7 +14304,7 @@
         <v>29.214355974678409</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" s="18">
         <f t="shared" si="3"/>
         <v>569</v>
@@ -14511,7 +14320,7 @@
         <v>29.202186633633278</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" s="18">
         <f t="shared" si="3"/>
         <v>570</v>
@@ -14527,7 +14336,7 @@
         <v>29.189937182188306</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" s="18">
         <f t="shared" si="3"/>
         <v>571</v>
@@ -14543,7 +14352,7 @@
         <v>29.177520480258032</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" s="18">
         <f t="shared" si="3"/>
         <v>572</v>
@@ -14559,7 +14368,7 @@
         <v>29.165129710449889</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" s="18">
         <f t="shared" si="3"/>
         <v>573</v>
@@ -14575,7 +14384,7 @@
         <v>29.151961946278075</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" s="18">
         <f t="shared" si="3"/>
         <v>574</v>
@@ -14591,7 +14400,7 @@
         <v>29.138474207434385</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577" s="18">
         <f t="shared" si="3"/>
         <v>575</v>
@@ -14607,7 +14416,7 @@
         <v>29.124720338447538</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" s="18">
         <f t="shared" si="3"/>
         <v>576</v>
@@ -14623,7 +14432,7 @@
         <v>29.110632282703705</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" s="18">
         <f t="shared" si="3"/>
         <v>577</v>
@@ -14639,7 +14448,7 @@
         <v>29.096835692300406</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580" s="18">
         <f t="shared" si="3"/>
         <v>578</v>
@@ -14655,7 +14464,7 @@
         <v>29.082533208265282</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581" s="18">
         <f t="shared" si="3"/>
         <v>579</v>
@@ -14671,7 +14480,7 @@
         <v>29.067796534744961</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582" s="18">
         <f t="shared" si="3"/>
         <v>580</v>
@@ -14687,7 +14496,7 @@
         <v>29.053248608236778</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583" s="18">
         <f t="shared" si="3"/>
         <v>581</v>
@@ -14703,7 +14512,7 @@
         <v>29.037941811751001</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584" s="18">
         <f t="shared" si="3"/>
         <v>582</v>
@@ -14719,7 +14528,7 @@
         <v>29.023099986679263</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A585" s="18">
         <f t="shared" si="3"/>
         <v>583</v>
@@ -14735,7 +14544,7 @@
         <v>29.007880260492847</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A586" s="18">
         <f t="shared" si="3"/>
         <v>584</v>
@@ -14751,7 +14560,7 @@
         <v>28.993140738848169</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587" s="18">
         <f t="shared" si="3"/>
         <v>585</v>
@@ -14767,7 +14576,7 @@
         <v>28.979272120764666</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A588" s="18">
         <f t="shared" si="3"/>
         <v>586</v>
@@ -14783,7 +14592,7 @@
         <v>28.965638550200225</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589" s="18">
         <f t="shared" si="3"/>
         <v>587</v>
@@ -14799,7 +14608,7 @@
         <v>28.951898109092557</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590" s="18">
         <f t="shared" si="3"/>
         <v>588</v>
@@ -14815,7 +14624,7 @@
         <v>28.93699692273356</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591" s="18">
         <f t="shared" si="3"/>
         <v>589</v>
@@ -14831,7 +14640,7 @@
         <v>28.922468912949629</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592" s="18">
         <f t="shared" si="3"/>
         <v>590</v>
@@ -14847,7 +14656,7 @@
         <v>28.907769813097172</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" s="18">
         <f t="shared" si="3"/>
         <v>591</v>
@@ -14863,7 +14672,7 @@
         <v>28.892951251010714</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" s="18">
         <f t="shared" si="3"/>
         <v>592</v>
@@ -14879,7 +14688,7 @@
         <v>28.877473292039408</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" s="18">
         <f t="shared" si="3"/>
         <v>593</v>
@@ -14895,7 +14704,7 @@
         <v>28.861845176218093</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" s="18">
         <f t="shared" si="3"/>
         <v>594</v>
@@ -14911,7 +14720,7 @@
         <v>28.846539040332207</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597" s="18">
         <f t="shared" si="3"/>
         <v>595</v>
@@ -14927,7 +14736,7 @@
         <v>28.831284353642573</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" s="18">
         <f t="shared" si="3"/>
         <v>596</v>
@@ -14943,7 +14752,7 @@
         <v>28.815661394089481</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" s="18">
         <f t="shared" si="3"/>
         <v>597</v>
@@ -14959,7 +14768,7 @@
         <v>28.799822766310438</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" s="18">
         <f t="shared" si="3"/>
         <v>598</v>
@@ -14975,7 +14784,7 @@
         <v>28.783802994644365</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" s="18">
         <f t="shared" si="3"/>
         <v>599</v>
@@ -14991,7 +14800,7 @@
         <v>28.768087131281021</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" s="18">
         <f t="shared" si="3"/>
         <v>600</v>
@@ -15007,7 +14816,7 @@
         <v>28.752173651578886</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" s="18">
         <f t="shared" si="3"/>
         <v>601</v>
@@ -15023,7 +14832,7 @@
         <v>28.736146741742651</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" s="18">
         <f t="shared" si="3"/>
         <v>602</v>
@@ -15039,7 +14848,7 @@
         <v>28.719907293799558</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605" s="18">
         <f t="shared" si="3"/>
         <v>603</v>
@@ -15055,7 +14864,7 @@
         <v>28.704401644622447</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606" s="18">
         <f t="shared" si="3"/>
         <v>604</v>
@@ -15071,7 +14880,7 @@
         <v>28.688814888455852</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" s="18">
         <f t="shared" si="3"/>
         <v>605</v>
@@ -15087,7 +14896,7 @@
         <v>28.673081310260059</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608" s="18">
         <f t="shared" si="3"/>
         <v>606</v>
@@ -15103,7 +14912,7 @@
         <v>28.657531671134215</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609" s="18">
         <f t="shared" si="3"/>
         <v>607</v>
@@ -15117,278 +14926,6 @@
       <c r="D609" s="18">
         <f>SUM(C$3:C609)/A609</f>
         <v>28.642033266404177</v>
-      </c>
-    </row>
-    <row r="610" spans="1:4">
-      <c r="A610" s="18">
-        <f t="shared" si="3"/>
-        <v>608</v>
-      </c>
-      <c r="B610" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="C610" s="20">
-        <v>19.350000380000001</v>
-      </c>
-      <c r="D610" s="18">
-        <f>SUM(C$3:C610)/A610</f>
-        <v>28.626750317577855</v>
-      </c>
-    </row>
-    <row r="611" spans="1:4">
-      <c r="A611" s="18">
-        <f t="shared" ref="A611:A626" si="4">A610+1</f>
-        <v>609</v>
-      </c>
-      <c r="B611" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="C611" s="20">
-        <v>19.18000031</v>
-      </c>
-      <c r="D611" s="18">
-        <f>SUM(C$3:C611)/A611</f>
-        <v>28.611238412803505</v>
-      </c>
-    </row>
-    <row r="612" spans="1:4">
-      <c r="A612" s="18">
-        <f t="shared" si="4"/>
-        <v>610</v>
-      </c>
-      <c r="B612" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="C612" s="20">
-        <v>19.309999470000001</v>
-      </c>
-      <c r="D612" s="18">
-        <f>SUM(C$3:C612)/A612</f>
-        <v>28.595990480110384</v>
-      </c>
-    </row>
-    <row r="613" spans="1:4">
-      <c r="A613" s="18">
-        <f t="shared" si="4"/>
-        <v>611</v>
-      </c>
-      <c r="B613" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="C613" s="20">
-        <v>19.459999079999999</v>
-      </c>
-      <c r="D613" s="18">
-        <f>SUM(C$3:C613)/A613</f>
-        <v>28.581037957360614</v>
-      </c>
-    </row>
-    <row r="614" spans="1:4">
-      <c r="A614" s="18">
-        <f t="shared" si="4"/>
-        <v>612</v>
-      </c>
-      <c r="B614" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="C614" s="20">
-        <v>19.219999309999999</v>
-      </c>
-      <c r="D614" s="18">
-        <f>SUM(C$3:C614)/A614</f>
-        <v>28.565742142577346</v>
-      </c>
-    </row>
-    <row r="615" spans="1:4">
-      <c r="A615" s="18">
-        <f t="shared" si="4"/>
-        <v>613</v>
-      </c>
-      <c r="B615" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="C615" s="20">
-        <v>18.93000031</v>
-      </c>
-      <c r="D615" s="18">
-        <f>SUM(C$3:C615)/A615</f>
-        <v>28.550023151007071</v>
-      </c>
-    </row>
-    <row r="616" spans="1:4">
-      <c r="A616" s="18">
-        <f t="shared" si="4"/>
-        <v>614</v>
-      </c>
-      <c r="B616" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="C616" s="20">
-        <v>18.950000760000002</v>
-      </c>
-      <c r="D616" s="18">
-        <f>SUM(C$3:C616)/A616</f>
-        <v>28.53438793538654</v>
-      </c>
-    </row>
-    <row r="617" spans="1:4">
-      <c r="A617" s="18">
-        <f t="shared" si="4"/>
-        <v>615</v>
-      </c>
-      <c r="B617" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="C617" s="20">
-        <v>18.760000229999999</v>
-      </c>
-      <c r="D617" s="18">
-        <f>SUM(C$3:C617)/A617</f>
-        <v>28.518494622044447</v>
-      </c>
-    </row>
-    <row r="618" spans="1:4">
-      <c r="A618" s="18">
-        <f t="shared" si="4"/>
-        <v>616</v>
-      </c>
-      <c r="B618" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="C618" s="20">
-        <v>18.409999849999998</v>
-      </c>
-      <c r="D618" s="18">
-        <f>SUM(C$3:C618)/A618</f>
-        <v>28.502084727933983</v>
-      </c>
-    </row>
-    <row r="619" spans="1:4">
-      <c r="A619" s="18">
-        <f t="shared" si="4"/>
-        <v>617</v>
-      </c>
-      <c r="B619" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="C619" s="20">
-        <v>18.200000760000002</v>
-      </c>
-      <c r="D619" s="18">
-        <f>SUM(C$3:C619)/A619</f>
-        <v>28.485387671259858</v>
-      </c>
-    </row>
-    <row r="620" spans="1:4">
-      <c r="A620" s="18">
-        <f t="shared" si="4"/>
-        <v>618</v>
-      </c>
-      <c r="B620" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="C620" s="20">
-        <v>18.040000920000001</v>
-      </c>
-      <c r="D620" s="18">
-        <f>SUM(C$3:C620)/A620</f>
-        <v>28.468485750950375</v>
-      </c>
-    </row>
-    <row r="621" spans="1:4">
-      <c r="A621" s="18">
-        <f t="shared" si="4"/>
-        <v>619</v>
-      </c>
-      <c r="B621" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="C621" s="20">
-        <v>18.059999470000001</v>
-      </c>
-      <c r="D621" s="18">
-        <f>SUM(C$3:C621)/A621</f>
-        <v>28.451670748880986</v>
-      </c>
-    </row>
-    <row r="622" spans="1:4">
-      <c r="A622" s="18">
-        <f t="shared" si="4"/>
-        <v>620</v>
-      </c>
-      <c r="B622" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="C622" s="20">
-        <v>18.100000380000001</v>
-      </c>
-      <c r="D622" s="18">
-        <f>SUM(C$3:C622)/A622</f>
-        <v>28.434974506350532</v>
-      </c>
-    </row>
-    <row r="623" spans="1:4">
-      <c r="A623" s="18">
-        <f t="shared" si="4"/>
-        <v>621</v>
-      </c>
-      <c r="B623" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="C623" s="20">
-        <v>18.159999849999998</v>
-      </c>
-      <c r="D623" s="18">
-        <f>SUM(C$3:C623)/A623</f>
-        <v>28.418428653441755</v>
-      </c>
-    </row>
-    <row r="624" spans="1:4">
-      <c r="A624" s="18">
-        <f t="shared" si="4"/>
-        <v>622</v>
-      </c>
-      <c r="B624" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="C624" s="20">
-        <v>18.620000839999999</v>
-      </c>
-      <c r="D624" s="18">
-        <f>SUM(C$3:C624)/A624</f>
-        <v>28.402675554063229</v>
-      </c>
-    </row>
-    <row r="625" spans="1:4">
-      <c r="A625" s="18">
-        <f t="shared" si="4"/>
-        <v>623</v>
-      </c>
-      <c r="B625" s="19">
-        <v>45229</v>
-      </c>
-      <c r="C625" s="20">
-        <v>18.969999309999999</v>
-      </c>
-      <c r="D625" s="18">
-        <f>SUM(C$3:C625)/A625</f>
-        <v>28.387534821729261</v>
-      </c>
-    </row>
-    <row r="626" spans="1:4">
-      <c r="A626" s="18">
-        <f t="shared" si="4"/>
-        <v>624</v>
-      </c>
-      <c r="B626" s="19">
-        <v>45230</v>
-      </c>
-      <c r="C626" s="20">
-        <v>18.770000459999999</v>
-      </c>
-      <c r="D626" s="18">
-        <f>SUM(C$3:C626)/A626</f>
-        <v>28.372122106405978</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="模型一" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="471">
   <si>
     <t>PE</t>
   </si>
@@ -1706,6 +1706,146 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2023/10/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/11/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/11/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/11/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/11/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/11/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/11/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/11/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/11/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/11/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/11/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/11/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/11/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/11/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/11/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/11/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/11/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/11/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/11/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/11/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/11/28
+</t>
+  </si>
+  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1739,10 +1879,6 @@
   </si>
   <si>
     <t>利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1781,7 +1917,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2333,139 +2469,142 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7161979980468751</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.6159379882812499</c:v>
+                  <c:v>45044</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.4505849609374999</c:v>
+                  <c:v>45077</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.608843017578125</c:v>
+                  <c:v>45107</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.6303940429687498</c:v>
+                  <c:v>45138</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.3830390625</c:v>
+                  <c:v>45169</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.2311640625</c:v>
+                  <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2475,138 +2614,141 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>2000.0000000000002</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3783.4996370436897</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6143.6117008713063</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8173.7580810682693</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11353.811149064422</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14968.552321848347</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16822.477397497114</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18240.153038857396</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21221.531045139225</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23603.74034292587</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28072.985437531297</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31610.696441599135</c:v>
+                  <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31960.877336479982</c:v>
+                  <c:v>26000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32030.541196234128</c:v>
+                  <c:v>28000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36542.468793623324</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40028.514786085325</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43079.887556825692</c:v>
+                  <c:v>34000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43952.380972166822</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44041.688138414858</c:v>
+                  <c:v>38000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45572.995207693384</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49094.404023982002</c:v>
+                  <c:v>42000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51969.911593071687</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53008.069006718506</c:v>
+                  <c:v>46000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49351.052479165373</c:v>
+                  <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51254.60334650999</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>47701.945217252243</c:v>
+                  <c:v>52000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45202.535414395512</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48944.813088421164</c:v>
+                  <c:v>56000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57317.86097478633</c:v>
+                  <c:v>58000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56010.270798873862</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55547.679913640975</c:v>
+                  <c:v>62000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52229.088937270295</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>53475.074735568647</c:v>
+                  <c:v>66000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58406.85441256113</c:v>
+                  <c:v>68000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>60293.406710853284</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>68151.7828856181</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67767.93214664339</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70476.779226985323</c:v>
+                  <c:v>76000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>70575.372849483087</c:v>
+                  <c:v>78000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69348.035546023719</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>74528.622449867675</c:v>
+                  <c:v>82000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>76973.687038967822</c:v>
+                  <c:v>84000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>73729.125531655038</c:v>
+                  <c:v>86000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>72419.198943977608</c:v>
+                  <c:v>88000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>90000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2648,139 +2790,142 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7161979980468751</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.6159379882812499</c:v>
+                  <c:v>45044</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.4505849609374999</c:v>
+                  <c:v>45077</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.608843017578125</c:v>
+                  <c:v>45107</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.6303940429687498</c:v>
+                  <c:v>45138</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.3830390625</c:v>
+                  <c:v>45169</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.2311640625</c:v>
+                  <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2790,138 +2935,141 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2000.0000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-216.50036295631025</c:v>
+                  <c:v>3783.4996370436897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143.61170087130631</c:v>
+                  <c:v>6143.6117008713063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>173.75808106826935</c:v>
+                  <c:v>8173.7580810682693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1353.8111490644224</c:v>
+                  <c:v>11353.811149064422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2968.5523218483468</c:v>
+                  <c:v>14968.552321848347</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2822.477397497114</c:v>
+                  <c:v>16822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2240.1530388573956</c:v>
+                  <c:v>18240.153038857396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3221.5310451392252</c:v>
+                  <c:v>21221.531045139225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3603.7403429258702</c:v>
+                  <c:v>23603.74034292587</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6072.9854375312971</c:v>
+                  <c:v>28072.985437531297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7610.6964415991351</c:v>
+                  <c:v>31610.696441599135</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5960.8773364799818</c:v>
+                  <c:v>31960.877336479982</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4030.5411962341277</c:v>
+                  <c:v>32030.541196234128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6542.468793623324</c:v>
+                  <c:v>36542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8028.5147860853249</c:v>
+                  <c:v>40028.514786085325</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9079.8875568256917</c:v>
+                  <c:v>43079.887556825692</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7952.3809721668222</c:v>
+                  <c:v>43952.380972166822</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6041.6881384148583</c:v>
+                  <c:v>44041.688138414858</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5572.9952076933841</c:v>
+                  <c:v>45572.995207693384</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7094.4040239820024</c:v>
+                  <c:v>49094.404023982002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7969.9115930716871</c:v>
+                  <c:v>51969.911593071687</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7008.069006718506</c:v>
+                  <c:v>53008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1351.0524791653734</c:v>
+                  <c:v>49351.052479165373</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1254.6033465099899</c:v>
+                  <c:v>51254.60334650999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-4298.0547827477567</c:v>
+                  <c:v>47701.945217252243</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-8797.4645856044881</c:v>
+                  <c:v>45202.535414395512</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-7055.1869115788359</c:v>
+                  <c:v>48944.813088421164</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-682.13902521366981</c:v>
+                  <c:v>57317.86097478633</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3989.7292011261379</c:v>
+                  <c:v>56010.270798873862</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-6452.3200863590246</c:v>
+                  <c:v>55547.679913640975</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-11770.911062729705</c:v>
+                  <c:v>52229.088937270295</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-12524.925264431353</c:v>
+                  <c:v>53475.074735568647</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-9593.1455874388703</c:v>
+                  <c:v>58406.85441256113</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-9706.5932891467164</c:v>
+                  <c:v>60293.406710853284</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-3848.2171143818996</c:v>
+                  <c:v>68151.7828856181</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-6232.0678533566097</c:v>
+                  <c:v>67767.93214664339</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-5523.2207730146765</c:v>
+                  <c:v>70476.779226985323</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-7424.6271505169134</c:v>
+                  <c:v>70575.372849483087</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-10651.964453976281</c:v>
+                  <c:v>69348.035546023719</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-7471.3775501323253</c:v>
+                  <c:v>74528.622449867675</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-7026.3129610321776</c:v>
+                  <c:v>76973.687038967822</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-12270.874468344962</c:v>
+                  <c:v>73729.125531655038</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-15580.801056022392</c:v>
+                  <c:v>72419.198943977608</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>72156.678993846508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2963,139 +3111,142 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7161979980468751</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.6159379882812499</c:v>
+                  <c:v>45044</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.4505849609374999</c:v>
+                  <c:v>45077</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.608843017578125</c:v>
+                  <c:v>45107</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.6303940429687498</c:v>
+                  <c:v>45138</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.3830390625</c:v>
+                  <c:v>45169</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.2311640625</c:v>
+                  <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3104,8 +3255,143 @@
             <c:numRef>
               <c:f>模型一!金额</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-216.50036295631025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143.61170087130631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173.75808106826935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1353.8111490644224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2968.5523218483468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2822.477397497114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2240.1530388573956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3221.5310451392252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3603.7403429258702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6072.9854375312971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7610.6964415991351</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5960.8773364799818</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4030.5411962341277</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6542.468793623324</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8028.5147860853249</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9079.8875568256917</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7952.3809721668222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6041.6881384148583</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5572.9952076933841</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7094.4040239820024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7969.9115930716871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7008.069006718506</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1351.0524791653734</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1254.6033465099899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4298.0547827477567</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-8797.4645856044881</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7055.1869115788359</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-682.13902521366981</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3989.7292011261379</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6452.3200863590246</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-11770.911062729705</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-12524.925264431353</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-9593.1455874388703</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9706.5932891467164</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3848.2171143818996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6232.0678533566097</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-5523.2207730146765</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7424.6271505169134</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-10651.964453976281</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7471.3775501323253</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7026.3129610321776</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-12270.874468344962</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-15580.801056022392</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-17843.321006153492</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3126,17 +3412,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="241696768"/>
-        <c:axId val="241699072"/>
+        <c:axId val="482599296"/>
+        <c:axId val="482600832"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="241696768"/>
+      <c:dateAx>
+        <c:axId val="482599296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -3173,15 +3459,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241699072"/>
+        <c:crossAx val="482600832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="241699072"/>
+        <c:axId val="482600832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3232,7 +3517,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241696768"/>
+        <c:crossAx val="482599296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3638,14 +3923,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y46"/>
+  <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -3666,44 +3951,44 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
         <v>2000</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3712,7 +3997,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="14.1" customHeight="1">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -3742,25 +4027,25 @@
       </c>
       <c r="J3" s="6"/>
       <c r="L3" s="26" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="T3" s="23">
         <v>44196</v>
@@ -3783,7 +4068,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="14.1" customHeight="1">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -3854,7 +4139,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="14.1" customHeight="1">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -3921,7 +4206,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="14.1" customHeight="1">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -3981,7 +4266,7 @@
         <v>60293.406710853284</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="14.1" customHeight="1">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -4014,7 +4299,7 @@
         <v>-7.3828223896210132E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="14.1" customHeight="1">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -4044,7 +4329,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="14.1" customHeight="1">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -4074,7 +4359,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="14.1" customHeight="1">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -4104,7 +4389,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="14.1" customHeight="1">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -4134,7 +4419,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="14.1" customHeight="1">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -4164,7 +4449,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="14.1" customHeight="1">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -4194,7 +4479,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="14.1" customHeight="1">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -4224,7 +4509,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="14.1" customHeight="1">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -4254,7 +4539,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="14.1" customHeight="1">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -4284,7 +4569,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -4314,7 +4599,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -4344,7 +4629,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -4374,7 +4659,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -4404,7 +4689,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -4435,7 +4720,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -4465,7 +4750,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -4495,7 +4780,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -4525,7 +4810,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -4555,7 +4840,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -4585,7 +4870,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -4615,7 +4900,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -4645,7 +4930,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -4675,7 +4960,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -4705,7 +4990,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -4735,7 +5020,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -4765,7 +5050,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -4796,7 +5081,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="12.75">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -4825,7 +5110,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="12.75">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -4854,7 +5139,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="12.75">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -4883,7 +5168,7 @@
         <v>-9593.1455874388703</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="12.75">
       <c r="A37" s="14">
         <v>44925</v>
       </c>
@@ -4912,7 +5197,7 @@
         <v>-9706.5932891467164</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="12.75">
       <c r="A38" s="14">
         <v>44957</v>
       </c>
@@ -4941,7 +5226,7 @@
         <v>-3848.2171143818996</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="12.75">
       <c r="A39" s="14">
         <v>44985</v>
       </c>
@@ -4970,7 +5255,7 @@
         <v>-6232.0678533566097</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="12.75">
       <c r="A40" s="14">
         <v>45016</v>
       </c>
@@ -4999,7 +5284,7 @@
         <v>-5523.2207730146765</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="12.75">
       <c r="A41" s="14">
         <v>45044</v>
       </c>
@@ -5028,7 +5313,7 @@
         <v>-7424.6271505169134</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="12.75">
       <c r="A42" s="14">
         <v>45077</v>
       </c>
@@ -5057,7 +5342,7 @@
         <v>-10651.964453976281</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="12.75">
       <c r="A43" s="14">
         <v>45107</v>
       </c>
@@ -5086,7 +5371,7 @@
         <v>-7471.3775501323253</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="12.75">
       <c r="A44" s="14">
         <v>45138</v>
       </c>
@@ -5115,7 +5400,7 @@
         <v>-7026.3129610321776</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="12.75">
       <c r="A45" s="14">
         <v>45169</v>
       </c>
@@ -5144,7 +5429,7 @@
         <v>-12270.874468344962</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="12.75">
       <c r="A46" s="14">
         <v>45197</v>
       </c>
@@ -5171,6 +5456,35 @@
       </c>
       <c r="I46" s="17">
         <v>-15580.801056022392</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="12.75">
+      <c r="A47" s="14">
+        <v>45230</v>
+      </c>
+      <c r="B47" s="15">
+        <v>3.1302160644531249</v>
+      </c>
+      <c r="C47" s="16">
+        <v>2000</v>
+      </c>
+      <c r="D47" s="17">
+        <v>638.933530088255</v>
+      </c>
+      <c r="E47" s="17">
+        <v>23051.660814491694</v>
+      </c>
+      <c r="F47" s="17">
+        <v>72156.678993846508</v>
+      </c>
+      <c r="G47" s="17">
+        <v>90000</v>
+      </c>
+      <c r="H47" s="17">
+        <v>72156.678993846508</v>
+      </c>
+      <c r="I47" s="17">
+        <v>-17843.321006153492</v>
       </c>
     </row>
   </sheetData>
@@ -5186,13 +5500,13 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D609"/>
+  <dimension ref="A1:D647"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -5200,7 +5514,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="B1" s="30" t="s">
         <v>181</v>
       </c>
@@ -5208,7 +5522,7 @@
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
@@ -5217,7 +5531,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -5232,7 +5546,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -5248,7 +5562,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5264,7 +5578,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5280,7 +5594,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5296,7 +5610,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5312,7 +5626,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5328,7 +5642,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5344,7 +5658,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5360,7 +5674,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5376,7 +5690,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5392,7 +5706,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5408,7 +5722,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5424,7 +5738,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5440,7 +5754,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5456,7 +5770,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5472,7 +5786,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5488,7 +5802,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5504,7 +5818,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5520,7 +5834,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5536,7 +5850,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5552,7 +5866,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5568,7 +5882,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5584,7 +5898,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5600,7 +5914,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5616,7 +5930,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5632,7 +5946,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5648,7 +5962,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5664,7 +5978,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5680,7 +5994,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5696,7 +6010,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5712,7 +6026,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5728,7 +6042,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5744,7 +6058,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5760,7 +6074,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -5776,7 +6090,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -5792,7 +6106,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -5808,7 +6122,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -5824,7 +6138,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -5840,7 +6154,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -5856,7 +6170,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -5872,7 +6186,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -5888,7 +6202,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -5904,7 +6218,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -5920,7 +6234,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -5936,7 +6250,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -5952,7 +6266,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -5968,7 +6282,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -5984,7 +6298,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -6000,7 +6314,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -6016,7 +6330,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -6032,7 +6346,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -6048,7 +6362,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -6064,7 +6378,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -6080,7 +6394,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -6096,7 +6410,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -6112,7 +6426,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -6128,7 +6442,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -6144,7 +6458,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -6160,7 +6474,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -6176,7 +6490,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -6192,7 +6506,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -6208,7 +6522,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -6224,7 +6538,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -6240,7 +6554,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -6256,7 +6570,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -6272,7 +6586,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -6288,7 +6602,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -6304,7 +6618,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -6320,7 +6634,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -6336,7 +6650,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -6352,7 +6666,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -6368,7 +6682,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -6384,7 +6698,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -6400,7 +6714,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -6416,7 +6730,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -6432,7 +6746,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -6448,7 +6762,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -6464,7 +6778,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -6480,7 +6794,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -6496,7 +6810,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -6512,7 +6826,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -6528,7 +6842,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -6544,7 +6858,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -6560,7 +6874,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -6576,7 +6890,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -6592,7 +6906,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -6608,7 +6922,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -6624,7 +6938,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -6640,7 +6954,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -6656,7 +6970,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -6672,7 +6986,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -6688,7 +7002,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -6704,7 +7018,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -6720,7 +7034,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -6736,7 +7050,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -6752,7 +7066,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -6768,7 +7082,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -6784,7 +7098,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -6800,7 +7114,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -6816,7 +7130,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -6832,7 +7146,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -6848,7 +7162,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -6864,7 +7178,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -6880,7 +7194,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -6896,7 +7210,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -6912,7 +7226,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -6928,7 +7242,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -6944,7 +7258,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -6960,7 +7274,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -6976,7 +7290,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -6992,7 +7306,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -7008,7 +7322,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -7024,7 +7338,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -7040,7 +7354,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -7056,7 +7370,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -7072,7 +7386,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -7088,7 +7402,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -7104,7 +7418,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -7120,7 +7434,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -7136,7 +7450,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -7152,7 +7466,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -7168,7 +7482,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -7184,7 +7498,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -7200,7 +7514,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -7216,7 +7530,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -7232,7 +7546,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -7248,7 +7562,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -7264,7 +7578,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -7280,7 +7594,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -7296,7 +7610,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -7312,7 +7626,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -7328,7 +7642,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -7344,7 +7658,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -7360,7 +7674,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -7376,7 +7690,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -7392,7 +7706,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -7408,7 +7722,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -7424,7 +7738,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -7440,7 +7754,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -7456,7 +7770,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -7472,7 +7786,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -7488,7 +7802,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -7504,7 +7818,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -7520,7 +7834,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -7536,7 +7850,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -7552,7 +7866,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -7568,7 +7882,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -7584,7 +7898,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -7600,7 +7914,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -7616,7 +7930,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -7632,7 +7946,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -7648,7 +7962,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -7664,7 +7978,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -7680,7 +7994,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -7696,7 +8010,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -7712,7 +8026,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -7728,7 +8042,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -7744,7 +8058,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -7760,7 +8074,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -7776,7 +8090,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -7792,7 +8106,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -7808,7 +8122,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -7824,7 +8138,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -7840,7 +8154,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -7856,7 +8170,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -7872,7 +8186,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -7888,7 +8202,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -7904,7 +8218,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -7920,7 +8234,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -7936,7 +8250,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -7952,7 +8266,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -7968,7 +8282,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -7984,7 +8298,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -8000,7 +8314,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -8016,7 +8330,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -8032,7 +8346,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -8048,7 +8362,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -8064,7 +8378,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -8080,7 +8394,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -8096,7 +8410,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -8112,7 +8426,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -8128,7 +8442,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -8144,7 +8458,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -8160,7 +8474,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -8176,7 +8490,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -8192,7 +8506,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -8208,7 +8522,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -8224,7 +8538,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -8240,7 +8554,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -8256,7 +8570,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -8272,7 +8586,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -8288,7 +8602,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -8304,7 +8618,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -8320,7 +8634,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -8336,7 +8650,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -8352,7 +8666,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -8368,7 +8682,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -8384,7 +8698,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -8400,7 +8714,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -8416,7 +8730,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -8432,7 +8746,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -8448,7 +8762,7 @@
         <v>37.709801928118821</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -8464,7 +8778,7 @@
         <v>37.677783194876852</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -8480,7 +8794,7 @@
         <v>37.643186222549026</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -8496,7 +8810,7 @@
         <v>37.61082921770732</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -8512,7 +8826,7 @@
         <v>37.576601888834951</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -8528,7 +8842,7 @@
         <v>37.53951685371981</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -8544,7 +8858,7 @@
         <v>37.502548024519236</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -8560,7 +8874,7 @@
         <v>37.469330088851677</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -8576,7 +8890,7 @@
         <v>37.436714235285713</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -8592,7 +8906,7 @@
         <v>37.405118435402848</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -8608,7 +8922,7 @@
         <v>37.373584854622642</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -8624,7 +8938,7 @@
         <v>37.341971777323948</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -8640,7 +8954,7 @@
         <v>37.308551350934586</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -8656,7 +8970,7 @@
         <v>37.279162738930239</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -8672,7 +8986,7 @@
         <v>37.24703698620371</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -8688,7 +9002,7 @@
         <v>37.217787966082959</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -8704,7 +9018,7 @@
         <v>37.189128385091756</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -8720,7 +9034,7 @@
         <v>37.160593554703212</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -8736,7 +9050,7 @@
         <v>37.130136307090922</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -8752,7 +9066,7 @@
         <v>37.098280487375575</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -8768,7 +9082,7 @@
         <v>37.064549496936955</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -8784,7 +9098,7 @@
         <v>37.025425957264588</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -8800,7 +9114,7 @@
         <v>36.983839230133938</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -8816,7 +9130,7 @@
         <v>36.941866615422235</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -8832,7 +9146,7 @@
         <v>36.903230033407091</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -8848,7 +9162,7 @@
         <v>36.865991137929527</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -8864,7 +9178,7 @@
         <v>36.824824508114048</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -8880,7 +9194,7 @@
         <v>36.779912614716174</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -8896,7 +9210,7 @@
         <v>36.740347778608708</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -8912,7 +9226,7 @@
         <v>36.704372248441572</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -8928,7 +9242,7 @@
         <v>36.668318920431048</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -8944,7 +9258,7 @@
         <v>36.63334759656653</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -8960,7 +9274,7 @@
         <v>36.597521324786335</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -8976,7 +9290,7 @@
         <v>36.562765916212776</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -8992,7 +9306,7 @@
         <v>36.527669453389834</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -9008,7 +9322,7 @@
         <v>36.490042158691992</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -9024,7 +9338,7 @@
         <v>36.450924335798327</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -9040,7 +9354,7 @@
         <v>36.41142256129708</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -9056,7 +9370,7 @@
         <v>36.376291632041678</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -9072,7 +9386,7 @@
         <v>36.340041456763494</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -9088,7 +9402,7 @@
         <v>36.304917319132237</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -9104,7 +9418,7 @@
         <v>36.269300373868319</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -9120,7 +9434,7 @@
         <v>36.232131113155745</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -9136,7 +9450,7 @@
         <v>36.195142823224494</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -9152,7 +9466,7 @@
         <v>36.154146310162609</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -9168,7 +9482,7 @@
         <v>36.115546530931177</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -9184,7 +9498,7 @@
         <v>36.075483844556452</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -9200,7 +9514,7 @@
         <v>36.036385516465863</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -9216,7 +9530,7 @@
         <v>35.997079970720002</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -9232,7 +9546,7 @@
         <v>35.958844590836655</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -9248,7 +9562,7 @@
         <v>35.919801560079364</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -9264,7 +9578,7 @@
         <v>35.878497993873516</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -9280,7 +9594,7 @@
         <v>35.83523618834645</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -9296,7 +9610,7 @@
         <v>35.79231369109803</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -9312,7 +9626,7 @@
         <v>35.74410153121093</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -9328,7 +9642,7 @@
         <v>35.695175066420227</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -9344,7 +9658,7 @@
         <v>35.650930204496113</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -9360,7 +9674,7 @@
         <v>35.606409241698827</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -9376,7 +9690,7 @@
         <v>35.566115356769217</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -9392,7 +9706,7 @@
         <v>35.518850545210718</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -9408,7 +9722,7 @@
         <v>35.469999967977095</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -9424,7 +9738,7 @@
         <v>35.420532283992387</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -9440,7 +9754,7 @@
         <v>35.37265148249999</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -9456,7 +9770,7 @@
         <v>35.327660347698107</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -9472,7 +9786,7 @@
         <v>35.282706740526301</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -9488,7 +9802,7 @@
         <v>35.238764015805231</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -9504,7 +9818,7 @@
         <v>35.194179078880587</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -9520,7 +9834,7 @@
         <v>35.151561311078062</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -9536,7 +9850,7 @@
         <v>35.109185154666655</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -9552,7 +9866,7 @@
         <v>35.067416947158662</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -9568,7 +9882,7 @@
         <v>35.027352914264696</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -9584,7 +9898,7 @@
         <v>34.987142827545782</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -9600,7 +9914,7 @@
         <v>34.944160551094882</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -9616,7 +9930,7 @@
         <v>34.901854510799993</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -9632,7 +9946,7 @@
         <v>34.85992750141304</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -9648,7 +9962,7 @@
         <v>34.818447621768946</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -9664,7 +9978,7 @@
         <v>34.778237376330928</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -9680,7 +9994,7 @@
         <v>34.740071647956981</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -9696,7 +10010,7 @@
         <v>34.70282139017857</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -9712,7 +10026,7 @@
         <v>34.666548005266904</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -9728,7 +10042,7 @@
         <v>34.633439678723406</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -9744,7 +10058,7 @@
         <v>34.600353321060069</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -9760,7 +10074,7 @@
         <v>34.568168975140843</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -9776,7 +10090,7 @@
         <v>34.533719259438591</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -9792,7 +10106,7 @@
         <v>34.501713245104895</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -9808,7 +10122,7 @@
         <v>34.441254312613239</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -9824,7 +10138,7 @@
         <v>34.410590237256947</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -9840,7 +10154,7 @@
         <v>34.381418643148791</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -9856,7 +10170,7 @@
         <v>34.352517199551727</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -9872,7 +10186,7 @@
         <v>34.325532604364263</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -9888,7 +10202,7 @@
         <v>34.300479411301374</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -9904,7 +10218,7 @@
         <v>34.275528968839595</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -9920,7 +10234,7 @@
         <v>34.249421728741503</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -9936,7 +10250,7 @@
         <v>34.225660976338986</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -9952,7 +10266,7 @@
         <v>34.203749958750002</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -9968,7 +10282,7 @@
         <v>34.182424204141412</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -9984,7 +10298,7 @@
         <v>34.162248284261743</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -10000,7 +10314,7 @@
         <v>34.139999963010034</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -10016,7 +10330,7 @@
         <v>34.118899961366665</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -10032,7 +10346,7 @@
         <v>34.097375374750825</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -10048,7 +10362,7 @@
         <v>34.077450290463574</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -10064,7 +10378,7 @@
         <v>34.057161676666666</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -10080,7 +10394,7 @@
         <v>34.036282852335525</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -10096,7 +10410,7 @@
         <v>34.016754055836067</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -10112,7 +10426,7 @@
         <v>33.996633946535951</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -10128,7 +10442,7 @@
         <v>33.974755662312702</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -10144,7 +10458,7 @@
         <v>33.951363599967529</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -10160,7 +10474,7 @@
         <v>33.928932004045308</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -10176,7 +10490,7 @@
         <v>33.908064478483865</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -10192,7 +10506,7 @@
         <v>33.886044976848872</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -10208,7 +10522,7 @@
         <v>33.865032011923077</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -10224,7 +10538,7 @@
         <v>33.843258744281151</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -10240,7 +10554,7 @@
         <v>33.821847094904456</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -10256,7 +10570,7 @@
         <v>33.799841229174596</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -10272,7 +10586,7 @@
         <v>33.777689830474678</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -10288,7 +10602,7 @@
         <v>33.754952637602521</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -10304,7 +10618,7 @@
         <v>33.732798695597481</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -10320,7 +10634,7 @@
         <v>33.71050152363636</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -10336,7 +10650,7 @@
         <v>33.688624953499996</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -10352,7 +10666,7 @@
         <v>33.665700887975071</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -10368,7 +10682,7 @@
         <v>33.644596229440985</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -10384,7 +10698,7 @@
         <v>33.621981380433432</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -10400,7 +10714,7 @@
         <v>33.598333289753079</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -10416,7 +10730,7 @@
         <v>33.575199956553838</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -10432,7 +10746,7 @@
         <v>33.553374186993857</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -10448,7 +10762,7 @@
         <v>33.531651332477054</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -10464,7 +10778,7 @@
         <v>33.510396296310965</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -10480,7 +10794,7 @@
         <v>33.488176249088134</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -10496,7 +10810,7 @@
         <v>33.467939351363626</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -10512,7 +10826,7 @@
         <v>33.447250715377635</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -10528,7 +10842,7 @@
         <v>33.426957788765044</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -10544,7 +10858,7 @@
         <v>33.406816772312297</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -10560,7 +10874,7 @@
         <v>33.388113727634718</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -10576,7 +10890,7 @@
         <v>33.369134285731334</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -10592,7 +10906,7 @@
         <v>33.348869003541658</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -10608,7 +10922,7 @@
         <v>33.32994060682492</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -10624,7 +10938,7 @@
         <v>33.310798772514786</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -10640,7 +10954,7 @@
         <v>33.289085504041289</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -10656,7 +10970,7 @@
         <v>33.267352898499993</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -10672,7 +10986,7 @@
         <v>33.245395853900284</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -10688,7 +11002,7 @@
         <v>33.223099377251451</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -10704,7 +11018,7 @@
         <v>33.200524742157427</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -10720,7 +11034,7 @@
         <v>33.177209264156971</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -10736,7 +11050,7 @@
         <v>33.152579672985496</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -10752,7 +11066,7 @@
         <v>33.127959789537563</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -10768,7 +11082,7 @@
         <v>33.103008894783848</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -10784,7 +11098,7 @@
         <v>33.078402550028727</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -10800,7 +11114,7 @@
         <v>33.054624894269331</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -10816,7 +11130,7 @@
         <v>33.030011681799991</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -10832,7 +11146,7 @@
         <v>33.006479169886028</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -10848,7 +11162,7 @@
         <v>32.983534626789762</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -10864,9 +11178,9 @@
         <v>32.959558608016984</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A609" si="3">A355+1</f>
+        <f t="shared" ref="A356:A610" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -10880,7 +11194,7 @@
         <v>32.934079628898296</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -10896,7 +11210,7 @@
         <v>32.907504756704213</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -10912,7 +11226,7 @@
         <v>32.881079181544933</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -10928,7 +11242,7 @@
         <v>32.854801648823518</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -10944,7 +11258,7 @@
         <v>32.828196057625689</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -10960,7 +11274,7 @@
         <v>32.800958742701937</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -10976,7 +11290,7 @@
         <v>32.773483857305543</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -10992,7 +11306,7 @@
         <v>32.746410494819933</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -11008,7 +11322,7 @@
         <v>32.72075742715468</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -11024,7 +11338,7 @@
         <v>32.693785643608805</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -11040,7 +11354,7 @@
         <v>32.667236783846143</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -11056,7 +11370,7 @@
         <v>32.639682710465742</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -11072,7 +11386,7 @@
         <v>32.610721831256818</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -11088,7 +11402,7 @@
         <v>32.582463732997262</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -11104,7 +11418,7 @@
         <v>32.556207038288029</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -11120,7 +11434,7 @@
         <v>32.529902955203234</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -11136,7 +11450,7 @@
         <v>32.505903216459444</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -11152,7 +11466,7 @@
         <v>32.482221534770872</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -11168,7 +11482,7 @@
         <v>32.459016639193536</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -11184,7 +11498,7 @@
         <v>32.435239115093815</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -11200,7 +11514,7 @@
         <v>32.411080720721912</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -11216,7 +11530,7 @@
         <v>32.386891172533318</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -11232,7 +11546,7 @@
         <v>32.361473908563816</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -11248,7 +11562,7 @@
         <v>32.335952757002637</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -11264,7 +11578,7 @@
         <v>32.311730660581993</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -11280,7 +11594,7 @@
         <v>32.28705590707122</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -11296,7 +11610,7 @@
         <v>32.260353126763142</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -11312,7 +11626,7 @@
         <v>32.234052986719142</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -11328,7 +11642,7 @@
         <v>32.207969079581133</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -11344,7 +11658,7 @@
         <v>32.182882999425566</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -11360,7 +11674,7 @@
         <v>32.15761507374998</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -11376,7 +11690,7 @@
         <v>32.134348543064917</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -11392,7 +11706,7 @@
         <v>32.111176657020707</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -11408,7 +11722,7 @@
         <v>32.08771108604649</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -11424,7 +11738,7 @@
         <v>32.063670594149464</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -11440,7 +11754,7 @@
         <v>32.038622596966562</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -11456,7 +11770,7 @@
         <v>32.015113310410236</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -11472,7 +11786,7 @@
         <v>31.991775423145757</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -11488,7 +11802,7 @@
         <v>31.969985181658139</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -11504,7 +11818,7 @@
         <v>31.947491578549599</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -11520,7 +11834,7 @@
         <v>31.924807590355311</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -11536,7 +11850,7 @@
         <v>31.902289091873399</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -11552,7 +11866,7 @@
         <v>31.879808563863616</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -11568,7 +11882,7 @@
         <v>31.856559674836252</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -11584,7 +11898,7 @@
         <v>31.83315123575375</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -11600,7 +11914,7 @@
         <v>31.809784942506248</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -11616,7 +11930,7 @@
         <v>31.786160481674983</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -11632,7 +11946,7 @@
         <v>31.762254846458838</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -11648,7 +11962,7 @@
         <v>31.739711925845754</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -11664,7 +11978,7 @@
         <v>31.717553830421821</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4">
       <c r="A406" s="18">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -11680,7 +11994,7 @@
         <v>31.696396519158398</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4">
       <c r="A407" s="18">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -11696,7 +12010,7 @@
         <v>31.674998010938253</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4">
       <c r="A408" s="18">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -11712,7 +12026,7 @@
         <v>31.654172890985205</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4">
       <c r="A409" s="18">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -11728,7 +12042,7 @@
         <v>31.634039785798507</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4">
       <c r="A410" s="18">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -11744,7 +12058,7 @@
         <v>31.614471059901945</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4">
       <c r="A411" s="18">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -11760,7 +12074,7 @@
         <v>31.594949123716365</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4">
       <c r="A412" s="18">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -11776,7 +12090,7 @@
         <v>31.576034614024373</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4">
       <c r="A413" s="18">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -11792,7 +12106,7 @@
         <v>31.556628204695848</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4">
       <c r="A414" s="18">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -11808,7 +12122,7 @@
         <v>31.536660660315519</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4">
       <c r="A415" s="18">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -11824,7 +12138,7 @@
         <v>31.516644533922502</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4">
       <c r="A416" s="18">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -11840,7 +12154,7 @@
         <v>31.497280658236697</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4">
       <c r="A417" s="18">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -11856,7 +12170,7 @@
         <v>31.477648657566249</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4">
       <c r="A418" s="18">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -11872,7 +12186,7 @@
         <v>31.4574620019471</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4">
       <c r="A419" s="18">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -11888,7 +12202,7 @@
         <v>31.436484872637873</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4">
       <c r="A420" s="18">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -11904,7 +12218,7 @@
         <v>31.415368881578932</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4">
       <c r="A421" s="18">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -11920,7 +12234,7 @@
         <v>31.3942104814797</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4">
       <c r="A422" s="18">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -11936,7 +12250,7 @@
         <v>31.372914744047605</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4">
       <c r="A423" s="18">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -11952,7 +12266,7 @@
         <v>31.352527775344406</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4">
       <c r="A424" s="18">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -11968,7 +12282,7 @@
         <v>31.332735055497619</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4">
       <c r="A425" s="18">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -11984,7 +12298,7 @@
         <v>31.312397619290767</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4">
       <c r="A426" s="18">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -12000,7 +12314,7 @@
         <v>31.29222687073112</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4">
       <c r="A427" s="18">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -12016,7 +12330,7 @@
         <v>31.272103983435283</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4">
       <c r="A428" s="18">
         <f t="shared" si="3"/>
         <v>426</v>
@@ -12032,7 +12346,7 @@
         <v>31.252545055150357</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4">
       <c r="A429" s="18">
         <f t="shared" si="3"/>
         <v>427</v>
@@ -12048,7 +12362,7 @@
         <v>31.232820125100137</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4">
       <c r="A430" s="18">
         <f t="shared" si="3"/>
         <v>428</v>
@@ -12064,7 +12378,7 @@
         <v>31.214542507628902</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4">
       <c r="A431" s="18">
         <f t="shared" si="3"/>
         <v>429</v>
@@ -12080,7 +12394,7 @@
         <v>31.196559891061003</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4">
       <c r="A432" s="18">
         <f t="shared" si="3"/>
         <v>430</v>
@@ -12096,7 +12410,7 @@
         <v>31.178846960904366</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4">
       <c r="A433" s="18">
         <f t="shared" si="3"/>
         <v>431</v>
@@ -12112,7 +12426,7 @@
         <v>31.161773069335734</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4">
       <c r="A434" s="18">
         <f t="shared" si="3"/>
         <v>432</v>
@@ -12128,7 +12442,7 @@
         <v>31.144384704866276</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4">
       <c r="A435" s="18">
         <f t="shared" si="3"/>
         <v>433</v>
@@ -12144,7 +12458,7 @@
         <v>31.127376889581701</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4">
       <c r="A436" s="18">
         <f t="shared" si="3"/>
         <v>434</v>
@@ -12160,7 +12474,7 @@
         <v>31.111184777811857</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4">
       <c r="A437" s="18">
         <f t="shared" si="3"/>
         <v>435</v>
@@ -12176,7 +12490,7 @@
         <v>31.095871711111002</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4">
       <c r="A438" s="18">
         <f t="shared" si="3"/>
         <v>436</v>
@@ -12192,7 +12506,7 @@
         <v>31.080789437594152</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4">
       <c r="A439" s="18">
         <f t="shared" si="3"/>
         <v>437</v>
@@ -12208,7 +12522,7 @@
         <v>31.065799074319667</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4">
       <c r="A440" s="18">
         <f t="shared" si="3"/>
         <v>438</v>
@@ -12224,7 +12538,7 @@
         <v>31.051356610157107</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4">
       <c r="A441" s="18">
         <f t="shared" si="3"/>
         <v>439</v>
@@ -12240,7 +12554,7 @@
         <v>31.037184954834895</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4">
       <c r="A442" s="18">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -12256,7 +12570,7 @@
         <v>31.023850443747303</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4">
       <c r="A443" s="18">
         <f t="shared" si="3"/>
         <v>441</v>
@@ -12272,7 +12586,7 @@
         <v>31.009964160696924</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4">
       <c r="A444" s="18">
         <f t="shared" si="3"/>
         <v>442</v>
@@ -12288,7 +12602,7 @@
         <v>30.996909942618423</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4">
       <c r="A445" s="18">
         <f t="shared" si="3"/>
         <v>443</v>
@@ -12304,7 +12618,7 @@
         <v>30.983666351687006</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4">
       <c r="A446" s="18">
         <f t="shared" si="3"/>
         <v>444</v>
@@ -12320,7 +12634,7 @@
         <v>30.970031968710234</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4">
       <c r="A447" s="18">
         <f t="shared" si="3"/>
         <v>445</v>
@@ -12336,7 +12650,7 @@
         <v>30.955717290982793</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4">
       <c r="A448" s="18">
         <f t="shared" si="3"/>
         <v>446</v>
@@ -12352,7 +12666,7 @@
         <v>30.94148922667566</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4">
       <c r="A449" s="18">
         <f t="shared" si="3"/>
         <v>447</v>
@@ -12368,7 +12682,7 @@
         <v>30.927078736235668</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4">
       <c r="A450" s="18">
         <f t="shared" si="3"/>
         <v>448</v>
@@ -12384,7 +12698,7 @@
         <v>30.913558473074428</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4">
       <c r="A451" s="18">
         <f t="shared" si="3"/>
         <v>449</v>
@@ -12400,7 +12714,7 @@
         <v>30.899586181129941</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4">
       <c r="A452" s="18">
         <f t="shared" si="3"/>
         <v>450</v>
@@ -12416,7 +12730,7 @@
         <v>30.886209321082987</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4">
       <c r="A453" s="18">
         <f t="shared" si="3"/>
         <v>451</v>
@@ -12432,7 +12746,7 @@
         <v>30.872736571967504</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4">
       <c r="A454" s="18">
         <f t="shared" si="3"/>
         <v>452</v>
@@ -12448,7 +12762,7 @@
         <v>30.859168570193237</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4">
       <c r="A455" s="18">
         <f t="shared" si="3"/>
         <v>453</v>
@@ -12464,7 +12778,7 @@
         <v>30.845108594916873</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4">
       <c r="A456" s="18">
         <f t="shared" si="3"/>
         <v>454</v>
@@ -12480,7 +12794,7 @@
         <v>30.829921132725424</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4">
       <c r="A457" s="18">
         <f t="shared" si="3"/>
         <v>455</v>
@@ -12496,7 +12810,7 @@
         <v>30.815811415620537</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4">
       <c r="A458" s="18">
         <f t="shared" si="3"/>
         <v>456</v>
@@ -12512,7 +12826,7 @@
         <v>30.801741652910842</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4">
       <c r="A459" s="18">
         <f t="shared" si="3"/>
         <v>457</v>
@@ -12528,7 +12842,7 @@
         <v>30.787295830388061</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4">
       <c r="A460" s="18">
         <f t="shared" si="3"/>
         <v>458</v>
@@ -12544,7 +12858,7 @@
         <v>30.772978589579356</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4">
       <c r="A461" s="18">
         <f t="shared" si="3"/>
         <v>459</v>
@@ -12560,7 +12874,7 @@
         <v>30.758266218926675</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4">
       <c r="A462" s="18">
         <f t="shared" si="3"/>
         <v>460</v>
@@ -12576,7 +12890,7 @@
         <v>30.743096076472487</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4">
       <c r="A463" s="18">
         <f t="shared" si="3"/>
         <v>461</v>
@@ -12592,7 +12906,7 @@
         <v>30.728425585070163</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4">
       <c r="A464" s="18">
         <f t="shared" si="3"/>
         <v>462</v>
@@ -12608,7 +12922,7 @@
         <v>30.714489600946631</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4">
       <c r="A465" s="18">
         <f t="shared" si="3"/>
         <v>463</v>
@@ -12624,7 +12938,7 @@
         <v>30.70024664465949</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4">
       <c r="A466" s="18">
         <f t="shared" si="3"/>
         <v>464</v>
@@ -12640,7 +12954,7 @@
         <v>30.686065080425308</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4">
       <c r="A467" s="18">
         <f t="shared" si="3"/>
         <v>465</v>
@@ -12656,7 +12970,7 @@
         <v>30.672095049134068</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4">
       <c r="A468" s="18">
         <f t="shared" si="3"/>
         <v>466</v>
@@ -12672,7 +12986,7 @@
         <v>30.657219308191721</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4">
       <c r="A469" s="18">
         <f t="shared" si="3"/>
         <v>467</v>
@@ -12688,7 +13002,7 @@
         <v>30.642235968880819</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4">
       <c r="A470" s="18">
         <f t="shared" si="3"/>
         <v>468</v>
@@ -12704,7 +13018,7 @@
         <v>30.62733802894731</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4">
       <c r="A471" s="18">
         <f t="shared" si="3"/>
         <v>469</v>
@@ -12720,7 +13034,7 @@
         <v>30.612055856348277</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4">
       <c r="A472" s="18">
         <f t="shared" si="3"/>
         <v>470</v>
@@ -12736,7 +13050,7 @@
         <v>30.596923822611366</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4">
       <c r="A473" s="18">
         <f t="shared" si="3"/>
         <v>471</v>
@@ -12752,7 +13066,7 @@
         <v>30.581431413731085</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4">
       <c r="A474" s="18">
         <f t="shared" si="3"/>
         <v>472</v>
@@ -12768,7 +13082,7 @@
         <v>30.565962280841823</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4">
       <c r="A475" s="18">
         <f t="shared" si="3"/>
         <v>473</v>
@@ -12784,7 +13098,7 @@
         <v>30.549797455892897</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4">
       <c r="A476" s="18">
         <f t="shared" si="3"/>
         <v>474</v>
@@ -12800,7 +13114,7 @@
         <v>30.533743031998608</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4">
       <c r="A477" s="18">
         <f t="shared" si="3"/>
         <v>475</v>
@@ -12816,7 +13130,7 @@
         <v>30.517798307889137</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4">
       <c r="A478" s="18">
         <f t="shared" si="3"/>
         <v>476</v>
@@ -12832,7 +13146,7 @@
         <v>30.502739908880965</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4">
       <c r="A479" s="18">
         <f t="shared" si="3"/>
         <v>477</v>
@@ -12848,7 +13162,7 @@
         <v>30.488226827143272</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4">
       <c r="A480" s="18">
         <f t="shared" si="3"/>
         <v>478</v>
@@ -12864,7 +13178,7 @@
         <v>30.474402083069752</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:4">
       <c r="A481" s="18">
         <f t="shared" si="3"/>
         <v>479</v>
@@ -12880,7 +13194,7 @@
         <v>30.460676816967307</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:4">
       <c r="A482" s="18">
         <f t="shared" si="3"/>
         <v>480</v>
@@ -12896,7 +13210,7 @@
         <v>30.447092074702791</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4">
       <c r="A483" s="18">
         <f t="shared" si="3"/>
         <v>481</v>
@@ -12912,7 +13226,7 @@
         <v>30.433023276855177</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:4">
       <c r="A484" s="18">
         <f t="shared" si="3"/>
         <v>482</v>
@@ -12928,7 +13242,7 @@
         <v>30.41932405827249</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4">
       <c r="A485" s="18">
         <f t="shared" si="3"/>
         <v>483</v>
@@ -12944,7 +13258,7 @@
         <v>30.405992123452055</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:4">
       <c r="A486" s="18">
         <f t="shared" si="3"/>
         <v>484</v>
@@ -12960,7 +13274,7 @@
         <v>30.393087180738309</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:4">
       <c r="A487" s="18">
         <f t="shared" si="3"/>
         <v>485</v>
@@ -12976,7 +13290,7 @@
         <v>30.380668446015136</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:4">
       <c r="A488" s="18">
         <f t="shared" si="3"/>
         <v>486</v>
@@ -12992,7 +13306,7 @@
         <v>30.368053901887535</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:4">
       <c r="A489" s="18">
         <f t="shared" si="3"/>
         <v>487</v>
@@ -13008,7 +13322,7 @@
         <v>30.355655433752244</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:4">
       <c r="A490" s="18">
         <f t="shared" si="3"/>
         <v>488</v>
@@ -13024,7 +13338,7 @@
         <v>30.343902043191274</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:4">
       <c r="A491" s="18">
         <f t="shared" si="3"/>
         <v>489</v>
@@ -13040,7 +13354,7 @@
         <v>30.331971773634645</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:4">
       <c r="A492" s="18">
         <f t="shared" si="3"/>
         <v>490</v>
@@ -13056,7 +13370,7 @@
         <v>30.320069790423148</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:4">
       <c r="A493" s="18">
         <f t="shared" si="3"/>
         <v>491</v>
@@ -13072,7 +13386,7 @@
         <v>30.308195920727783</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:4">
       <c r="A494" s="18">
         <f t="shared" si="3"/>
         <v>492</v>
@@ -13088,7 +13402,7 @@
         <v>30.295577637108419</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:4">
       <c r="A495" s="18">
         <f t="shared" si="3"/>
         <v>493</v>
@@ -13104,7 +13418,7 @@
         <v>30.283436504923614</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:4">
       <c r="A496" s="18">
         <f t="shared" si="3"/>
         <v>494</v>
@@ -13120,7 +13434,7 @@
         <v>30.271627930541179</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4">
       <c r="A497" s="18">
         <f t="shared" si="3"/>
         <v>495</v>
@@ -13136,7 +13450,7 @@
         <v>30.260008481105739</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:4">
       <c r="A498" s="18">
         <f t="shared" si="3"/>
         <v>496</v>
@@ -13152,7 +13466,7 @@
         <v>30.248032656930125</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:4">
       <c r="A499" s="18">
         <f t="shared" si="3"/>
         <v>497</v>
@@ -13168,7 +13482,7 @@
         <v>30.235742851564066</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:4">
       <c r="A500" s="18">
         <f t="shared" si="3"/>
         <v>498</v>
@@ -13184,7 +13498,7 @@
         <v>30.222598790677392</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4">
       <c r="A501" s="18">
         <f t="shared" si="3"/>
         <v>499</v>
@@ -13200,7 +13514,7 @@
         <v>30.209046486647978</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4">
       <c r="A502" s="18">
         <f t="shared" si="3"/>
         <v>500</v>
@@ -13216,7 +13530,7 @@
         <v>30.19472839215468</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4">
       <c r="A503" s="18">
         <f t="shared" si="3"/>
         <v>501</v>
@@ -13232,7 +13546,7 @@
         <v>30.180846698298083</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4">
       <c r="A504" s="18">
         <f t="shared" si="3"/>
         <v>502</v>
@@ -13248,7 +13562,7 @@
         <v>30.167478476409045</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4">
       <c r="A505" s="18">
         <f t="shared" si="3"/>
         <v>503</v>
@@ -13264,7 +13578,7 @@
         <v>30.154382097569265</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4">
       <c r="A506" s="18">
         <f t="shared" si="3"/>
         <v>504</v>
@@ -13280,7 +13594,7 @@
         <v>30.138460702851869</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4">
       <c r="A507" s="18">
         <f t="shared" si="3"/>
         <v>505</v>
@@ -13296,7 +13610,7 @@
         <v>30.122127116093743</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4">
       <c r="A508" s="18">
         <f t="shared" si="3"/>
         <v>506</v>
@@ -13312,7 +13626,7 @@
         <v>30.105917378868263</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4">
       <c r="A509" s="18">
         <f t="shared" si="3"/>
         <v>507</v>
@@ -13328,7 +13642,7 @@
         <v>30.089317937351755</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4">
       <c r="A510" s="18">
         <f t="shared" si="3"/>
         <v>508</v>
@@ -13344,7 +13658,7 @@
         <v>30.073039751825473</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:4">
       <c r="A511" s="18">
         <f t="shared" si="3"/>
         <v>509</v>
@@ -13360,7 +13674,7 @@
         <v>30.056904115004599</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:4">
       <c r="A512" s="18">
         <f t="shared" si="3"/>
         <v>510</v>
@@ -13376,7 +13690,7 @@
         <v>30.040400380249686</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:4">
       <c r="A513" s="18">
         <f t="shared" si="3"/>
         <v>511</v>
@@ -13392,7 +13706,7 @@
         <v>30.024704881384224</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:4">
       <c r="A514" s="18">
         <f t="shared" si="3"/>
         <v>512</v>
@@ -13408,7 +13722,7 @@
         <v>30.00889491151824</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:4">
       <c r="A515" s="18">
         <f t="shared" si="3"/>
         <v>513</v>
@@ -13424,7 +13738,7 @@
         <v>29.993185566193642</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:4">
       <c r="A516" s="18">
         <f t="shared" si="3"/>
         <v>514</v>
@@ -13440,7 +13754,7 @@
         <v>29.977498435345016</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:4">
       <c r="A517" s="18">
         <f t="shared" si="3"/>
         <v>515</v>
@@ -13456,7 +13770,7 @@
         <v>29.961988729198715</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:4">
       <c r="A518" s="18">
         <f t="shared" si="3"/>
         <v>516</v>
@@ -13472,7 +13786,7 @@
         <v>29.946597279064608</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:4">
       <c r="A519" s="18">
         <f t="shared" si="3"/>
         <v>517</v>
@@ -13488,7 +13802,7 @@
         <v>29.930897864598332</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:4">
       <c r="A520" s="18">
         <f t="shared" si="3"/>
         <v>518</v>
@@ -13504,7 +13818,7 @@
         <v>29.914930880014165</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:4">
       <c r="A521" s="18">
         <f t="shared" si="3"/>
         <v>519</v>
@@ -13520,7 +13834,7 @@
         <v>29.899006156969822</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:4">
       <c r="A522" s="18">
         <f t="shared" si="3"/>
         <v>520</v>
@@ -13536,7 +13850,7 @@
         <v>29.883027299264111</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:4">
       <c r="A523" s="18">
         <f t="shared" si="3"/>
         <v>521</v>
@@ -13552,7 +13866,7 @@
         <v>29.86661073999489</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:4">
       <c r="A524" s="18">
         <f t="shared" si="3"/>
         <v>522</v>
@@ -13568,7 +13882,7 @@
         <v>29.850621065128998</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:4">
       <c r="A525" s="18">
         <f t="shared" si="3"/>
         <v>523</v>
@@ -13584,7 +13898,7 @@
         <v>29.834329246495866</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:4">
       <c r="A526" s="18">
         <f t="shared" si="3"/>
         <v>524</v>
@@ -13600,7 +13914,7 @@
         <v>29.818271366407131</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:4">
       <c r="A527" s="18">
         <f t="shared" si="3"/>
         <v>525</v>
@@ -13616,7 +13930,7 @@
         <v>29.802865134356836</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:4">
       <c r="A528" s="18">
         <f t="shared" si="3"/>
         <v>526</v>
@@ -13632,7 +13946,7 @@
         <v>29.787327366344751</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:4">
       <c r="A529" s="18">
         <f t="shared" si="3"/>
         <v>527</v>
@@ -13648,7 +13962,7 @@
         <v>29.771222379387741</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:4">
       <c r="A530" s="18">
         <f t="shared" si="3"/>
         <v>528</v>
@@ -13664,7 +13978,7 @@
         <v>29.754742790960869</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:4">
       <c r="A531" s="18">
         <f t="shared" si="3"/>
         <v>529</v>
@@ -13680,7 +13994,7 @@
         <v>29.738344411242608</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:4">
       <c r="A532" s="18">
         <f t="shared" si="3"/>
         <v>530</v>
@@ -13696,7 +14010,7 @@
         <v>29.722290930353473</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:4">
       <c r="A533" s="18">
         <f t="shared" si="3"/>
         <v>531</v>
@@ -13712,7 +14026,7 @@
         <v>29.706655731011939</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:4">
       <c r="A534" s="18">
         <f t="shared" si="3"/>
         <v>532</v>
@@ -13728,7 +14042,7 @@
         <v>29.691511640577708</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:4">
       <c r="A535" s="18">
         <f t="shared" si="3"/>
         <v>533</v>
@@ -13744,7 +14058,7 @@
         <v>29.676461900313956</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:4">
       <c r="A536" s="18">
         <f t="shared" si="3"/>
         <v>534</v>
@@ -13760,7 +14074,7 @@
         <v>29.662592122335841</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:4">
       <c r="A537" s="18">
         <f t="shared" si="3"/>
         <v>535</v>
@@ -13776,7 +14090,7 @@
         <v>29.649353632238018</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:4">
       <c r="A538" s="18">
         <f t="shared" si="3"/>
         <v>536</v>
@@ -13792,7 +14106,7 @@
         <v>29.636127225218917</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:4">
       <c r="A539" s="18">
         <f t="shared" si="3"/>
         <v>537</v>
@@ -13808,7 +14122,7 @@
         <v>29.623322519455009</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:4">
       <c r="A540" s="18">
         <f t="shared" si="3"/>
         <v>538</v>
@@ -13824,7 +14138,7 @@
         <v>29.609747569957882</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:4">
       <c r="A541" s="18">
         <f t="shared" si="3"/>
         <v>539</v>
@@ -13840,7 +14154,7 @@
         <v>29.595647853186161</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:4">
       <c r="A542" s="18">
         <f t="shared" si="3"/>
         <v>540</v>
@@ -13856,7 +14170,7 @@
         <v>29.581933691476557</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:4">
       <c r="A543" s="18">
         <f t="shared" si="3"/>
         <v>541</v>
@@ -13872,7 +14186,7 @@
         <v>29.568011446649429</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:4">
       <c r="A544" s="18">
         <f t="shared" si="3"/>
         <v>542</v>
@@ -13888,7 +14202,7 @@
         <v>29.554029875290293</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4">
       <c r="A545" s="18">
         <f t="shared" si="3"/>
         <v>543</v>
@@ -13904,7 +14218,7 @@
         <v>29.540486543586262</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:4">
       <c r="A546" s="18">
         <f t="shared" si="3"/>
         <v>544</v>
@@ -13920,7 +14234,7 @@
         <v>29.527250355362757</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4">
       <c r="A547" s="18">
         <f t="shared" si="3"/>
         <v>545</v>
@@ -13936,7 +14250,7 @@
         <v>29.514301270875851</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:4">
       <c r="A548" s="18">
         <f t="shared" si="3"/>
         <v>546</v>
@@ -13952,7 +14266,7 @@
         <v>29.500996689793663</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4">
       <c r="A549" s="18">
         <f t="shared" si="3"/>
         <v>547</v>
@@ -13968,7 +14282,7 @@
         <v>29.487503095918353</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4">
       <c r="A550" s="18">
         <f t="shared" si="3"/>
         <v>548</v>
@@ -13984,7 +14298,7 @@
         <v>29.473620789465947</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4">
       <c r="A551" s="18">
         <f t="shared" si="3"/>
         <v>549</v>
@@ -14000,7 +14314,7 @@
         <v>29.460080498264738</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4">
       <c r="A552" s="18">
         <f t="shared" si="3"/>
         <v>550</v>
@@ -14016,7 +14330,7 @@
         <v>29.447025807704254</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4">
       <c r="A553" s="18">
         <f t="shared" si="3"/>
         <v>551</v>
@@ -14032,7 +14346,7 @@
         <v>29.433582931320036</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4">
       <c r="A554" s="18">
         <f t="shared" si="3"/>
         <v>552</v>
@@ -14048,7 +14362,7 @@
         <v>29.420786586951703</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4">
       <c r="A555" s="18">
         <f t="shared" si="3"/>
         <v>553</v>
@@ -14064,7 +14378,7 @@
         <v>29.40794610431707</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4">
       <c r="A556" s="18">
         <f t="shared" si="3"/>
         <v>554</v>
@@ -14080,7 +14394,7 @@
         <v>29.394917321691949</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4">
       <c r="A557" s="18">
         <f t="shared" si="3"/>
         <v>555</v>
@@ -14096,7 +14410,7 @@
         <v>29.381755308769979</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4">
       <c r="A558" s="18">
         <f t="shared" si="3"/>
         <v>556</v>
@@ -14112,7 +14426,7 @@
         <v>29.368424812369312</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4">
       <c r="A559" s="18">
         <f t="shared" si="3"/>
         <v>557</v>
@@ -14128,7 +14442,7 @@
         <v>29.354693348271702</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4">
       <c r="A560" s="18">
         <f t="shared" si="3"/>
         <v>558</v>
@@ -14144,7 +14458,7 @@
         <v>29.340885653418169</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:4">
       <c r="A561" s="18">
         <f t="shared" si="3"/>
         <v>559</v>
@@ -14160,7 +14474,7 @@
         <v>29.326876913841392</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:4">
       <c r="A562" s="18">
         <f t="shared" si="3"/>
         <v>560</v>
@@ -14176,7 +14490,7 @@
         <v>29.313918204513104</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:4">
       <c r="A563" s="18">
         <f t="shared" si="3"/>
         <v>561</v>
@@ -14192,7 +14506,7 @@
         <v>29.300827439995256</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:4">
       <c r="A564" s="18">
         <f t="shared" si="3"/>
         <v>562</v>
@@ -14208,7 +14522,7 @@
         <v>29.287694295226583</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:4">
       <c r="A565" s="18">
         <f t="shared" si="3"/>
         <v>563</v>
@@ -14224,7 +14538,7 @@
         <v>29.275193950119608</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:4">
       <c r="A566" s="18">
         <f t="shared" si="3"/>
         <v>564</v>
@@ -14240,7 +14554,7 @@
         <v>29.263021620154856</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:4">
       <c r="A567" s="18">
         <f t="shared" si="3"/>
         <v>565</v>
@@ -14256,7 +14570,7 @@
         <v>29.250715386260772</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:4">
       <c r="A568" s="18">
         <f t="shared" si="3"/>
         <v>566</v>
@@ -14272,7 +14586,7 @@
         <v>29.23832896291049</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:4">
       <c r="A569" s="18">
         <f t="shared" si="3"/>
         <v>567</v>
@@ -14288,7 +14602,7 @@
         <v>29.226180235251036</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:4">
       <c r="A570" s="18">
         <f t="shared" si="3"/>
         <v>568</v>
@@ -14304,7 +14618,7 @@
         <v>29.214355974678409</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:4">
       <c r="A571" s="18">
         <f t="shared" si="3"/>
         <v>569</v>
@@ -14320,7 +14634,7 @@
         <v>29.202186633633278</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:4">
       <c r="A572" s="18">
         <f t="shared" si="3"/>
         <v>570</v>
@@ -14336,7 +14650,7 @@
         <v>29.189937182188306</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:4">
       <c r="A573" s="18">
         <f t="shared" si="3"/>
         <v>571</v>
@@ -14352,7 +14666,7 @@
         <v>29.177520480258032</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:4">
       <c r="A574" s="18">
         <f t="shared" si="3"/>
         <v>572</v>
@@ -14368,7 +14682,7 @@
         <v>29.165129710449889</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:4">
       <c r="A575" s="18">
         <f t="shared" si="3"/>
         <v>573</v>
@@ -14384,7 +14698,7 @@
         <v>29.151961946278075</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:4">
       <c r="A576" s="18">
         <f t="shared" si="3"/>
         <v>574</v>
@@ -14400,7 +14714,7 @@
         <v>29.138474207434385</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:4">
       <c r="A577" s="18">
         <f t="shared" si="3"/>
         <v>575</v>
@@ -14416,7 +14730,7 @@
         <v>29.124720338447538</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:4">
       <c r="A578" s="18">
         <f t="shared" si="3"/>
         <v>576</v>
@@ -14432,7 +14746,7 @@
         <v>29.110632282703705</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:4">
       <c r="A579" s="18">
         <f t="shared" si="3"/>
         <v>577</v>
@@ -14448,7 +14762,7 @@
         <v>29.096835692300406</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:4">
       <c r="A580" s="18">
         <f t="shared" si="3"/>
         <v>578</v>
@@ -14464,7 +14778,7 @@
         <v>29.082533208265282</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:4">
       <c r="A581" s="18">
         <f t="shared" si="3"/>
         <v>579</v>
@@ -14480,7 +14794,7 @@
         <v>29.067796534744961</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:4">
       <c r="A582" s="18">
         <f t="shared" si="3"/>
         <v>580</v>
@@ -14496,7 +14810,7 @@
         <v>29.053248608236778</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:4">
       <c r="A583" s="18">
         <f t="shared" si="3"/>
         <v>581</v>
@@ -14512,7 +14826,7 @@
         <v>29.037941811751001</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:4">
       <c r="A584" s="18">
         <f t="shared" si="3"/>
         <v>582</v>
@@ -14528,7 +14842,7 @@
         <v>29.023099986679263</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:4">
       <c r="A585" s="18">
         <f t="shared" si="3"/>
         <v>583</v>
@@ -14544,7 +14858,7 @@
         <v>29.007880260492847</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:4">
       <c r="A586" s="18">
         <f t="shared" si="3"/>
         <v>584</v>
@@ -14560,7 +14874,7 @@
         <v>28.993140738848169</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:4">
       <c r="A587" s="18">
         <f t="shared" si="3"/>
         <v>585</v>
@@ -14576,7 +14890,7 @@
         <v>28.979272120764666</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:4">
       <c r="A588" s="18">
         <f t="shared" si="3"/>
         <v>586</v>
@@ -14592,7 +14906,7 @@
         <v>28.965638550200225</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:4">
       <c r="A589" s="18">
         <f t="shared" si="3"/>
         <v>587</v>
@@ -14608,7 +14922,7 @@
         <v>28.951898109092557</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:4">
       <c r="A590" s="18">
         <f t="shared" si="3"/>
         <v>588</v>
@@ -14624,7 +14938,7 @@
         <v>28.93699692273356</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:4">
       <c r="A591" s="18">
         <f t="shared" si="3"/>
         <v>589</v>
@@ -14640,7 +14954,7 @@
         <v>28.922468912949629</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:4">
       <c r="A592" s="18">
         <f t="shared" si="3"/>
         <v>590</v>
@@ -14656,7 +14970,7 @@
         <v>28.907769813097172</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:4">
       <c r="A593" s="18">
         <f t="shared" si="3"/>
         <v>591</v>
@@ -14672,7 +14986,7 @@
         <v>28.892951251010714</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:4">
       <c r="A594" s="18">
         <f t="shared" si="3"/>
         <v>592</v>
@@ -14688,7 +15002,7 @@
         <v>28.877473292039408</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:4">
       <c r="A595" s="18">
         <f t="shared" si="3"/>
         <v>593</v>
@@ -14704,7 +15018,7 @@
         <v>28.861845176218093</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:4">
       <c r="A596" s="18">
         <f t="shared" si="3"/>
         <v>594</v>
@@ -14720,7 +15034,7 @@
         <v>28.846539040332207</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:4">
       <c r="A597" s="18">
         <f t="shared" si="3"/>
         <v>595</v>
@@ -14736,7 +15050,7 @@
         <v>28.831284353642573</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:4">
       <c r="A598" s="18">
         <f t="shared" si="3"/>
         <v>596</v>
@@ -14752,7 +15066,7 @@
         <v>28.815661394089481</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:4">
       <c r="A599" s="18">
         <f t="shared" si="3"/>
         <v>597</v>
@@ -14768,7 +15082,7 @@
         <v>28.799822766310438</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:4">
       <c r="A600" s="18">
         <f t="shared" si="3"/>
         <v>598</v>
@@ -14784,7 +15098,7 @@
         <v>28.783802994644365</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:4">
       <c r="A601" s="18">
         <f t="shared" si="3"/>
         <v>599</v>
@@ -14800,7 +15114,7 @@
         <v>28.768087131281021</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:4">
       <c r="A602" s="18">
         <f t="shared" si="3"/>
         <v>600</v>
@@ -14816,7 +15130,7 @@
         <v>28.752173651578886</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:4">
       <c r="A603" s="18">
         <f t="shared" si="3"/>
         <v>601</v>
@@ -14832,7 +15146,7 @@
         <v>28.736146741742651</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:4">
       <c r="A604" s="18">
         <f t="shared" si="3"/>
         <v>602</v>
@@ -14848,7 +15162,7 @@
         <v>28.719907293799558</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:4">
       <c r="A605" s="18">
         <f t="shared" si="3"/>
         <v>603</v>
@@ -14864,7 +15178,7 @@
         <v>28.704401644622447</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:4">
       <c r="A606" s="18">
         <f t="shared" si="3"/>
         <v>604</v>
@@ -14880,7 +15194,7 @@
         <v>28.688814888455852</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:4">
       <c r="A607" s="18">
         <f t="shared" si="3"/>
         <v>605</v>
@@ -14896,7 +15210,7 @@
         <v>28.673081310260059</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:4">
       <c r="A608" s="18">
         <f t="shared" si="3"/>
         <v>606</v>
@@ -14912,7 +15226,7 @@
         <v>28.657531671134215</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:4">
       <c r="A609" s="18">
         <f t="shared" si="3"/>
         <v>607</v>
@@ -14926,6 +15240,614 @@
       <c r="D609" s="18">
         <f>SUM(C$3:C609)/A609</f>
         <v>28.642033266404177</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4">
+      <c r="A610" s="18">
+        <f t="shared" si="3"/>
+        <v>608</v>
+      </c>
+      <c r="B610" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="C610" s="20">
+        <v>19.350000380000001</v>
+      </c>
+      <c r="D610" s="18">
+        <f>SUM(C$3:C610)/A610</f>
+        <v>28.626750317577855</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4">
+      <c r="A611" s="18">
+        <f t="shared" ref="A611:A647" si="4">A610+1</f>
+        <v>609</v>
+      </c>
+      <c r="B611" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="C611" s="20">
+        <v>19.18000031</v>
+      </c>
+      <c r="D611" s="18">
+        <f>SUM(C$3:C611)/A611</f>
+        <v>28.611238412803505</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4">
+      <c r="A612" s="18">
+        <f t="shared" si="4"/>
+        <v>610</v>
+      </c>
+      <c r="B612" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="C612" s="20">
+        <v>19.309999470000001</v>
+      </c>
+      <c r="D612" s="18">
+        <f>SUM(C$3:C612)/A612</f>
+        <v>28.595990480110384</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4">
+      <c r="A613" s="18">
+        <f t="shared" si="4"/>
+        <v>611</v>
+      </c>
+      <c r="B613" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="C613" s="20">
+        <v>19.459999079999999</v>
+      </c>
+      <c r="D613" s="18">
+        <f>SUM(C$3:C613)/A613</f>
+        <v>28.581037957360614</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4">
+      <c r="A614" s="18">
+        <f t="shared" si="4"/>
+        <v>612</v>
+      </c>
+      <c r="B614" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="C614" s="20">
+        <v>19.219999309999999</v>
+      </c>
+      <c r="D614" s="18">
+        <f>SUM(C$3:C614)/A614</f>
+        <v>28.565742142577346</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4">
+      <c r="A615" s="18">
+        <f t="shared" si="4"/>
+        <v>613</v>
+      </c>
+      <c r="B615" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="C615" s="20">
+        <v>18.93000031</v>
+      </c>
+      <c r="D615" s="18">
+        <f>SUM(C$3:C615)/A615</f>
+        <v>28.550023151007071</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4">
+      <c r="A616" s="18">
+        <f t="shared" si="4"/>
+        <v>614</v>
+      </c>
+      <c r="B616" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="C616" s="20">
+        <v>18.950000760000002</v>
+      </c>
+      <c r="D616" s="18">
+        <f>SUM(C$3:C616)/A616</f>
+        <v>28.53438793538654</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4">
+      <c r="A617" s="18">
+        <f t="shared" si="4"/>
+        <v>615</v>
+      </c>
+      <c r="B617" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="C617" s="20">
+        <v>18.760000229999999</v>
+      </c>
+      <c r="D617" s="18">
+        <f>SUM(C$3:C617)/A617</f>
+        <v>28.518494622044447</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4">
+      <c r="A618" s="18">
+        <f t="shared" si="4"/>
+        <v>616</v>
+      </c>
+      <c r="B618" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="C618" s="20">
+        <v>18.409999849999998</v>
+      </c>
+      <c r="D618" s="18">
+        <f>SUM(C$3:C618)/A618</f>
+        <v>28.502084727933983</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4">
+      <c r="A619" s="18">
+        <f t="shared" si="4"/>
+        <v>617</v>
+      </c>
+      <c r="B619" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="C619" s="20">
+        <v>18.200000760000002</v>
+      </c>
+      <c r="D619" s="18">
+        <f>SUM(C$3:C619)/A619</f>
+        <v>28.485387671259858</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4">
+      <c r="A620" s="18">
+        <f t="shared" si="4"/>
+        <v>618</v>
+      </c>
+      <c r="B620" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="C620" s="20">
+        <v>18.040000920000001</v>
+      </c>
+      <c r="D620" s="18">
+        <f>SUM(C$3:C620)/A620</f>
+        <v>28.468485750950375</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4">
+      <c r="A621" s="18">
+        <f t="shared" si="4"/>
+        <v>619</v>
+      </c>
+      <c r="B621" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="C621" s="20">
+        <v>18.059999470000001</v>
+      </c>
+      <c r="D621" s="18">
+        <f>SUM(C$3:C621)/A621</f>
+        <v>28.451670748880986</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4">
+      <c r="A622" s="18">
+        <f t="shared" si="4"/>
+        <v>620</v>
+      </c>
+      <c r="B622" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="C622" s="20">
+        <v>18.100000380000001</v>
+      </c>
+      <c r="D622" s="18">
+        <f>SUM(C$3:C622)/A622</f>
+        <v>28.434974506350532</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4">
+      <c r="A623" s="18">
+        <f t="shared" si="4"/>
+        <v>621</v>
+      </c>
+      <c r="B623" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="C623" s="20">
+        <v>18.159999849999998</v>
+      </c>
+      <c r="D623" s="18">
+        <f>SUM(C$3:C623)/A623</f>
+        <v>28.418428653441755</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4">
+      <c r="A624" s="18">
+        <f t="shared" si="4"/>
+        <v>622</v>
+      </c>
+      <c r="B624" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="C624" s="20">
+        <v>18.620000839999999</v>
+      </c>
+      <c r="D624" s="18">
+        <f>SUM(C$3:C624)/A624</f>
+        <v>28.402675554063229</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4">
+      <c r="A625" s="18">
+        <f t="shared" si="4"/>
+        <v>623</v>
+      </c>
+      <c r="B625" s="19">
+        <v>45229</v>
+      </c>
+      <c r="C625" s="20">
+        <v>18.969999309999999</v>
+      </c>
+      <c r="D625" s="18">
+        <f>SUM(C$3:C625)/A625</f>
+        <v>28.387534821729261</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4">
+      <c r="A626" s="18">
+        <f t="shared" si="4"/>
+        <v>624</v>
+      </c>
+      <c r="B626" s="19">
+        <v>45230</v>
+      </c>
+      <c r="C626" s="20">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D626" s="18">
+        <f>SUM(C$3:C626)/A626</f>
+        <v>28.372122106405978</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4">
+      <c r="A627" s="18">
+        <f t="shared" si="4"/>
+        <v>625</v>
+      </c>
+      <c r="B627" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="C627" s="20">
+        <v>18.760000229999999</v>
+      </c>
+      <c r="D627" s="18">
+        <f>SUM(C$3:C627)/A627</f>
+        <v>28.356742711403726</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4">
+      <c r="A628" s="18">
+        <f t="shared" si="4"/>
+        <v>626</v>
+      </c>
+      <c r="B628" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="C628" s="20">
+        <v>18.409999849999998</v>
+      </c>
+      <c r="D628" s="18">
+        <f>SUM(C$3:C628)/A628</f>
+        <v>28.34085334581043</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4">
+      <c r="A629" s="18">
+        <f t="shared" si="4"/>
+        <v>627</v>
+      </c>
+      <c r="B629" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="C629" s="20">
+        <v>18.200000760000002</v>
+      </c>
+      <c r="D629" s="18">
+        <f>SUM(C$3:C629)/A629</f>
+        <v>28.32467973722062</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4">
+      <c r="A630" s="18">
+        <f t="shared" si="4"/>
+        <v>628</v>
+      </c>
+      <c r="B630" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="C630" s="20">
+        <v>18.040000920000001</v>
+      </c>
+      <c r="D630" s="18">
+        <f>SUM(C$3:C630)/A630</f>
+        <v>28.308302860123131</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4">
+      <c r="A631" s="18">
+        <f t="shared" si="4"/>
+        <v>629</v>
+      </c>
+      <c r="B631" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="C631" s="20">
+        <v>18.059999470000001</v>
+      </c>
+      <c r="D631" s="18">
+        <f>SUM(C$3:C631)/A631</f>
+        <v>28.29200984996395</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4">
+      <c r="A632" s="18">
+        <f t="shared" si="4"/>
+        <v>630</v>
+      </c>
+      <c r="B632" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="C632" s="20">
+        <v>18.100000380000001</v>
+      </c>
+      <c r="D632" s="18">
+        <f>SUM(C$3:C632)/A632</f>
+        <v>28.275832057154485</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4">
+      <c r="A633" s="18">
+        <f t="shared" si="4"/>
+        <v>631</v>
+      </c>
+      <c r="B633" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="C633" s="20">
+        <v>18.159999849999998</v>
+      </c>
+      <c r="D633" s="18">
+        <f>SUM(C$3:C633)/A633</f>
+        <v>28.259800627349165</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4">
+      <c r="A634" s="18">
+        <f t="shared" si="4"/>
+        <v>632</v>
+      </c>
+      <c r="B634" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="C634" s="20">
+        <v>18.620000839999999</v>
+      </c>
+      <c r="D634" s="18">
+        <f>SUM(C$3:C634)/A634</f>
+        <v>28.244547779584376</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4">
+      <c r="A635" s="18">
+        <f t="shared" si="4"/>
+        <v>633</v>
+      </c>
+      <c r="B635" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="C635" s="20">
+        <v>18.969999309999999</v>
+      </c>
+      <c r="D635" s="18">
+        <f>SUM(C$3:C635)/A635</f>
+        <v>28.229896044245379</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4">
+      <c r="A636" s="18">
+        <f t="shared" si="4"/>
+        <v>634</v>
+      </c>
+      <c r="B636" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="C636" s="20">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D636" s="18">
+        <f>SUM(C$3:C636)/A636</f>
+        <v>28.214975073292312</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4">
+      <c r="A637" s="18">
+        <f t="shared" si="4"/>
+        <v>635</v>
+      </c>
+      <c r="B637" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="C637" s="20">
+        <v>18.219999309999999</v>
+      </c>
+      <c r="D637" s="18">
+        <f>SUM(C$3:C637)/A637</f>
+        <v>28.199234953980042</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4">
+      <c r="A638" s="18">
+        <f t="shared" si="4"/>
+        <v>636</v>
+      </c>
+      <c r="B638" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="C638" s="20">
+        <v>18.06999969</v>
+      </c>
+      <c r="D638" s="18">
+        <f>SUM(C$3:C638)/A638</f>
+        <v>28.183308483439195</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4">
+      <c r="A639" s="18">
+        <f t="shared" si="4"/>
+        <v>637</v>
+      </c>
+      <c r="B639" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="C639" s="20">
+        <v>18.280000690000001</v>
+      </c>
+      <c r="D639" s="18">
+        <f>SUM(C$3:C639)/A639</f>
+        <v>28.167761689414956</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4">
+      <c r="A640" s="18">
+        <f t="shared" si="4"/>
+        <v>638</v>
+      </c>
+      <c r="B640" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="C640" s="20">
+        <v>18.790000920000001</v>
+      </c>
+      <c r="D640" s="18">
+        <f>SUM(C$3:C640)/A640</f>
+        <v>28.153063004823395</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4">
+      <c r="A641" s="18">
+        <f t="shared" si="4"/>
+        <v>639</v>
+      </c>
+      <c r="B641" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="C641" s="20">
+        <v>18.709999079999999</v>
+      </c>
+      <c r="D641" s="18">
+        <f>SUM(C$3:C641)/A641</f>
+        <v>28.138285127006771</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4">
+      <c r="A642" s="18">
+        <f t="shared" si="4"/>
+        <v>640</v>
+      </c>
+      <c r="B642" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="C642" s="20">
+        <v>18.709999079999999</v>
+      </c>
+      <c r="D642" s="18">
+        <f>SUM(C$3:C642)/A642</f>
+        <v>28.123553430058326</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4">
+      <c r="A643" s="18">
+        <f t="shared" si="4"/>
+        <v>641</v>
+      </c>
+      <c r="B643" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="C643" s="20">
+        <v>18.700000760000002</v>
+      </c>
+      <c r="D643" s="18">
+        <f>SUM(C$3:C643)/A643</f>
+        <v>28.108852099839826</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4">
+      <c r="A644" s="18">
+        <f t="shared" si="4"/>
+        <v>642</v>
+      </c>
+      <c r="B644" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="C644" s="20">
+        <v>18.56999969</v>
+      </c>
+      <c r="D644" s="18">
+        <f>SUM(C$3:C644)/A644</f>
+        <v>28.093994074279326</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4">
+      <c r="A645" s="18">
+        <f t="shared" si="4"/>
+        <v>643</v>
+      </c>
+      <c r="B645" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="C645" s="20">
+        <v>18.549999239999998</v>
+      </c>
+      <c r="D645" s="18">
+        <f>SUM(C$3:C645)/A645</f>
+        <v>28.079151158518396</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4">
+      <c r="A646" s="18">
+        <f t="shared" si="4"/>
+        <v>644</v>
+      </c>
+      <c r="B646" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="C646" s="20">
+        <v>18.530000690000001</v>
+      </c>
+      <c r="D646" s="18">
+        <f>SUM(C$3:C646)/A646</f>
+        <v>28.064323285120075</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4">
+      <c r="A647" s="18">
+        <f t="shared" si="4"/>
+        <v>645</v>
+      </c>
+      <c r="B647" s="19">
+        <v>45259</v>
+      </c>
+      <c r="C647" s="20">
+        <v>16.25</v>
+      </c>
+      <c r="D647" s="18">
+        <f>SUM(C$3:C647)/A647</f>
+        <v>28.046006504833066</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="472">
   <si>
     <t>PE</t>
   </si>
@@ -1843,6 +1843,10 @@
   </si>
   <si>
     <t xml:space="preserve">2023/11/28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/11/29
 </t>
   </si>
   <si>
@@ -3412,11 +3416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482599296"/>
-        <c:axId val="482600832"/>
+        <c:axId val="403591936"/>
+        <c:axId val="403593856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482599296"/>
+        <c:axId val="403591936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3459,14 +3463,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482600832"/>
+        <c:crossAx val="403593856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482600832"/>
+        <c:axId val="403593856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3517,7 +3521,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482599296"/>
+        <c:crossAx val="403591936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3953,31 +3957,31 @@
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K1" s="11"/>
     </row>
@@ -3988,7 +3992,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -4027,25 +4031,25 @@
       </c>
       <c r="J3" s="6"/>
       <c r="L3" s="26" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="T3" s="23">
         <v>44196</v>
@@ -5500,7 +5504,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D647"/>
+  <dimension ref="A1:D648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -15260,7 +15264,7 @@
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="18">
-        <f t="shared" ref="A611:A647" si="4">A610+1</f>
+        <f t="shared" ref="A611:A648" si="4">A610+1</f>
         <v>609</v>
       </c>
       <c r="B611" s="19" t="s">
@@ -15523,11 +15527,11 @@
         <v>436</v>
       </c>
       <c r="C627" s="20">
-        <v>18.760000229999999</v>
+        <v>18.219999309999999</v>
       </c>
       <c r="D627" s="18">
         <f>SUM(C$3:C627)/A627</f>
-        <v>28.356742711403726</v>
+        <v>28.35587870993173</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -15539,11 +15543,11 @@
         <v>437</v>
       </c>
       <c r="C628" s="20">
-        <v>18.409999849999998</v>
+        <v>18.06999969</v>
       </c>
       <c r="D628" s="18">
         <f>SUM(C$3:C628)/A628</f>
-        <v>28.34085334581043</v>
+        <v>28.339447593286472</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -15555,11 +15559,11 @@
         <v>438</v>
       </c>
       <c r="C629" s="20">
-        <v>18.200000760000002</v>
+        <v>18.280000690000001</v>
       </c>
       <c r="D629" s="18">
         <f>SUM(C$3:C629)/A629</f>
-        <v>28.32467973722062</v>
+        <v>28.323403818321101</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -15571,11 +15575,11 @@
         <v>439</v>
       </c>
       <c r="C630" s="20">
-        <v>18.040000920000001</v>
+        <v>18.790000920000001</v>
       </c>
       <c r="D630" s="18">
         <f>SUM(C$3:C630)/A630</f>
-        <v>28.308302860123131</v>
+        <v>28.308223240457529</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -15587,11 +15591,11 @@
         <v>440</v>
       </c>
       <c r="C631" s="20">
-        <v>18.059999470000001</v>
+        <v>18.709999079999999</v>
       </c>
       <c r="D631" s="18">
         <f>SUM(C$3:C631)/A631</f>
-        <v>28.29200984996395</v>
+        <v>28.292963742587173</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -15603,11 +15607,11 @@
         <v>441</v>
       </c>
       <c r="C632" s="20">
-        <v>18.100000380000001</v>
+        <v>18.709999079999999</v>
       </c>
       <c r="D632" s="18">
         <f>SUM(C$3:C632)/A632</f>
-        <v>28.275832057154485</v>
+        <v>28.277752687567194</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -15619,11 +15623,11 @@
         <v>442</v>
       </c>
       <c r="C633" s="20">
-        <v>18.159999849999998</v>
+        <v>18.700000760000002</v>
       </c>
       <c r="D633" s="18">
         <f>SUM(C$3:C633)/A633</f>
-        <v>28.259800627349165</v>
+        <v>28.26257399988484</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -15635,11 +15639,11 @@
         <v>443</v>
       </c>
       <c r="C634" s="20">
-        <v>18.620000839999999</v>
+        <v>18.56999969</v>
       </c>
       <c r="D634" s="18">
         <f>SUM(C$3:C634)/A634</f>
-        <v>28.244547779584376</v>
+        <v>28.247237648128692</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -15651,11 +15655,11 @@
         <v>444</v>
       </c>
       <c r="C635" s="20">
-        <v>18.969999309999999</v>
+        <v>18.549999239999998</v>
       </c>
       <c r="D635" s="18">
         <f>SUM(C$3:C635)/A635</f>
-        <v>28.229896044245379</v>
+        <v>28.231918156172721</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -15667,11 +15671,11 @@
         <v>445</v>
       </c>
       <c r="C636" s="20">
-        <v>18.770000459999999</v>
+        <v>18.530000690000001</v>
       </c>
       <c r="D636" s="18">
         <f>SUM(C$3:C636)/A636</f>
-        <v>28.214975073292312</v>
+        <v>28.21661544723554</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -15683,11 +15687,11 @@
         <v>446</v>
       </c>
       <c r="C637" s="20">
-        <v>18.219999309999999</v>
+        <v>18.690000529999999</v>
       </c>
       <c r="D637" s="18">
         <f>SUM(C$3:C637)/A637</f>
-        <v>28.199234953980042</v>
+        <v>28.201612904058795</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -15699,11 +15703,11 @@
         <v>447</v>
       </c>
       <c r="C638" s="20">
-        <v>18.06999969</v>
+        <v>18.440000529999999</v>
       </c>
       <c r="D638" s="18">
         <f>SUM(C$3:C638)/A638</f>
-        <v>28.183308483439195</v>
+        <v>28.186264456929774</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -15715,11 +15719,11 @@
         <v>448</v>
       </c>
       <c r="C639" s="20">
-        <v>18.280000690000001</v>
+        <v>18.459999079999999</v>
       </c>
       <c r="D639" s="18">
         <f>SUM(C$3:C639)/A639</f>
-        <v>28.167761689414956</v>
+        <v>28.170995594485614</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -15731,11 +15735,11 @@
         <v>449</v>
       </c>
       <c r="C640" s="20">
-        <v>18.790000920000001</v>
+        <v>18.510000229999999</v>
       </c>
       <c r="D640" s="18">
         <f>SUM(C$3:C640)/A640</f>
-        <v>28.153063004823395</v>
+        <v>28.155852968522471</v>
       </c>
     </row>
     <row r="641" spans="1:4">
@@ -15747,11 +15751,11 @@
         <v>450</v>
       </c>
       <c r="C641" s="20">
-        <v>18.709999079999999</v>
+        <v>18.450000760000002</v>
       </c>
       <c r="D641" s="18">
         <f>SUM(C$3:C641)/A641</f>
-        <v>28.138285127006771</v>
+        <v>28.140663841435579</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -15763,11 +15767,11 @@
         <v>451</v>
       </c>
       <c r="C642" s="20">
-        <v>18.709999079999999</v>
+        <v>18.149999619999999</v>
       </c>
       <c r="D642" s="18">
         <f>SUM(C$3:C642)/A642</f>
-        <v>28.123553430058326</v>
+        <v>28.125053428589588</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -15779,11 +15783,11 @@
         <v>452</v>
       </c>
       <c r="C643" s="20">
-        <v>18.700000760000002</v>
+        <v>18.309999470000001</v>
       </c>
       <c r="D643" s="18">
         <f>SUM(C$3:C643)/A643</f>
-        <v>28.108852099839826</v>
+        <v>28.109741331930319</v>
       </c>
     </row>
     <row r="644" spans="1:4">
@@ -15795,11 +15799,11 @@
         <v>453</v>
       </c>
       <c r="C644" s="20">
-        <v>18.56999969</v>
+        <v>18.129999160000001</v>
       </c>
       <c r="D644" s="18">
         <f>SUM(C$3:C644)/A644</f>
-        <v>28.093994074279326</v>
+        <v>28.094196562192106</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -15811,11 +15815,11 @@
         <v>454</v>
       </c>
       <c r="C645" s="20">
-        <v>18.549999239999998</v>
+        <v>18.020000459999999</v>
       </c>
       <c r="D645" s="18">
         <f>SUM(C$3:C645)/A645</f>
-        <v>28.079151158518396</v>
+        <v>28.078529072142043</v>
       </c>
     </row>
     <row r="646" spans="1:4">
@@ -15827,11 +15831,11 @@
         <v>455</v>
       </c>
       <c r="C646" s="20">
-        <v>18.530000690000001</v>
+        <v>18.170000080000001</v>
       </c>
       <c r="D646" s="18">
         <f>SUM(C$3:C646)/A646</f>
-        <v>28.064323285120075</v>
+        <v>28.063143157557974</v>
       </c>
     </row>
     <row r="647" spans="1:4">
@@ -15839,15 +15843,31 @@
         <f t="shared" si="4"/>
         <v>645</v>
       </c>
-      <c r="B647" s="19">
-        <v>45259</v>
+      <c r="B647" s="19" t="s">
+        <v>456</v>
       </c>
       <c r="C647" s="20">
-        <v>16.25</v>
+        <v>17.959999079999999</v>
       </c>
       <c r="D647" s="18">
         <f>SUM(C$3:C647)/A647</f>
-        <v>28.046006504833066</v>
+        <v>28.047479368290446</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4">
+      <c r="A648" s="18">
+        <f t="shared" si="4"/>
+        <v>646</v>
+      </c>
+      <c r="B648" s="19">
+        <v>45260</v>
+      </c>
+      <c r="C648" s="20">
+        <v>17.93000031</v>
+      </c>
+      <c r="D648" s="18">
+        <f>SUM(C$3:C648)/A648</f>
+        <v>28.031817636002071</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="524">
   <si>
     <t>PE</t>
   </si>
@@ -1923,6 +1923,138 @@
   </si>
   <si>
     <t xml:space="preserve">2023/12/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/29
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/27
 </t>
   </si>
   <si>
@@ -2550,7 +2682,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2691,6 +2823,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2700,7 +2835,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2841,6 +2976,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>94000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>96000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2883,7 +3021,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -3024,6 +3162,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3033,7 +3174,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -3174,6 +3315,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>73906.668367991137</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>66096.324654427022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3216,7 +3360,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -3357,6 +3501,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3366,7 +3513,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3507,6 +3654,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-20093.331632008863</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-29903.675345572978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3528,11 +3678,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="615827712"/>
-        <c:axId val="625048960"/>
+        <c:axId val="366732032"/>
+        <c:axId val="366734720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="615827712"/>
+        <c:axId val="366732032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3575,14 +3725,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625048960"/>
+        <c:crossAx val="366734720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="625048960"/>
+        <c:axId val="366734720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3633,7 +3783,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615827712"/>
+        <c:crossAx val="366732032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4039,7 +4189,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y49"/>
+  <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4069,31 +4219,31 @@
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>478</v>
+        <v>511</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
       <c r="K1" s="11"/>
     </row>
@@ -4104,7 +4254,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -4143,25 +4293,25 @@
       </c>
       <c r="J3" s="6"/>
       <c r="L3" s="26" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>488</v>
+        <v>521</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
       <c r="T3" s="23">
         <v>44196</v>
@@ -5659,6 +5809,35 @@
       </c>
       <c r="I49" s="17">
         <v>-20093.331632008863</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="12.75">
+      <c r="A50" s="14">
+        <v>45322</v>
+      </c>
+      <c r="B50" s="15">
+        <v>2.6308430175781252</v>
+      </c>
+      <c r="C50" s="16">
+        <v>2000</v>
+      </c>
+      <c r="D50" s="17">
+        <v>760.21259597660821</v>
+      </c>
+      <c r="E50" s="17">
+        <v>25123.629275027328</v>
+      </c>
+      <c r="F50" s="17">
+        <v>66096.324654427022</v>
+      </c>
+      <c r="G50" s="17">
+        <v>96000</v>
+      </c>
+      <c r="H50" s="17">
+        <v>66096.324654427022</v>
+      </c>
+      <c r="I50" s="17">
+        <v>-29903.675345572978</v>
       </c>
     </row>
   </sheetData>
@@ -5674,9 +5853,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D669"/>
+  <dimension ref="A1:D705"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -15434,7 +15613,7 @@
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="18">
-        <f t="shared" ref="A611:A669" si="4">A610+1</f>
+        <f t="shared" ref="A611:A705" si="4">A610+1</f>
         <v>609</v>
       </c>
       <c r="B611" s="19" t="s">
@@ -16374,6 +16553,582 @@
       <c r="D669" s="18">
         <f>SUM(C$3:C669)/A669</f>
         <v>27.695688446862572</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4">
+      <c r="A670" s="18">
+        <f t="shared" si="4"/>
+        <v>668</v>
+      </c>
+      <c r="B670" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="C670" s="20">
+        <v>17.38999939</v>
+      </c>
+      <c r="D670" s="18">
+        <f>SUM(C$3:C670)/A670</f>
+        <v>27.680260768633737</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4">
+      <c r="A671" s="18">
+        <f t="shared" si="4"/>
+        <v>669</v>
+      </c>
+      <c r="B671" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="C671" s="20">
+        <v>17.209999079999999</v>
+      </c>
+      <c r="D671" s="18">
+        <f>SUM(C$3:C671)/A671</f>
+        <v>27.664610153254618</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4">
+      <c r="A672" s="18">
+        <f t="shared" si="4"/>
+        <v>670</v>
+      </c>
+      <c r="B672" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="C672" s="20">
+        <v>16.98</v>
+      </c>
+      <c r="D672" s="18">
+        <f>SUM(C$3:C672)/A672</f>
+        <v>27.6486629739214</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4">
+      <c r="A673" s="18">
+        <f t="shared" si="4"/>
+        <v>671</v>
+      </c>
+      <c r="B673" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="C673" s="20">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="D673" s="18">
+        <f>SUM(C$3:C673)/A673</f>
+        <v>27.632569586478894</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4">
+      <c r="A674" s="18">
+        <f t="shared" si="4"/>
+        <v>672</v>
+      </c>
+      <c r="B674" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="C674" s="20">
+        <v>16.590000150000002</v>
+      </c>
+      <c r="D674" s="18">
+        <f>SUM(C$3:C674)/A674</f>
+        <v>27.616137191484135</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4">
+      <c r="A675" s="18">
+        <f t="shared" si="4"/>
+        <v>673</v>
+      </c>
+      <c r="B675" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="C675" s="20">
+        <v>16.629999160000001</v>
+      </c>
+      <c r="D675" s="18">
+        <f>SUM(C$3:C675)/A675</f>
+        <v>27.599813063651318</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4">
+      <c r="A676" s="18">
+        <f t="shared" si="4"/>
+        <v>674</v>
+      </c>
+      <c r="B676" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="C676" s="20">
+        <v>16.530000690000001</v>
+      </c>
+      <c r="D676" s="18">
+        <f>SUM(C$3:C676)/A676</f>
+        <v>27.583389009684478</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4">
+      <c r="A677" s="18">
+        <f t="shared" si="4"/>
+        <v>675</v>
+      </c>
+      <c r="B677" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="C677" s="20">
+        <v>16.75</v>
+      </c>
+      <c r="D677" s="18">
+        <f>SUM(C$3:C677)/A677</f>
+        <v>27.567339544484945</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4">
+      <c r="A678" s="18">
+        <f t="shared" si="4"/>
+        <v>676</v>
+      </c>
+      <c r="B678" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="C678" s="20">
+        <v>16.61000061</v>
+      </c>
+      <c r="D678" s="18">
+        <f>SUM(C$3:C678)/A678</f>
+        <v>27.551130463220911</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4">
+      <c r="A679" s="18">
+        <f t="shared" si="4"/>
+        <v>677</v>
+      </c>
+      <c r="B679" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="C679" s="20">
+        <v>16.549999239999998</v>
+      </c>
+      <c r="D679" s="18">
+        <f>SUM(C$3:C679)/A679</f>
+        <v>27.534880638666671</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4">
+      <c r="A680" s="18">
+        <f t="shared" si="4"/>
+        <v>678</v>
+      </c>
+      <c r="B680" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="C680" s="20">
+        <v>16.649999619999999</v>
+      </c>
+      <c r="D680" s="18">
+        <f>SUM(C$3:C680)/A680</f>
+        <v>27.518826241883975</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4">
+      <c r="A681" s="18">
+        <f t="shared" si="4"/>
+        <v>679</v>
+      </c>
+      <c r="B681" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="C681" s="20">
+        <v>16.229999540000001</v>
+      </c>
+      <c r="D681" s="18">
+        <f>SUM(C$3:C681)/A681</f>
+        <v>27.502200576638195</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4">
+      <c r="A682" s="18">
+        <f t="shared" si="4"/>
+        <v>680</v>
+      </c>
+      <c r="B682" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="C682" s="20">
+        <v>16.469999309999999</v>
+      </c>
+      <c r="D682" s="18">
+        <f>SUM(C$3:C682)/A682</f>
+        <v>27.485976751246081</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4">
+      <c r="A683" s="18">
+        <f t="shared" si="4"/>
+        <v>681</v>
+      </c>
+      <c r="B683" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="C683" s="20">
+        <v>16.38999939</v>
+      </c>
+      <c r="D683" s="18">
+        <f>SUM(C$3:C683)/A683</f>
+        <v>27.469683098733238</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4">
+      <c r="A684" s="18">
+        <f t="shared" si="4"/>
+        <v>682</v>
+      </c>
+      <c r="B684" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="C684" s="20">
+        <v>15.989999770000001</v>
+      </c>
+      <c r="D684" s="18">
+        <f>SUM(C$3:C684)/A684</f>
+        <v>27.452850718485831</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4">
+      <c r="A685" s="18">
+        <f t="shared" si="4"/>
+        <v>683</v>
+      </c>
+      <c r="B685" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="C685" s="20">
+        <v>16.18000031</v>
+      </c>
+      <c r="D685" s="18">
+        <f>SUM(C$3:C685)/A685</f>
+        <v>27.436345813056132</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4">
+      <c r="A686" s="18">
+        <f t="shared" si="4"/>
+        <v>684</v>
+      </c>
+      <c r="B686" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="C686" s="20">
+        <v>16.309999470000001</v>
+      </c>
+      <c r="D686" s="18">
+        <f>SUM(C$3:C686)/A686</f>
+        <v>27.420079224835288</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4">
+      <c r="A687" s="18">
+        <f t="shared" si="4"/>
+        <v>685</v>
+      </c>
+      <c r="B687" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="C687" s="20">
+        <v>16.510000229999999</v>
+      </c>
+      <c r="D687" s="18">
+        <f>SUM(C$3:C687)/A687</f>
+        <v>27.404152102215086</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4">
+      <c r="A688" s="18">
+        <f t="shared" si="4"/>
+        <v>686</v>
+      </c>
+      <c r="B688" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="C688" s="20">
+        <v>16.280000690000001</v>
+      </c>
+      <c r="D688" s="18">
+        <f>SUM(C$3:C688)/A688</f>
+        <v>27.387936138057338</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4">
+      <c r="A689" s="18">
+        <f t="shared" si="4"/>
+        <v>687</v>
+      </c>
+      <c r="B689" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="C689" s="20">
+        <v>15.90999985</v>
+      </c>
+      <c r="D689" s="18">
+        <f>SUM(C$3:C689)/A689</f>
+        <v>27.371228807215914</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4">
+      <c r="A690" s="18">
+        <f t="shared" si="4"/>
+        <v>688</v>
+      </c>
+      <c r="B690" s="19">
+        <v>45321</v>
+      </c>
+      <c r="C690" s="20">
+        <v>15.52000046</v>
+      </c>
+      <c r="D690" s="18">
+        <f>SUM(C$3:C690)/A690</f>
+        <v>27.354003184618218</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4">
+      <c r="A691" s="18">
+        <f t="shared" si="4"/>
+        <v>689</v>
+      </c>
+      <c r="B691" s="19">
+        <v>45322</v>
+      </c>
+      <c r="C691" s="20">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D691" s="18">
+        <f>SUM(C$3:C691)/A691</f>
+        <v>27.336624370286405</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4">
+      <c r="A692" s="18">
+        <f t="shared" si="4"/>
+        <v>690</v>
+      </c>
+      <c r="B692" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="C692" s="20">
+        <v>15.5</v>
+      </c>
+      <c r="D692" s="18">
+        <f>SUM(C$3:C692)/A692</f>
+        <v>27.319469842213525</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4">
+      <c r="A693" s="18">
+        <f t="shared" si="4"/>
+        <v>691</v>
+      </c>
+      <c r="B693" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="C693" s="20">
+        <v>15.170000079999999</v>
+      </c>
+      <c r="D693" s="18">
+        <f>SUM(C$3:C693)/A693</f>
+        <v>27.301887396826821</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4">
+      <c r="A694" s="18">
+        <f t="shared" si="4"/>
+        <v>692</v>
+      </c>
+      <c r="B694" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="C694" s="20">
+        <v>15.170000079999999</v>
+      </c>
+      <c r="D694" s="18">
+        <f>SUM(C$3:C694)/A694</f>
+        <v>27.284355767756264</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4">
+      <c r="A695" s="18">
+        <f t="shared" si="4"/>
+        <v>693</v>
+      </c>
+      <c r="B695" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="C695" s="20">
+        <v>16.100000380000001</v>
+      </c>
+      <c r="D695" s="18">
+        <f>SUM(C$3:C695)/A695</f>
+        <v>27.268216726792691</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4">
+      <c r="A696" s="18">
+        <f t="shared" si="4"/>
+        <v>694</v>
+      </c>
+      <c r="B696" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="C696" s="20">
+        <v>16.399999619999999</v>
+      </c>
+      <c r="D696" s="18">
+        <f>SUM(C$3:C696)/A696</f>
+        <v>27.252556471595582</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4">
+      <c r="A697" s="18">
+        <f t="shared" si="4"/>
+        <v>695</v>
+      </c>
+      <c r="B697" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="C697" s="20">
+        <v>16.590000150000002</v>
+      </c>
+      <c r="D697" s="18">
+        <f>SUM(C$3:C697)/A697</f>
+        <v>27.237214663938612</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4">
+      <c r="A698" s="18">
+        <f t="shared" si="4"/>
+        <v>696</v>
+      </c>
+      <c r="B698" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="C698" s="20">
+        <v>16.719999309999999</v>
+      </c>
+      <c r="D698" s="18">
+        <f>SUM(C$3:C698)/A698</f>
+        <v>27.222103722338126</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4">
+      <c r="A699" s="18">
+        <f t="shared" si="4"/>
+        <v>697</v>
+      </c>
+      <c r="B699" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="C699" s="20">
+        <v>16.709999079999999</v>
+      </c>
+      <c r="D699" s="18">
+        <f>SUM(C$3:C699)/A699</f>
+        <v>27.207021793152567</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4">
+      <c r="A700" s="18">
+        <f t="shared" si="4"/>
+        <v>698</v>
+      </c>
+      <c r="B700" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="C700" s="20">
+        <v>16.870000839999999</v>
+      </c>
+      <c r="D700" s="18">
+        <f>SUM(C$3:C700)/A700</f>
+        <v>27.192212307546331</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4">
+      <c r="A701" s="18">
+        <f t="shared" si="4"/>
+        <v>699</v>
+      </c>
+      <c r="B701" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="C701" s="20">
+        <v>16.959999079999999</v>
+      </c>
+      <c r="D701" s="18">
+        <f>SUM(C$3:C701)/A701</f>
+        <v>27.177573948136395</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4">
+      <c r="A702" s="18">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="B702" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="C702" s="20">
+        <v>16.950000760000002</v>
+      </c>
+      <c r="D702" s="18">
+        <f>SUM(C$3:C702)/A702</f>
+        <v>27.162963129296202</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4">
+      <c r="A703" s="18">
+        <f t="shared" si="4"/>
+        <v>701</v>
+      </c>
+      <c r="B703" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="C703" s="20">
+        <v>16.959999079999999</v>
+      </c>
+      <c r="D703" s="18">
+        <f>SUM(C$3:C703)/A703</f>
+        <v>27.14840825904043</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4">
+      <c r="A704" s="18">
+        <f t="shared" si="4"/>
+        <v>702</v>
+      </c>
+      <c r="B704" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="C704" s="20">
+        <v>17.340000150000002</v>
+      </c>
+      <c r="D704" s="18">
+        <f>SUM(C$3:C704)/A704</f>
+        <v>27.134436167717013</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4">
+      <c r="A705" s="18">
+        <f t="shared" si="4"/>
+        <v>703</v>
+      </c>
+      <c r="B705" s="19">
+        <v>45350</v>
+      </c>
+      <c r="C705" s="20">
+        <v>16.959999079999999</v>
+      </c>
+      <c r="D705" s="18">
+        <f>SUM(C$3:C705)/A705</f>
+        <v>27.119963284235201</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -2690,7 +2690,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2836,9 +2836,6 @@
                   <c:v>45322</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>45351</c:v>
-                </c:pt>
-                <c:pt idx="49">
                   <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
@@ -2849,7 +2846,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2996,9 +2993,6 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>98000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3041,7 +3035,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -3187,9 +3181,6 @@
                   <c:v>45322</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>45351</c:v>
-                </c:pt>
-                <c:pt idx="49">
                   <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
@@ -3200,7 +3191,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -3347,9 +3338,6 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>77426.790353698336</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>79426.790353698336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3392,7 +3380,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -3538,9 +3526,6 @@
                   <c:v>45322</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>45351</c:v>
-                </c:pt>
-                <c:pt idx="49">
                   <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
@@ -3551,7 +3536,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3697,9 +3682,6 @@
                   <c:v>-29903.675345572978</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-20573.209646301664</c:v>
-                </c:pt>
-                <c:pt idx="49">
                   <c:v>-20573.209646301664</c:v>
                 </c:pt>
               </c:numCache>
@@ -3722,11 +3704,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="422404480"/>
-        <c:axId val="422406400"/>
+        <c:axId val="508036992"/>
+        <c:axId val="511530112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="422404480"/>
+        <c:axId val="508036992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3769,14 +3751,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422406400"/>
+        <c:crossAx val="511530112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="422406400"/>
+        <c:axId val="511530112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3827,7 +3809,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422404480"/>
+        <c:crossAx val="508036992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4233,7 +4215,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y52"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5913,35 +5895,6 @@
         <v>-20573.209646301664</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="12.75">
-      <c r="A52" s="14">
-        <v>45351</v>
-      </c>
-      <c r="B52" s="15">
-        <v>3.0022250976562499</v>
-      </c>
-      <c r="C52" s="16">
-        <v>2000</v>
-      </c>
-      <c r="D52" s="17">
-        <v>666.17256699417442</v>
-      </c>
-      <c r="E52" s="17">
-        <v>26455.974409015675</v>
-      </c>
-      <c r="F52" s="17">
-        <v>79426.790353698336</v>
-      </c>
-      <c r="G52" s="17">
-        <v>100000</v>
-      </c>
-      <c r="H52" s="17">
-        <v>79426.790353698336</v>
-      </c>
-      <c r="I52" s="17">
-        <v>-20573.209646301664</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="545">
   <si>
     <t>PE</t>
   </si>
@@ -2171,6 +2171,10 @@
   </si>
   <si>
     <t>利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3794,11 +3798,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="456403968"/>
-        <c:axId val="456435200"/>
+        <c:axId val="408375680"/>
+        <c:axId val="408377216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="456403968"/>
+        <c:axId val="408375680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3841,14 +3845,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456435200"/>
+        <c:crossAx val="408377216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="456435200"/>
+        <c:axId val="408377216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3899,7 +3903,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456403968"/>
+        <c:crossAx val="408375680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4370,7 +4374,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -4409,25 +4413,25 @@
       </c>
       <c r="J3" s="6"/>
       <c r="L3" s="26" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O3" s="27" t="s">
         <v>536</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="T3" s="23">
         <v>44196</v>
@@ -6029,7 +6033,7 @@
   </sheetPr>
   <dimension ref="A1:D727"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -17650,11 +17654,11 @@
         <v>45380</v>
       </c>
       <c r="C727" s="20">
-        <v>17.659999849999998</v>
+        <v>17.700000760000002</v>
       </c>
       <c r="D727" s="18">
         <f>SUM(C$3:C727)/A727</f>
-        <v>26.839619570961851</v>
+        <v>26.839674744630816</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="562">
   <si>
     <t>PE</t>
   </si>
@@ -2138,6 +2138,78 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2024/4/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/26
+</t>
+  </si>
+  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2171,10 +2243,6 @@
   </si>
   <si>
     <t>利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3798,11 +3866,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="408375680"/>
-        <c:axId val="408377216"/>
+        <c:axId val="80997760"/>
+        <c:axId val="97682560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="408375680"/>
+        <c:axId val="80997760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3845,14 +3913,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408377216"/>
+        <c:crossAx val="97682560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="408377216"/>
+        <c:axId val="97682560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3903,7 +3971,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408375680"/>
+        <c:crossAx val="80997760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4339,31 +4407,31 @@
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="K1" s="11"/>
     </row>
@@ -4374,7 +4442,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -4413,25 +4481,25 @@
       </c>
       <c r="J3" s="6"/>
       <c r="L3" s="26" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="T3" s="23">
         <v>44196</v>
@@ -6031,7 +6099,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D727"/>
+  <dimension ref="A1:D747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -15791,7 +15859,7 @@
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="18">
-        <f t="shared" ref="A611:A727" si="4">A610+1</f>
+        <f t="shared" ref="A611:A747" si="4">A610+1</f>
         <v>609</v>
       </c>
       <c r="B611" s="19" t="s">
@@ -17659,6 +17727,326 @@
       <c r="D727" s="18">
         <f>SUM(C$3:C727)/A727</f>
         <v>26.839674744630816</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4">
+      <c r="A728" s="18">
+        <f t="shared" si="4"/>
+        <v>726</v>
+      </c>
+      <c r="B728" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="C728" s="20">
+        <v>18.159999849999998</v>
+      </c>
+      <c r="D728" s="18">
+        <f>SUM(C$3:C728)/A728</f>
+        <v>26.827719269569339</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4">
+      <c r="A729" s="18">
+        <f t="shared" si="4"/>
+        <v>727</v>
+      </c>
+      <c r="B729" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="C729" s="20">
+        <v>18.040000920000001</v>
+      </c>
+      <c r="D729" s="18">
+        <f>SUM(C$3:C729)/A729</f>
+        <v>26.81563162397158</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4">
+      <c r="A730" s="18">
+        <f t="shared" si="4"/>
+        <v>728</v>
+      </c>
+      <c r="B730" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="C730" s="20">
+        <v>17.909999849999998</v>
+      </c>
+      <c r="D730" s="18">
+        <f>SUM(C$3:C730)/A730</f>
+        <v>26.803398613293048</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4">
+      <c r="A731" s="18">
+        <f t="shared" si="4"/>
+        <v>729</v>
+      </c>
+      <c r="B731" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="C731" s="20">
+        <v>17.690000529999999</v>
+      </c>
+      <c r="D731" s="18">
+        <f>SUM(C$3:C731)/A731</f>
+        <v>26.790897381354373</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4">
+      <c r="A732" s="18">
+        <f t="shared" si="4"/>
+        <v>730</v>
+      </c>
+      <c r="B732" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="C732" s="20">
+        <v>17.780000690000001</v>
+      </c>
+      <c r="D732" s="18">
+        <f>SUM(C$3:C732)/A732</f>
+        <v>26.778553687256629</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4">
+      <c r="A733" s="18">
+        <f t="shared" si="4"/>
+        <v>731</v>
+      </c>
+      <c r="B733" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="C733" s="20">
+        <v>17.5</v>
+      </c>
+      <c r="D733" s="18">
+        <f>SUM(C$3:C733)/A733</f>
+        <v>26.765860727356142</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4">
+      <c r="A734" s="18">
+        <f t="shared" si="4"/>
+        <v>732</v>
+      </c>
+      <c r="B734" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="C734" s="20">
+        <v>17.489999770000001</v>
+      </c>
+      <c r="D734" s="18">
+        <f>SUM(C$3:C734)/A734</f>
+        <v>26.753188786157569</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4">
+      <c r="A735" s="18">
+        <f t="shared" si="4"/>
+        <v>733</v>
+      </c>
+      <c r="B735" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="C735" s="20">
+        <v>17.350000380000001</v>
+      </c>
+      <c r="D735" s="18">
+        <f>SUM(C$3:C735)/A735</f>
+        <v>26.740360425439754</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4">
+      <c r="A736" s="18">
+        <f t="shared" si="4"/>
+        <v>734</v>
+      </c>
+      <c r="B736" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="C736" s="20">
+        <v>17.719999309999999</v>
+      </c>
+      <c r="D736" s="18">
+        <f>SUM(C$3:C736)/A736</f>
+        <v>26.728071105118993</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4">
+      <c r="A737" s="18">
+        <f t="shared" si="4"/>
+        <v>735</v>
+      </c>
+      <c r="B737" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="C737" s="20">
+        <v>17.440000529999999</v>
+      </c>
+      <c r="D737" s="18">
+        <f>SUM(C$3:C737)/A737</f>
+        <v>26.715434274404547</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4">
+      <c r="A738" s="18">
+        <f t="shared" si="4"/>
+        <v>736</v>
+      </c>
+      <c r="B738" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="C738" s="20">
+        <v>17.780000690000001</v>
+      </c>
+      <c r="D738" s="18">
+        <f>SUM(C$3:C738)/A738</f>
+        <v>26.703293739643126</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4">
+      <c r="A739" s="18">
+        <f t="shared" si="4"/>
+        <v>737</v>
+      </c>
+      <c r="B739" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="C739" s="20">
+        <v>17.75</v>
+      </c>
+      <c r="D739" s="18">
+        <f>SUM(C$3:C739)/A739</f>
+        <v>26.691145444202633</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4">
+      <c r="A740" s="18">
+        <f t="shared" si="4"/>
+        <v>738</v>
+      </c>
+      <c r="B740" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="C740" s="20">
+        <v>17.5</v>
+      </c>
+      <c r="D740" s="18">
+        <f>SUM(C$3:C740)/A740</f>
+        <v>26.678691317584473</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4">
+      <c r="A741" s="18">
+        <f t="shared" si="4"/>
+        <v>739</v>
+      </c>
+      <c r="B741" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="C741" s="20">
+        <v>17.459999079999999</v>
+      </c>
+      <c r="D741" s="18">
+        <f>SUM(C$3:C741)/A741</f>
+        <v>26.666216767871912</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4">
+      <c r="A742" s="18">
+        <f t="shared" si="4"/>
+        <v>740</v>
+      </c>
+      <c r="B742" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="C742" s="20">
+        <v>17.340000150000002</v>
+      </c>
+      <c r="D742" s="18">
+        <f>SUM(C$3:C742)/A742</f>
+        <v>26.653613772442355</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4">
+      <c r="A743" s="18">
+        <f t="shared" si="4"/>
+        <v>741</v>
+      </c>
+      <c r="B743" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="C743" s="20">
+        <v>17.399999619999999</v>
+      </c>
+      <c r="D743" s="18">
+        <f>SUM(C$3:C743)/A743</f>
+        <v>26.641125764139467</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4">
+      <c r="A744" s="18">
+        <f t="shared" si="4"/>
+        <v>742</v>
+      </c>
+      <c r="B744" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="C744" s="20">
+        <v>17.459999079999999</v>
+      </c>
+      <c r="D744" s="18">
+        <f>SUM(C$3:C744)/A744</f>
+        <v>26.628752278042246</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4">
+      <c r="A745" s="18">
+        <f t="shared" si="4"/>
+        <v>743</v>
+      </c>
+      <c r="B745" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="C745" s="20">
+        <v>17.829999919999999</v>
+      </c>
+      <c r="D745" s="18">
+        <f>SUM(C$3:C745)/A745</f>
+        <v>26.616910081059682</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4">
+      <c r="A746" s="18">
+        <f t="shared" si="4"/>
+        <v>744</v>
+      </c>
+      <c r="B746" s="19">
+        <v>45411</v>
+      </c>
+      <c r="C746" s="20">
+        <v>18.290000920000001</v>
+      </c>
+      <c r="D746" s="18">
+        <f>SUM(C$3:C746)/A746</f>
+        <v>26.605717998853954</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4">
+      <c r="A747" s="18">
+        <f t="shared" si="4"/>
+        <v>745</v>
+      </c>
+      <c r="B747" s="19">
+        <v>45412</v>
+      </c>
+      <c r="C747" s="20">
+        <v>18.11000061</v>
+      </c>
+      <c r="D747" s="18">
+        <f>SUM(C$3:C747)/A747</f>
+        <v>26.594314351352136</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="模型一" sheetId="5" r:id="rId1"/>
@@ -2833,160 +2833,160 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7161979980468751</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.6159379882812499</c:v>
+                  <c:v>45044</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.4505849609374999</c:v>
+                  <c:v>45077</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.608843017578125</c:v>
+                  <c:v>45107</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.6303940429687498</c:v>
+                  <c:v>45138</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.3830390625</c:v>
+                  <c:v>45169</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.2311640625</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.1302160644531249</c:v>
+                  <c:v>45230</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.0653520507812502</c:v>
+                  <c:v>45260</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.0335100097656249</c:v>
+                  <c:v>45289</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.6308430175781252</c:v>
+                  <c:v>45322</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.0022250976562499</c:v>
+                  <c:v>45351</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.0390229492187499</c:v>
+                  <c:v>45380</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.1081088867187501</c:v>
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2998,157 +2998,157 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>2000.0000000000002</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3783.4996370436897</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6143.6117008713063</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8173.7580810682693</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11353.811149064422</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14968.552321848347</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16822.477397497114</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18240.153038857396</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21221.531045139225</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23603.74034292587</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28072.985437531297</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31610.696441599135</c:v>
+                  <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31960.877336479982</c:v>
+                  <c:v>26000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32030.541196234128</c:v>
+                  <c:v>28000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36542.468793623324</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40028.514786085325</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43079.887556825692</c:v>
+                  <c:v>34000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43952.380972166822</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44041.688138414858</c:v>
+                  <c:v>38000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45572.995207693384</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49094.404023982002</c:v>
+                  <c:v>42000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51969.911593071687</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53008.069006718506</c:v>
+                  <c:v>46000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49351.052479165373</c:v>
+                  <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51254.60334650999</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>47701.945217252243</c:v>
+                  <c:v>52000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45202.535414395512</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48944.813088421164</c:v>
+                  <c:v>56000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57317.86097478633</c:v>
+                  <c:v>58000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56010.270798873862</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55547.679913640975</c:v>
+                  <c:v>62000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52229.088937270295</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>53475.074735568647</c:v>
+                  <c:v>66000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58406.85441256113</c:v>
+                  <c:v>68000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>60293.406710853284</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>68151.7828856181</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67767.93214664339</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70476.779226985323</c:v>
+                  <c:v>76000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>70575.372849483087</c:v>
+                  <c:v>78000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69348.035546023719</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>74528.622449867675</c:v>
+                  <c:v>82000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>76973.687038967822</c:v>
+                  <c:v>84000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>73729.125531655038</c:v>
+                  <c:v>86000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>72419.198943977608</c:v>
+                  <c:v>88000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>72156.678993846508</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>72661.455751615897</c:v>
+                  <c:v>92000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>73906.668367991137</c:v>
+                  <c:v>94000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>66096.324654427022</c:v>
+                  <c:v>96000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>77426.790353698336</c:v>
+                  <c:v>98000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>80375.799653707334</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>84202.97817923181</c:v>
+                  <c:v>102000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3190,160 +3190,160 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7161979980468751</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.6159379882812499</c:v>
+                  <c:v>45044</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.4505849609374999</c:v>
+                  <c:v>45077</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.608843017578125</c:v>
+                  <c:v>45107</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.6303940429687498</c:v>
+                  <c:v>45138</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.3830390625</c:v>
+                  <c:v>45169</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.2311640625</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.1302160644531249</c:v>
+                  <c:v>45230</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.0653520507812502</c:v>
+                  <c:v>45260</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.0335100097656249</c:v>
+                  <c:v>45289</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.6308430175781252</c:v>
+                  <c:v>45322</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.0022250976562499</c:v>
+                  <c:v>45351</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.0390229492187499</c:v>
+                  <c:v>45380</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.1081088867187501</c:v>
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3355,157 +3355,157 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2000.0000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-216.50036295631025</c:v>
+                  <c:v>3783.4996370436897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143.61170087130631</c:v>
+                  <c:v>6143.6117008713063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>173.75808106826935</c:v>
+                  <c:v>8173.7580810682693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1353.8111490644224</c:v>
+                  <c:v>11353.811149064422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2968.5523218483468</c:v>
+                  <c:v>14968.552321848347</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2822.477397497114</c:v>
+                  <c:v>16822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2240.1530388573956</c:v>
+                  <c:v>18240.153038857396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3221.5310451392252</c:v>
+                  <c:v>21221.531045139225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3603.7403429258702</c:v>
+                  <c:v>23603.74034292587</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6072.9854375312971</c:v>
+                  <c:v>28072.985437531297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7610.6964415991351</c:v>
+                  <c:v>31610.696441599135</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5960.8773364799818</c:v>
+                  <c:v>31960.877336479982</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4030.5411962341277</c:v>
+                  <c:v>32030.541196234128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6542.468793623324</c:v>
+                  <c:v>36542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8028.5147860853249</c:v>
+                  <c:v>40028.514786085325</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9079.8875568256917</c:v>
+                  <c:v>43079.887556825692</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7952.3809721668222</c:v>
+                  <c:v>43952.380972166822</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6041.6881384148583</c:v>
+                  <c:v>44041.688138414858</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5572.9952076933841</c:v>
+                  <c:v>45572.995207693384</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7094.4040239820024</c:v>
+                  <c:v>49094.404023982002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7969.9115930716871</c:v>
+                  <c:v>51969.911593071687</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7008.069006718506</c:v>
+                  <c:v>53008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1351.0524791653734</c:v>
+                  <c:v>49351.052479165373</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1254.6033465099899</c:v>
+                  <c:v>51254.60334650999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-4298.0547827477567</c:v>
+                  <c:v>47701.945217252243</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-8797.4645856044881</c:v>
+                  <c:v>45202.535414395512</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-7055.1869115788359</c:v>
+                  <c:v>48944.813088421164</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-682.13902521366981</c:v>
+                  <c:v>57317.86097478633</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3989.7292011261379</c:v>
+                  <c:v>56010.270798873862</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-6452.3200863590246</c:v>
+                  <c:v>55547.679913640975</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-11770.911062729705</c:v>
+                  <c:v>52229.088937270295</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-12524.925264431353</c:v>
+                  <c:v>53475.074735568647</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-9593.1455874388703</c:v>
+                  <c:v>58406.85441256113</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-9706.5932891467164</c:v>
+                  <c:v>60293.406710853284</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-3848.2171143818996</c:v>
+                  <c:v>68151.7828856181</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-6232.0678533566097</c:v>
+                  <c:v>67767.93214664339</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-5523.2207730146765</c:v>
+                  <c:v>70476.779226985323</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-7424.6271505169134</c:v>
+                  <c:v>70575.372849483087</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-10651.964453976281</c:v>
+                  <c:v>69348.035546023719</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-7471.3775501323253</c:v>
+                  <c:v>74528.622449867675</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-7026.3129610321776</c:v>
+                  <c:v>76973.687038967822</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-12270.874468344962</c:v>
+                  <c:v>73729.125531655038</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-15580.801056022392</c:v>
+                  <c:v>72419.198943977608</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-17843.321006153492</c:v>
+                  <c:v>72156.678993846508</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-19338.544248384103</c:v>
+                  <c:v>72661.455751615897</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-20093.331632008863</c:v>
+                  <c:v>73906.668367991137</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-29903.675345572978</c:v>
+                  <c:v>66096.324654427022</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-20573.209646301664</c:v>
+                  <c:v>77426.790353698336</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-19624.200346292666</c:v>
+                  <c:v>80375.799653707334</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-17797.02182076819</c:v>
+                  <c:v>84202.97817923181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3547,160 +3547,160 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7161979980468751</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.6159379882812499</c:v>
+                  <c:v>45044</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.4505849609374999</c:v>
+                  <c:v>45077</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.608843017578125</c:v>
+                  <c:v>45107</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.6303940429687498</c:v>
+                  <c:v>45138</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.3830390625</c:v>
+                  <c:v>45169</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.2311640625</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.1302160644531249</c:v>
+                  <c:v>45230</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.0653520507812502</c:v>
+                  <c:v>45260</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.0335100097656249</c:v>
+                  <c:v>45289</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.6308430175781252</c:v>
+                  <c:v>45322</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.0022250976562499</c:v>
+                  <c:v>45351</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.0390229492187499</c:v>
+                  <c:v>45380</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.1081088867187501</c:v>
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3709,8 +3709,161 @@
             <c:numRef>
               <c:f>模型一!金额</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-216.50036295631025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143.61170087130631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173.75808106826935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1353.8111490644224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2968.5523218483468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2822.477397497114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2240.1530388573956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3221.5310451392252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3603.7403429258702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6072.9854375312971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7610.6964415991351</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5960.8773364799818</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4030.5411962341277</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6542.468793623324</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8028.5147860853249</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9079.8875568256917</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7952.3809721668222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6041.6881384148583</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5572.9952076933841</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7094.4040239820024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7969.9115930716871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7008.069006718506</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1351.0524791653734</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1254.6033465099899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4298.0547827477567</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-8797.4645856044881</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7055.1869115788359</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-682.13902521366981</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3989.7292011261379</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6452.3200863590246</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-11770.911062729705</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-12524.925264431353</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-9593.1455874388703</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9706.5932891467164</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3848.2171143818996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6232.0678533566097</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-5523.2207730146765</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7424.6271505169134</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-10651.964453976281</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7471.3775501323253</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7026.3129610321776</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-12270.874468344962</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-15580.801056022392</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-17843.321006153492</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-19338.544248384103</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-20093.331632008863</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-29903.675345572978</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-20573.209646301664</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-19624.200346292666</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-17797.02182076819</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3731,17 +3884,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536162304"/>
-        <c:axId val="536164224"/>
+        <c:axId val="511123840"/>
+        <c:axId val="511126144"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="536162304"/>
+      <c:dateAx>
+        <c:axId val="511123840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -3778,15 +3931,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536164224"/>
+        <c:crossAx val="511126144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="536164224"/>
+        <c:axId val="511126144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3837,7 +3989,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536162304"/>
+        <c:crossAx val="511123840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4245,7 +4397,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -5996,7 +6148,7 @@
   </sheetPr>
   <dimension ref="A1:D747"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -7985,11 +8137,11 @@
         <v>1</v>
       </c>
       <c r="C125" s="20">
-        <v>35.27999878</v>
+        <v>35.279998779296875</v>
       </c>
       <c r="D125" s="18">
         <f>SUM(C$3:C125)/A125</f>
-        <v>39.694634136422749</v>
+        <v>39.694634136417029</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="12.75" customHeight="1">
@@ -8001,11 +8153,11 @@
         <v>2</v>
       </c>
       <c r="C126" s="20">
-        <v>35.009998320000001</v>
+        <v>35.009998321533203</v>
       </c>
       <c r="D126" s="18">
         <f>SUM(C$3:C126)/A126</f>
-        <v>39.656854815322561</v>
+        <v>39.656854815329261</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="12.75" customHeight="1">
@@ -8017,11 +8169,11 @@
         <v>3</v>
       </c>
       <c r="C127" s="20">
-        <v>34.52999878</v>
+        <v>34.529998779296875</v>
       </c>
       <c r="D127" s="18">
         <f>SUM(C$3:C127)/A127</f>
-        <v>39.615839967039982</v>
+        <v>39.615839967040998</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="12.75" customHeight="1">
@@ -8033,11 +8185,11 @@
         <v>4</v>
       </c>
       <c r="C128" s="20">
-        <v>35.150001529999997</v>
+        <v>35.150001525878906</v>
       </c>
       <c r="D128" s="18">
         <f>SUM(C$3:C128)/A128</f>
-        <v>39.58039680484125</v>
+        <v>39.580396804809553</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="12.75" customHeight="1">
@@ -8049,11 +8201,11 @@
         <v>5</v>
       </c>
       <c r="C129" s="20">
-        <v>35.13999939</v>
+        <v>35.139999389648437</v>
       </c>
       <c r="D129" s="18">
         <f>SUM(C$3:C129)/A129</f>
-        <v>39.545433045669277</v>
+        <v>39.545433045635058</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="12.75" customHeight="1">
@@ -8065,11 +8217,11 @@
         <v>6</v>
       </c>
       <c r="C130" s="20">
-        <v>35.619998930000001</v>
+        <v>35.619998931884766</v>
       </c>
       <c r="D130" s="18">
         <f>SUM(C$3:C130)/A130</f>
-        <v>39.514765591640611</v>
+        <v>39.514765591621384</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="12.75" customHeight="1">
@@ -8081,11 +8233,11 @@
         <v>7</v>
       </c>
       <c r="C131" s="20">
-        <v>35.540000919999997</v>
+        <v>35.540000915527344</v>
       </c>
       <c r="D131" s="18">
         <f>SUM(C$3:C131)/A131</f>
-        <v>39.483953462403086</v>
+        <v>39.483953462349334</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="12.75" customHeight="1">
@@ -8097,11 +8249,11 @@
         <v>8</v>
       </c>
       <c r="C132" s="20">
-        <v>35.770000459999999</v>
+        <v>35.770000457763672</v>
       </c>
       <c r="D132" s="18">
         <f>SUM(C$3:C132)/A132</f>
-        <v>39.455384593153838</v>
+        <v>39.455384593083295</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="12.75" customHeight="1">
@@ -8113,11 +8265,11 @@
         <v>9</v>
       </c>
       <c r="C133" s="20">
-        <v>35.52999878</v>
+        <v>35.529998779296875</v>
       </c>
       <c r="D133" s="18">
         <f>SUM(C$3:C133)/A133</f>
-        <v>39.425419815954186</v>
+        <v>39.425419815878818</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="12.75" customHeight="1">
@@ -8129,11 +8281,11 @@
         <v>10</v>
       </c>
       <c r="C134" s="20">
-        <v>35.619998930000001</v>
+        <v>35.619998931884766</v>
       </c>
       <c r="D134" s="18">
         <f>SUM(C$3:C134)/A134</f>
-        <v>39.396590869848474</v>
+        <v>39.39659086978795</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="12.75" customHeight="1">
@@ -8145,11 +8297,11 @@
         <v>11</v>
       </c>
       <c r="C135" s="20">
-        <v>36.009998320000001</v>
+        <v>36.009998321533203</v>
       </c>
       <c r="D135" s="18">
         <f>SUM(C$3:C135)/A135</f>
-        <v>39.371127767969917</v>
+        <v>39.371127767921372</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="12.75" customHeight="1">
@@ -8161,11 +8313,11 @@
         <v>12</v>
       </c>
       <c r="C136" s="20">
-        <v>36.319999690000003</v>
+        <v>36.319999694824219</v>
       </c>
       <c r="D136" s="18">
         <f>SUM(C$3:C136)/A136</f>
-        <v>39.348358155447755</v>
+        <v>39.348358155435577</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="12.75" customHeight="1">
@@ -8177,11 +8329,11 @@
         <v>13</v>
       </c>
       <c r="C137" s="20">
-        <v>36.299999239999998</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D137" s="18">
         <f>SUM(C$3:C137)/A137</f>
-        <v>39.325777719037028</v>
+        <v>39.32577771900317</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="12.75" customHeight="1">
@@ -8193,11 +8345,11 @@
         <v>14</v>
       </c>
       <c r="C138" s="20">
-        <v>35.990001679999999</v>
+        <v>35.990001678466797</v>
       </c>
       <c r="D138" s="18">
         <f>SUM(C$3:C138)/A138</f>
-        <v>39.30124995404411</v>
+        <v>39.301249953999225</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="12.75" customHeight="1">
@@ -8209,11 +8361,11 @@
         <v>44497</v>
       </c>
       <c r="C139" s="20">
-        <v>35.729999540000001</v>
+        <v>35.729999542236328</v>
       </c>
       <c r="D139" s="18">
         <f>SUM(C$3:C139)/A139</f>
-        <v>39.275182432773718</v>
+        <v>39.275182432745481</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="12.75" customHeight="1">
@@ -8225,11 +8377,11 @@
         <v>44498</v>
       </c>
       <c r="C140" s="20">
-        <v>36.299999239999998</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D140" s="18">
         <f>SUM(C$3:C140)/A140</f>
-        <v>39.253623134275358</v>
+        <v>39.253623134226025</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="12.75" customHeight="1">
@@ -8241,11 +8393,11 @@
         <v>15</v>
       </c>
       <c r="C141" s="20">
-        <v>34.930000309999997</v>
+        <v>34.930000305175781</v>
       </c>
       <c r="D141" s="18">
         <f>SUM(C$3:C141)/A141</f>
-        <v>39.222517934100708</v>
+        <v>39.222517934017027</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="12.75" customHeight="1">
@@ -8257,11 +8409,11 @@
         <v>16</v>
       </c>
       <c r="C142" s="20">
-        <v>34.909999849999998</v>
+        <v>34.909999847412109</v>
       </c>
       <c r="D142" s="18">
         <f>SUM(C$3:C142)/A142</f>
-        <v>39.191714233499987</v>
+        <v>39.191714233398422</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="12.75" customHeight="1">
@@ -8273,11 +8425,11 @@
         <v>17</v>
       </c>
       <c r="C143" s="20">
-        <v>34.630001069999999</v>
+        <v>34.630001068115234</v>
       </c>
       <c r="D143" s="18">
         <f>SUM(C$3:C143)/A143</f>
-        <v>39.159361657872324</v>
+        <v>39.159361657758119</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="12.75" customHeight="1">
@@ -8289,11 +8441,11 @@
         <v>18</v>
       </c>
       <c r="C144" s="20">
-        <v>35.090000150000002</v>
+        <v>35.090000152587891</v>
       </c>
       <c r="D144" s="18">
         <f>SUM(C$3:C144)/A144</f>
-        <v>39.130704182464775</v>
+        <v>39.130704182369591</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="12.75" customHeight="1">
@@ -8305,11 +8457,11 @@
         <v>19</v>
       </c>
       <c r="C145" s="20">
-        <v>34.900001529999997</v>
+        <v>34.900001525878906</v>
       </c>
       <c r="D145" s="18">
         <f>SUM(C$3:C145)/A145</f>
-        <v>39.101118849230758</v>
+        <v>39.101118849107422</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="12.75" customHeight="1">
@@ -8321,11 +8473,11 @@
         <v>20</v>
       </c>
       <c r="C146" s="20">
-        <v>35.040000919999997</v>
+        <v>35.040000915527344</v>
       </c>
       <c r="D146" s="18">
         <f>SUM(C$3:C146)/A146</f>
-        <v>39.072916641388879</v>
+        <v>39.072916641235338</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="12.75" customHeight="1">
@@ -8337,11 +8489,11 @@
         <v>21</v>
       </c>
       <c r="C147" s="20">
-        <v>35.22000122</v>
+        <v>35.220001220703125</v>
       </c>
       <c r="D147" s="18">
         <f>SUM(C$3:C147)/A147</f>
-        <v>39.046344810896542</v>
+        <v>39.046344810748906</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="12.75" customHeight="1">
@@ -8353,11 +8505,11 @@
         <v>22</v>
       </c>
       <c r="C148" s="20">
-        <v>34.990001679999999</v>
+        <v>34.990001678466797</v>
       </c>
       <c r="D148" s="18">
         <f>SUM(C$3:C148)/A148</f>
-        <v>39.018561638767117</v>
+        <v>39.018561638609988</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="12.75" customHeight="1">
@@ -8369,11 +8521,11 @@
         <v>23</v>
       </c>
       <c r="C149" s="20">
-        <v>35.409999849999998</v>
+        <v>35.409999847412109</v>
       </c>
       <c r="D149" s="18">
         <f>SUM(C$3:C149)/A149</f>
-        <v>38.994013599387742</v>
+        <v>38.994013599214085</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="12.75" customHeight="1">
@@ -8385,11 +8537,11 @@
         <v>24</v>
       </c>
       <c r="C150" s="20">
-        <v>35.259998320000001</v>
+        <v>35.259998321533203</v>
       </c>
       <c r="D150" s="18">
         <f>SUM(C$3:C150)/A150</f>
-        <v>38.968783766418909</v>
+        <v>38.968783766256784</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="12.75" customHeight="1">
@@ -8401,11 +8553,11 @@
         <v>25</v>
       </c>
       <c r="C151" s="20">
-        <v>34.950000760000002</v>
+        <v>34.950000762939453</v>
       </c>
       <c r="D151" s="18">
         <f>SUM(C$3:C151)/A151</f>
-        <v>38.941812068389247</v>
+        <v>38.941812068247941</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="12.75" customHeight="1">
@@ -8417,11 +8569,11 @@
         <v>26</v>
       </c>
       <c r="C152" s="20">
-        <v>34.950000760000002</v>
+        <v>34.950000762939453</v>
       </c>
       <c r="D152" s="18">
         <f>SUM(C$3:C152)/A152</f>
-        <v>38.915199992999987</v>
+        <v>38.915199992879216</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="12.75" customHeight="1">
@@ -8433,11 +8585,11 @@
         <v>27</v>
       </c>
       <c r="C153" s="20">
-        <v>35.229999540000001</v>
+        <v>35.229999542236328</v>
       </c>
       <c r="D153" s="18">
         <f>SUM(C$3:C153)/A153</f>
-        <v>38.890794691986741</v>
+        <v>38.890794691881581</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="12.75" customHeight="1">
@@ -8449,11 +8601,11 @@
         <v>28</v>
       </c>
       <c r="C154" s="20">
-        <v>34.840000150000002</v>
+        <v>34.840000152587891</v>
       </c>
       <c r="D154" s="18">
         <f>SUM(C$3:C154)/A154</f>
-        <v>38.864144727894725</v>
+        <v>38.864144727807286</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="12.75" customHeight="1">
@@ -8465,11 +8617,11 @@
         <v>29</v>
       </c>
       <c r="C155" s="20">
-        <v>35.270000459999999</v>
+        <v>35.270000457763672</v>
       </c>
       <c r="D155" s="18">
         <f>SUM(C$3:C155)/A155</f>
-        <v>38.840653588888877</v>
+        <v>38.84065358878739</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="12.75" customHeight="1">
@@ -8481,11 +8633,11 @@
         <v>30</v>
       </c>
       <c r="C156" s="20">
-        <v>35.990001679999999</v>
+        <v>35.990001678466797</v>
       </c>
       <c r="D156" s="18">
         <f>SUM(C$3:C156)/A156</f>
-        <v>38.822142862207784</v>
+        <v>38.822142862096996</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="12.75" customHeight="1">
@@ -8497,11 +8649,11 @@
         <v>31</v>
       </c>
       <c r="C157" s="20">
-        <v>35.680000309999997</v>
+        <v>35.680000305175781</v>
       </c>
       <c r="D157" s="18">
         <f>SUM(C$3:C157)/A157</f>
-        <v>38.801870974774182</v>
+        <v>38.80187097463299</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="12.75" customHeight="1">
@@ -8513,11 +8665,11 @@
         <v>32</v>
       </c>
       <c r="C158" s="20">
-        <v>35.549999239999998</v>
+        <v>35.549999237060547</v>
       </c>
       <c r="D158" s="18">
         <f>SUM(C$3:C158)/A158</f>
-        <v>38.781025643141014</v>
+        <v>38.781025642981881</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="12.75" customHeight="1">
@@ -8529,11 +8681,11 @@
         <v>33</v>
       </c>
       <c r="C159" s="20">
-        <v>35.38999939</v>
+        <v>35.389999389648437</v>
       </c>
       <c r="D159" s="18">
         <f>SUM(C$3:C159)/A159</f>
-        <v>38.75942674980891</v>
+        <v>38.759426749648547</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="12.75" customHeight="1">
@@ -8545,11 +8697,11 @@
         <v>34</v>
       </c>
       <c r="C160" s="20">
-        <v>35.189998629999998</v>
+        <v>35.189998626708984</v>
       </c>
       <c r="D160" s="18">
         <f>SUM(C$3:C160)/A160</f>
-        <v>38.73683543259493</v>
+        <v>38.736835432414757</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="12.75" customHeight="1">
@@ -8561,11 +8713,11 @@
         <v>44529</v>
       </c>
       <c r="C161" s="20">
-        <v>35.409999849999998</v>
+        <v>35.409999847412109</v>
       </c>
       <c r="D161" s="18">
         <f>SUM(C$3:C161)/A161</f>
-        <v>38.715911938364776</v>
+        <v>38.715911938169455</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="12.75" customHeight="1">
@@ -8577,11 +8729,11 @@
         <v>44530</v>
       </c>
       <c r="C162" s="20">
-        <v>35.450000000000003</v>
+        <v>35.450000762939453</v>
       </c>
       <c r="D162" s="18">
         <f>SUM(C$3:C162)/A162</f>
-        <v>38.695499988749994</v>
+        <v>38.695499993324269</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="12.75" customHeight="1">
@@ -8593,11 +8745,11 @@
         <v>44531</v>
       </c>
       <c r="C163" s="20">
-        <v>35.27999878</v>
+        <v>35.279998779296875</v>
       </c>
       <c r="D163" s="18">
         <f>SUM(C$3:C163)/A163</f>
-        <v>38.674285695527942</v>
+        <v>38.67428570006944</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="12.75" customHeight="1">
@@ -8609,11 +8761,11 @@
         <v>44532</v>
       </c>
       <c r="C164" s="20">
-        <v>35.22000122</v>
+        <v>35.220001220703125</v>
       </c>
       <c r="D164" s="18">
         <f>SUM(C$3:C164)/A164</f>
-        <v>38.652962951851848</v>
+        <v>38.652962956369649</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="12.75" customHeight="1">
@@ -8625,11 +8777,11 @@
         <v>44533</v>
       </c>
       <c r="C165" s="20">
-        <v>35.319999690000003</v>
+        <v>35.319999694824219</v>
       </c>
       <c r="D165" s="18">
         <f>SUM(C$3:C165)/A165</f>
-        <v>38.632515324478518</v>
+        <v>38.632515328998203</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="12.75" customHeight="1">
@@ -8641,11 +8793,11 @@
         <v>44536</v>
       </c>
       <c r="C166" s="20">
-        <v>34.939998629999998</v>
+        <v>34.939998626708984</v>
       </c>
       <c r="D166" s="18">
         <f>SUM(C$3:C166)/A166</f>
-        <v>38.609999978780486</v>
+        <v>38.609999983252536</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="12.75" customHeight="1">
@@ -8657,11 +8809,11 @@
         <v>44537</v>
       </c>
       <c r="C167" s="20">
-        <v>34.709999080000003</v>
+        <v>34.709999084472656</v>
       </c>
       <c r="D167" s="18">
         <f>SUM(C$3:C167)/A167</f>
-        <v>38.586363609696967</v>
+        <v>38.586363614169024</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="12.75" customHeight="1">
@@ -8673,11 +8825,11 @@
         <v>44538</v>
       </c>
       <c r="C168" s="20">
-        <v>35.33000183</v>
+        <v>35.330001831054688</v>
       </c>
       <c r="D168" s="18">
         <f>SUM(C$3:C168)/A168</f>
-        <v>38.566746972469872</v>
+        <v>38.566746976921344</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="12.75" customHeight="1">
@@ -8689,11 +8841,11 @@
         <v>44539</v>
       </c>
       <c r="C169" s="20">
-        <v>35.869998930000001</v>
+        <v>35.869998931884766</v>
       </c>
       <c r="D169" s="18">
         <f>SUM(C$3:C169)/A169</f>
-        <v>38.550598780598797</v>
+        <v>38.5505987850349</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="12.75" customHeight="1">
@@ -8705,11 +8857,11 @@
         <v>44540</v>
       </c>
       <c r="C170" s="20">
-        <v>35.86000061</v>
+        <v>35.860000610351563</v>
       </c>
       <c r="D170" s="18">
         <f>SUM(C$3:C170)/A170</f>
-        <v>38.53458331529761</v>
+        <v>38.534583319709405</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="12.75" customHeight="1">
@@ -8721,11 +8873,11 @@
         <v>44543</v>
       </c>
       <c r="C171" s="20">
-        <v>35.86000061</v>
+        <v>35.860000610351563</v>
       </c>
       <c r="D171" s="18">
         <f>SUM(C$3:C171)/A171</f>
-        <v>38.518757382130168</v>
+        <v>38.518757386517933</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="12.75" customHeight="1">
@@ -8737,11 +8889,11 @@
         <v>44544</v>
       </c>
       <c r="C172" s="20">
-        <v>35.599998470000003</v>
+        <v>35.599998474121094</v>
       </c>
       <c r="D172" s="18">
         <f>SUM(C$3:C172)/A172</f>
-        <v>38.501588212058813</v>
+        <v>38.501588216445015</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="12.75" customHeight="1">
@@ -8753,11 +8905,11 @@
         <v>44545</v>
       </c>
       <c r="C173" s="20">
-        <v>35.290000919999997</v>
+        <v>35.290000915527344</v>
       </c>
       <c r="D173" s="18">
         <f>SUM(C$3:C173)/A173</f>
-        <v>38.482806999824554</v>
+        <v>38.482807004158943</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="12.75" customHeight="1">
@@ -8769,11 +8921,11 @@
         <v>44546</v>
       </c>
       <c r="C174" s="20">
-        <v>35.520000459999999</v>
+        <v>35.520000457763672</v>
       </c>
       <c r="D174" s="18">
         <f>SUM(C$3:C174)/A174</f>
-        <v>38.465581380406974</v>
+        <v>38.465581384703157</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="12.75" customHeight="1">
@@ -8785,11 +8937,11 @@
         <v>44547</v>
       </c>
       <c r="C175" s="20">
-        <v>34.939998629999998</v>
+        <v>34.939998626708984</v>
       </c>
       <c r="D175" s="18">
         <f>SUM(C$3:C175)/A175</f>
-        <v>38.445202289364161</v>
+        <v>38.445202293616489</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="12.75" customHeight="1">
@@ -8801,11 +8953,11 @@
         <v>44550</v>
       </c>
       <c r="C176" s="20">
-        <v>34.099998470000003</v>
+        <v>34.099998474121094</v>
       </c>
       <c r="D176" s="18">
         <f>SUM(C$3:C176)/A176</f>
-        <v>38.42022985362069</v>
+        <v>38.420229857872258</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="12.75" customHeight="1">
@@ -8817,11 +8969,11 @@
         <v>44551</v>
       </c>
       <c r="C177" s="20">
-        <v>34.439998629999998</v>
+        <v>34.439998626708984</v>
       </c>
       <c r="D177" s="18">
         <f>SUM(C$3:C177)/A177</f>
-        <v>38.397485675200002</v>
+        <v>38.397485679408469</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="12.75" customHeight="1">
@@ -8833,11 +8985,11 @@
         <v>44552</v>
       </c>
       <c r="C178" s="20">
-        <v>34.689998629999998</v>
+        <v>34.689998626708984</v>
       </c>
       <c r="D178" s="18">
         <f>SUM(C$3:C178)/A178</f>
-        <v>38.376420407897733</v>
+        <v>38.376420412063588</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="12.75" customHeight="1">
@@ -8849,11 +9001,11 @@
         <v>44553</v>
       </c>
       <c r="C179" s="20">
-        <v>34.810001370000002</v>
+        <v>34.810001373291016</v>
       </c>
       <c r="D179" s="18">
         <f>SUM(C$3:C179)/A179</f>
-        <v>38.356271147796612</v>
+        <v>38.356271151957529</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="12.75" customHeight="1">
@@ -8865,11 +9017,11 @@
         <v>44554</v>
       </c>
       <c r="C180" s="20">
-        <v>34.290000919999997</v>
+        <v>34.290000915527344</v>
       </c>
       <c r="D180" s="18">
         <f>SUM(C$3:C180)/A180</f>
-        <v>38.333426933033707</v>
+        <v>38.333426937146122</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="12.75" customHeight="1">
@@ -8881,11 +9033,11 @@
         <v>44557</v>
       </c>
       <c r="C181" s="20">
-        <v>34.36000061</v>
+        <v>34.360000610351563</v>
       </c>
       <c r="D181" s="18">
         <f>SUM(C$3:C181)/A181</f>
-        <v>38.311229020614526</v>
+        <v>38.311229024705931</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="12.75" customHeight="1">
@@ -8897,11 +9049,11 @@
         <v>44558</v>
       </c>
       <c r="C182" s="20">
-        <v>34.650001529999997</v>
+        <v>34.650001525878906</v>
       </c>
       <c r="D182" s="18">
         <f>SUM(C$3:C182)/A182</f>
-        <v>38.290888867888889</v>
+        <v>38.290888871934669</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="12.75" customHeight="1">
@@ -8913,11 +9065,11 @@
         <v>44559</v>
       </c>
       <c r="C183" s="20">
-        <v>34.259998320000001</v>
+        <v>34.259998321533203</v>
       </c>
       <c r="D183" s="18">
         <f>SUM(C$3:C183)/A183</f>
-        <v>38.268618754364638</v>
+        <v>38.268618758396535</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="12.75" customHeight="1">
@@ -8929,11 +9081,11 @@
         <v>44560</v>
       </c>
       <c r="C184" s="20">
-        <v>34.58</v>
+        <v>34.580001831054687</v>
       </c>
       <c r="D184" s="18">
         <f>SUM(C$3:C184)/A184</f>
-        <v>38.248351618351641</v>
+        <v>38.248351632422136</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="12.75" customHeight="1">
@@ -8945,11 +9097,11 @@
         <v>44561</v>
       </c>
       <c r="C185" s="20">
-        <v>34.630000000000003</v>
+        <v>34.630001068115234</v>
       </c>
       <c r="D185" s="18">
         <f>SUM(C$3:C185)/A185</f>
-        <v>38.228579205136612</v>
+        <v>38.2285792249669</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="12.75" customHeight="1">
@@ -8961,11 +9113,11 @@
         <v>35</v>
       </c>
       <c r="C186" s="20">
-        <v>34.229999540000001</v>
+        <v>34.229999542236328</v>
       </c>
       <c r="D186" s="18">
         <f>SUM(C$3:C186)/A186</f>
-        <v>38.206847793913042</v>
+        <v>38.206847813647713</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="12.75" customHeight="1">
@@ -8977,11 +9129,11 @@
         <v>36</v>
       </c>
       <c r="C187" s="20">
-        <v>33.459999080000003</v>
+        <v>33.459999084472656</v>
       </c>
       <c r="D187" s="18">
         <f>SUM(C$3:C187)/A187</f>
-        <v>38.181189152216213</v>
+        <v>38.18118917186839</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="12.75" customHeight="1">
@@ -8993,11 +9145,11 @@
         <v>37</v>
       </c>
       <c r="C188" s="20">
-        <v>33.099998470000003</v>
+        <v>33.099998474121094</v>
       </c>
       <c r="D188" s="18">
         <f>SUM(C$3:C188)/A188</f>
-        <v>38.15387092274193</v>
+        <v>38.153870942310611</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="12.75" customHeight="1">
@@ -9009,11 +9161,11 @@
         <v>38</v>
       </c>
       <c r="C189" s="20">
-        <v>33.049999239999998</v>
+        <v>33.049999237060547</v>
       </c>
       <c r="D189" s="18">
         <f>SUM(C$3:C189)/A189</f>
-        <v>38.12657749128342</v>
+        <v>38.126577510731735</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="12.75" customHeight="1">
@@ -9025,11 +9177,11 @@
         <v>39</v>
       </c>
       <c r="C190" s="20">
-        <v>33.13999939</v>
+        <v>33.139999389648437</v>
       </c>
       <c r="D190" s="18">
         <f>SUM(C$3:C190)/A190</f>
-        <v>38.100053139680853</v>
+        <v>38.100053159023844</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="12.75" customHeight="1">
@@ -9045,7 +9197,7 @@
       </c>
       <c r="D191" s="18">
         <f>SUM(C$3:C191)/A191</f>
-        <v>38.071216879682538</v>
+        <v>38.071216898923183</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="12.75" customHeight="1">
@@ -9057,11 +9209,11 @@
         <v>41</v>
       </c>
       <c r="C192" s="20">
-        <v>33.209999080000003</v>
+        <v>33.209999084472656</v>
       </c>
       <c r="D192" s="18">
         <f>SUM(C$3:C192)/A192</f>
-        <v>38.0456315228421</v>
+        <v>38.045631542005026</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="12.75" customHeight="1">
@@ -9077,7 +9229,7 @@
       </c>
       <c r="D193" s="18">
         <f>SUM(C$3:C193)/A193</f>
-        <v>38.017120363036646</v>
+        <v>38.017120382099243</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="12.75" customHeight="1">
@@ -9089,11 +9241,11 @@
         <v>43</v>
       </c>
       <c r="C194" s="20">
-        <v>32.770000459999999</v>
+        <v>32.770000457763672</v>
       </c>
       <c r="D194" s="18">
         <f>SUM(C$3:C194)/A194</f>
-        <v>37.989791613541662</v>
+        <v>37.989791632493329</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="12.75" customHeight="1">
@@ -9105,11 +9257,11 @@
         <v>44</v>
       </c>
       <c r="C195" s="20">
-        <v>33.340000150000002</v>
+        <v>33.340000152587891</v>
       </c>
       <c r="D195" s="18">
         <f>SUM(C$3:C195)/A195</f>
-        <v>37.965699429792743</v>
+        <v>37.96569944865962</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="12.75" customHeight="1">
@@ -9121,11 +9273,11 @@
         <v>45</v>
       </c>
       <c r="C196" s="20">
-        <v>33.340000150000002</v>
+        <v>33.340000152587891</v>
       </c>
       <c r="D196" s="18">
         <f>SUM(C$3:C196)/A196</f>
-        <v>37.941855619072165</v>
+        <v>37.941855637855127</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="12.75" customHeight="1">
@@ -9137,11 +9289,11 @@
         <v>46</v>
       </c>
       <c r="C197" s="20">
-        <v>32.729999540000001</v>
+        <v>32.729999542236328</v>
       </c>
       <c r="D197" s="18">
         <f>SUM(C$3:C197)/A197</f>
-        <v>37.915128152000001</v>
+        <v>37.915128170698104</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="12.75" customHeight="1">
@@ -9153,11 +9305,11 @@
         <v>47</v>
       </c>
       <c r="C198" s="20">
-        <v>32.819999690000003</v>
+        <v>32.819999694824219</v>
       </c>
       <c r="D198" s="18">
         <f>SUM(C$3:C198)/A198</f>
-        <v>37.889132598622453</v>
+        <v>37.889132617249771</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="12.75" customHeight="1">
@@ -9169,11 +9321,11 @@
         <v>48</v>
       </c>
       <c r="C199" s="20">
-        <v>32.400001529999997</v>
+        <v>32.400001525878906</v>
       </c>
       <c r="D199" s="18">
         <f>SUM(C$3:C199)/A199</f>
-        <v>37.861268989137059</v>
+        <v>37.8612690076489</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="12.75" customHeight="1">
@@ -9185,11 +9337,11 @@
         <v>49</v>
       </c>
       <c r="C200" s="20">
-        <v>32.590000150000002</v>
+        <v>32.590000152587891</v>
       </c>
       <c r="D200" s="18">
         <f>SUM(C$3:C200)/A200</f>
-        <v>37.834646419242425</v>
+        <v>37.834646437673847</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="12.75" customHeight="1">
@@ -9201,11 +9353,11 @@
         <v>50</v>
       </c>
       <c r="C201" s="20">
-        <v>31.81999969</v>
+        <v>31.819999694824219</v>
       </c>
       <c r="D201" s="18">
         <f>SUM(C$3:C201)/A201</f>
-        <v>37.804422063819104</v>
+        <v>37.804422082182143</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="12.75" customHeight="1">
@@ -9217,11 +9369,11 @@
         <v>51</v>
       </c>
       <c r="C202" s="20">
-        <v>32.119998930000001</v>
+        <v>32.119998931884766</v>
       </c>
       <c r="D202" s="18">
         <f>SUM(C$3:C202)/A202</f>
-        <v>37.775999948150009</v>
+        <v>37.775999966430653</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="12.75" customHeight="1">
@@ -9233,11 +9385,11 @@
         <v>44588</v>
       </c>
       <c r="C203" s="20">
-        <v>31.159999849999998</v>
+        <v>31.159999847412109</v>
       </c>
       <c r="D203" s="18">
         <f>SUM(C$3:C203)/A203</f>
-        <v>37.743084524776123</v>
+        <v>37.74308454295295</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="12.75" customHeight="1">
@@ -9249,11 +9401,11 @@
         <v>44589</v>
       </c>
       <c r="C204" s="20">
-        <v>31.02</v>
+        <v>31.020000457763672</v>
       </c>
       <c r="D204" s="18">
         <f>SUM(C$3:C204)/A204</f>
-        <v>37.709801928118821</v>
+        <v>37.709801948471814</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="12.75" customHeight="1">
@@ -9265,11 +9417,11 @@
         <v>52</v>
       </c>
       <c r="C205" s="20">
-        <v>31.209999079999999</v>
+        <v>31.209999084472656</v>
       </c>
       <c r="D205" s="18">
         <f>SUM(C$3:C205)/A205</f>
-        <v>37.677783194876852</v>
+        <v>37.677783215151621</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="12.75" customHeight="1">
@@ -9281,11 +9433,11 @@
         <v>53</v>
       </c>
       <c r="C206" s="20">
-        <v>30.620000839999999</v>
+        <v>30.620000839233398</v>
       </c>
       <c r="D206" s="18">
         <f>SUM(C$3:C206)/A206</f>
-        <v>37.643186222549026</v>
+        <v>37.643186242720653</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="12.75" customHeight="1">
@@ -9297,11 +9449,11 @@
         <v>54</v>
       </c>
       <c r="C207" s="20">
-        <v>31.010000229999999</v>
+        <v>31.010000228881836</v>
       </c>
       <c r="D207" s="18">
         <f>SUM(C$3:C207)/A207</f>
-        <v>37.61082921770732</v>
+        <v>37.610829237775093</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="12.75" customHeight="1">
@@ -9313,11 +9465,11 @@
         <v>55</v>
       </c>
       <c r="C208" s="20">
-        <v>30.559999470000001</v>
+        <v>30.559999465942383</v>
       </c>
       <c r="D208" s="18">
         <f>SUM(C$3:C208)/A208</f>
-        <v>37.576601888834951</v>
+        <v>37.576601908785619</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="12.75" customHeight="1">
@@ -9329,11 +9481,11 @@
         <v>56</v>
       </c>
       <c r="C209" s="20">
-        <v>29.899999619999999</v>
+        <v>29.899999618530273</v>
       </c>
       <c r="D209" s="18">
         <f>SUM(C$3:C209)/A209</f>
-        <v>37.53951685371981</v>
+        <v>37.539516873566988</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="12.75" customHeight="1">
@@ -9345,11 +9497,11 @@
         <v>57</v>
       </c>
       <c r="C210" s="20">
-        <v>29.850000380000001</v>
+        <v>29.850000381469727</v>
       </c>
       <c r="D210" s="18">
         <f>SUM(C$3:C210)/A210</f>
-        <v>37.502548024519236</v>
+        <v>37.502548044278065</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="12.75" customHeight="1">
@@ -9361,11 +9513,11 @@
         <v>58</v>
       </c>
       <c r="C211" s="20">
-        <v>30.559999470000001</v>
+        <v>30.559999465942383</v>
       </c>
       <c r="D211" s="18">
         <f>SUM(C$3:C211)/A211</f>
-        <v>37.469330088851677</v>
+        <v>37.46933010849655</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="12.75" customHeight="1">
@@ -9377,11 +9529,11 @@
         <v>59</v>
       </c>
       <c r="C212" s="20">
-        <v>30.620000839999999</v>
+        <v>30.620000839233398</v>
       </c>
       <c r="D212" s="18">
         <f>SUM(C$3:C212)/A212</f>
-        <v>37.436714235285713</v>
+        <v>37.43671425483339</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="12.75" customHeight="1">
@@ -9393,11 +9545,11 @@
         <v>60</v>
       </c>
       <c r="C213" s="20">
-        <v>30.770000459999999</v>
+        <v>30.770000457763672</v>
       </c>
       <c r="D213" s="18">
         <f>SUM(C$3:C213)/A213</f>
-        <v>37.405118435402848</v>
+        <v>37.405118454847283</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="12.75" customHeight="1">
@@ -9409,11 +9561,11 @@
         <v>61</v>
       </c>
       <c r="C214" s="20">
-        <v>30.719999309999999</v>
+        <v>30.719999313354492</v>
       </c>
       <c r="D214" s="18">
         <f>SUM(C$3:C214)/A214</f>
-        <v>37.373584854622642</v>
+        <v>37.373584873991184</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="12.75" customHeight="1">
@@ -9425,11 +9577,11 @@
         <v>62</v>
       </c>
       <c r="C215" s="20">
-        <v>30.63999939</v>
+        <v>30.639999389648438</v>
       </c>
       <c r="D215" s="18">
         <f>SUM(C$3:C215)/A215</f>
-        <v>37.341971777323948</v>
+        <v>37.3419717965999</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="12.75" customHeight="1">
@@ -9441,11 +9593,11 @@
         <v>63</v>
       </c>
       <c r="C216" s="20">
-        <v>30.190000529999999</v>
+        <v>30.190000534057617</v>
       </c>
       <c r="D216" s="18">
         <f>SUM(C$3:C216)/A216</f>
-        <v>37.308551350934586</v>
+        <v>37.308551370139426</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="12.75" customHeight="1">
@@ -9457,11 +9609,11 @@
         <v>64</v>
       </c>
       <c r="C217" s="20">
-        <v>30.989999770000001</v>
+        <v>30.989999771118164</v>
       </c>
       <c r="D217" s="18">
         <f>SUM(C$3:C217)/A217</f>
-        <v>37.279162738930239</v>
+        <v>37.279162758050951</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="12.75" customHeight="1">
@@ -9473,11 +9625,11 @@
         <v>65</v>
       </c>
       <c r="C218" s="20">
-        <v>30.340000150000002</v>
+        <v>30.340000152587891</v>
       </c>
       <c r="D218" s="18">
         <f>SUM(C$3:C218)/A218</f>
-        <v>37.24703698620371</v>
+        <v>37.247037005247883</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="12.75" customHeight="1">
@@ -9489,11 +9641,11 @@
         <v>44617</v>
       </c>
       <c r="C219" s="20">
-        <v>30.899999619999999</v>
+        <v>30.899999618530273</v>
       </c>
       <c r="D219" s="18">
         <f>SUM(C$3:C219)/A219</f>
-        <v>37.217787966082959</v>
+        <v>37.217787985032594</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="12.75" customHeight="1">
@@ -9505,11 +9657,11 @@
         <v>44620</v>
       </c>
       <c r="C220" s="20">
-        <v>30.969999309999999</v>
+        <v>30.969999313354492</v>
       </c>
       <c r="D220" s="18">
         <f>SUM(C$3:C220)/A220</f>
-        <v>37.189128385091756</v>
+        <v>37.189128403969853</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="12.75" customHeight="1">
@@ -9521,11 +9673,11 @@
         <v>66</v>
       </c>
       <c r="C221" s="20">
-        <v>30.940000529999999</v>
+        <v>30.940000534057617</v>
       </c>
       <c r="D221" s="18">
         <f>SUM(C$3:C221)/A221</f>
-        <v>37.160593554703212</v>
+        <v>37.16059357351363</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="12.75" customHeight="1">
@@ -9537,11 +9689,11 @@
         <v>67</v>
       </c>
       <c r="C222" s="20">
-        <v>30.459999079999999</v>
+        <v>30.459999084472656</v>
       </c>
       <c r="D222" s="18">
         <f>SUM(C$3:C222)/A222</f>
-        <v>37.130136307090922</v>
+        <v>37.130136325836176</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="12.75" customHeight="1">
@@ -9553,11 +9705,11 @@
         <v>68</v>
       </c>
       <c r="C223" s="20">
-        <v>30.090000150000002</v>
+        <v>30.090000152587891</v>
       </c>
       <c r="D223" s="18">
         <f>SUM(C$3:C223)/A223</f>
-        <v>37.098280487375575</v>
+        <v>37.098280506047722</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="12.75" customHeight="1">
@@ -9569,11 +9721,11 @@
         <v>69</v>
       </c>
       <c r="C224" s="20">
-        <v>29.61000061</v>
+        <v>29.610000610351563</v>
       </c>
       <c r="D224" s="18">
         <f>SUM(C$3:C224)/A224</f>
-        <v>37.064549496936955</v>
+        <v>37.064549515526565</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="12.75" customHeight="1">
@@ -9585,11 +9737,11 @@
         <v>70</v>
       </c>
       <c r="C225" s="20">
-        <v>28.340000150000002</v>
+        <v>28.340000152587891</v>
       </c>
       <c r="D225" s="18">
         <f>SUM(C$3:C225)/A225</f>
-        <v>37.025425957264588</v>
+        <v>37.025425975782447</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="12.75" customHeight="1">
@@ -9601,11 +9753,11 @@
         <v>71</v>
       </c>
       <c r="C226" s="20">
-        <v>27.709999079999999</v>
+        <v>27.709999084472656</v>
       </c>
       <c r="D226" s="18">
         <f>SUM(C$3:C226)/A226</f>
-        <v>36.983839230133938</v>
+        <v>36.983839248589099</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="12.75" customHeight="1">
@@ -9617,11 +9769,11 @@
         <v>72</v>
       </c>
       <c r="C227" s="20">
-        <v>27.540000920000001</v>
+        <v>27.540000915527344</v>
       </c>
       <c r="D227" s="18">
         <f>SUM(C$3:C227)/A227</f>
-        <v>36.941866615422235</v>
+        <v>36.94186663377549</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="12.75" customHeight="1">
@@ -9633,11 +9785,11 @@
         <v>73</v>
       </c>
       <c r="C228" s="20">
-        <v>28.209999079999999</v>
+        <v>28.209999084472656</v>
       </c>
       <c r="D228" s="18">
         <f>SUM(C$3:C228)/A228</f>
-        <v>36.903230033407091</v>
+        <v>36.903230051698927</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="12.75" customHeight="1">
@@ -9649,11 +9801,11 @@
         <v>74</v>
       </c>
       <c r="C229" s="20">
-        <v>28.450000760000002</v>
+        <v>28.450000762939453</v>
       </c>
       <c r="D229" s="18">
         <f>SUM(C$3:C229)/A229</f>
-        <v>36.865991137929527</v>
+        <v>36.865991156153733</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="12.75" customHeight="1">
@@ -9665,11 +9817,11 @@
         <v>75</v>
       </c>
       <c r="C230" s="20">
-        <v>27.479999540000001</v>
+        <v>27.479999542236328</v>
       </c>
       <c r="D230" s="18">
         <f>SUM(C$3:C230)/A230</f>
-        <v>36.824824508114048</v>
+        <v>36.824824526268131</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="12.75" customHeight="1">
@@ -9681,11 +9833,11 @@
         <v>76</v>
       </c>
       <c r="C231" s="20">
-        <v>26.540000920000001</v>
+        <v>26.540000915527344</v>
       </c>
       <c r="D231" s="18">
         <f>SUM(C$3:C231)/A231</f>
-        <v>36.779912614716174</v>
+        <v>36.779912632771449</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="12.75" customHeight="1">
@@ -9697,11 +9849,11 @@
         <v>77</v>
       </c>
       <c r="C232" s="20">
-        <v>27.68000031</v>
+        <v>27.680000305175781</v>
       </c>
       <c r="D232" s="18">
         <f>SUM(C$3:C232)/A232</f>
-        <v>36.740347778608708</v>
+        <v>36.740347796564507</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="12.75" customHeight="1">
@@ -9713,11 +9865,11 @@
         <v>78</v>
       </c>
       <c r="C233" s="20">
-        <v>28.43000031</v>
+        <v>28.430000305175781</v>
       </c>
       <c r="D233" s="18">
         <f>SUM(C$3:C233)/A233</f>
-        <v>36.704372248441572</v>
+        <v>36.704372266298755</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="12.75" customHeight="1">
@@ -9729,11 +9881,11 @@
         <v>79</v>
       </c>
       <c r="C234" s="20">
-        <v>28.340000150000002</v>
+        <v>28.340000152587891</v>
       </c>
       <c r="D234" s="18">
         <f>SUM(C$3:C234)/A234</f>
-        <v>36.668318920431048</v>
+        <v>36.668318938222413</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="12.75" customHeight="1">
@@ -9745,11 +9897,11 @@
         <v>80</v>
       </c>
       <c r="C235" s="20">
-        <v>28.520000459999999</v>
+        <v>28.520000457763672</v>
       </c>
       <c r="D235" s="18">
         <f>SUM(C$3:C235)/A235</f>
-        <v>36.63334759656653</v>
+        <v>36.633347614271948</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="12.75" customHeight="1">
@@ -9765,7 +9917,7 @@
       </c>
       <c r="D236" s="18">
         <f>SUM(C$3:C236)/A236</f>
-        <v>36.597521324786335</v>
+        <v>36.597521342416087</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="12.75" customHeight="1">
@@ -9777,11 +9929,11 @@
         <v>82</v>
       </c>
       <c r="C237" s="20">
-        <v>28.43000031</v>
+        <v>28.430000305175781</v>
       </c>
       <c r="D237" s="18">
         <f>SUM(C$3:C237)/A237</f>
-        <v>36.562765916212776</v>
+        <v>36.562765933746981</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="12.75" customHeight="1">
@@ -9793,11 +9945,11 @@
         <v>83</v>
       </c>
       <c r="C238" s="20">
-        <v>28.280000690000001</v>
+        <v>28.280000686645508</v>
       </c>
       <c r="D238" s="18">
         <f>SUM(C$3:C238)/A238</f>
-        <v>36.527669453389834</v>
+        <v>36.527669470835534</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="12.75" customHeight="1">
@@ -9809,11 +9961,11 @@
         <v>84</v>
       </c>
       <c r="C239" s="20">
-        <v>27.61000061</v>
+        <v>27.610000610351563</v>
       </c>
       <c r="D239" s="18">
         <f>SUM(C$3:C239)/A239</f>
-        <v>36.490042158691992</v>
+        <v>36.490042176065558</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="12.75" customHeight="1">
@@ -9825,11 +9977,11 @@
         <v>85</v>
       </c>
       <c r="C240" s="20">
-        <v>27.18000031</v>
+        <v>27.180000305175781</v>
       </c>
       <c r="D240" s="18">
         <f>SUM(C$3:C240)/A240</f>
-        <v>36.450924335798327</v>
+        <v>36.450924353078626</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="12.75" customHeight="1">
@@ -9841,11 +9993,11 @@
         <v>86</v>
       </c>
       <c r="C241" s="20">
-        <v>27.010000229999999</v>
+        <v>27.010000228881836</v>
       </c>
       <c r="D241" s="18">
         <f>SUM(C$3:C241)/A241</f>
-        <v>36.41142256129708</v>
+        <v>36.4114225785004</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="12.75" customHeight="1">
@@ -9857,11 +10009,11 @@
         <v>44650</v>
       </c>
       <c r="C242" s="20">
-        <v>27.979999540000001</v>
+        <v>27.979999542236328</v>
       </c>
       <c r="D242" s="18">
         <f>SUM(C$3:C242)/A242</f>
-        <v>36.376291632041678</v>
+        <v>36.376291649182626</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="12.75" customHeight="1">
@@ -9873,11 +10025,11 @@
         <v>44651</v>
       </c>
       <c r="C243" s="20">
-        <v>27.63999939</v>
+        <v>27.639999389648438</v>
       </c>
       <c r="D243" s="18">
         <f>SUM(C$3:C243)/A243</f>
-        <v>36.340041456763494</v>
+        <v>36.340041473831867</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="12.75" customHeight="1">
@@ -9889,11 +10041,11 @@
         <v>87</v>
       </c>
       <c r="C244" s="20">
-        <v>27.840000150000002</v>
+        <v>27.840000152587891</v>
       </c>
       <c r="D244" s="18">
         <f>SUM(C$3:C244)/A244</f>
-        <v>36.304917319132237</v>
+        <v>36.304917336140775</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="12.75" customHeight="1">
@@ -9905,11 +10057,11 @@
         <v>88</v>
       </c>
       <c r="C245" s="20">
-        <v>27.649999619999999</v>
+        <v>27.649999618530273</v>
       </c>
       <c r="D245" s="18">
         <f>SUM(C$3:C245)/A245</f>
-        <v>36.269300373868319</v>
+        <v>36.269300390800815</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="12.75" customHeight="1">
@@ -9921,11 +10073,11 @@
         <v>89</v>
       </c>
       <c r="C246" s="20">
-        <v>27.200000760000002</v>
+        <v>27.200000762939453</v>
       </c>
       <c r="D246" s="18">
         <f>SUM(C$3:C246)/A246</f>
-        <v>36.232131113155745</v>
+        <v>36.232131130030886</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="12.75" customHeight="1">
@@ -9937,11 +10089,11 @@
         <v>90</v>
       </c>
       <c r="C247" s="20">
-        <v>27.170000080000001</v>
+        <v>27.170000076293945</v>
       </c>
       <c r="D247" s="18">
         <f>SUM(C$3:C247)/A247</f>
-        <v>36.195142823224494</v>
+        <v>36.195142840015635</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="12.75" customHeight="1">
@@ -9953,11 +10105,11 @@
         <v>91</v>
       </c>
       <c r="C248" s="20">
-        <v>26.11000061</v>
+        <v>26.110000610351563</v>
       </c>
       <c r="D248" s="18">
         <f>SUM(C$3:C248)/A248</f>
-        <v>36.154146310162609</v>
+        <v>36.154146326886924</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="12.75" customHeight="1">
@@ -9969,11 +10121,11 @@
         <v>92</v>
       </c>
       <c r="C249" s="20">
-        <v>26.620000839999999</v>
+        <v>26.620000839233398</v>
       </c>
       <c r="D249" s="18">
         <f>SUM(C$3:C249)/A249</f>
-        <v>36.115546530931177</v>
+        <v>36.115546547584678</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="12.75" customHeight="1">
@@ -9985,11 +10137,11 @@
         <v>93</v>
       </c>
       <c r="C250" s="20">
-        <v>26.18000031</v>
+        <v>26.180000305175781</v>
       </c>
       <c r="D250" s="18">
         <f>SUM(C$3:C250)/A250</f>
-        <v>36.075483844556452</v>
+        <v>36.075483861123352</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="12.75" customHeight="1">
@@ -10001,11 +10153,11 @@
         <v>94</v>
       </c>
       <c r="C251" s="20">
-        <v>26.340000150000002</v>
+        <v>26.340000152587891</v>
       </c>
       <c r="D251" s="18">
         <f>SUM(C$3:C251)/A251</f>
-        <v>36.036385516465863</v>
+        <v>36.036385532976624</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="12.75" customHeight="1">
@@ -10017,11 +10169,11 @@
         <v>95</v>
       </c>
       <c r="C252" s="20">
-        <v>26.209999079999999</v>
+        <v>26.209999084472656</v>
       </c>
       <c r="D252" s="18">
         <f>SUM(C$3:C252)/A252</f>
-        <v>35.997079970720002</v>
+        <v>35.997079987182609</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="12.75" customHeight="1">
@@ -10033,11 +10185,11 @@
         <v>96</v>
       </c>
       <c r="C253" s="20">
-        <v>26.399999619999999</v>
+        <v>26.399999618530273</v>
       </c>
       <c r="D253" s="18">
         <f>SUM(C$3:C253)/A253</f>
-        <v>35.958844590836655</v>
+        <v>35.958844607227817</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="12.75" customHeight="1">
@@ -10049,11 +10201,11 @@
         <v>97</v>
       </c>
       <c r="C254" s="20">
-        <v>26.120000839999999</v>
+        <v>26.120000839233398</v>
       </c>
       <c r="D254" s="18">
         <f>SUM(C$3:C254)/A254</f>
-        <v>35.919801560079364</v>
+        <v>35.919801576402442</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="12.75" customHeight="1">
@@ -10065,11 +10217,11 @@
         <v>98</v>
       </c>
       <c r="C255" s="20">
-        <v>25.469999309999999</v>
+        <v>25.469999313354492</v>
       </c>
       <c r="D255" s="18">
         <f>SUM(C$3:C255)/A255</f>
-        <v>35.878497993873516</v>
+        <v>35.878498010145336</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="12.75" customHeight="1">
@@ -10081,11 +10233,11 @@
         <v>99</v>
       </c>
       <c r="C256" s="20">
-        <v>24.88999939</v>
+        <v>24.889999389648437</v>
       </c>
       <c r="D256" s="18">
         <f>SUM(C$3:C256)/A256</f>
-        <v>35.83523618834645</v>
+        <v>35.835236204552828</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="12.75" customHeight="1">
@@ -10097,11 +10249,11 @@
         <v>100</v>
       </c>
       <c r="C257" s="20">
-        <v>24.88999939</v>
+        <v>24.889999389648437</v>
       </c>
       <c r="D257" s="18">
         <f>SUM(C$3:C257)/A257</f>
-        <v>35.79231369109803</v>
+        <v>35.792313707239479</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="12.75" customHeight="1">
@@ -10113,11 +10265,11 @@
         <v>101</v>
       </c>
       <c r="C258" s="20">
-        <v>23.450000760000002</v>
+        <v>23.450000762939453</v>
       </c>
       <c r="D258" s="18">
         <f>SUM(C$3:C258)/A258</f>
-        <v>35.74410153121093</v>
+        <v>35.744101547300808</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="12.75" customHeight="1">
@@ -10129,11 +10281,11 @@
         <v>102</v>
       </c>
       <c r="C259" s="20">
-        <v>23.170000080000001</v>
+        <v>23.170000076293945</v>
       </c>
       <c r="D259" s="18">
         <f>SUM(C$3:C259)/A259</f>
-        <v>35.695175066420227</v>
+        <v>35.695175082433074</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="12.75" customHeight="1">
@@ -10145,11 +10297,11 @@
         <v>103</v>
       </c>
       <c r="C260" s="20">
-        <v>24.280000690000001</v>
+        <v>24.280000686645508</v>
       </c>
       <c r="D260" s="18">
         <f>SUM(C$3:C260)/A260</f>
-        <v>35.650930204496113</v>
+        <v>35.650930220433899</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="12.75" customHeight="1">
@@ -10161,11 +10313,11 @@
         <v>44679</v>
       </c>
       <c r="C261" s="20">
-        <v>24.120000839999999</v>
+        <v>24.120000839233398</v>
       </c>
       <c r="D261" s="18">
         <f>SUM(C$3:C261)/A261</f>
-        <v>35.606409241698827</v>
+        <v>35.606409257572125</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="12.75" customHeight="1">
@@ -10177,11 +10329,11 @@
         <v>44680</v>
       </c>
       <c r="C262" s="20">
-        <v>25.129999160000001</v>
+        <v>25.129999160766602</v>
       </c>
       <c r="D262" s="18">
         <f>SUM(C$3:C262)/A262</f>
-        <v>35.566115356769217</v>
+        <v>35.566115372584406</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="12.75" customHeight="1">
@@ -10193,11 +10345,11 @@
         <v>104</v>
       </c>
       <c r="C263" s="20">
-        <v>23.229999540000001</v>
+        <v>23.229999542236328</v>
       </c>
       <c r="D263" s="18">
         <f>SUM(C$3:C263)/A263</f>
-        <v>35.518850545210718</v>
+        <v>35.518850560973881</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="12.75" customHeight="1">
@@ -10209,11 +10361,11 @@
         <v>105</v>
       </c>
       <c r="C264" s="20">
-        <v>22.719999309999999</v>
+        <v>22.719999313354492</v>
       </c>
       <c r="D264" s="18">
         <f>SUM(C$3:C264)/A264</f>
-        <v>35.469999967977095</v>
+        <v>35.469999983692887</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="12.75" customHeight="1">
@@ -10225,11 +10377,11 @@
         <v>106</v>
       </c>
       <c r="C265" s="20">
-        <v>22.459999079999999</v>
+        <v>22.459999084472656</v>
       </c>
       <c r="D265" s="18">
         <f>SUM(C$3:C265)/A265</f>
-        <v>35.420532283992387</v>
+        <v>35.420532299665439</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="12.75" customHeight="1">
@@ -10241,11 +10393,11 @@
         <v>107</v>
       </c>
       <c r="C266" s="20">
-        <v>22.780000690000001</v>
+        <v>22.780000686645508</v>
       </c>
       <c r="D266" s="18">
         <f>SUM(C$3:C266)/A266</f>
-        <v>35.37265148249999</v>
+        <v>35.372651498100964</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="12.75" customHeight="1">
@@ -10257,11 +10409,11 @@
         <v>108</v>
       </c>
       <c r="C267" s="20">
-        <v>23.450000760000002</v>
+        <v>23.450000762939453</v>
       </c>
       <c r="D267" s="18">
         <f>SUM(C$3:C267)/A267</f>
-        <v>35.327660347698107</v>
+        <v>35.327660363251297</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="12.75" customHeight="1">
@@ -10273,11 +10425,11 @@
         <v>109</v>
       </c>
       <c r="C268" s="20">
-        <v>23.370000839999999</v>
+        <v>23.370000839233398</v>
       </c>
       <c r="D268" s="18">
         <f>SUM(C$3:C268)/A268</f>
-        <v>35.282706740526301</v>
+        <v>35.28270675601815</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="12.75" customHeight="1">
@@ -10289,11 +10441,11 @@
         <v>110</v>
       </c>
       <c r="C269" s="20">
-        <v>23.549999239999998</v>
+        <v>23.549999237060547</v>
       </c>
       <c r="D269" s="18">
         <f>SUM(C$3:C269)/A269</f>
-        <v>35.238764015805231</v>
+        <v>35.238764031228044</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="12.75" customHeight="1">
@@ -10305,11 +10457,11 @@
         <v>111</v>
       </c>
       <c r="C270" s="20">
-        <v>23.290000920000001</v>
+        <v>23.290000915527344</v>
       </c>
       <c r="D270" s="18">
         <f>SUM(C$3:C270)/A270</f>
-        <v>35.194179078880587</v>
+        <v>35.194179094229163</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="12.75" customHeight="1">
@@ -10321,11 +10473,11 @@
         <v>112</v>
       </c>
       <c r="C271" s="20">
-        <v>23.729999540000001</v>
+        <v>23.729999542236328</v>
       </c>
       <c r="D271" s="18">
         <f>SUM(C$3:C271)/A271</f>
-        <v>35.151561311078062</v>
+        <v>35.151561326377887</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="12.75" customHeight="1">
@@ -10337,11 +10489,11 @@
         <v>113</v>
       </c>
       <c r="C272" s="20">
-        <v>23.709999079999999</v>
+        <v>23.709999084472656</v>
       </c>
       <c r="D272" s="18">
         <f>SUM(C$3:C272)/A272</f>
-        <v>35.109185154666655</v>
+        <v>35.109185169926391</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="12.75" customHeight="1">
@@ -10353,11 +10505,11 @@
         <v>114</v>
       </c>
       <c r="C273" s="20">
-        <v>23.790000920000001</v>
+        <v>23.790000915527344</v>
       </c>
       <c r="D273" s="18">
         <f>SUM(C$3:C273)/A273</f>
-        <v>35.067416947158662</v>
+        <v>35.067416962345582</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="12.75" customHeight="1">
@@ -10373,7 +10525,7 @@
       </c>
       <c r="D274" s="18">
         <f>SUM(C$3:C274)/A274</f>
-        <v>35.027352914264696</v>
+        <v>35.027352929395782</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="12.75" customHeight="1">
@@ -10385,11 +10537,11 @@
         <v>116</v>
       </c>
       <c r="C275" s="20">
-        <v>24.049999239999998</v>
+        <v>24.049999237060547</v>
       </c>
       <c r="D275" s="18">
         <f>SUM(C$3:C275)/A275</f>
-        <v>34.987142827545782</v>
+        <v>34.987142842610673</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="12.75" customHeight="1">
@@ -10401,11 +10553,11 @@
         <v>117</v>
       </c>
       <c r="C276" s="20">
-        <v>23.209999079999999</v>
+        <v>23.209999084472656</v>
       </c>
       <c r="D276" s="18">
         <f>SUM(C$3:C276)/A276</f>
-        <v>34.944160551094882</v>
+        <v>34.944160566121113</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="12.75" customHeight="1">
@@ -10417,11 +10569,11 @@
         <v>118</v>
       </c>
       <c r="C277" s="20">
-        <v>23.309999470000001</v>
+        <v>23.309999465942383</v>
       </c>
       <c r="D277" s="18">
         <f>SUM(C$3:C277)/A277</f>
-        <v>34.901854510799993</v>
+        <v>34.901854525756832</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="12.75" customHeight="1">
@@ -10433,11 +10585,11 @@
         <v>119</v>
       </c>
       <c r="C278" s="20">
-        <v>23.329999919999999</v>
+        <v>23.329999923706055</v>
       </c>
       <c r="D278" s="18">
         <f>SUM(C$3:C278)/A278</f>
-        <v>34.85992750141304</v>
+        <v>34.859927516329108</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="12.75" customHeight="1">
@@ -10449,11 +10601,11 @@
         <v>120</v>
       </c>
       <c r="C279" s="20">
-        <v>23.370000839999999</v>
+        <v>23.370000839233398</v>
       </c>
       <c r="D279" s="18">
         <f>SUM(C$3:C279)/A279</f>
-        <v>34.818447621768946</v>
+        <v>34.818447636628399</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="12.75" customHeight="1">
@@ -10465,11 +10617,11 @@
         <v>44711</v>
       </c>
       <c r="C280" s="20">
-        <v>23.63999939</v>
+        <v>23.639999389648438</v>
       </c>
       <c r="D280" s="18">
         <f>SUM(C$3:C280)/A280</f>
-        <v>34.778237376330928</v>
+        <v>34.778237391135669</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="12.75" customHeight="1">
@@ -10481,11 +10633,11 @@
         <v>44712</v>
       </c>
       <c r="C281" s="20">
-        <v>24.129999160000001</v>
+        <v>24.129999160766602</v>
       </c>
       <c r="D281" s="18">
         <f>SUM(C$3:C281)/A281</f>
-        <v>34.740071647956981</v>
+        <v>34.740071662711408</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="12.75" customHeight="1">
@@ -10497,11 +10649,11 @@
         <v>121</v>
       </c>
       <c r="C282" s="20">
-        <v>24.309999470000001</v>
+        <v>24.309999465942383</v>
       </c>
       <c r="D282" s="18">
         <f>SUM(C$3:C282)/A282</f>
-        <v>34.70282139017857</v>
+        <v>34.702821404865801</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="12.75" customHeight="1">
@@ -10513,11 +10665,11 @@
         <v>122</v>
       </c>
       <c r="C283" s="20">
-        <v>24.510000229999999</v>
+        <v>24.510000228881836</v>
       </c>
       <c r="D283" s="18">
         <f>SUM(C$3:C283)/A283</f>
-        <v>34.666548005266904</v>
+        <v>34.666548019897888</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="12.75" customHeight="1">
@@ -10529,11 +10681,11 @@
         <v>123</v>
       </c>
       <c r="C284" s="20">
-        <v>25.329999919999999</v>
+        <v>25.329999923706055</v>
       </c>
       <c r="D284" s="18">
         <f>SUM(C$3:C284)/A284</f>
-        <v>34.633439678723406</v>
+        <v>34.633439693315651</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="12.75" customHeight="1">
@@ -10545,11 +10697,11 @@
         <v>124</v>
       </c>
       <c r="C285" s="20">
-        <v>25.270000459999999</v>
+        <v>25.270000457763672</v>
       </c>
       <c r="D285" s="18">
         <f>SUM(C$3:C285)/A285</f>
-        <v>34.600353321060069</v>
+        <v>34.60035333559285</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="12.75" customHeight="1">
@@ -10561,11 +10713,11 @@
         <v>125</v>
       </c>
       <c r="C286" s="20">
-        <v>25.459999079999999</v>
+        <v>25.459999084472656</v>
       </c>
       <c r="D286" s="18">
         <f>SUM(C$3:C286)/A286</f>
-        <v>34.568168975140843</v>
+        <v>34.568168989638203</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="12.75" customHeight="1">
@@ -10581,7 +10733,7 @@
       </c>
       <c r="D287" s="18">
         <f>SUM(C$3:C287)/A287</f>
-        <v>34.533719259438591</v>
+        <v>34.533719273885083</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="12.75" customHeight="1">
@@ -10593,11 +10745,11 @@
         <v>127</v>
       </c>
       <c r="C288" s="20">
-        <v>25.379999160000001</v>
+        <v>25.379999160766602</v>
       </c>
       <c r="D288" s="18">
         <f>SUM(C$3:C288)/A288</f>
-        <v>34.501713245104895</v>
+        <v>34.501713259503553</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="12.75" customHeight="1">
@@ -10609,11 +10761,11 @@
         <v>128</v>
       </c>
       <c r="C289" s="20">
-        <v>17.149999619999999</v>
+        <v>17.149999618530273</v>
       </c>
       <c r="D289" s="18">
         <f>SUM(C$3:C289)/A289</f>
-        <v>34.441254312613239</v>
+        <v>34.441254326956603</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="12.75" customHeight="1">
@@ -10625,11 +10777,11 @@
         <v>129</v>
       </c>
       <c r="C290" s="20">
-        <v>25.61000061</v>
+        <v>25.610000610351563</v>
       </c>
       <c r="D290" s="18">
         <f>SUM(C$3:C290)/A290</f>
-        <v>34.410590237256947</v>
+        <v>34.410590251551724</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="12.75" customHeight="1">
@@ -10641,11 +10793,11 @@
         <v>130</v>
       </c>
       <c r="C291" s="20">
-        <v>25.979999540000001</v>
+        <v>25.979999542236328</v>
       </c>
       <c r="D291" s="18">
         <f>SUM(C$3:C291)/A291</f>
-        <v>34.381418643148791</v>
+        <v>34.381418657401845</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="12.75" customHeight="1">
@@ -10661,7 +10813,7 @@
       </c>
       <c r="D292" s="18">
         <f>SUM(C$3:C292)/A292</f>
-        <v>34.352517199551727</v>
+        <v>34.352517213755632</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="12.75" customHeight="1">
@@ -10677,7 +10829,7 @@
       </c>
       <c r="D293" s="18">
         <f>SUM(C$3:C293)/A293</f>
-        <v>34.325532604364263</v>
+        <v>34.325532618519361</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="12.75" customHeight="1">
@@ -10689,11 +10841,11 @@
         <v>133</v>
       </c>
       <c r="C294" s="20">
-        <v>27.010000229999999</v>
+        <v>27.010000228881836</v>
       </c>
       <c r="D294" s="18">
         <f>SUM(C$3:C294)/A294</f>
-        <v>34.300479411301374</v>
+        <v>34.300479425404163</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="12.75" customHeight="1">
@@ -10705,11 +10857,11 @@
         <v>134</v>
       </c>
       <c r="C295" s="20">
-        <v>26.989999770000001</v>
+        <v>26.989999771118164</v>
       </c>
       <c r="D295" s="18">
         <f>SUM(C$3:C295)/A295</f>
-        <v>34.275528968839595</v>
+        <v>34.275528982898066</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="12.75" customHeight="1">
@@ -10721,11 +10873,11 @@
         <v>135</v>
       </c>
       <c r="C296" s="20">
-        <v>26.600000380000001</v>
+        <v>26.600000381469727</v>
       </c>
       <c r="D296" s="18">
         <f>SUM(C$3:C296)/A296</f>
-        <v>34.249421728741503</v>
+        <v>34.249421742757157</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="12.75" customHeight="1">
@@ -10737,11 +10889,11 @@
         <v>136</v>
       </c>
       <c r="C297" s="20">
-        <v>27.239999770000001</v>
+        <v>27.239999771118164</v>
       </c>
       <c r="D297" s="18">
         <f>SUM(C$3:C297)/A297</f>
-        <v>34.225660976338986</v>
+        <v>34.225660990310921</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="12.75" customHeight="1">
@@ -10753,11 +10905,11 @@
         <v>137</v>
       </c>
       <c r="C298" s="20">
-        <v>27.739999770000001</v>
+        <v>27.739999771118164</v>
       </c>
       <c r="D298" s="18">
         <f>SUM(C$3:C298)/A298</f>
-        <v>34.203749958750002</v>
+        <v>34.203749972678516</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="12.75" customHeight="1">
@@ -10769,11 +10921,11 @@
         <v>138</v>
       </c>
       <c r="C299" s="20">
-        <v>27.870000839999999</v>
+        <v>27.870000839233398</v>
       </c>
       <c r="D299" s="18">
         <f>SUM(C$3:C299)/A299</f>
-        <v>34.182424204141412</v>
+        <v>34.182424218020451</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="12.75" customHeight="1">
@@ -10785,11 +10937,11 @@
         <v>139</v>
       </c>
       <c r="C300" s="20">
-        <v>28.170000080000001</v>
+        <v>28.170000076293945</v>
       </c>
       <c r="D300" s="18">
         <f>SUM(C$3:C300)/A300</f>
-        <v>34.162248284261743</v>
+        <v>34.162248298081771</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="12.75" customHeight="1">
@@ -10801,11 +10953,11 @@
         <v>44741</v>
       </c>
       <c r="C301" s="20">
-        <v>27.510000229999999</v>
+        <v>27.510000228881836</v>
       </c>
       <c r="D301" s="18">
         <f>SUM(C$3:C301)/A301</f>
-        <v>34.139999963010034</v>
+        <v>34.139999976780096</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="12.75" customHeight="1">
@@ -10817,11 +10969,11 @@
         <v>44742</v>
       </c>
       <c r="C302" s="20">
-        <v>27.809999470000001</v>
+        <v>27.809999465942383</v>
       </c>
       <c r="D302" s="18">
         <f>SUM(C$3:C302)/A302</f>
-        <v>34.118899961366665</v>
+        <v>34.118899975077305</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="12.75" customHeight="1">
@@ -10833,11 +10985,11 @@
         <v>140</v>
       </c>
       <c r="C303" s="20">
-        <v>27.63999939</v>
+        <v>27.639999389648438</v>
       </c>
       <c r="D303" s="18">
         <f>SUM(C$3:C303)/A303</f>
-        <v>34.097375374750825</v>
+        <v>34.097375388414747</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="12.75" customHeight="1">
@@ -10849,11 +11001,11 @@
         <v>141</v>
       </c>
       <c r="C304" s="20">
-        <v>28.079999919999999</v>
+        <v>28.079999923706055</v>
       </c>
       <c r="D304" s="18">
         <f>SUM(C$3:C304)/A304</f>
-        <v>34.077450290463574</v>
+        <v>34.077450304094526</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="12.75" customHeight="1">
@@ -10865,11 +11017,11 @@
         <v>142</v>
       </c>
       <c r="C305" s="20">
-        <v>27.93000031</v>
+        <v>27.930000305175781</v>
       </c>
       <c r="D305" s="18">
         <f>SUM(C$3:C305)/A305</f>
-        <v>34.057161676666666</v>
+        <v>34.057161690236704</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="12.75" customHeight="1">
@@ -10881,11 +11033,11 @@
         <v>143</v>
       </c>
       <c r="C306" s="20">
-        <v>27.709999079999999</v>
+        <v>27.709999084472656</v>
       </c>
       <c r="D306" s="18">
         <f>SUM(C$3:C306)/A306</f>
-        <v>34.036282852335525</v>
+        <v>34.036282865875641</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="12.75" customHeight="1">
@@ -10897,11 +11049,11 @@
         <v>144</v>
       </c>
       <c r="C307" s="20">
-        <v>28.079999919999999</v>
+        <v>28.079999923706055</v>
       </c>
       <c r="D307" s="18">
         <f>SUM(C$3:C307)/A307</f>
-        <v>34.016754055836067</v>
+        <v>34.016754069343939</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="12.75" customHeight="1">
@@ -10913,11 +11065,11 @@
         <v>145</v>
       </c>
       <c r="C308" s="20">
-        <v>27.86000061</v>
+        <v>27.860000610351563</v>
       </c>
       <c r="D308" s="18">
         <f>SUM(C$3:C308)/A308</f>
-        <v>33.996633946535951</v>
+        <v>33.996633960000821</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="12.75" customHeight="1">
@@ -10929,11 +11081,11 @@
         <v>146</v>
       </c>
       <c r="C309" s="20">
-        <v>27.280000690000001</v>
+        <v>27.280000686645508</v>
       </c>
       <c r="D309" s="18">
         <f>SUM(C$3:C309)/A309</f>
-        <v>33.974755662312702</v>
+        <v>33.97475567572279</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="12.75" customHeight="1">
@@ -10945,11 +11097,11 @@
         <v>147</v>
       </c>
       <c r="C310" s="20">
-        <v>26.770000459999999</v>
+        <v>26.770000457763672</v>
       </c>
       <c r="D310" s="18">
         <f>SUM(C$3:C310)/A310</f>
-        <v>33.951363599967529</v>
+        <v>33.951363613326819</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="12.75" customHeight="1">
@@ -10961,11 +11113,11 @@
         <v>148</v>
       </c>
       <c r="C311" s="20">
-        <v>27.020000459999999</v>
+        <v>27.020000457763672</v>
       </c>
       <c r="D311" s="18">
         <f>SUM(C$3:C311)/A311</f>
-        <v>33.928932004045308</v>
+        <v>33.928932017354128</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="12.75" customHeight="1">
@@ -10977,11 +11129,11 @@
         <v>149</v>
       </c>
       <c r="C312" s="20">
-        <v>27.459999079999999</v>
+        <v>27.459999084472656</v>
       </c>
       <c r="D312" s="18">
         <f>SUM(C$3:C312)/A312</f>
-        <v>33.908064478483865</v>
+        <v>33.908064491764186</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="12.75" customHeight="1">
@@ -10993,11 +11145,11 @@
         <v>150</v>
       </c>
       <c r="C313" s="20">
-        <v>27.059999470000001</v>
+        <v>27.059999465942383</v>
       </c>
       <c r="D313" s="18">
         <f>SUM(C$3:C313)/A313</f>
-        <v>33.886044976848872</v>
+        <v>33.886044990073444</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="12.75" customHeight="1">
@@ -11009,11 +11161,11 @@
         <v>151</v>
       </c>
       <c r="C314" s="20">
-        <v>27.329999919999999</v>
+        <v>27.329999923706055</v>
       </c>
       <c r="D314" s="18">
         <f>SUM(C$3:C314)/A314</f>
-        <v>33.865032011923077</v>
+        <v>33.865032025117138</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="12.75" customHeight="1">
@@ -11025,11 +11177,11 @@
         <v>152</v>
       </c>
       <c r="C315" s="20">
-        <v>27.049999239999998</v>
+        <v>27.049999237060547</v>
       </c>
       <c r="D315" s="18">
         <f>SUM(C$3:C315)/A315</f>
-        <v>33.843258744281151</v>
+        <v>33.843258757423662</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="12.75" customHeight="1">
@@ -11041,11 +11193,11 @@
         <v>153</v>
       </c>
       <c r="C316" s="20">
-        <v>27.120000839999999</v>
+        <v>27.120000839233398</v>
       </c>
       <c r="D316" s="18">
         <f>SUM(C$3:C316)/A316</f>
-        <v>33.821847094904456</v>
+        <v>33.821847108002672</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="12.75" customHeight="1">
@@ -11057,11 +11209,11 @@
         <v>154</v>
       </c>
       <c r="C317" s="20">
-        <v>26.88999939</v>
+        <v>26.889999389648437</v>
       </c>
       <c r="D317" s="18">
         <f>SUM(C$3:C317)/A317</f>
-        <v>33.799841229174596</v>
+        <v>33.799841242230123</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="12.75" customHeight="1">
@@ -11073,11 +11225,11 @@
         <v>155</v>
       </c>
       <c r="C318" s="20">
-        <v>26.799999239999998</v>
+        <v>26.799999237060547</v>
       </c>
       <c r="D318" s="18">
         <f>SUM(C$3:C318)/A318</f>
-        <v>33.777689830474678</v>
+        <v>33.777689843479585</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="12.75" customHeight="1">
@@ -11089,11 +11241,11 @@
         <v>156</v>
       </c>
       <c r="C319" s="20">
-        <v>26.56999969</v>
+        <v>26.569999694824219</v>
       </c>
       <c r="D319" s="18">
         <f>SUM(C$3:C319)/A319</f>
-        <v>33.754952637602521</v>
+        <v>33.754952650581622</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="12.75" customHeight="1">
@@ -11105,11 +11257,11 @@
         <v>157</v>
       </c>
       <c r="C320" s="20">
-        <v>26.709999079999999</v>
+        <v>26.709999084472656</v>
       </c>
       <c r="D320" s="18">
         <f>SUM(C$3:C320)/A320</f>
-        <v>33.732798695597481</v>
+        <v>33.732798708549829</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="12.75" customHeight="1">
@@ -11121,11 +11273,11 @@
         <v>158</v>
       </c>
       <c r="C321" s="20">
-        <v>26.620000839999999</v>
+        <v>26.620000839233398</v>
       </c>
       <c r="D321" s="18">
         <f>SUM(C$3:C321)/A321</f>
-        <v>33.71050152363636</v>
+        <v>33.710501536545699</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="12.75" customHeight="1">
@@ -11137,11 +11289,11 @@
         <v>44770</v>
       </c>
       <c r="C322" s="20">
-        <v>26.709999079999999</v>
+        <v>26.709999084472656</v>
       </c>
       <c r="D322" s="18">
         <f>SUM(C$3:C322)/A322</f>
-        <v>33.688624953499996</v>
+        <v>33.688624966382974</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="12.75" customHeight="1">
@@ -11153,11 +11305,11 @@
         <v>44771</v>
       </c>
       <c r="C323" s="20">
-        <v>26.329999919999999</v>
+        <v>26.329999923706055</v>
       </c>
       <c r="D323" s="18">
         <f>SUM(C$3:C323)/A323</f>
-        <v>33.665700887975071</v>
+        <v>33.665700900829464</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="12.75" customHeight="1">
@@ -11169,11 +11321,11 @@
         <v>159</v>
       </c>
       <c r="C324" s="20">
-        <v>26.870000839999999</v>
+        <v>26.870000839233398</v>
       </c>
       <c r="D324" s="18">
         <f>SUM(C$3:C324)/A324</f>
-        <v>33.644596229440985</v>
+        <v>33.64459624225308</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="12.75" customHeight="1">
@@ -11189,7 +11341,7 @@
       </c>
       <c r="D325" s="18">
         <f>SUM(C$3:C325)/A325</f>
-        <v>33.621981380433432</v>
+        <v>33.621981393205857</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="12.75" customHeight="1">
@@ -11205,7 +11357,7 @@
       </c>
       <c r="D326" s="18">
         <f>SUM(C$3:C326)/A326</f>
-        <v>33.598333289753079</v>
+        <v>33.598333302486083</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="12.75" customHeight="1">
@@ -11221,7 +11373,7 @@
       </c>
       <c r="D327" s="18">
         <f>SUM(C$3:C327)/A327</f>
-        <v>33.575199956553838</v>
+        <v>33.575199969247663</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="12.75" customHeight="1">
@@ -11233,11 +11385,11 @@
         <v>163</v>
       </c>
       <c r="C328" s="20">
-        <v>26.459999079999999</v>
+        <v>26.459999084472656</v>
       </c>
       <c r="D328" s="18">
         <f>SUM(C$3:C328)/A328</f>
-        <v>33.553374186993857</v>
+        <v>33.553374199662464</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="12.75" customHeight="1">
@@ -11249,11 +11401,11 @@
         <v>164</v>
       </c>
       <c r="C329" s="20">
-        <v>26.450000760000002</v>
+        <v>26.450000762939453</v>
       </c>
       <c r="D329" s="18">
         <f>SUM(C$3:C329)/A329</f>
-        <v>33.531651332477054</v>
+        <v>33.531651345115911</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="12.75" customHeight="1">
@@ -11265,11 +11417,11 @@
         <v>165</v>
       </c>
       <c r="C330" s="20">
-        <v>26.559999470000001</v>
+        <v>26.559999465942383</v>
       </c>
       <c r="D330" s="18">
         <f>SUM(C$3:C330)/A330</f>
-        <v>33.510396296310965</v>
+        <v>33.510396308898919</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="12.75" customHeight="1">
@@ -11281,11 +11433,11 @@
         <v>166</v>
       </c>
       <c r="C331" s="20">
-        <v>26.200000760000002</v>
+        <v>26.200000762939453</v>
       </c>
       <c r="D331" s="18">
         <f>SUM(C$3:C331)/A331</f>
-        <v>33.488176249088134</v>
+        <v>33.488176261646764</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="12.75" customHeight="1">
@@ -11301,7 +11453,7 @@
       </c>
       <c r="D332" s="18">
         <f>SUM(C$3:C332)/A332</f>
-        <v>33.467939351363626</v>
+        <v>33.467939363884192</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="12.75" customHeight="1">
@@ -11313,11 +11465,11 @@
         <v>168</v>
       </c>
       <c r="C333" s="20">
-        <v>26.620000839999999</v>
+        <v>26.620000839233398</v>
       </c>
       <c r="D333" s="18">
         <f>SUM(C$3:C333)/A333</f>
-        <v>33.447250715377635</v>
+        <v>33.447250727858055</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="12.75" customHeight="1">
@@ -11329,11 +11481,11 @@
         <v>169</v>
       </c>
       <c r="C334" s="20">
-        <v>26.709999079999999</v>
+        <v>26.709999084472656</v>
       </c>
       <c r="D334" s="18">
         <f>SUM(C$3:C334)/A334</f>
-        <v>33.426957788765044</v>
+        <v>33.426957801221356</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="12.75" customHeight="1">
@@ -11345,11 +11497,11 @@
         <v>170</v>
       </c>
       <c r="C335" s="20">
-        <v>26.719999309999999</v>
+        <v>26.719999313354492</v>
       </c>
       <c r="D335" s="18">
         <f>SUM(C$3:C335)/A335</f>
-        <v>33.406816772312297</v>
+        <v>33.406816784741274</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="12.75" customHeight="1">
@@ -11361,11 +11513,11 @@
         <v>171</v>
       </c>
       <c r="C336" s="20">
-        <v>27.159999849999998</v>
+        <v>27.159999847412109</v>
       </c>
       <c r="D336" s="18">
         <f>SUM(C$3:C336)/A336</f>
-        <v>33.388113727634718</v>
+        <v>33.388113740018731</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="12.75" customHeight="1">
@@ -11377,11 +11529,11 @@
         <v>172</v>
       </c>
       <c r="C337" s="20">
-        <v>27.030000690000001</v>
+        <v>27.030000686645508</v>
       </c>
       <c r="D337" s="18">
         <f>SUM(C$3:C337)/A337</f>
-        <v>33.369134285731334</v>
+        <v>33.369134298068367</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="12.75" customHeight="1">
@@ -11393,11 +11545,11 @@
         <v>173</v>
       </c>
       <c r="C338" s="20">
-        <v>26.559999470000001</v>
+        <v>26.559999465942383</v>
       </c>
       <c r="D338" s="18">
         <f>SUM(C$3:C338)/A338</f>
-        <v>33.348869003541658</v>
+        <v>33.348869015829891</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="12.75" customHeight="1">
@@ -11409,11 +11561,11 @@
         <v>174</v>
       </c>
       <c r="C339" s="20">
-        <v>26.969999309999999</v>
+        <v>26.969999313354492</v>
       </c>
       <c r="D339" s="18">
         <f>SUM(C$3:C339)/A339</f>
-        <v>33.32994060682492</v>
+        <v>33.329940619086642</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="12.75" customHeight="1">
@@ -11425,11 +11577,11 @@
         <v>175</v>
       </c>
       <c r="C340" s="20">
-        <v>26.86000061</v>
+        <v>26.860000610351562</v>
       </c>
       <c r="D340" s="18">
         <f>SUM(C$3:C340)/A340</f>
-        <v>33.310798772514786</v>
+        <v>33.310798784741273</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="12.75" customHeight="1">
@@ -11441,11 +11593,11 @@
         <v>176</v>
       </c>
       <c r="C341" s="20">
-        <v>25.950000760000002</v>
+        <v>25.950000762939453</v>
       </c>
       <c r="D341" s="18">
         <f>SUM(C$3:C341)/A341</f>
-        <v>33.289085504041289</v>
+        <v>33.289085516240384</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="12.75" customHeight="1">
@@ -11457,11 +11609,11 @@
         <v>177</v>
       </c>
       <c r="C342" s="20">
-        <v>25.899999619999999</v>
+        <v>25.899999618530273</v>
       </c>
       <c r="D342" s="18">
         <f>SUM(C$3:C342)/A342</f>
-        <v>33.267352898499993</v>
+        <v>33.267352910658886</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="12.75" customHeight="1">
@@ -11473,11 +11625,11 @@
         <v>178</v>
       </c>
       <c r="C343" s="20">
-        <v>25.780000690000001</v>
+        <v>25.780000686645508</v>
       </c>
       <c r="D343" s="18">
         <f>SUM(C$3:C343)/A343</f>
-        <v>33.245395853900284</v>
+        <v>33.245395866013681</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="12.75" customHeight="1">
@@ -11489,11 +11641,11 @@
         <v>179</v>
       </c>
       <c r="C344" s="20">
-        <v>25.620000839999999</v>
+        <v>25.620000839233398</v>
       </c>
       <c r="D344" s="18">
         <f>SUM(C$3:C344)/A344</f>
-        <v>33.223099377251451</v>
+        <v>33.223099389327189</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="12.75" customHeight="1">
@@ -11505,11 +11657,11 @@
         <v>44803</v>
       </c>
       <c r="C345" s="20">
-        <v>25.479999540000001</v>
+        <v>25.479999542236328</v>
       </c>
       <c r="D345" s="18">
         <f>SUM(C$3:C345)/A345</f>
-        <v>33.200524742157427</v>
+        <v>33.20052475420448</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="12.75" customHeight="1">
@@ -11521,11 +11673,11 @@
         <v>44804</v>
       </c>
       <c r="C346" s="20">
-        <v>25.18000031</v>
+        <v>25.180000305175781</v>
       </c>
       <c r="D346" s="18">
         <f>SUM(C$3:C346)/A346</f>
-        <v>33.177209264156971</v>
+        <v>33.177209276154976</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -11537,11 +11689,11 @@
         <v>182</v>
       </c>
       <c r="C347" s="20">
-        <v>24.68000031</v>
+        <v>24.680000305175781</v>
       </c>
       <c r="D347" s="18">
         <f>SUM(C$3:C347)/A347</f>
-        <v>33.152579672985496</v>
+        <v>33.152579684934743</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -11557,7 +11709,7 @@
       </c>
       <c r="D348" s="18">
         <f>SUM(C$3:C348)/A348</f>
-        <v>33.127959789537563</v>
+        <v>33.12795980145227</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -11569,11 +11721,11 @@
         <v>184</v>
       </c>
       <c r="C349" s="20">
-        <v>24.469999309999999</v>
+        <v>24.469999313354492</v>
       </c>
       <c r="D349" s="18">
         <f>SUM(C$3:C349)/A349</f>
-        <v>33.103008894783848</v>
+        <v>33.103008906673892</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -11585,11 +11737,11 @@
         <v>185</v>
       </c>
       <c r="C350" s="20">
-        <v>24.540000920000001</v>
+        <v>24.540000915527344</v>
       </c>
       <c r="D350" s="18">
         <f>SUM(C$3:C350)/A350</f>
-        <v>33.078402550028727</v>
+        <v>33.078402561871748</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -11601,11 +11753,11 @@
         <v>186</v>
       </c>
       <c r="C351" s="20">
-        <v>24.780000690000001</v>
+        <v>24.780000686645508</v>
       </c>
       <c r="D351" s="18">
         <f>SUM(C$3:C351)/A351</f>
-        <v>33.054624894269331</v>
+        <v>33.05462490606881</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -11617,11 +11769,11 @@
         <v>187</v>
       </c>
       <c r="C352" s="20">
-        <v>24.440000529999999</v>
+        <v>24.440000534057617</v>
       </c>
       <c r="D352" s="18">
         <f>SUM(C$3:C352)/A352</f>
-        <v>33.030011681799991</v>
+        <v>33.030011693577343</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -11637,7 +11789,7 @@
       </c>
       <c r="D353" s="18">
         <f>SUM(C$3:C353)/A353</f>
-        <v>33.006479169886028</v>
+        <v>33.006479181629835</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -11653,7 +11805,7 @@
       </c>
       <c r="D354" s="18">
         <f>SUM(C$3:C354)/A354</f>
-        <v>32.983534626789762</v>
+        <v>32.983534638500203</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -11669,7 +11821,7 @@
       </c>
       <c r="D355" s="18">
         <f>SUM(C$3:C355)/A355</f>
-        <v>32.959558608016984</v>
+        <v>32.959558619694256</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -11685,7 +11837,7 @@
       </c>
       <c r="D356" s="18">
         <f>SUM(C$3:C356)/A356</f>
-        <v>32.934079628898296</v>
+        <v>32.934079640542578</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -11701,7 +11853,7 @@
       </c>
       <c r="D357" s="18">
         <f>SUM(C$3:C357)/A357</f>
-        <v>32.907504756704213</v>
+        <v>32.907504768315697</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -11717,7 +11869,7 @@
       </c>
       <c r="D358" s="18">
         <f>SUM(C$3:C358)/A358</f>
-        <v>32.881079181544933</v>
+        <v>32.881079193123796</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -11733,7 +11885,7 @@
       </c>
       <c r="D359" s="18">
         <f>SUM(C$3:C359)/A359</f>
-        <v>32.854801648823518</v>
+        <v>32.854801660369951</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -11749,7 +11901,7 @@
       </c>
       <c r="D360" s="18">
         <f>SUM(C$3:C360)/A360</f>
-        <v>32.828196057625689</v>
+        <v>32.828196069139864</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -11765,7 +11917,7 @@
       </c>
       <c r="D361" s="18">
         <f>SUM(C$3:C361)/A361</f>
-        <v>32.800958742701937</v>
+        <v>32.800958754184045</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -11781,7 +11933,7 @@
       </c>
       <c r="D362" s="18">
         <f>SUM(C$3:C362)/A362</f>
-        <v>32.773483857305543</v>
+        <v>32.773483868755754</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -11797,7 +11949,7 @@
       </c>
       <c r="D363" s="18">
         <f>SUM(C$3:C363)/A363</f>
-        <v>32.746410494819933</v>
+        <v>32.746410506238426</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -11813,7 +11965,7 @@
       </c>
       <c r="D364" s="18">
         <f>SUM(C$3:C364)/A364</f>
-        <v>32.72075742715468</v>
+        <v>32.720757438541632</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -11829,7 +11981,7 @@
       </c>
       <c r="D365" s="18">
         <f>SUM(C$3:C365)/A365</f>
-        <v>32.693785643608805</v>
+        <v>32.69378565496438</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -11841,11 +11993,11 @@
         <v>201</v>
       </c>
       <c r="C366" s="20">
-        <v>23.030000690000001</v>
+        <v>23.03</v>
       </c>
       <c r="D366" s="18">
         <f>SUM(C$3:C366)/A366</f>
-        <v>32.667236783846143</v>
+        <v>32.667236793274924</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -11857,11 +12009,11 @@
         <v>44834</v>
       </c>
       <c r="C367" s="20">
-        <v>22.61</v>
+        <v>22.610000610351563</v>
       </c>
       <c r="D367" s="18">
         <f>SUM(C$3:C367)/A367</f>
-        <v>32.639682710465742</v>
+        <v>32.639682721540886</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -11873,11 +12025,11 @@
         <v>202</v>
       </c>
       <c r="C368" s="20">
-        <v>22.040000920000001</v>
+        <v>22.040000915527344</v>
       </c>
       <c r="D368" s="18">
         <f>SUM(C$3:C368)/A368</f>
-        <v>32.610721831256818</v>
+        <v>32.610721842289479</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -11889,11 +12041,11 @@
         <v>203</v>
       </c>
       <c r="C369" s="20">
-        <v>22.239999770000001</v>
+        <v>22.239999771118164</v>
       </c>
       <c r="D369" s="18">
         <f>SUM(C$3:C369)/A369</f>
-        <v>32.582463732997262</v>
+        <v>32.582463744002908</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -11905,11 +12057,11 @@
         <v>204</v>
       </c>
       <c r="C370" s="20">
-        <v>22.920000080000001</v>
+        <v>22.920000076293945</v>
       </c>
       <c r="D370" s="18">
         <f>SUM(C$3:C370)/A370</f>
-        <v>32.556207038288029</v>
+        <v>32.5562070492537</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -11921,11 +12073,11 @@
         <v>205</v>
       </c>
       <c r="C371" s="20">
-        <v>22.850000380000001</v>
+        <v>22.850000381469727</v>
       </c>
       <c r="D371" s="18">
         <f>SUM(C$3:C371)/A371</f>
-        <v>32.529902955203234</v>
+        <v>32.529902966143176</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -11937,11 +12089,11 @@
         <v>206</v>
       </c>
       <c r="C372" s="20">
-        <v>23.649999619999999</v>
+        <v>23.649999618530273</v>
       </c>
       <c r="D372" s="18">
         <f>SUM(C$3:C372)/A372</f>
-        <v>32.505903216459444</v>
+        <v>32.505903227365842</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -11953,11 +12105,11 @@
         <v>207</v>
       </c>
       <c r="C373" s="20">
-        <v>23.719999309999999</v>
+        <v>23.719999313354492</v>
       </c>
       <c r="D373" s="18">
         <f>SUM(C$3:C373)/A373</f>
-        <v>32.482221534770872</v>
+        <v>32.48222154565692</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -11969,11 +12121,11 @@
         <v>208</v>
       </c>
       <c r="C374" s="20">
-        <v>23.850000380000001</v>
+        <v>23.850000381469727</v>
       </c>
       <c r="D374" s="18">
         <f>SUM(C$3:C374)/A374</f>
-        <v>32.459016639193536</v>
+        <v>32.459016650054267</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -11985,11 +12137,11 @@
         <v>209</v>
       </c>
       <c r="C375" s="20">
-        <v>23.590000150000002</v>
+        <v>23.590000152587891</v>
       </c>
       <c r="D375" s="18">
         <f>SUM(C$3:C375)/A375</f>
-        <v>32.435239115093815</v>
+        <v>32.43523912593237</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -12001,11 +12153,11 @@
         <v>210</v>
       </c>
       <c r="C376" s="20">
-        <v>23.399999619999999</v>
+        <v>23.399999618530273</v>
       </c>
       <c r="D376" s="18">
         <f>SUM(C$3:C376)/A376</f>
-        <v>32.411080720721912</v>
+        <v>32.411080731527555</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -12017,11 +12169,11 @@
         <v>211</v>
       </c>
       <c r="C377" s="20">
-        <v>23.340000150000002</v>
+        <v>23.340000152587891</v>
       </c>
       <c r="D377" s="18">
         <f>SUM(C$3:C377)/A377</f>
-        <v>32.386891172533318</v>
+        <v>32.386891183317047</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -12033,11 +12185,11 @@
         <v>212</v>
       </c>
       <c r="C378" s="20">
-        <v>22.829999919999999</v>
+        <v>22.829999923706055</v>
       </c>
       <c r="D378" s="18">
         <f>SUM(C$3:C378)/A378</f>
-        <v>32.361473908563816</v>
+        <v>32.361473919328724</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -12049,11 +12201,11 @@
         <v>213</v>
       </c>
       <c r="C379" s="20">
-        <v>22.739999770000001</v>
+        <v>22.739999771118164</v>
       </c>
       <c r="D379" s="18">
         <f>SUM(C$3:C379)/A379</f>
-        <v>32.335952757002637</v>
+        <v>32.335952767741958</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -12065,11 +12217,11 @@
         <v>214</v>
       </c>
       <c r="C380" s="20">
-        <v>23.18000031</v>
+        <v>23.180000305175781</v>
       </c>
       <c r="D380" s="18">
         <f>SUM(C$3:C380)/A380</f>
-        <v>32.311730660581993</v>
+        <v>32.311730671280138</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -12081,11 +12233,11 @@
         <v>215</v>
       </c>
       <c r="C381" s="20">
-        <v>22.959999079999999</v>
+        <v>22.959999084472656</v>
       </c>
       <c r="D381" s="18">
         <f>SUM(C$3:C381)/A381</f>
-        <v>32.28705590707122</v>
+        <v>32.287055917752944</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -12097,11 +12249,11 @@
         <v>44862</v>
       </c>
       <c r="C382" s="20">
-        <v>22.13999939</v>
+        <v>22.139999389648438</v>
       </c>
       <c r="D382" s="18">
         <f>SUM(C$3:C382)/A382</f>
-        <v>32.260353126763142</v>
+        <v>32.260353137415827</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -12113,11 +12265,11 @@
         <v>44865</v>
       </c>
       <c r="C383" s="20">
-        <v>22.239999770000001</v>
+        <v>22.239999771118164</v>
       </c>
       <c r="D383" s="18">
         <f>SUM(C$3:C383)/A383</f>
-        <v>32.234052986719142</v>
+        <v>32.234052997346801</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -12129,11 +12281,11 @@
         <v>216</v>
       </c>
       <c r="C384" s="20">
-        <v>22.270000459999999</v>
+        <v>22.270000457763672</v>
       </c>
       <c r="D384" s="18">
         <f>SUM(C$3:C384)/A384</f>
-        <v>32.207969079581133</v>
+        <v>32.207969090175119</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -12145,11 +12297,11 @@
         <v>217</v>
       </c>
       <c r="C385" s="20">
-        <v>22.600000380000001</v>
+        <v>22.600000381469727</v>
       </c>
       <c r="D385" s="18">
         <f>SUM(C$3:C385)/A385</f>
-        <v>32.182882999425566</v>
+        <v>32.182883009995734</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -12161,11 +12313,11 @@
         <v>218</v>
       </c>
       <c r="C386" s="20">
-        <v>22.479999540000001</v>
+        <v>22.479999542236328</v>
       </c>
       <c r="D386" s="18">
         <f>SUM(C$3:C386)/A386</f>
-        <v>32.15761507374998</v>
+        <v>32.157615084298442</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -12177,11 +12329,11 @@
         <v>219</v>
       </c>
       <c r="C387" s="20">
-        <v>23.200000760000002</v>
+        <v>23.200000762939453</v>
       </c>
       <c r="D387" s="18">
         <f>SUM(C$3:C387)/A387</f>
-        <v>32.134348543064917</v>
+        <v>32.134348553593611</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -12193,11 +12345,11 @@
         <v>220</v>
       </c>
       <c r="C388" s="20">
-        <v>23.190000529999999</v>
+        <v>23.190000534057617</v>
       </c>
       <c r="D388" s="18">
         <f>SUM(C$3:C388)/A388</f>
-        <v>32.111176657020707</v>
+        <v>32.111176667532639</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -12209,11 +12361,11 @@
         <v>221</v>
       </c>
       <c r="C389" s="20">
-        <v>23.030000690000001</v>
+        <v>23.030000686645508</v>
       </c>
       <c r="D389" s="18">
         <f>SUM(C$3:C389)/A389</f>
-        <v>32.08771108604649</v>
+        <v>32.087711096522597</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -12225,11 +12377,11 @@
         <v>222</v>
       </c>
       <c r="C390" s="20">
-        <v>22.760000229999999</v>
+        <v>22.760000228881836</v>
       </c>
       <c r="D390" s="18">
         <f>SUM(C$3:C390)/A390</f>
-        <v>32.063670594149464</v>
+        <v>32.063670604595686</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -12241,11 +12393,11 @@
         <v>223</v>
       </c>
       <c r="C391" s="20">
-        <v>22.31999969</v>
+        <v>22.319999694824219</v>
       </c>
       <c r="D391" s="18">
         <f>SUM(C$3:C391)/A391</f>
-        <v>32.038622596966562</v>
+        <v>32.038622607398331</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -12257,11 +12409,11 @@
         <v>224</v>
       </c>
       <c r="C392" s="20">
-        <v>22.870000839999999</v>
+        <v>22.870000839233398</v>
       </c>
       <c r="D392" s="18">
         <f>SUM(C$3:C392)/A392</f>
-        <v>32.015113310410236</v>
+        <v>32.015113320813292</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -12273,11 +12425,11 @@
         <v>225</v>
       </c>
       <c r="C393" s="20">
-        <v>22.88999939</v>
+        <v>22.889999389648437</v>
       </c>
       <c r="D393" s="18">
         <f>SUM(C$3:C393)/A393</f>
-        <v>31.991775423145757</v>
+        <v>31.991775433521308</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -12289,11 +12441,11 @@
         <v>226</v>
       </c>
       <c r="C394" s="20">
-        <v>23.450000760000002</v>
+        <v>23.450000762939453</v>
       </c>
       <c r="D394" s="18">
         <f>SUM(C$3:C394)/A394</f>
-        <v>31.969985181658139</v>
+        <v>31.969985192014722</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -12305,11 +12457,11 @@
         <v>227</v>
       </c>
       <c r="C395" s="20">
-        <v>23.129999160000001</v>
+        <v>23.129999160766602</v>
       </c>
       <c r="D395" s="18">
         <f>SUM(C$3:C395)/A395</f>
-        <v>31.947491578549599</v>
+        <v>31.947491588881778</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -12321,11 +12473,11 @@
         <v>228</v>
       </c>
       <c r="C396" s="20">
-        <v>23.010000229999999</v>
+        <v>23.010000228881836</v>
       </c>
       <c r="D396" s="18">
         <f>SUM(C$3:C396)/A396</f>
-        <v>31.924807590355311</v>
+        <v>31.924807600658426</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -12337,11 +12489,11 @@
         <v>229</v>
       </c>
       <c r="C397" s="20">
-        <v>23.030000690000001</v>
+        <v>23.030000686645508</v>
       </c>
       <c r="D397" s="18">
         <f>SUM(C$3:C397)/A397</f>
-        <v>31.902289091873399</v>
+        <v>31.902289102141939</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -12357,7 +12509,7 @@
       </c>
       <c r="D398" s="18">
         <f>SUM(C$3:C398)/A398</f>
-        <v>31.879808563863616</v>
+        <v>31.879808574106224</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -12369,11 +12521,11 @@
         <v>231</v>
       </c>
       <c r="C399" s="20">
-        <v>22.649999619999999</v>
+        <v>22.649999618530273</v>
       </c>
       <c r="D399" s="18">
         <f>SUM(C$3:C399)/A399</f>
-        <v>31.856559674836252</v>
+        <v>31.856559685049358</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -12385,11 +12537,11 @@
         <v>232</v>
       </c>
       <c r="C400" s="20">
-        <v>22.540000920000001</v>
+        <v>22.540000915527344</v>
       </c>
       <c r="D400" s="18">
         <f>SUM(C$3:C400)/A400</f>
-        <v>31.83315123575375</v>
+        <v>31.833151245929958</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -12401,11 +12553,11 @@
         <v>233</v>
       </c>
       <c r="C401" s="20">
-        <v>22.510000229999999</v>
+        <v>22.510000228881836</v>
       </c>
       <c r="D401" s="18">
         <f>SUM(C$3:C401)/A401</f>
-        <v>31.809784942506248</v>
+        <v>31.809784952654148</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -12417,11 +12569,11 @@
         <v>234</v>
       </c>
       <c r="C402" s="20">
-        <v>22.36000061</v>
+        <v>22.360000610351563</v>
       </c>
       <c r="D402" s="18">
         <f>SUM(C$3:C402)/A402</f>
-        <v>31.786160481674983</v>
+        <v>31.786160491798391</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -12433,11 +12585,11 @@
         <v>235</v>
       </c>
       <c r="C403" s="20">
-        <v>22.200000760000002</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="D403" s="18">
         <f>SUM(C$3:C403)/A403</f>
-        <v>31.762254846458838</v>
+        <v>31.762254856564329</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -12449,11 +12601,11 @@
         <v>236</v>
       </c>
       <c r="C404" s="20">
-        <v>22.700000760000002</v>
+        <v>22.700000762939453</v>
       </c>
       <c r="D404" s="18">
         <f>SUM(C$3:C404)/A404</f>
-        <v>31.739711925845754</v>
+        <v>31.739711935933421</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -12465,11 +12617,11 @@
         <v>44895</v>
       </c>
       <c r="C405" s="20">
-        <v>22.809999470000001</v>
+        <v>22.809999465942383</v>
       </c>
       <c r="D405" s="18">
         <f>SUM(C$3:C405)/A405</f>
-        <v>31.717553830421821</v>
+        <v>31.717553840474388</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -12481,11 +12633,11 @@
         <v>237</v>
       </c>
       <c r="C406" s="20">
-        <v>23.170000080000001</v>
+        <v>23.170000076293945</v>
       </c>
       <c r="D406" s="18">
         <f>SUM(C$3:C406)/A406</f>
-        <v>31.696396519158398</v>
+        <v>31.696396529176912</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -12497,11 +12649,11 @@
         <v>238</v>
       </c>
       <c r="C407" s="20">
-        <v>23.030000690000001</v>
+        <v>23.030000686645508</v>
       </c>
       <c r="D407" s="18">
         <f>SUM(C$3:C407)/A407</f>
-        <v>31.674998010938253</v>
+        <v>31.674998020923745</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -12513,11 +12665,11 @@
         <v>239</v>
       </c>
       <c r="C408" s="20">
-        <v>23.219999309999999</v>
+        <v>23.219999313354492</v>
       </c>
       <c r="D408" s="18">
         <f>SUM(C$3:C408)/A408</f>
-        <v>31.654172890985205</v>
+        <v>31.654172900954364</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -12529,11 +12681,11 @@
         <v>240</v>
       </c>
       <c r="C409" s="20">
-        <v>23.459999079999999</v>
+        <v>23.459999084472656</v>
       </c>
       <c r="D409" s="18">
         <f>SUM(C$3:C409)/A409</f>
-        <v>31.634039785798507</v>
+        <v>31.634039795754163</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -12545,11 +12697,11 @@
         <v>241</v>
       </c>
       <c r="C410" s="20">
-        <v>23.649999619999999</v>
+        <v>23.649999618530273</v>
       </c>
       <c r="D410" s="18">
         <f>SUM(C$3:C410)/A410</f>
-        <v>31.614471059901945</v>
+        <v>31.614471069829595</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -12561,11 +12713,11 @@
         <v>242</v>
       </c>
       <c r="C411" s="20">
-        <v>23.629999160000001</v>
+        <v>23.629999160766602</v>
       </c>
       <c r="D411" s="18">
         <f>SUM(C$3:C411)/A411</f>
-        <v>31.594949123716365</v>
+        <v>31.594949133621618</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -12577,11 +12729,11 @@
         <v>243</v>
       </c>
       <c r="C412" s="20">
-        <v>23.840000150000002</v>
+        <v>23.840000152587891</v>
       </c>
       <c r="D412" s="18">
         <f>SUM(C$3:C412)/A412</f>
-        <v>31.576034614024373</v>
+        <v>31.576034623911777</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -12593,11 +12745,11 @@
         <v>244</v>
       </c>
       <c r="C413" s="20">
-        <v>23.600000380000001</v>
+        <v>23.600000381469727</v>
       </c>
       <c r="D413" s="18">
         <f>SUM(C$3:C413)/A413</f>
-        <v>31.556628204695848</v>
+        <v>31.556628214562771</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -12609,11 +12761,11 @@
         <v>245</v>
       </c>
       <c r="C414" s="20">
-        <v>23.329999919999999</v>
+        <v>23.329999923706055</v>
       </c>
       <c r="D414" s="18">
         <f>SUM(C$3:C414)/A414</f>
-        <v>31.536660660315519</v>
+        <v>31.536660670167489</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -12625,11 +12777,11 @@
         <v>246</v>
       </c>
       <c r="C415" s="20">
-        <v>23.270000459999999</v>
+        <v>23.270000457763672</v>
       </c>
       <c r="D415" s="18">
         <f>SUM(C$3:C415)/A415</f>
-        <v>31.516644533922502</v>
+        <v>31.516644543745201</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -12645,7 +12797,7 @@
       </c>
       <c r="D416" s="18">
         <f>SUM(C$3:C416)/A416</f>
-        <v>31.497280658236697</v>
+        <v>31.497280668035675</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -12657,11 +12809,11 @@
         <v>248</v>
       </c>
       <c r="C417" s="20">
-        <v>23.350000380000001</v>
+        <v>23.350000381469727</v>
       </c>
       <c r="D417" s="18">
         <f>SUM(C$3:C417)/A417</f>
-        <v>31.477648657566249</v>
+        <v>31.477648667345154</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -12673,11 +12825,11 @@
         <v>249</v>
       </c>
       <c r="C418" s="20">
-        <v>23.079999919999999</v>
+        <v>23.079999923706055</v>
       </c>
       <c r="D418" s="18">
         <f>SUM(C$3:C418)/A418</f>
-        <v>31.4574620019471</v>
+        <v>31.457462011711407</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -12689,11 +12841,11 @@
         <v>250</v>
       </c>
       <c r="C419" s="20">
-        <v>22.709999079999999</v>
+        <v>22.709999084472656</v>
       </c>
       <c r="D419" s="18">
         <f>SUM(C$3:C419)/A419</f>
-        <v>31.436484872637873</v>
+        <v>31.43648488238949</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -12705,11 +12857,11 @@
         <v>251</v>
       </c>
       <c r="C420" s="20">
-        <v>22.61000061</v>
+        <v>22.610000610351563</v>
       </c>
       <c r="D420" s="18">
         <f>SUM(C$3:C420)/A420</f>
-        <v>31.415368881578932</v>
+        <v>31.415368891308059</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -12721,11 +12873,11 @@
         <v>252</v>
       </c>
       <c r="C421" s="20">
-        <v>22.549999239999998</v>
+        <v>22.549999237060547</v>
       </c>
       <c r="D421" s="18">
         <f>SUM(C$3:C421)/A421</f>
-        <v>31.3942104814797</v>
+        <v>31.39421049117859</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -12737,11 +12889,11 @@
         <v>253</v>
       </c>
       <c r="C422" s="20">
-        <v>22.450000760000002</v>
+        <v>22.450000762939453</v>
       </c>
       <c r="D422" s="18">
         <f>SUM(C$3:C422)/A422</f>
-        <v>31.372914744047605</v>
+        <v>31.372914753730402</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -12753,11 +12905,11 @@
         <v>254</v>
       </c>
       <c r="C423" s="20">
-        <v>22.790000920000001</v>
+        <v>22.790000915527344</v>
       </c>
       <c r="D423" s="18">
         <f>SUM(C$3:C423)/A423</f>
-        <v>31.352527775344406</v>
+        <v>31.352527784993576</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -12773,7 +12925,7 @@
       </c>
       <c r="D424" s="18">
         <f>SUM(C$3:C424)/A424</f>
-        <v>31.332735055497619</v>
+        <v>31.332735065123924</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -12785,11 +12937,11 @@
         <v>256</v>
       </c>
       <c r="C425" s="20">
-        <v>22.729999540000001</v>
+        <v>22.729999542236328</v>
       </c>
       <c r="D425" s="18">
         <f>SUM(C$3:C425)/A425</f>
-        <v>31.312397619290767</v>
+        <v>31.312397628899603</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -12801,11 +12953,11 @@
         <v>44924</v>
       </c>
       <c r="C426" s="20">
-        <v>22.760000229999999</v>
+        <v>22.760000228881836</v>
       </c>
       <c r="D426" s="18">
         <f>SUM(C$3:C426)/A426</f>
-        <v>31.29222687073112</v>
+        <v>31.292226880314654</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -12817,11 +12969,11 @@
         <v>44925</v>
       </c>
       <c r="C427" s="20">
-        <v>22.739999770000001</v>
+        <v>22.739999771118164</v>
       </c>
       <c r="D427" s="18">
         <f>SUM(C$3:C427)/A427</f>
-        <v>31.272103983435283</v>
+        <v>31.2721039929989</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -12837,7 +12989,7 @@
       </c>
       <c r="D428" s="18">
         <f>SUM(C$3:C428)/A428</f>
-        <v>31.252545055150357</v>
+        <v>31.252545064691525</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -12853,7 +13005,7 @@
       </c>
       <c r="D429" s="18">
         <f>SUM(C$3:C429)/A429</f>
-        <v>31.232820125100137</v>
+        <v>31.232820134618962</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -12869,7 +13021,7 @@
       </c>
       <c r="D430" s="18">
         <f>SUM(C$3:C430)/A430</f>
-        <v>31.214542507628902</v>
+        <v>31.214542517125487</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -12885,7 +13037,7 @@
       </c>
       <c r="D431" s="18">
         <f>SUM(C$3:C431)/A431</f>
-        <v>31.196559891061003</v>
+        <v>31.196559900535451</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -12901,7 +13053,7 @@
       </c>
       <c r="D432" s="18">
         <f>SUM(C$3:C432)/A432</f>
-        <v>31.178846960904366</v>
+        <v>31.178846970356776</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -12917,7 +13069,7 @@
       </c>
       <c r="D433" s="18">
         <f>SUM(C$3:C433)/A433</f>
-        <v>31.161773069335734</v>
+        <v>31.161773078766213</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -12933,7 +13085,7 @@
       </c>
       <c r="D434" s="18">
         <f>SUM(C$3:C434)/A434</f>
-        <v>31.144384704866276</v>
+        <v>31.144384714274928</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -12949,7 +13101,7 @@
       </c>
       <c r="D435" s="18">
         <f>SUM(C$3:C435)/A435</f>
-        <v>31.127376889581701</v>
+        <v>31.127376898968624</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -12965,7 +13117,7 @@
       </c>
       <c r="D436" s="18">
         <f>SUM(C$3:C436)/A436</f>
-        <v>31.111184777811857</v>
+        <v>31.111184787177152</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -12981,7 +13133,7 @@
       </c>
       <c r="D437" s="18">
         <f>SUM(C$3:C437)/A437</f>
-        <v>31.095871711111002</v>
+        <v>31.095871720454767</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -12997,7 +13149,7 @@
       </c>
       <c r="D438" s="18">
         <f>SUM(C$3:C438)/A438</f>
-        <v>31.080789437594152</v>
+        <v>31.080789446916484</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -13013,7 +13165,7 @@
       </c>
       <c r="D439" s="18">
         <f>SUM(C$3:C439)/A439</f>
-        <v>31.065799074319667</v>
+        <v>31.065799083620668</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -13029,7 +13181,7 @@
       </c>
       <c r="D440" s="18">
         <f>SUM(C$3:C440)/A440</f>
-        <v>31.051356610157107</v>
+        <v>31.051356619436874</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -13045,7 +13197,7 @@
       </c>
       <c r="D441" s="18">
         <f>SUM(C$3:C441)/A441</f>
-        <v>31.037184954834895</v>
+        <v>31.037184964093523</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -13061,7 +13213,7 @@
       </c>
       <c r="D442" s="18">
         <f>SUM(C$3:C442)/A442</f>
-        <v>31.023850443747303</v>
+        <v>31.023850452984888</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -13077,7 +13229,7 @@
       </c>
       <c r="D443" s="18">
         <f>SUM(C$3:C443)/A443</f>
-        <v>31.009964160696924</v>
+        <v>31.009964169913562</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -13089,11 +13241,11 @@
         <v>271</v>
       </c>
       <c r="C444" s="20">
-        <v>25.239999770000001</v>
+        <v>25.239999771118164</v>
       </c>
       <c r="D444" s="18">
         <f>SUM(C$3:C444)/A444</f>
-        <v>30.996909942618423</v>
+        <v>30.99690995181674</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -13105,11 +13257,11 @@
         <v>272</v>
       </c>
       <c r="C445" s="20">
-        <v>25.129999160000001</v>
+        <v>25.129999160766602</v>
       </c>
       <c r="D445" s="18">
         <f>SUM(C$3:C445)/A445</f>
-        <v>30.983666351687006</v>
+        <v>30.983666360866287</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -13121,11 +13273,11 @@
         <v>273</v>
       </c>
       <c r="C446" s="20">
-        <v>24.93000031</v>
+        <v>24.930000305175781</v>
       </c>
       <c r="D446" s="18">
         <f>SUM(C$3:C446)/A446</f>
-        <v>30.970031968710234</v>
+        <v>30.970031977857975</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -13137,11 +13289,11 @@
         <v>274</v>
       </c>
       <c r="C447" s="20">
-        <v>24.600000380000001</v>
+        <v>24.600000381469727</v>
       </c>
       <c r="D447" s="18">
         <f>SUM(C$3:C447)/A447</f>
-        <v>30.955717290982793</v>
+        <v>30.955717300113285</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -13153,11 +13305,11 @@
         <v>275</v>
       </c>
       <c r="C448" s="20">
-        <v>24.61000061</v>
+        <v>24.610000610351563</v>
       </c>
       <c r="D448" s="18">
         <f>SUM(C$3:C448)/A448</f>
-        <v>30.94148922667566</v>
+        <v>30.941489235786463</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -13173,7 +13325,7 @@
       </c>
       <c r="D449" s="18">
         <f>SUM(C$3:C449)/A449</f>
-        <v>30.927078736235668</v>
+        <v>30.927078745326092</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -13185,11 +13337,11 @@
         <v>277</v>
       </c>
       <c r="C450" s="20">
-        <v>24.870000839999999</v>
+        <v>24.870000839233398</v>
       </c>
       <c r="D450" s="18">
         <f>SUM(C$3:C450)/A450</f>
-        <v>30.913558473074428</v>
+        <v>30.91355848214285</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -13201,11 +13353,11 @@
         <v>278</v>
       </c>
       <c r="C451" s="20">
-        <v>24.63999939</v>
+        <v>24.639999389648438</v>
       </c>
       <c r="D451" s="18">
         <f>SUM(C$3:C451)/A451</f>
-        <v>30.899586181129941</v>
+        <v>30.899586190177381</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -13217,11 +13369,11 @@
         <v>279</v>
       </c>
       <c r="C452" s="20">
-        <v>24.879999160000001</v>
+        <v>24.879999160766602</v>
       </c>
       <c r="D452" s="18">
         <f>SUM(C$3:C452)/A452</f>
-        <v>30.886209321082987</v>
+        <v>30.886209330112024</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -13233,11 +13385,11 @@
         <v>280</v>
       </c>
       <c r="C453" s="20">
-        <v>24.809999470000001</v>
+        <v>24.809999465942383</v>
       </c>
       <c r="D453" s="18">
         <f>SUM(C$3:C453)/A453</f>
-        <v>30.872736571967504</v>
+        <v>30.872736580967526</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -13249,11 +13401,11 @@
         <v>281</v>
       </c>
       <c r="C454" s="20">
-        <v>24.739999770000001</v>
+        <v>24.739999771118164</v>
       </c>
       <c r="D454" s="18">
         <f>SUM(C$3:C454)/A454</f>
-        <v>30.859168570193237</v>
+        <v>30.859168579175822</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -13265,11 +13417,11 @@
         <v>282</v>
       </c>
       <c r="C455" s="20">
-        <v>24.489999770000001</v>
+        <v>24.489999771118164</v>
       </c>
       <c r="D455" s="18">
         <f>SUM(C$3:C455)/A455</f>
-        <v>30.845108594916873</v>
+        <v>30.845108603882096</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -13281,11 +13433,11 @@
         <v>283</v>
       </c>
       <c r="C456" s="20">
-        <v>23.950000760000002</v>
+        <v>23.950000762939453</v>
       </c>
       <c r="D456" s="18">
         <f>SUM(C$3:C456)/A456</f>
-        <v>30.829921132725424</v>
+        <v>30.829921141677378</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -13297,11 +13449,11 @@
         <v>284</v>
       </c>
       <c r="C457" s="20">
-        <v>24.409999849999998</v>
+        <v>24.409999847412109</v>
       </c>
       <c r="D457" s="18">
         <f>SUM(C$3:C457)/A457</f>
-        <v>30.815811415620537</v>
+        <v>30.815811424547125</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -13313,11 +13465,11 @@
         <v>285</v>
       </c>
       <c r="C458" s="20">
-        <v>24.399999619999999</v>
+        <v>24.399999618530273</v>
       </c>
       <c r="D458" s="18">
         <f>SUM(C$3:C458)/A458</f>
-        <v>30.801741652910842</v>
+        <v>30.801741661814631</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -13329,11 +13481,11 @@
         <v>286</v>
       </c>
       <c r="C459" s="20">
-        <v>24.200000760000002</v>
+        <v>24.200000762939453</v>
       </c>
       <c r="D459" s="18">
         <f>SUM(C$3:C459)/A459</f>
-        <v>30.787295830388061</v>
+        <v>30.787295839278798</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -13345,11 +13497,11 @@
         <v>287</v>
       </c>
       <c r="C460" s="20">
-        <v>24.229999540000001</v>
+        <v>24.229999542236328</v>
       </c>
       <c r="D460" s="18">
         <f>SUM(C$3:C460)/A460</f>
-        <v>30.772978589579356</v>
+        <v>30.772978598455563</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -13361,11 +13513,11 @@
         <v>288</v>
       </c>
       <c r="C461" s="20">
-        <v>24.020000459999999</v>
+        <v>24.020000457763672</v>
       </c>
       <c r="D461" s="18">
         <f>SUM(C$3:C461)/A461</f>
-        <v>30.758266218926675</v>
+        <v>30.758266227778673</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -13377,11 +13529,11 @@
         <v>44984</v>
       </c>
       <c r="C462" s="20">
-        <v>23.780000690000001</v>
+        <v>23.780000686645508</v>
       </c>
       <c r="D462" s="18">
         <f>SUM(C$3:C462)/A462</f>
-        <v>30.743096076472487</v>
+        <v>30.74309608529795</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -13393,11 +13545,11 @@
         <v>44985</v>
       </c>
       <c r="C463" s="20">
-        <v>23.979999540000001</v>
+        <v>23.979999542236328</v>
       </c>
       <c r="D463" s="18">
         <f>SUM(C$3:C463)/A463</f>
-        <v>30.728425585070163</v>
+        <v>30.72842559388133</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -13409,11 +13561,11 @@
         <v>289</v>
       </c>
       <c r="C464" s="20">
-        <v>24.290000920000001</v>
+        <v>24.290000915527344</v>
       </c>
       <c r="D464" s="18">
         <f>SUM(C$3:C464)/A464</f>
-        <v>30.714489600946631</v>
+        <v>30.71448960972905</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -13425,11 +13577,11 @@
         <v>290</v>
       </c>
       <c r="C465" s="20">
-        <v>24.120000839999999</v>
+        <v>24.120000839233398</v>
       </c>
       <c r="D465" s="18">
         <f>SUM(C$3:C465)/A465</f>
-        <v>30.70024664465949</v>
+        <v>30.700246653421281</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -13441,11 +13593,11 @@
         <v>291</v>
       </c>
       <c r="C466" s="20">
-        <v>24.120000839999999</v>
+        <v>24.120000839233398</v>
       </c>
       <c r="D466" s="18">
         <f>SUM(C$3:C466)/A466</f>
-        <v>30.686065080425308</v>
+        <v>30.686065089166568</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -13457,11 +13609,11 @@
         <v>292</v>
       </c>
       <c r="C467" s="20">
-        <v>24.190000529999999</v>
+        <v>24.190000534057617</v>
       </c>
       <c r="D467" s="18">
         <f>SUM(C$3:C467)/A467</f>
-        <v>30.672095049134068</v>
+        <v>30.672095057865256</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -13473,11 +13625,11 @@
         <v>293</v>
       </c>
       <c r="C468" s="20">
-        <v>23.739999770000001</v>
+        <v>23.739999771118164</v>
       </c>
       <c r="D468" s="18">
         <f>SUM(C$3:C468)/A468</f>
-        <v>30.657219308191721</v>
+        <v>30.657219316906573</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -13489,11 +13641,11 @@
         <v>294</v>
       </c>
       <c r="C469" s="20">
-        <v>23.659999849999998</v>
+        <v>23.659999847412109</v>
       </c>
       <c r="D469" s="18">
         <f>SUM(C$3:C469)/A469</f>
-        <v>30.642235968880819</v>
+        <v>30.642235977571467</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -13505,11 +13657,11 @@
         <v>295</v>
       </c>
       <c r="C470" s="20">
-        <v>23.670000080000001</v>
+        <v>23.670000076293945</v>
       </c>
       <c r="D470" s="18">
         <f>SUM(C$3:C470)/A470</f>
-        <v>30.62733802894731</v>
+        <v>30.627338037611473</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -13521,11 +13673,11 @@
         <v>296</v>
       </c>
       <c r="C471" s="20">
-        <v>23.459999079999999</v>
+        <v>23.459999084472656</v>
       </c>
       <c r="D471" s="18">
         <f>SUM(C$3:C471)/A471</f>
-        <v>30.612055856348277</v>
+        <v>30.612055865003502</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -13541,7 +13693,7 @@
       </c>
       <c r="D472" s="18">
         <f>SUM(C$3:C472)/A472</f>
-        <v>30.596923822611366</v>
+        <v>30.596923831248173</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -13553,11 +13705,11 @@
         <v>298</v>
       </c>
       <c r="C473" s="20">
-        <v>23.299999239999998</v>
+        <v>23.299999237060547</v>
       </c>
       <c r="D473" s="18">
         <f>SUM(C$3:C473)/A473</f>
-        <v>30.581431413731085</v>
+        <v>30.581431422343318</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -13569,11 +13721,11 @@
         <v>299</v>
       </c>
       <c r="C474" s="20">
-        <v>23.280000690000001</v>
+        <v>23.280000686645508</v>
       </c>
       <c r="D474" s="18">
         <f>SUM(C$3:C474)/A474</f>
-        <v>30.565962280841823</v>
+        <v>30.565962289428704</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -13585,11 +13737,11 @@
         <v>300</v>
       </c>
       <c r="C475" s="20">
-        <v>22.920000080000001</v>
+        <v>22.920000076293945</v>
       </c>
       <c r="D475" s="18">
         <f>SUM(C$3:C475)/A475</f>
-        <v>30.549797455892897</v>
+        <v>30.549797464453789</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -13601,11 +13753,11 @@
         <v>301</v>
       </c>
       <c r="C476" s="20">
-        <v>22.940000529999999</v>
+        <v>22.940000534057617</v>
       </c>
       <c r="D476" s="18">
         <f>SUM(C$3:C476)/A476</f>
-        <v>30.533743031998608</v>
+        <v>30.53374304055</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -13617,11 +13769,11 @@
         <v>302</v>
       </c>
       <c r="C477" s="20">
-        <v>22.959999079999999</v>
+        <v>22.959999084472656</v>
       </c>
       <c r="D477" s="18">
         <f>SUM(C$3:C477)/A477</f>
-        <v>30.517798307889137</v>
+        <v>30.517798316431939</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -13633,11 +13785,11 @@
         <v>303</v>
       </c>
       <c r="C478" s="20">
-        <v>23.350000380000001</v>
+        <v>23.350000381469727</v>
       </c>
       <c r="D478" s="18">
         <f>SUM(C$3:C478)/A478</f>
-        <v>30.502739908880965</v>
+        <v>30.50273991740891</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -13649,11 +13801,11 @@
         <v>304</v>
       </c>
       <c r="C479" s="20">
-        <v>23.579999919999999</v>
+        <v>23.579999923706055</v>
       </c>
       <c r="D479" s="18">
         <f>SUM(C$3:C479)/A479</f>
-        <v>30.488226827143272</v>
+        <v>30.488226835661106</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -13665,11 +13817,11 @@
         <v>305</v>
       </c>
       <c r="C480" s="20">
-        <v>23.879999160000001</v>
+        <v>23.879999160766602</v>
       </c>
       <c r="D480" s="18">
         <f>SUM(C$3:C480)/A480</f>
-        <v>30.474402083069752</v>
+        <v>30.47440209157137</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -13681,11 +13833,11 @@
         <v>306</v>
       </c>
       <c r="C481" s="20">
-        <v>23.899999619999999</v>
+        <v>23.899999618530273</v>
       </c>
       <c r="D481" s="18">
         <f>SUM(C$3:C481)/A481</f>
-        <v>30.460676816967307</v>
+        <v>30.460676825448111</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -13697,11 +13849,11 @@
         <v>307</v>
       </c>
       <c r="C482" s="20">
-        <v>23.940000529999999</v>
+        <v>23.940000534057617</v>
       </c>
       <c r="D482" s="18">
         <f>SUM(C$3:C482)/A482</f>
-        <v>30.447092074702791</v>
+        <v>30.447092083174379</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -13713,11 +13865,11 @@
         <v>308</v>
       </c>
       <c r="C483" s="20">
-        <v>23.68000031</v>
+        <v>23.680000305175781</v>
       </c>
       <c r="D483" s="18">
         <f>SUM(C$3:C483)/A483</f>
-        <v>30.433023276855177</v>
+        <v>30.433023285299122</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -13729,11 +13881,11 @@
         <v>309</v>
       </c>
       <c r="C484" s="20">
-        <v>23.829999919999999</v>
+        <v>23.829999923706055</v>
       </c>
       <c r="D484" s="18">
         <f>SUM(C$3:C484)/A484</f>
-        <v>30.41932405827249</v>
+        <v>30.419324066706604</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -13745,11 +13897,11 @@
         <v>45015</v>
       </c>
       <c r="C485" s="20">
-        <v>23.979999540000001</v>
+        <v>23.979999542236328</v>
       </c>
       <c r="D485" s="18">
         <f>SUM(C$3:C485)/A485</f>
-        <v>30.405992123452055</v>
+        <v>30.405992131873333</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -13761,11 +13913,11 @@
         <v>45016</v>
       </c>
       <c r="C486" s="20">
-        <v>24.159999849999998</v>
+        <v>24.159999847412109</v>
       </c>
       <c r="D486" s="18">
         <f>SUM(C$3:C486)/A486</f>
-        <v>30.393087180738309</v>
+        <v>30.393087189136843</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -13777,11 +13929,11 @@
         <v>310</v>
       </c>
       <c r="C487" s="20">
-        <v>24.370000839999999</v>
+        <v>24.370000839233398</v>
       </c>
       <c r="D487" s="18">
         <f>SUM(C$3:C487)/A487</f>
-        <v>30.380668446015136</v>
+        <v>30.380668454394776</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -13797,7 +13949,7 @@
       </c>
       <c r="D488" s="18">
         <f>SUM(C$3:C488)/A488</f>
-        <v>30.368053901887535</v>
+        <v>30.36805391024993</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -13809,11 +13961,11 @@
         <v>312</v>
       </c>
       <c r="C489" s="20">
-        <v>24.329999919999999</v>
+        <v>24.329999923706055</v>
       </c>
       <c r="D489" s="18">
         <f>SUM(C$3:C489)/A489</f>
-        <v>30.355655433752244</v>
+        <v>30.355655442105075</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -13825,11 +13977,11 @@
         <v>313</v>
       </c>
       <c r="C490" s="20">
-        <v>24.620000839999999</v>
+        <v>24.620000839233398</v>
       </c>
       <c r="D490" s="18">
         <f>SUM(C$3:C490)/A490</f>
-        <v>30.343902043191274</v>
+        <v>30.343902051525422</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -13841,11 +13993,11 @@
         <v>314</v>
       </c>
       <c r="C491" s="20">
-        <v>24.510000229999999</v>
+        <v>24.510000228881836</v>
       </c>
       <c r="D491" s="18">
         <f>SUM(C$3:C491)/A491</f>
-        <v>30.331971773634645</v>
+        <v>30.331971781949463</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -13861,7 +14013,7 @@
       </c>
       <c r="D492" s="18">
         <f>SUM(C$3:C492)/A492</f>
-        <v>30.320069790423148</v>
+        <v>30.320069798720994</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -13873,11 +14025,11 @@
         <v>316</v>
       </c>
       <c r="C493" s="20">
-        <v>24.489999770000001</v>
+        <v>24.489999771118164</v>
       </c>
       <c r="D493" s="18">
         <f>SUM(C$3:C493)/A493</f>
-        <v>30.308195920727783</v>
+        <v>30.30819592901101</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -13889,11 +14041,11 @@
         <v>317</v>
       </c>
       <c r="C494" s="20">
-        <v>24.100000380000001</v>
+        <v>24.100000381469727</v>
       </c>
       <c r="D494" s="18">
         <f>SUM(C$3:C494)/A494</f>
-        <v>30.295577637108419</v>
+        <v>30.295577645377794</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -13905,11 +14057,11 @@
         <v>318</v>
       </c>
       <c r="C495" s="20">
-        <v>24.309999470000001</v>
+        <v>24.309999465942383</v>
       </c>
       <c r="D495" s="18">
         <f>SUM(C$3:C495)/A495</f>
-        <v>30.283436504923614</v>
+        <v>30.283436513167988</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -13921,11 +14073,11 @@
         <v>319</v>
       </c>
       <c r="C496" s="20">
-        <v>24.450000760000002</v>
+        <v>24.450000762939453</v>
       </c>
       <c r="D496" s="18">
         <f>SUM(C$3:C496)/A496</f>
-        <v>30.271627930541179</v>
+        <v>30.271627938774813</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -13937,11 +14089,11 @@
         <v>320</v>
       </c>
       <c r="C497" s="20">
-        <v>24.520000459999999</v>
+        <v>24.520000457763672</v>
       </c>
       <c r="D497" s="18">
         <f>SUM(C$3:C497)/A497</f>
-        <v>30.260008481105739</v>
+        <v>30.260008489318224</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -13953,11 +14105,11 @@
         <v>321</v>
       </c>
       <c r="C498" s="20">
-        <v>24.31999969</v>
+        <v>24.319999694824219</v>
       </c>
       <c r="D498" s="18">
         <f>SUM(C$3:C498)/A498</f>
-        <v>30.248032656930125</v>
+        <v>30.248032665135774</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -13969,11 +14121,11 @@
         <v>322</v>
       </c>
       <c r="C499" s="20">
-        <v>24.13999939</v>
+        <v>24.139999389648438</v>
       </c>
       <c r="D499" s="18">
         <f>SUM(C$3:C499)/A499</f>
-        <v>30.235742851564066</v>
+        <v>30.235742859752502</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -13985,11 +14137,11 @@
         <v>323</v>
       </c>
       <c r="C500" s="20">
-        <v>23.690000529999999</v>
+        <v>23.690000534057617</v>
       </c>
       <c r="D500" s="18">
         <f>SUM(C$3:C500)/A500</f>
-        <v>30.222598790677392</v>
+        <v>30.222598798857533</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -14001,11 +14153,11 @@
         <v>324</v>
       </c>
       <c r="C501" s="20">
-        <v>23.459999079999999</v>
+        <v>23.459999084472656</v>
       </c>
       <c r="D501" s="18">
         <f>SUM(C$3:C501)/A501</f>
-        <v>30.209046486647978</v>
+        <v>30.20904649482069</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -14017,11 +14169,11 @@
         <v>325</v>
       </c>
       <c r="C502" s="20">
-        <v>23.049999239999998</v>
+        <v>23.049999237060547</v>
       </c>
       <c r="D502" s="18">
         <f>SUM(C$3:C502)/A502</f>
-        <v>30.19472839215468</v>
+        <v>30.19472840030517</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -14033,11 +14185,11 @@
         <v>326</v>
       </c>
       <c r="C503" s="20">
-        <v>23.239999770000001</v>
+        <v>23.239999771118164</v>
       </c>
       <c r="D503" s="18">
         <f>SUM(C$3:C503)/A503</f>
-        <v>30.180846698298083</v>
+        <v>30.180846706434536</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -14049,11 +14201,11 @@
         <v>45043</v>
       </c>
       <c r="C504" s="20">
-        <v>23.469999309999999</v>
+        <v>23.469999313354492</v>
       </c>
       <c r="D504" s="18">
         <f>SUM(C$3:C504)/A504</f>
-        <v>30.167478476409045</v>
+        <v>30.16747848453597</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -14065,11 +14217,11 @@
         <v>45044</v>
       </c>
       <c r="C505" s="20">
-        <v>23.579999919999999</v>
+        <v>23.579999923706055</v>
       </c>
       <c r="D505" s="18">
         <f>SUM(C$3:C505)/A505</f>
-        <v>30.154382097569265</v>
+        <v>30.1543821056874</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -14081,11 +14233,11 @@
         <v>327</v>
       </c>
       <c r="C506" s="20">
-        <v>22.129999160000001</v>
+        <v>22.129999160766602</v>
       </c>
       <c r="D506" s="18">
         <f>SUM(C$3:C506)/A506</f>
-        <v>30.138460702851869</v>
+        <v>30.138460710955414</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -14097,11 +14249,11 @@
         <v>328</v>
       </c>
       <c r="C507" s="20">
-        <v>21.88999939</v>
+        <v>21.889999389648437</v>
       </c>
       <c r="D507" s="18">
         <f>SUM(C$3:C507)/A507</f>
-        <v>30.122127116093743</v>
+        <v>30.122127124180551</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -14113,11 +14265,11 @@
         <v>329</v>
       </c>
       <c r="C508" s="20">
-        <v>21.920000080000001</v>
+        <v>21.920000076293945</v>
       </c>
       <c r="D508" s="18">
         <f>SUM(C$3:C508)/A508</f>
-        <v>30.105917378868263</v>
+        <v>30.105917386931761</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -14129,11 +14281,11 @@
         <v>330</v>
       </c>
       <c r="C509" s="20">
-        <v>21.690000529999999</v>
+        <v>21.690000534057617</v>
       </c>
       <c r="D509" s="18">
         <f>SUM(C$3:C509)/A509</f>
-        <v>30.089317937351755</v>
+        <v>30.089317945407355</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -14145,11 +14297,11 @@
         <v>331</v>
       </c>
       <c r="C510" s="20">
-        <v>21.81999969</v>
+        <v>21.819999694824219</v>
       </c>
       <c r="D510" s="18">
         <f>SUM(C$3:C510)/A510</f>
-        <v>30.073039751825473</v>
+        <v>30.07303975987471</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -14161,11 +14313,11 @@
         <v>332</v>
       </c>
       <c r="C511" s="20">
-        <v>21.86000061</v>
+        <v>21.860000610351563</v>
       </c>
       <c r="D511" s="18">
         <f>SUM(C$3:C511)/A511</f>
-        <v>30.056904115004599</v>
+        <v>30.056904123038713</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -14177,11 +14329,11 @@
         <v>333</v>
       </c>
       <c r="C512" s="20">
-        <v>21.63999939</v>
+        <v>21.639999389648438</v>
       </c>
       <c r="D512" s="18">
         <f>SUM(C$3:C512)/A512</f>
-        <v>30.040400380249686</v>
+        <v>30.040400388267361</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -14193,11 +14345,11 @@
         <v>334</v>
       </c>
       <c r="C513" s="20">
-        <v>22.020000459999999</v>
+        <v>22.020000457763672</v>
       </c>
       <c r="D513" s="18">
         <f>SUM(C$3:C513)/A513</f>
-        <v>30.024704881384224</v>
+        <v>30.024704889381834</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -14209,11 +14361,11 @@
         <v>335</v>
       </c>
       <c r="C514" s="20">
-        <v>21.93000031</v>
+        <v>21.930000305175781</v>
       </c>
       <c r="D514" s="18">
         <f>SUM(C$3:C514)/A514</f>
-        <v>30.00889491151824</v>
+        <v>30.008894919490807</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -14225,11 +14377,11 @@
         <v>336</v>
       </c>
       <c r="C515" s="20">
-        <v>21.950000760000002</v>
+        <v>21.950000762939453</v>
       </c>
       <c r="D515" s="18">
         <f>SUM(C$3:C515)/A515</f>
-        <v>29.993185566193642</v>
+        <v>29.993185574156399</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -14241,11 +14393,11 @@
         <v>337</v>
       </c>
       <c r="C516" s="20">
-        <v>21.93000031</v>
+        <v>21.930000305175781</v>
       </c>
       <c r="D516" s="18">
         <f>SUM(C$3:C516)/A516</f>
-        <v>29.977498435345016</v>
+        <v>29.977498443282897</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -14257,11 +14409,11 @@
         <v>338</v>
       </c>
       <c r="C517" s="20">
-        <v>21.989999770000001</v>
+        <v>21.989999771118164</v>
       </c>
       <c r="D517" s="18">
         <f>SUM(C$3:C517)/A517</f>
-        <v>29.961988729198715</v>
+        <v>29.961988737123352</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -14273,11 +14425,11 @@
         <v>339</v>
       </c>
       <c r="C518" s="20">
-        <v>22.020000459999999</v>
+        <v>22.020000457763672</v>
       </c>
       <c r="D518" s="18">
         <f>SUM(C$3:C518)/A518</f>
-        <v>29.946597279064608</v>
+        <v>29.946597286969556</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -14293,7 +14445,7 @@
       </c>
       <c r="D519" s="18">
         <f>SUM(C$3:C519)/A519</f>
-        <v>29.930897864598332</v>
+        <v>29.930897872487989</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -14305,11 +14457,11 @@
         <v>341</v>
       </c>
       <c r="C520" s="20">
-        <v>21.659999849999998</v>
+        <v>21.659999847412109</v>
       </c>
       <c r="D520" s="18">
         <f>SUM(C$3:C520)/A520</f>
-        <v>29.914930880014165</v>
+        <v>29.914930887883596</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -14321,11 +14473,11 @@
         <v>342</v>
       </c>
       <c r="C521" s="20">
-        <v>21.649999619999999</v>
+        <v>21.649999618530273</v>
       </c>
       <c r="D521" s="18">
         <f>SUM(C$3:C521)/A521</f>
-        <v>29.899006156969822</v>
+        <v>29.899006164821259</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -14337,11 +14489,11 @@
         <v>343</v>
       </c>
       <c r="C522" s="20">
-        <v>21.590000150000002</v>
+        <v>21.590000152587891</v>
       </c>
       <c r="D522" s="18">
         <f>SUM(C$3:C522)/A522</f>
-        <v>29.883027299264111</v>
+        <v>29.883027307105422</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -14353,11 +14505,11 @@
         <v>344</v>
       </c>
       <c r="C523" s="20">
-        <v>21.329999919999999</v>
+        <v>21.329999923706055</v>
       </c>
       <c r="D523" s="18">
         <f>SUM(C$3:C523)/A523</f>
-        <v>29.86661073999489</v>
+        <v>29.866610747828265</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -14369,11 +14521,11 @@
         <v>45076</v>
       </c>
       <c r="C524" s="20">
-        <v>21.520000459999999</v>
+        <v>21.520000457763672</v>
       </c>
       <c r="D524" s="18">
         <f>SUM(C$3:C524)/A524</f>
-        <v>29.850621065128998</v>
+        <v>29.850621072943085</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -14385,11 +14537,11 @@
         <v>45077</v>
       </c>
       <c r="C525" s="20">
-        <v>21.329999919999999</v>
+        <v>21.329999923706055</v>
       </c>
       <c r="D525" s="18">
         <f>SUM(C$3:C525)/A525</f>
-        <v>29.834329246495866</v>
+        <v>29.834329254302094</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -14401,11 +14553,11 @@
         <v>345</v>
       </c>
       <c r="C526" s="20">
-        <v>21.420000080000001</v>
+        <v>21.420000076293945</v>
       </c>
       <c r="D526" s="18">
         <f>SUM(C$3:C526)/A526</f>
-        <v>29.818271366407131</v>
+        <v>29.818271374191394</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -14417,11 +14569,11 @@
         <v>346</v>
       </c>
       <c r="C527" s="20">
-        <v>21.729999540000001</v>
+        <v>21.729999542236328</v>
       </c>
       <c r="D527" s="18">
         <f>SUM(C$3:C527)/A527</f>
-        <v>29.802865134356836</v>
+        <v>29.802865142130525</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -14433,11 +14585,11 @@
         <v>347</v>
       </c>
       <c r="C528" s="20">
-        <v>21.629999160000001</v>
+        <v>21.629999160766602</v>
       </c>
       <c r="D528" s="18">
         <f>SUM(C$3:C528)/A528</f>
-        <v>29.787327366344751</v>
+        <v>29.787327374105121</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -14449,11 +14601,11 @@
         <v>348</v>
       </c>
       <c r="C529" s="20">
-        <v>21.299999239999998</v>
+        <v>21.299999237060547</v>
       </c>
       <c r="D529" s="18">
         <f>SUM(C$3:C529)/A529</f>
-        <v>29.771222379387741</v>
+        <v>29.771222387127807</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -14465,11 +14617,11 @@
         <v>349</v>
       </c>
       <c r="C530" s="20">
-        <v>21.06999969</v>
+        <v>21.069999694824219</v>
       </c>
       <c r="D530" s="18">
         <f>SUM(C$3:C530)/A530</f>
-        <v>29.754742790960869</v>
+        <v>29.754742798695414</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -14481,11 +14633,11 @@
         <v>350</v>
       </c>
       <c r="C531" s="20">
-        <v>21.079999919999999</v>
+        <v>21.079999923706055</v>
       </c>
       <c r="D531" s="18">
         <f>SUM(C$3:C531)/A531</f>
-        <v>29.738344411242608</v>
+        <v>29.738344418969536</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -14497,11 +14649,11 @@
         <v>351</v>
       </c>
       <c r="C532" s="20">
-        <v>21.229999540000001</v>
+        <v>21.229999542236328</v>
       </c>
       <c r="D532" s="18">
         <f>SUM(C$3:C532)/A532</f>
-        <v>29.722290930353473</v>
+        <v>29.722290938070039</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -14513,11 +14665,11 @@
         <v>352</v>
       </c>
       <c r="C533" s="20">
-        <v>21.420000080000001</v>
+        <v>21.420000076293945</v>
       </c>
       <c r="D533" s="18">
         <f>SUM(C$3:C533)/A533</f>
-        <v>29.706655731011939</v>
+        <v>29.706655738706996</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -14529,11 +14681,11 @@
         <v>353</v>
       </c>
       <c r="C534" s="20">
-        <v>21.649999619999999</v>
+        <v>21.649999618530273</v>
       </c>
       <c r="D534" s="18">
         <f>SUM(C$3:C534)/A534</f>
-        <v>29.691511640577708</v>
+        <v>29.691511648255535</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -14545,11 +14697,11 @@
         <v>354</v>
       </c>
       <c r="C535" s="20">
-        <v>21.670000080000001</v>
+        <v>21.670000076293945</v>
       </c>
       <c r="D535" s="18">
         <f>SUM(C$3:C535)/A535</f>
-        <v>29.676461900313956</v>
+        <v>29.676461907970427</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -14561,11 +14713,11 @@
         <v>355</v>
       </c>
       <c r="C536" s="20">
-        <v>22.270000459999999</v>
+        <v>22.270000457763672</v>
       </c>
       <c r="D536" s="18">
         <f>SUM(C$3:C536)/A536</f>
-        <v>29.662592122335841</v>
+        <v>29.662592129973788</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -14577,11 +14729,11 @@
         <v>356</v>
       </c>
       <c r="C537" s="20">
-        <v>22.579999919999999</v>
+        <v>22.579999923706055</v>
       </c>
       <c r="D537" s="18">
         <f>SUM(C$3:C537)/A537</f>
-        <v>29.649353632238018</v>
+        <v>29.649353639868615</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -14593,11 +14745,11 @@
         <v>357</v>
       </c>
       <c r="C538" s="20">
-        <v>22.559999470000001</v>
+        <v>22.559999465942383</v>
       </c>
       <c r="D538" s="18">
         <f>SUM(C$3:C538)/A538</f>
-        <v>29.636127225218917</v>
+        <v>29.636127232827707</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -14609,11 +14761,11 @@
         <v>358</v>
       </c>
       <c r="C539" s="20">
-        <v>22.760000229999999</v>
+        <v>22.760000228881836</v>
       </c>
       <c r="D539" s="18">
         <f>SUM(C$3:C539)/A539</f>
-        <v>29.623322519455009</v>
+        <v>29.623322527047545</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -14625,11 +14777,11 @@
         <v>359</v>
       </c>
       <c r="C540" s="20">
-        <v>22.31999969</v>
+        <v>22.319999694824219</v>
       </c>
       <c r="D540" s="18">
         <f>SUM(C$3:C540)/A540</f>
-        <v>29.609747569957882</v>
+        <v>29.609747577545271</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -14641,11 +14793,11 @@
         <v>360</v>
       </c>
       <c r="C541" s="20">
-        <v>22.010000229999999</v>
+        <v>22.010000228881836</v>
       </c>
       <c r="D541" s="18">
         <f>SUM(C$3:C541)/A541</f>
-        <v>29.595647853186161</v>
+        <v>29.595647860757399</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -14657,11 +14809,11 @@
         <v>361</v>
       </c>
       <c r="C542" s="20">
-        <v>22.190000529999999</v>
+        <v>22.190000534057617</v>
       </c>
       <c r="D542" s="18">
         <f>SUM(C$3:C542)/A542</f>
-        <v>29.581933691476557</v>
+        <v>29.58193369904129</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -14673,11 +14825,11 @@
         <v>362</v>
       </c>
       <c r="C543" s="20">
-        <v>22.049999239999998</v>
+        <v>22.049999237060547</v>
       </c>
       <c r="D543" s="18">
         <f>SUM(C$3:C543)/A543</f>
-        <v>29.568011446649429</v>
+        <v>29.568011454194743</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -14689,11 +14841,11 @@
         <v>45106</v>
       </c>
       <c r="C544" s="20">
-        <v>21.989999770000001</v>
+        <v>21.989999771118164</v>
       </c>
       <c r="D544" s="18">
         <f>SUM(C$3:C544)/A544</f>
-        <v>29.554029875290293</v>
+        <v>29.554029882823755</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -14705,11 +14857,11 @@
         <v>45107</v>
       </c>
       <c r="C545" s="20">
-        <v>22.200000760000002</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="D545" s="18">
         <f>SUM(C$3:C545)/A545</f>
-        <v>29.540486543586262</v>
+        <v>29.540486551111261</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -14721,11 +14873,11 @@
         <v>363</v>
       </c>
       <c r="C546" s="20">
-        <v>22.340000150000002</v>
+        <v>22.340000152587891</v>
       </c>
       <c r="D546" s="18">
         <f>SUM(C$3:C546)/A546</f>
-        <v>29.527250355362757</v>
+        <v>29.527250362878679</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -14737,11 +14889,11 @@
         <v>364</v>
       </c>
       <c r="C547" s="20">
-        <v>22.469999309999999</v>
+        <v>22.469999313354492</v>
       </c>
       <c r="D547" s="18">
         <f>SUM(C$3:C547)/A547</f>
-        <v>29.514301270875851</v>
+        <v>29.514301278384142</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -14757,7 +14909,7 @@
       </c>
       <c r="D548" s="18">
         <f>SUM(C$3:C548)/A548</f>
-        <v>29.500996689793663</v>
+        <v>29.500996697288198</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -14769,11 +14921,11 @@
         <v>366</v>
       </c>
       <c r="C549" s="20">
-        <v>22.120000839999999</v>
+        <v>22.120000839233398</v>
       </c>
       <c r="D549" s="18">
         <f>SUM(C$3:C549)/A549</f>
-        <v>29.487503095918353</v>
+        <v>29.487503103397788</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -14785,11 +14937,11 @@
         <v>367</v>
       </c>
       <c r="C550" s="20">
-        <v>21.879999160000001</v>
+        <v>21.879999160766602</v>
       </c>
       <c r="D550" s="18">
         <f>SUM(C$3:C550)/A550</f>
-        <v>29.473620789465947</v>
+        <v>29.473620796933133</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -14801,11 +14953,11 @@
         <v>368</v>
       </c>
       <c r="C551" s="20">
-        <v>22.040000920000001</v>
+        <v>22.040000915527344</v>
       </c>
       <c r="D551" s="18">
         <f>SUM(C$3:C551)/A551</f>
-        <v>29.460080498264738</v>
+        <v>29.46008050571017</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -14817,11 +14969,11 @@
         <v>369</v>
       </c>
       <c r="C552" s="20">
-        <v>22.280000690000001</v>
+        <v>22.280000686645508</v>
       </c>
       <c r="D552" s="18">
         <f>SUM(C$3:C552)/A552</f>
-        <v>29.447025807704254</v>
+        <v>29.447025815130054</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -14833,11 +14985,11 @@
         <v>370</v>
       </c>
       <c r="C553" s="20">
-        <v>22.040000920000001</v>
+        <v>22.040000915527344</v>
       </c>
       <c r="D553" s="18">
         <f>SUM(C$3:C553)/A553</f>
-        <v>29.433582931320036</v>
+        <v>29.433582938724239</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -14849,11 +15001,11 @@
         <v>371</v>
       </c>
       <c r="C554" s="20">
-        <v>22.370000839999999</v>
+        <v>22.370000839233398</v>
       </c>
       <c r="D554" s="18">
         <f>SUM(C$3:C554)/A554</f>
-        <v>29.420786586951703</v>
+        <v>29.420786594341106</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -14865,11 +15017,11 @@
         <v>372</v>
       </c>
       <c r="C555" s="20">
-        <v>22.31999969</v>
+        <v>22.319999694824219</v>
       </c>
       <c r="D555" s="18">
         <f>SUM(C$3:C555)/A555</f>
-        <v>29.40794610431707</v>
+        <v>29.407946111701833</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -14881,11 +15033,11 @@
         <v>373</v>
       </c>
       <c r="C556" s="20">
-        <v>22.190000529999999</v>
+        <v>22.190000534057617</v>
       </c>
       <c r="D556" s="18">
         <f>SUM(C$3:C556)/A556</f>
-        <v>29.394917321691949</v>
+        <v>29.394917329070708</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -14897,11 +15049,11 @@
         <v>374</v>
       </c>
       <c r="C557" s="20">
-        <v>22.090000150000002</v>
+        <v>22.090000152587891</v>
       </c>
       <c r="D557" s="18">
         <f>SUM(C$3:C557)/A557</f>
-        <v>29.381755308769979</v>
+        <v>29.381755316140108</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -14913,11 +15065,11 @@
         <v>375</v>
       </c>
       <c r="C558" s="20">
-        <v>21.969999309999999</v>
+        <v>21.969999313354492</v>
       </c>
       <c r="D558" s="18">
         <f>SUM(C$3:C558)/A558</f>
-        <v>29.368424812369312</v>
+        <v>29.368424819732219</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -14929,11 +15081,11 @@
         <v>376</v>
       </c>
       <c r="C559" s="20">
-        <v>21.719999309999999</v>
+        <v>21.719999313354492</v>
       </c>
       <c r="D559" s="18">
         <f>SUM(C$3:C559)/A559</f>
-        <v>29.354693348271702</v>
+        <v>29.354693355627411</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -14945,11 +15097,11 @@
         <v>377</v>
       </c>
       <c r="C560" s="20">
-        <v>21.649999619999999</v>
+        <v>21.649999618530273</v>
       </c>
       <c r="D560" s="18">
         <f>SUM(C$3:C560)/A560</f>
-        <v>29.340885653418169</v>
+        <v>29.340885660758062</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -14961,11 +15113,11 @@
         <v>378</v>
       </c>
       <c r="C561" s="20">
-        <v>21.510000229999999</v>
+        <v>21.510000228881836</v>
       </c>
       <c r="D561" s="18">
         <f>SUM(C$3:C561)/A561</f>
-        <v>29.326876913841392</v>
+        <v>29.326876921166154</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -14977,11 +15129,11 @@
         <v>379</v>
       </c>
       <c r="C562" s="20">
-        <v>22.06999969</v>
+        <v>22.069999694824219</v>
       </c>
       <c r="D562" s="18">
         <f>SUM(C$3:C562)/A562</f>
-        <v>29.313918204513104</v>
+        <